--- a/lai/valuationquan/szseinnovation100index.xlsx
+++ b/lai/valuationquan/szseinnovation100index.xlsx
@@ -40,11 +40,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>transaction amount</t>
+    <t>turnover</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>turnover</t>
+    <t>transaction amount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -400,10 +400,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H643"/>
+  <dimension ref="A1:H659"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A639" workbookViewId="0">
+      <selection activeCell="A660" sqref="A660"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -430,10 +430,10 @@
         <v>5</v>
       </c>
       <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
         <v>7</v>
-      </c>
-      <c r="H2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -17193,7 +17193,7 @@
         <v>3668.27001953125</v>
       </c>
       <c r="F623">
-        <f t="shared" ref="F623:F643" si="7">E623/1000</f>
+        <f t="shared" ref="F623:F659" si="7">E623/1000</f>
         <v>3.6682700195312501</v>
       </c>
       <c r="G623">
@@ -17741,6 +17741,438 @@
       </c>
       <c r="H643">
         <v>17115346</v>
+      </c>
+    </row>
+    <row r="644" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A644" s="1">
+        <v>44844</v>
+      </c>
+      <c r="B644">
+        <v>3343.81005859375</v>
+      </c>
+      <c r="C644">
+        <v>3346.669921875</v>
+      </c>
+      <c r="D644">
+        <v>3256.929931640625</v>
+      </c>
+      <c r="E644">
+        <v>3261.929931640625</v>
+      </c>
+      <c r="F644">
+        <f t="shared" si="7"/>
+        <v>3.2619299316406249</v>
+      </c>
+      <c r="G644">
+        <v>18645236</v>
+      </c>
+      <c r="H644">
+        <v>18645236</v>
+      </c>
+    </row>
+    <row r="645" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A645" s="1">
+        <v>44845</v>
+      </c>
+      <c r="B645">
+        <v>3279.3798828125</v>
+      </c>
+      <c r="C645">
+        <v>3299.820068359375</v>
+      </c>
+      <c r="D645">
+        <v>3265.889892578125</v>
+      </c>
+      <c r="E645">
+        <v>3289.3798828125</v>
+      </c>
+      <c r="F645">
+        <f t="shared" si="7"/>
+        <v>3.2893798828124998</v>
+      </c>
+      <c r="G645">
+        <v>16769012</v>
+      </c>
+      <c r="H645">
+        <v>16769012</v>
+      </c>
+    </row>
+    <row r="646" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A646" s="1">
+        <v>44846</v>
+      </c>
+      <c r="B646">
+        <v>3282.8701171875</v>
+      </c>
+      <c r="C646">
+        <v>3394.090087890625</v>
+      </c>
+      <c r="D646">
+        <v>3246.179931640625</v>
+      </c>
+      <c r="E646">
+        <v>3393.550048828125</v>
+      </c>
+      <c r="F646">
+        <f t="shared" si="7"/>
+        <v>3.3935500488281249</v>
+      </c>
+      <c r="G646">
+        <v>26765420</v>
+      </c>
+      <c r="H646">
+        <v>26765420</v>
+      </c>
+    </row>
+    <row r="647" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A647" s="1">
+        <v>44847</v>
+      </c>
+      <c r="B647">
+        <v>3370.300048828125</v>
+      </c>
+      <c r="C647">
+        <v>3419.0400390625</v>
+      </c>
+      <c r="D647">
+        <v>3360.389892578125</v>
+      </c>
+      <c r="E647">
+        <v>3384.889892578125</v>
+      </c>
+      <c r="F647">
+        <f t="shared" si="7"/>
+        <v>3.384889892578125</v>
+      </c>
+      <c r="G647">
+        <v>22542636</v>
+      </c>
+      <c r="H647">
+        <v>22542636</v>
+      </c>
+    </row>
+    <row r="648" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A648" s="1">
+        <v>44848</v>
+      </c>
+      <c r="B648">
+        <v>3422.25</v>
+      </c>
+      <c r="C648">
+        <v>3514.3798828125</v>
+      </c>
+      <c r="D648">
+        <v>3408.35009765625</v>
+      </c>
+      <c r="E648">
+        <v>3494.800048828125</v>
+      </c>
+      <c r="F648">
+        <f t="shared" si="7"/>
+        <v>3.4948000488281248</v>
+      </c>
+      <c r="G648">
+        <v>28725416</v>
+      </c>
+      <c r="H648">
+        <v>28725416</v>
+      </c>
+    </row>
+    <row r="649" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A649" s="1">
+        <v>44851</v>
+      </c>
+      <c r="B649">
+        <v>3476.409912109375</v>
+      </c>
+      <c r="C649">
+        <v>3515.889892578125</v>
+      </c>
+      <c r="D649">
+        <v>3470.8701171875</v>
+      </c>
+      <c r="E649">
+        <v>3512.5</v>
+      </c>
+      <c r="F649">
+        <f t="shared" si="7"/>
+        <v>3.5125000000000002</v>
+      </c>
+      <c r="G649">
+        <v>26456766</v>
+      </c>
+      <c r="H649">
+        <v>26456766</v>
+      </c>
+    </row>
+    <row r="650" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A650" s="1">
+        <v>44852</v>
+      </c>
+      <c r="B650">
+        <v>3541.27001953125</v>
+      </c>
+      <c r="C650">
+        <v>3558.300048828125</v>
+      </c>
+      <c r="D650">
+        <v>3508.800048828125</v>
+      </c>
+      <c r="E650">
+        <v>3528.550048828125</v>
+      </c>
+      <c r="F650">
+        <f t="shared" si="7"/>
+        <v>3.5285500488281252</v>
+      </c>
+      <c r="G650">
+        <v>24041332</v>
+      </c>
+      <c r="H650">
+        <v>24041332</v>
+      </c>
+    </row>
+    <row r="651" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A651" s="1">
+        <v>44853</v>
+      </c>
+      <c r="B651">
+        <v>3518.679931640625</v>
+      </c>
+      <c r="C651">
+        <v>3538.050048828125</v>
+      </c>
+      <c r="D651">
+        <v>3488.25</v>
+      </c>
+      <c r="E651">
+        <v>3488.52001953125</v>
+      </c>
+      <c r="F651">
+        <f t="shared" si="7"/>
+        <v>3.4885200195312498</v>
+      </c>
+      <c r="G651">
+        <v>20805740</v>
+      </c>
+      <c r="H651">
+        <v>20805740</v>
+      </c>
+    </row>
+    <row r="652" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A652" s="1">
+        <v>44854</v>
+      </c>
+      <c r="B652">
+        <v>3458.52001953125</v>
+      </c>
+      <c r="C652">
+        <v>3513.31005859375</v>
+      </c>
+      <c r="D652">
+        <v>3414.3701171875</v>
+      </c>
+      <c r="E652">
+        <v>3460.64990234375</v>
+      </c>
+      <c r="F652">
+        <f t="shared" si="7"/>
+        <v>3.46064990234375</v>
+      </c>
+      <c r="G652">
+        <v>23329688</v>
+      </c>
+      <c r="H652">
+        <v>23329688</v>
+      </c>
+    </row>
+    <row r="653" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A653" s="1">
+        <v>44855</v>
+      </c>
+      <c r="B653">
+        <v>3447.35009765625</v>
+      </c>
+      <c r="C653">
+        <v>3468.64990234375</v>
+      </c>
+      <c r="D653">
+        <v>3434.070068359375</v>
+      </c>
+      <c r="E653">
+        <v>3452.3798828125</v>
+      </c>
+      <c r="F653">
+        <f t="shared" si="7"/>
+        <v>3.4523798828125001</v>
+      </c>
+      <c r="G653">
+        <v>18270210</v>
+      </c>
+      <c r="H653">
+        <v>18270210</v>
+      </c>
+    </row>
+    <row r="654" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A654" s="1">
+        <v>44858</v>
+      </c>
+      <c r="B654">
+        <v>3446.139892578125</v>
+      </c>
+      <c r="C654">
+        <v>3487.570068359375</v>
+      </c>
+      <c r="D654">
+        <v>3357.989990234375</v>
+      </c>
+      <c r="E654">
+        <v>3378.89990234375</v>
+      </c>
+      <c r="F654">
+        <f t="shared" si="7"/>
+        <v>3.37889990234375</v>
+      </c>
+      <c r="G654">
+        <v>26197950</v>
+      </c>
+      <c r="H654">
+        <v>26197950</v>
+      </c>
+    </row>
+    <row r="655" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A655" s="1">
+        <v>44859</v>
+      </c>
+      <c r="B655">
+        <v>3364.510009765625</v>
+      </c>
+      <c r="C655">
+        <v>3407.090087890625</v>
+      </c>
+      <c r="D655">
+        <v>3325.6298828125</v>
+      </c>
+      <c r="E655">
+        <v>3367.929931640625</v>
+      </c>
+      <c r="F655">
+        <f t="shared" si="7"/>
+        <v>3.3679299316406248</v>
+      </c>
+      <c r="G655">
+        <v>22335750</v>
+      </c>
+      <c r="H655">
+        <v>22335750</v>
+      </c>
+    </row>
+    <row r="656" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A656" s="1">
+        <v>44860</v>
+      </c>
+      <c r="B656">
+        <v>3380.97998046875</v>
+      </c>
+      <c r="C656">
+        <v>3468.889892578125</v>
+      </c>
+      <c r="D656">
+        <v>3374.47998046875</v>
+      </c>
+      <c r="E656">
+        <v>3434.7099609375</v>
+      </c>
+      <c r="F656">
+        <f t="shared" si="7"/>
+        <v>3.4347099609375</v>
+      </c>
+      <c r="G656">
+        <v>25234286</v>
+      </c>
+      <c r="H656">
+        <v>25234286</v>
+      </c>
+    </row>
+    <row r="657" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A657" s="1">
+        <v>44861</v>
+      </c>
+      <c r="B657">
+        <v>3445.030029296875</v>
+      </c>
+      <c r="C657">
+        <v>3451.7099609375</v>
+      </c>
+      <c r="D657">
+        <v>3407.320068359375</v>
+      </c>
+      <c r="E657">
+        <v>3408</v>
+      </c>
+      <c r="F657">
+        <f t="shared" si="7"/>
+        <v>3.4079999999999999</v>
+      </c>
+      <c r="G657">
+        <v>27461514</v>
+      </c>
+      <c r="H657">
+        <v>27461514</v>
+      </c>
+    </row>
+    <row r="658" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A658" s="1">
+        <v>44862</v>
+      </c>
+      <c r="B658">
+        <v>3374.10009765625</v>
+      </c>
+      <c r="C658">
+        <v>3387.27001953125</v>
+      </c>
+      <c r="D658">
+        <v>3278.010009765625</v>
+      </c>
+      <c r="E658">
+        <v>3287.969970703125</v>
+      </c>
+      <c r="F658">
+        <f t="shared" si="7"/>
+        <v>3.2879699707031249</v>
+      </c>
+      <c r="G658">
+        <v>28485336</v>
+      </c>
+      <c r="H658">
+        <v>28485336</v>
+      </c>
+    </row>
+    <row r="659" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A659" s="1">
+        <v>44865</v>
+      </c>
+      <c r="B659">
+        <v>3256.2900390625</v>
+      </c>
+      <c r="C659">
+        <v>3338.070068359375</v>
+      </c>
+      <c r="D659">
+        <v>3254.77001953125</v>
+      </c>
+      <c r="E659">
+        <v>3299.39990234375</v>
+      </c>
+      <c r="F659">
+        <f t="shared" si="7"/>
+        <v>3.2993999023437501</v>
+      </c>
+      <c r="G659">
+        <v>33272414</v>
+      </c>
+      <c r="H659">
+        <v>33272414</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index.xlsx
+++ b/lai/valuationquan/szseinnovation100index.xlsx
@@ -400,10 +400,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H659"/>
+  <dimension ref="A1:H674"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A639" workbookViewId="0">
-      <selection activeCell="A660" sqref="A660"/>
+    <sheetView tabSelected="1" topLeftCell="A660" workbookViewId="0">
+      <selection activeCell="A675" sqref="A675"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -17193,7 +17193,7 @@
         <v>3668.27001953125</v>
       </c>
       <c r="F623">
-        <f t="shared" ref="F623:F659" si="7">E623/1000</f>
+        <f t="shared" ref="F623:F674" si="7">E623/1000</f>
         <v>3.6682700195312501</v>
       </c>
       <c r="G623">
@@ -18173,6 +18173,411 @@
       </c>
       <c r="H659">
         <v>33272414</v>
+      </c>
+    </row>
+    <row r="660" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A660" s="1">
+        <v>44875</v>
+      </c>
+      <c r="B660">
+        <v>3447.840087890625</v>
+      </c>
+      <c r="C660">
+        <v>3456.550048828125</v>
+      </c>
+      <c r="D660">
+        <v>3395.860107421875</v>
+      </c>
+      <c r="E660">
+        <v>3413.8701171875</v>
+      </c>
+      <c r="F660">
+        <f t="shared" si="7"/>
+        <v>3.4138701171874999</v>
+      </c>
+      <c r="G660">
+        <v>20861090</v>
+      </c>
+      <c r="H660">
+        <v>20861090</v>
+      </c>
+    </row>
+    <row r="661" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A661" s="1">
+        <v>44876</v>
+      </c>
+      <c r="B661">
+        <v>3518.199951171875</v>
+      </c>
+      <c r="C661">
+        <v>3543.360107421875</v>
+      </c>
+      <c r="D661">
+        <v>3481.409912109375</v>
+      </c>
+      <c r="E661">
+        <v>3499.14990234375</v>
+      </c>
+      <c r="F661">
+        <f t="shared" si="7"/>
+        <v>3.49914990234375</v>
+      </c>
+      <c r="G661">
+        <v>39530328</v>
+      </c>
+      <c r="H661">
+        <v>39530328</v>
+      </c>
+    </row>
+    <row r="662" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A662" s="1">
+        <v>44879</v>
+      </c>
+      <c r="B662">
+        <v>3517.820068359375</v>
+      </c>
+      <c r="C662">
+        <v>3547.3701171875</v>
+      </c>
+      <c r="D662">
+        <v>3485.489990234375</v>
+      </c>
+      <c r="E662">
+        <v>3500.659912109375</v>
+      </c>
+      <c r="F662">
+        <f t="shared" si="7"/>
+        <v>3.5006599121093749</v>
+      </c>
+      <c r="G662">
+        <v>36659748</v>
+      </c>
+      <c r="H662">
+        <v>36659748</v>
+      </c>
+    </row>
+    <row r="663" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A663" s="1">
+        <v>44880</v>
+      </c>
+      <c r="B663">
+        <v>3501.409912109375</v>
+      </c>
+      <c r="C663">
+        <v>3587.2900390625</v>
+      </c>
+      <c r="D663">
+        <v>3484.409912109375</v>
+      </c>
+      <c r="E663">
+        <v>3587.2900390625</v>
+      </c>
+      <c r="F663">
+        <f t="shared" si="7"/>
+        <v>3.5872900390625002</v>
+      </c>
+      <c r="G663">
+        <v>37644496</v>
+      </c>
+      <c r="H663">
+        <v>37644496</v>
+      </c>
+    </row>
+    <row r="664" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A664" s="1">
+        <v>44881</v>
+      </c>
+      <c r="B664">
+        <v>3581.68994140625</v>
+      </c>
+      <c r="C664">
+        <v>3593.52001953125</v>
+      </c>
+      <c r="D664">
+        <v>3535.050048828125</v>
+      </c>
+      <c r="E664">
+        <v>3538.889892578125</v>
+      </c>
+      <c r="F664">
+        <f t="shared" si="7"/>
+        <v>3.5388898925781249</v>
+      </c>
+      <c r="G664">
+        <v>29536374</v>
+      </c>
+      <c r="H664">
+        <v>29536374</v>
+      </c>
+    </row>
+    <row r="665" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A665" s="1">
+        <v>44882</v>
+      </c>
+      <c r="B665">
+        <v>3524.179931640625</v>
+      </c>
+      <c r="C665">
+        <v>3524.179931640625</v>
+      </c>
+      <c r="D665">
+        <v>3471.820068359375</v>
+      </c>
+      <c r="E665">
+        <v>3523.830078125</v>
+      </c>
+      <c r="F665">
+        <f t="shared" si="7"/>
+        <v>3.523830078125</v>
+      </c>
+      <c r="G665">
+        <v>25814184</v>
+      </c>
+      <c r="H665">
+        <v>25814184</v>
+      </c>
+    </row>
+    <row r="666" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A666" s="1">
+        <v>44883</v>
+      </c>
+      <c r="B666">
+        <v>3533.02001953125</v>
+      </c>
+      <c r="C666">
+        <v>3562.85009765625</v>
+      </c>
+      <c r="D666">
+        <v>3518.969970703125</v>
+      </c>
+      <c r="E666">
+        <v>3521.929931640625</v>
+      </c>
+      <c r="F666">
+        <f t="shared" si="7"/>
+        <v>3.5219299316406252</v>
+      </c>
+      <c r="G666">
+        <v>30900584</v>
+      </c>
+      <c r="H666">
+        <v>30900584</v>
+      </c>
+    </row>
+    <row r="667" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A667" s="1">
+        <v>44886</v>
+      </c>
+      <c r="B667">
+        <v>3492.5</v>
+      </c>
+      <c r="C667">
+        <v>3517.469970703125</v>
+      </c>
+      <c r="D667">
+        <v>3472.719970703125</v>
+      </c>
+      <c r="E667">
+        <v>3515.72998046875</v>
+      </c>
+      <c r="F667">
+        <f t="shared" si="7"/>
+        <v>3.5157299804687501</v>
+      </c>
+      <c r="G667">
+        <v>26427496</v>
+      </c>
+      <c r="H667">
+        <v>26427496</v>
+      </c>
+    </row>
+    <row r="668" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A668" s="1">
+        <v>44887</v>
+      </c>
+      <c r="B668">
+        <v>3503.659912109375</v>
+      </c>
+      <c r="C668">
+        <v>3509.800048828125</v>
+      </c>
+      <c r="D668">
+        <v>3448.469970703125</v>
+      </c>
+      <c r="E668">
+        <v>3461.9599609375</v>
+      </c>
+      <c r="F668">
+        <f t="shared" si="7"/>
+        <v>3.4619599609375</v>
+      </c>
+      <c r="G668">
+        <v>24698522</v>
+      </c>
+      <c r="H668">
+        <v>24698522</v>
+      </c>
+    </row>
+    <row r="669" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A669" s="1">
+        <v>44888</v>
+      </c>
+      <c r="B669">
+        <v>3448.550048828125</v>
+      </c>
+      <c r="C669">
+        <v>3465.469970703125</v>
+      </c>
+      <c r="D669">
+        <v>3404.7099609375</v>
+      </c>
+      <c r="E669">
+        <v>3446.010009765625</v>
+      </c>
+      <c r="F669">
+        <f t="shared" si="7"/>
+        <v>3.446010009765625</v>
+      </c>
+      <c r="G669">
+        <v>21697766</v>
+      </c>
+      <c r="H669">
+        <v>21697766</v>
+      </c>
+    </row>
+    <row r="670" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A670" s="1">
+        <v>44889</v>
+      </c>
+      <c r="B670">
+        <v>3463.010009765625</v>
+      </c>
+      <c r="C670">
+        <v>3475.219970703125</v>
+      </c>
+      <c r="D670">
+        <v>3429.199951171875</v>
+      </c>
+      <c r="E670">
+        <v>3439.31005859375</v>
+      </c>
+      <c r="F670">
+        <f t="shared" si="7"/>
+        <v>3.4393100585937502</v>
+      </c>
+      <c r="G670">
+        <v>18827920</v>
+      </c>
+      <c r="H670">
+        <v>18827920</v>
+      </c>
+    </row>
+    <row r="671" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A671" s="1">
+        <v>44890</v>
+      </c>
+      <c r="B671">
+        <v>3427.909912109375</v>
+      </c>
+      <c r="C671">
+        <v>3438.139892578125</v>
+      </c>
+      <c r="D671">
+        <v>3410.330078125</v>
+      </c>
+      <c r="E671">
+        <v>3413.85009765625</v>
+      </c>
+      <c r="F671">
+        <f t="shared" si="7"/>
+        <v>3.4138500976562498</v>
+      </c>
+      <c r="G671">
+        <v>18817832</v>
+      </c>
+      <c r="H671">
+        <v>18817832</v>
+      </c>
+    </row>
+    <row r="672" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A672" s="1">
+        <v>44893</v>
+      </c>
+      <c r="B672">
+        <v>3349.239990234375</v>
+      </c>
+      <c r="C672">
+        <v>3392.52001953125</v>
+      </c>
+      <c r="D672">
+        <v>3340.739990234375</v>
+      </c>
+      <c r="E672">
+        <v>3389.6201171875</v>
+      </c>
+      <c r="F672">
+        <f t="shared" si="7"/>
+        <v>3.3896201171875</v>
+      </c>
+      <c r="G672">
+        <v>21086980</v>
+      </c>
+      <c r="H672">
+        <v>21086980</v>
+      </c>
+    </row>
+    <row r="673" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A673" s="1">
+        <v>44894</v>
+      </c>
+      <c r="B673">
+        <v>3408.320068359375</v>
+      </c>
+      <c r="C673">
+        <v>3474.080078125</v>
+      </c>
+      <c r="D673">
+        <v>3402.820068359375</v>
+      </c>
+      <c r="E673">
+        <v>3466.5400390625</v>
+      </c>
+      <c r="F673">
+        <f t="shared" si="7"/>
+        <v>3.4665400390625001</v>
+      </c>
+      <c r="G673">
+        <v>31109882</v>
+      </c>
+      <c r="H673">
+        <v>31109882</v>
+      </c>
+    </row>
+    <row r="674" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A674" s="1">
+        <v>44895</v>
+      </c>
+      <c r="B674">
+        <v>3459.139892578125</v>
+      </c>
+      <c r="C674">
+        <v>3485.0400390625</v>
+      </c>
+      <c r="D674">
+        <v>3448.510009765625</v>
+      </c>
+      <c r="E674">
+        <v>3480.2900390625</v>
+      </c>
+      <c r="F674">
+        <f t="shared" si="7"/>
+        <v>3.4802900390625</v>
+      </c>
+      <c r="G674">
+        <v>28683508</v>
+      </c>
+      <c r="H674">
+        <v>28683508</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index.xlsx
+++ b/lai/valuationquan/szseinnovation100index.xlsx
@@ -400,10 +400,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H674"/>
+  <dimension ref="A1:H689"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A660" workbookViewId="0">
-      <selection activeCell="A675" sqref="A675"/>
+    <sheetView tabSelected="1" topLeftCell="A675" workbookViewId="0">
+      <selection activeCell="A690" sqref="A690"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -17193,7 +17193,7 @@
         <v>3668.27001953125</v>
       </c>
       <c r="F623">
-        <f t="shared" ref="F623:F674" si="7">E623/1000</f>
+        <f t="shared" ref="F623:F689" si="7">E623/1000</f>
         <v>3.6682700195312501</v>
       </c>
       <c r="G623">
@@ -18578,6 +18578,411 @@
       </c>
       <c r="H674">
         <v>28683508</v>
+      </c>
+    </row>
+    <row r="675" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A675" s="1">
+        <v>44907</v>
+      </c>
+      <c r="B675">
+        <v>3609.10009765625</v>
+      </c>
+      <c r="C675">
+        <v>3629.239990234375</v>
+      </c>
+      <c r="D675">
+        <v>3597.340087890625</v>
+      </c>
+      <c r="E675">
+        <v>3607.06005859375</v>
+      </c>
+      <c r="F675">
+        <f t="shared" si="7"/>
+        <v>3.60706005859375</v>
+      </c>
+      <c r="G675">
+        <v>25407580</v>
+      </c>
+      <c r="H675">
+        <v>25407580</v>
+      </c>
+    </row>
+    <row r="676" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A676" s="1">
+        <v>44908</v>
+      </c>
+      <c r="B676">
+        <v>3608.77001953125</v>
+      </c>
+      <c r="C676">
+        <v>3608.969970703125</v>
+      </c>
+      <c r="D676">
+        <v>3562.97998046875</v>
+      </c>
+      <c r="E676">
+        <v>3564.9599609375</v>
+      </c>
+      <c r="F676">
+        <f t="shared" si="7"/>
+        <v>3.5649599609374998</v>
+      </c>
+      <c r="G676">
+        <v>20180190</v>
+      </c>
+      <c r="H676">
+        <v>20180190</v>
+      </c>
+    </row>
+    <row r="677" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A677" s="1">
+        <v>44909</v>
+      </c>
+      <c r="B677">
+        <v>3578.050048828125</v>
+      </c>
+      <c r="C677">
+        <v>3584.14990234375</v>
+      </c>
+      <c r="D677">
+        <v>3549.389892578125</v>
+      </c>
+      <c r="E677">
+        <v>3555.800048828125</v>
+      </c>
+      <c r="F677">
+        <f t="shared" si="7"/>
+        <v>3.5558000488281252</v>
+      </c>
+      <c r="G677">
+        <v>21631760</v>
+      </c>
+      <c r="H677">
+        <v>21631760</v>
+      </c>
+    </row>
+    <row r="678" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A678" s="1">
+        <v>44910</v>
+      </c>
+      <c r="B678">
+        <v>3552.389892578125</v>
+      </c>
+      <c r="C678">
+        <v>3592.31005859375</v>
+      </c>
+      <c r="D678">
+        <v>3548.2099609375</v>
+      </c>
+      <c r="E678">
+        <v>3589.489990234375</v>
+      </c>
+      <c r="F678">
+        <f t="shared" si="7"/>
+        <v>3.5894899902343749</v>
+      </c>
+      <c r="G678">
+        <v>20078540</v>
+      </c>
+      <c r="H678">
+        <v>20078540</v>
+      </c>
+    </row>
+    <row r="679" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A679" s="1">
+        <v>44911</v>
+      </c>
+      <c r="B679">
+        <v>3565.719970703125</v>
+      </c>
+      <c r="C679">
+        <v>3577.2900390625</v>
+      </c>
+      <c r="D679">
+        <v>3546.7900390625</v>
+      </c>
+      <c r="E679">
+        <v>3567.14990234375</v>
+      </c>
+      <c r="F679">
+        <f t="shared" si="7"/>
+        <v>3.5671499023437501</v>
+      </c>
+      <c r="G679">
+        <v>18673392</v>
+      </c>
+      <c r="H679">
+        <v>18673392</v>
+      </c>
+    </row>
+    <row r="680" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A680" s="1">
+        <v>44914</v>
+      </c>
+      <c r="B680">
+        <v>3565.75</v>
+      </c>
+      <c r="C680">
+        <v>3586.010009765625</v>
+      </c>
+      <c r="D680">
+        <v>3513.10009765625</v>
+      </c>
+      <c r="E680">
+        <v>3525.510009765625</v>
+      </c>
+      <c r="F680">
+        <f t="shared" si="7"/>
+        <v>3.5255100097656249</v>
+      </c>
+      <c r="G680">
+        <v>21680292</v>
+      </c>
+      <c r="H680">
+        <v>21680292</v>
+      </c>
+    </row>
+    <row r="681" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A681" s="1">
+        <v>44915</v>
+      </c>
+      <c r="B681">
+        <v>3514.239990234375</v>
+      </c>
+      <c r="C681">
+        <v>3514.570068359375</v>
+      </c>
+      <c r="D681">
+        <v>3456.780029296875</v>
+      </c>
+      <c r="E681">
+        <v>3467.97998046875</v>
+      </c>
+      <c r="F681">
+        <f t="shared" si="7"/>
+        <v>3.4679799804687499</v>
+      </c>
+      <c r="G681">
+        <v>18025520</v>
+      </c>
+      <c r="H681">
+        <v>18025520</v>
+      </c>
+    </row>
+    <row r="682" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A682" s="1">
+        <v>44916</v>
+      </c>
+      <c r="B682">
+        <v>3471.60009765625</v>
+      </c>
+      <c r="C682">
+        <v>3481.989990234375</v>
+      </c>
+      <c r="D682">
+        <v>3440.239990234375</v>
+      </c>
+      <c r="E682">
+        <v>3453.199951171875</v>
+      </c>
+      <c r="F682">
+        <f t="shared" si="7"/>
+        <v>3.4531999511718752</v>
+      </c>
+      <c r="G682">
+        <v>14782428</v>
+      </c>
+      <c r="H682">
+        <v>14782428</v>
+      </c>
+    </row>
+    <row r="683" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A683" s="1">
+        <v>44917</v>
+      </c>
+      <c r="B683">
+        <v>3476.35009765625</v>
+      </c>
+      <c r="C683">
+        <v>3489.139892578125</v>
+      </c>
+      <c r="D683">
+        <v>3433.7900390625</v>
+      </c>
+      <c r="E683">
+        <v>3443.830078125</v>
+      </c>
+      <c r="F683">
+        <f t="shared" si="7"/>
+        <v>3.443830078125</v>
+      </c>
+      <c r="G683">
+        <v>19048650</v>
+      </c>
+      <c r="H683">
+        <v>19048650</v>
+      </c>
+    </row>
+    <row r="684" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A684" s="1">
+        <v>44918</v>
+      </c>
+      <c r="B684">
+        <v>3421.8701171875</v>
+      </c>
+      <c r="C684">
+        <v>3450.989990234375</v>
+      </c>
+      <c r="D684">
+        <v>3409.989990234375</v>
+      </c>
+      <c r="E684">
+        <v>3426.989990234375</v>
+      </c>
+      <c r="F684">
+        <f t="shared" si="7"/>
+        <v>3.4269899902343748</v>
+      </c>
+      <c r="G684">
+        <v>14672771</v>
+      </c>
+      <c r="H684">
+        <v>14672771</v>
+      </c>
+    </row>
+    <row r="685" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A685" s="1">
+        <v>44921</v>
+      </c>
+      <c r="B685">
+        <v>3430.8798828125</v>
+      </c>
+      <c r="C685">
+        <v>3486.5</v>
+      </c>
+      <c r="D685">
+        <v>3430.8798828125</v>
+      </c>
+      <c r="E685">
+        <v>3480.330078125</v>
+      </c>
+      <c r="F685">
+        <f t="shared" si="7"/>
+        <v>3.4803300781250002</v>
+      </c>
+      <c r="G685">
+        <v>16333860</v>
+      </c>
+      <c r="H685">
+        <v>16333860</v>
+      </c>
+    </row>
+    <row r="686" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A686" s="1">
+        <v>44922</v>
+      </c>
+      <c r="B686">
+        <v>3487.590087890625</v>
+      </c>
+      <c r="C686">
+        <v>3517.739990234375</v>
+      </c>
+      <c r="D686">
+        <v>3476.340087890625</v>
+      </c>
+      <c r="E686">
+        <v>3513.85009765625</v>
+      </c>
+      <c r="F686">
+        <f t="shared" si="7"/>
+        <v>3.5138500976562499</v>
+      </c>
+      <c r="G686">
+        <v>16493398</v>
+      </c>
+      <c r="H686">
+        <v>16493398</v>
+      </c>
+    </row>
+    <row r="687" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A687" s="1">
+        <v>44923</v>
+      </c>
+      <c r="B687">
+        <v>3492.9599609375</v>
+      </c>
+      <c r="C687">
+        <v>3495.7099609375</v>
+      </c>
+      <c r="D687">
+        <v>3455.699951171875</v>
+      </c>
+      <c r="E687">
+        <v>3472.489990234375</v>
+      </c>
+      <c r="F687">
+        <f t="shared" si="7"/>
+        <v>3.4724899902343749</v>
+      </c>
+      <c r="G687">
+        <v>17957264</v>
+      </c>
+      <c r="H687">
+        <v>17957264</v>
+      </c>
+    </row>
+    <row r="688" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A688" s="1">
+        <v>44924</v>
+      </c>
+      <c r="B688">
+        <v>3460.449951171875</v>
+      </c>
+      <c r="C688">
+        <v>3499.260009765625</v>
+      </c>
+      <c r="D688">
+        <v>3456.27001953125</v>
+      </c>
+      <c r="E688">
+        <v>3476.469970703125</v>
+      </c>
+      <c r="F688">
+        <f t="shared" si="7"/>
+        <v>3.4764699707031248</v>
+      </c>
+      <c r="G688">
+        <v>16271264</v>
+      </c>
+      <c r="H688">
+        <v>16271264</v>
+      </c>
+    </row>
+    <row r="689" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A689" s="1">
+        <v>44925</v>
+      </c>
+      <c r="B689">
+        <v>3494.699951171875</v>
+      </c>
+      <c r="C689">
+        <v>3507.47998046875</v>
+      </c>
+      <c r="D689">
+        <v>3473.530029296875</v>
+      </c>
+      <c r="E689">
+        <v>3473.530029296875</v>
+      </c>
+      <c r="F689">
+        <f t="shared" si="7"/>
+        <v>3.4735300292968749</v>
+      </c>
+      <c r="G689">
+        <v>15288984</v>
+      </c>
+      <c r="H689">
+        <v>15288984</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index.xlsx
+++ b/lai/valuationquan/szseinnovation100index.xlsx
@@ -400,10 +400,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H689"/>
+  <dimension ref="A1:H705"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A675" workbookViewId="0">
-      <selection activeCell="A690" sqref="A690"/>
+    <sheetView tabSelected="1" topLeftCell="A690" workbookViewId="0">
+      <selection activeCell="A706" sqref="A706"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -17193,7 +17193,7 @@
         <v>3668.27001953125</v>
       </c>
       <c r="F623">
-        <f t="shared" ref="F623:F689" si="7">E623/1000</f>
+        <f t="shared" ref="F623:F688" si="7">E623/1000</f>
         <v>3.6682700195312501</v>
       </c>
       <c r="G623">
@@ -18975,7 +18975,7 @@
         <v>3473.530029296875</v>
       </c>
       <c r="F689">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="F689:F705" si="8">E689/1000</f>
         <v>3.4735300292968749</v>
       </c>
       <c r="G689">
@@ -18983,6 +18983,438 @@
       </c>
       <c r="H689">
         <v>15288984</v>
+      </c>
+    </row>
+    <row r="690" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A690" s="1">
+        <v>44929</v>
+      </c>
+      <c r="B690">
+        <v>3469.269287109375</v>
+      </c>
+      <c r="C690">
+        <v>3516.888427734375</v>
+      </c>
+      <c r="D690">
+        <v>3441.99169921875</v>
+      </c>
+      <c r="E690">
+        <v>3508.3173828125</v>
+      </c>
+      <c r="F690">
+        <f t="shared" si="8"/>
+        <v>3.5083173828124998</v>
+      </c>
+      <c r="G690">
+        <v>22997436</v>
+      </c>
+      <c r="H690">
+        <v>22997436</v>
+      </c>
+    </row>
+    <row r="691" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A691" s="1">
+        <v>44930</v>
+      </c>
+      <c r="B691">
+        <v>3500.761474609375</v>
+      </c>
+      <c r="C691">
+        <v>3509.062744140625</v>
+      </c>
+      <c r="D691">
+        <v>3469.442138671875</v>
+      </c>
+      <c r="E691">
+        <v>3489.908447265625</v>
+      </c>
+      <c r="F691">
+        <f t="shared" si="8"/>
+        <v>3.4899084472656252</v>
+      </c>
+      <c r="G691">
+        <v>24958500</v>
+      </c>
+      <c r="H691">
+        <v>24958500</v>
+      </c>
+    </row>
+    <row r="692" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A692" s="1">
+        <v>44931</v>
+      </c>
+      <c r="B692">
+        <v>3506.47021484375</v>
+      </c>
+      <c r="C692">
+        <v>3584.12353515625</v>
+      </c>
+      <c r="D692">
+        <v>3505.536376953125</v>
+      </c>
+      <c r="E692">
+        <v>3577.919921875</v>
+      </c>
+      <c r="F692">
+        <f t="shared" si="8"/>
+        <v>3.577919921875</v>
+      </c>
+      <c r="G692">
+        <v>30590436</v>
+      </c>
+      <c r="H692">
+        <v>30590436</v>
+      </c>
+    </row>
+    <row r="693" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A693" s="1">
+        <v>44932</v>
+      </c>
+      <c r="B693">
+        <v>3573.02392578125</v>
+      </c>
+      <c r="C693">
+        <v>3624.267333984375</v>
+      </c>
+      <c r="D693">
+        <v>3572.197998046875</v>
+      </c>
+      <c r="E693">
+        <v>3590.678955078125</v>
+      </c>
+      <c r="F693">
+        <f t="shared" si="8"/>
+        <v>3.5906789550781251</v>
+      </c>
+      <c r="G693">
+        <v>31453516</v>
+      </c>
+      <c r="H693">
+        <v>31453516</v>
+      </c>
+    </row>
+    <row r="694" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A694" s="1">
+        <v>44935</v>
+      </c>
+      <c r="B694">
+        <v>3601.79736328125</v>
+      </c>
+      <c r="C694">
+        <v>3624.94677734375</v>
+      </c>
+      <c r="D694">
+        <v>3596.2919921875</v>
+      </c>
+      <c r="E694">
+        <v>3604.57666015625</v>
+      </c>
+      <c r="F694">
+        <f t="shared" si="8"/>
+        <v>3.6045766601562499</v>
+      </c>
+      <c r="G694">
+        <v>25345104</v>
+      </c>
+      <c r="H694">
+        <v>25345104</v>
+      </c>
+    </row>
+    <row r="695" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A695" s="1">
+        <v>44936</v>
+      </c>
+      <c r="B695">
+        <v>3607.819580078125</v>
+      </c>
+      <c r="C695">
+        <v>3646.35693359375</v>
+      </c>
+      <c r="D695">
+        <v>3592.638671875</v>
+      </c>
+      <c r="E695">
+        <v>3638.47021484375</v>
+      </c>
+      <c r="F695">
+        <f t="shared" si="8"/>
+        <v>3.6384702148437502</v>
+      </c>
+      <c r="G695">
+        <v>24758556</v>
+      </c>
+      <c r="H695">
+        <v>24758556</v>
+      </c>
+    </row>
+    <row r="696" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A696" s="1">
+        <v>44937</v>
+      </c>
+      <c r="B696">
+        <v>3633.132568359375</v>
+      </c>
+      <c r="C696">
+        <v>3653.69287109375</v>
+      </c>
+      <c r="D696">
+        <v>3606.408203125</v>
+      </c>
+      <c r="E696">
+        <v>3610.81103515625</v>
+      </c>
+      <c r="F696">
+        <f t="shared" si="8"/>
+        <v>3.6108110351562499</v>
+      </c>
+      <c r="G696">
+        <v>24229984</v>
+      </c>
+      <c r="H696">
+        <v>24229984</v>
+      </c>
+    </row>
+    <row r="697" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A697" s="1">
+        <v>44938</v>
+      </c>
+      <c r="B697">
+        <v>3624.650634765625</v>
+      </c>
+      <c r="C697">
+        <v>3652.45654296875</v>
+      </c>
+      <c r="D697">
+        <v>3616.583251953125</v>
+      </c>
+      <c r="E697">
+        <v>3631.021240234375</v>
+      </c>
+      <c r="F697">
+        <f t="shared" si="8"/>
+        <v>3.6310212402343751</v>
+      </c>
+      <c r="G697">
+        <v>21757552</v>
+      </c>
+      <c r="H697">
+        <v>21757552</v>
+      </c>
+    </row>
+    <row r="698" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A698" s="1">
+        <v>44939</v>
+      </c>
+      <c r="B698">
+        <v>3653.294921875</v>
+      </c>
+      <c r="C698">
+        <v>3673.21337890625</v>
+      </c>
+      <c r="D698">
+        <v>3633.6328125</v>
+      </c>
+      <c r="E698">
+        <v>3673.21337890625</v>
+      </c>
+      <c r="F698">
+        <f t="shared" si="8"/>
+        <v>3.67321337890625</v>
+      </c>
+      <c r="G698">
+        <v>21355884</v>
+      </c>
+      <c r="H698">
+        <v>21355884</v>
+      </c>
+    </row>
+    <row r="699" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A699" s="1">
+        <v>44942</v>
+      </c>
+      <c r="B699">
+        <v>3671.072509765625</v>
+      </c>
+      <c r="C699">
+        <v>3762.3359375</v>
+      </c>
+      <c r="D699">
+        <v>3671.072509765625</v>
+      </c>
+      <c r="E699">
+        <v>3731.450927734375</v>
+      </c>
+      <c r="F699">
+        <f t="shared" si="8"/>
+        <v>3.7314509277343748</v>
+      </c>
+      <c r="G699">
+        <v>31552740</v>
+      </c>
+      <c r="H699">
+        <v>31552740</v>
+      </c>
+    </row>
+    <row r="700" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A700" s="1">
+        <v>44943</v>
+      </c>
+      <c r="B700">
+        <v>3735.49560546875</v>
+      </c>
+      <c r="C700">
+        <v>3756.7470703125</v>
+      </c>
+      <c r="D700">
+        <v>3730.148193359375</v>
+      </c>
+      <c r="E700">
+        <v>3745.24853515625</v>
+      </c>
+      <c r="F700">
+        <f t="shared" si="8"/>
+        <v>3.7452485351562501</v>
+      </c>
+      <c r="G700">
+        <v>21888510</v>
+      </c>
+      <c r="H700">
+        <v>21888510</v>
+      </c>
+    </row>
+    <row r="701" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A701" s="1">
+        <v>44944</v>
+      </c>
+      <c r="B701">
+        <v>3750.16259765625</v>
+      </c>
+      <c r="C701">
+        <v>3760.9462890625</v>
+      </c>
+      <c r="D701">
+        <v>3739.308349609375</v>
+      </c>
+      <c r="E701">
+        <v>3748.58447265625</v>
+      </c>
+      <c r="F701">
+        <f t="shared" si="8"/>
+        <v>3.7485844726562498</v>
+      </c>
+      <c r="G701">
+        <v>17674320</v>
+      </c>
+      <c r="H701">
+        <v>17674320</v>
+      </c>
+    </row>
+    <row r="702" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A702" s="1">
+        <v>44945</v>
+      </c>
+      <c r="B702">
+        <v>3743.17724609375</v>
+      </c>
+      <c r="C702">
+        <v>3780.742431640625</v>
+      </c>
+      <c r="D702">
+        <v>3733.563720703125</v>
+      </c>
+      <c r="E702">
+        <v>3780.742431640625</v>
+      </c>
+      <c r="F702">
+        <f t="shared" si="8"/>
+        <v>3.7807424316406251</v>
+      </c>
+      <c r="G702">
+        <v>22880750</v>
+      </c>
+      <c r="H702">
+        <v>22880750</v>
+      </c>
+    </row>
+    <row r="703" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A703" s="1">
+        <v>44946</v>
+      </c>
+      <c r="B703">
+        <v>3790.78759765625</v>
+      </c>
+      <c r="C703">
+        <v>3804.211181640625</v>
+      </c>
+      <c r="D703">
+        <v>3779.6181640625</v>
+      </c>
+      <c r="E703">
+        <v>3797.16845703125</v>
+      </c>
+      <c r="F703">
+        <f t="shared" si="8"/>
+        <v>3.7971684570312498</v>
+      </c>
+      <c r="G703">
+        <v>22100910</v>
+      </c>
+      <c r="H703">
+        <v>22100910</v>
+      </c>
+    </row>
+    <row r="704" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A704" s="1">
+        <v>44956</v>
+      </c>
+      <c r="B704">
+        <v>3897.607421875</v>
+      </c>
+      <c r="C704">
+        <v>3912.39501953125</v>
+      </c>
+      <c r="D704">
+        <v>3848.337158203125</v>
+      </c>
+      <c r="E704">
+        <v>3853.490234375</v>
+      </c>
+      <c r="F704">
+        <f t="shared" si="8"/>
+        <v>3.8534902343750002</v>
+      </c>
+      <c r="G704">
+        <v>37655500</v>
+      </c>
+      <c r="H704">
+        <v>37655500</v>
+      </c>
+    </row>
+    <row r="705" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A705" s="1">
+        <v>44957</v>
+      </c>
+      <c r="B705">
+        <v>3849.224609375</v>
+      </c>
+      <c r="C705">
+        <v>3857.215087890625</v>
+      </c>
+      <c r="D705">
+        <v>3805.035888671875</v>
+      </c>
+      <c r="E705">
+        <v>3811.03369140625</v>
+      </c>
+      <c r="F705">
+        <f t="shared" si="8"/>
+        <v>3.8110336914062501</v>
+      </c>
+      <c r="G705">
+        <v>30250528</v>
+      </c>
+      <c r="H705">
+        <v>30250528</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index.xlsx
+++ b/lai/valuationquan/szseinnovation100index.xlsx
@@ -400,10 +400,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H705"/>
+  <dimension ref="A1:H725"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A690" workbookViewId="0">
-      <selection activeCell="A706" sqref="A706"/>
+    <sheetView tabSelected="1" topLeftCell="A710" workbookViewId="0">
+      <selection activeCell="A726" sqref="A726"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -18975,7 +18975,7 @@
         <v>3473.530029296875</v>
       </c>
       <c r="F689">
-        <f t="shared" ref="F689:F705" si="8">E689/1000</f>
+        <f t="shared" ref="F689:F725" si="8">E689/1000</f>
         <v>3.4735300292968749</v>
       </c>
       <c r="G689">
@@ -19415,6 +19415,546 @@
       </c>
       <c r="H705">
         <v>30250528</v>
+      </c>
+    </row>
+    <row r="706" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A706" s="1">
+        <v>44958</v>
+      </c>
+      <c r="B706">
+        <v>3826.91259765625</v>
+      </c>
+      <c r="C706">
+        <v>3861.890380859375</v>
+      </c>
+      <c r="D706">
+        <v>3809.948486328125</v>
+      </c>
+      <c r="E706">
+        <v>3861.890380859375</v>
+      </c>
+      <c r="F706">
+        <f t="shared" si="8"/>
+        <v>3.861890380859375</v>
+      </c>
+      <c r="G706">
+        <v>31717178</v>
+      </c>
+      <c r="H706">
+        <v>31717178</v>
+      </c>
+    </row>
+    <row r="707" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A707" s="1">
+        <v>44959</v>
+      </c>
+      <c r="B707">
+        <v>3870.02783203125</v>
+      </c>
+      <c r="C707">
+        <v>3875.9189453125</v>
+      </c>
+      <c r="D707">
+        <v>3834.403564453125</v>
+      </c>
+      <c r="E707">
+        <v>3841.62939453125</v>
+      </c>
+      <c r="F707">
+        <f t="shared" si="8"/>
+        <v>3.8416293945312501</v>
+      </c>
+      <c r="G707">
+        <v>27523888</v>
+      </c>
+      <c r="H707">
+        <v>27523888</v>
+      </c>
+    </row>
+    <row r="708" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A708" s="1">
+        <v>44960</v>
+      </c>
+      <c r="B708">
+        <v>3827.781982421875</v>
+      </c>
+      <c r="C708">
+        <v>3834.679931640625</v>
+      </c>
+      <c r="D708">
+        <v>3764.18212890625</v>
+      </c>
+      <c r="E708">
+        <v>3814.672607421875</v>
+      </c>
+      <c r="F708">
+        <f t="shared" si="8"/>
+        <v>3.8146726074218749</v>
+      </c>
+      <c r="G708">
+        <v>26531142</v>
+      </c>
+      <c r="H708">
+        <v>26531142</v>
+      </c>
+    </row>
+    <row r="709" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A709" s="1">
+        <v>44963</v>
+      </c>
+      <c r="B709">
+        <v>3787.275390625</v>
+      </c>
+      <c r="C709">
+        <v>3792.05712890625</v>
+      </c>
+      <c r="D709">
+        <v>3741.56640625</v>
+      </c>
+      <c r="E709">
+        <v>3767.203125</v>
+      </c>
+      <c r="F709">
+        <f t="shared" si="8"/>
+        <v>3.767203125</v>
+      </c>
+      <c r="G709">
+        <v>28317204</v>
+      </c>
+      <c r="H709">
+        <v>28317204</v>
+      </c>
+    </row>
+    <row r="710" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A710" s="1">
+        <v>44964</v>
+      </c>
+      <c r="B710">
+        <v>3776.9912109375</v>
+      </c>
+      <c r="C710">
+        <v>3785.594482421875</v>
+      </c>
+      <c r="D710">
+        <v>3749.65185546875</v>
+      </c>
+      <c r="E710">
+        <v>3765.985595703125</v>
+      </c>
+      <c r="F710">
+        <f t="shared" si="8"/>
+        <v>3.7659855957031252</v>
+      </c>
+      <c r="G710">
+        <v>24796046</v>
+      </c>
+      <c r="H710">
+        <v>24796046</v>
+      </c>
+    </row>
+    <row r="711" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A711" s="1">
+        <v>44965</v>
+      </c>
+      <c r="B711">
+        <v>3771.941650390625</v>
+      </c>
+      <c r="C711">
+        <v>3779.919189453125</v>
+      </c>
+      <c r="D711">
+        <v>3744.5322265625</v>
+      </c>
+      <c r="E711">
+        <v>3748.6572265625</v>
+      </c>
+      <c r="F711">
+        <f t="shared" si="8"/>
+        <v>3.7486572265625</v>
+      </c>
+      <c r="G711">
+        <v>21148778</v>
+      </c>
+      <c r="H711">
+        <v>21148778</v>
+      </c>
+    </row>
+    <row r="712" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A712" s="1">
+        <v>44966</v>
+      </c>
+      <c r="B712">
+        <v>3737.456787109375</v>
+      </c>
+      <c r="C712">
+        <v>3805.634033203125</v>
+      </c>
+      <c r="D712">
+        <v>3728.27880859375</v>
+      </c>
+      <c r="E712">
+        <v>3805.634033203125</v>
+      </c>
+      <c r="F712">
+        <f t="shared" si="8"/>
+        <v>3.8056340332031251</v>
+      </c>
+      <c r="G712">
+        <v>26926806</v>
+      </c>
+      <c r="H712">
+        <v>26926806</v>
+      </c>
+    </row>
+    <row r="713" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A713" s="1">
+        <v>44967</v>
+      </c>
+      <c r="B713">
+        <v>3799.178466796875</v>
+      </c>
+      <c r="C713">
+        <v>3808.2763671875</v>
+      </c>
+      <c r="D713">
+        <v>3756.863037109375</v>
+      </c>
+      <c r="E713">
+        <v>3773.57568359375</v>
+      </c>
+      <c r="F713">
+        <f t="shared" si="8"/>
+        <v>3.7735756835937502</v>
+      </c>
+      <c r="G713">
+        <v>25391758</v>
+      </c>
+      <c r="H713">
+        <v>25391758</v>
+      </c>
+    </row>
+    <row r="714" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A714" s="1">
+        <v>44970</v>
+      </c>
+      <c r="B714">
+        <v>3769.485595703125</v>
+      </c>
+      <c r="C714">
+        <v>3811.090576171875</v>
+      </c>
+      <c r="D714">
+        <v>3759.244384765625</v>
+      </c>
+      <c r="E714">
+        <v>3810.79931640625</v>
+      </c>
+      <c r="F714">
+        <f t="shared" si="8"/>
+        <v>3.8107993164062499</v>
+      </c>
+      <c r="G714">
+        <v>30213038</v>
+      </c>
+      <c r="H714">
+        <v>30213038</v>
+      </c>
+    </row>
+    <row r="715" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A715" s="1">
+        <v>44971</v>
+      </c>
+      <c r="B715">
+        <v>3824.993896484375</v>
+      </c>
+      <c r="C715">
+        <v>3825.396728515625</v>
+      </c>
+      <c r="D715">
+        <v>3778.573974609375</v>
+      </c>
+      <c r="E715">
+        <v>3799.543212890625</v>
+      </c>
+      <c r="F715">
+        <f t="shared" si="8"/>
+        <v>3.799543212890625</v>
+      </c>
+      <c r="G715">
+        <v>22650280</v>
+      </c>
+      <c r="H715">
+        <v>22650280</v>
+      </c>
+    </row>
+    <row r="716" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A716" s="1">
+        <v>44972</v>
+      </c>
+      <c r="B716">
+        <v>3803.33544921875</v>
+      </c>
+      <c r="C716">
+        <v>3819.007080078125</v>
+      </c>
+      <c r="D716">
+        <v>3780.156005859375</v>
+      </c>
+      <c r="E716">
+        <v>3792.92822265625</v>
+      </c>
+      <c r="F716">
+        <f t="shared" si="8"/>
+        <v>3.7929282226562502</v>
+      </c>
+      <c r="G716">
+        <v>32648264</v>
+      </c>
+      <c r="H716">
+        <v>32648264</v>
+      </c>
+    </row>
+    <row r="717" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A717" s="1">
+        <v>44973</v>
+      </c>
+      <c r="B717">
+        <v>3795.4775390625</v>
+      </c>
+      <c r="C717">
+        <v>3828.3017578125</v>
+      </c>
+      <c r="D717">
+        <v>3725.235595703125</v>
+      </c>
+      <c r="E717">
+        <v>3750.837646484375</v>
+      </c>
+      <c r="F717">
+        <f t="shared" si="8"/>
+        <v>3.7508376464843751</v>
+      </c>
+      <c r="G717">
+        <v>36710000</v>
+      </c>
+      <c r="H717">
+        <v>36710000</v>
+      </c>
+    </row>
+    <row r="718" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A718" s="1">
+        <v>44974</v>
+      </c>
+      <c r="B718">
+        <v>3745.79541015625</v>
+      </c>
+      <c r="C718">
+        <v>3750.267578125</v>
+      </c>
+      <c r="D718">
+        <v>3665.463134765625</v>
+      </c>
+      <c r="E718">
+        <v>3666.324462890625</v>
+      </c>
+      <c r="F718">
+        <f t="shared" si="8"/>
+        <v>3.6663244628906249</v>
+      </c>
+      <c r="G718">
+        <v>28534430</v>
+      </c>
+      <c r="H718">
+        <v>28534430</v>
+      </c>
+    </row>
+    <row r="719" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A719" s="1">
+        <v>44977</v>
+      </c>
+      <c r="B719">
+        <v>3659.568603515625</v>
+      </c>
+      <c r="C719">
+        <v>3738.56591796875</v>
+      </c>
+      <c r="D719">
+        <v>3645.048095703125</v>
+      </c>
+      <c r="E719">
+        <v>3738.56591796875</v>
+      </c>
+      <c r="F719">
+        <f t="shared" si="8"/>
+        <v>3.7385659179687498</v>
+      </c>
+      <c r="G719">
+        <v>32727740</v>
+      </c>
+      <c r="H719">
+        <v>32727740</v>
+      </c>
+    </row>
+    <row r="720" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A720" s="1">
+        <v>44978</v>
+      </c>
+      <c r="B720">
+        <v>3732.120849609375</v>
+      </c>
+      <c r="C720">
+        <v>3753.77587890625</v>
+      </c>
+      <c r="D720">
+        <v>3713.380126953125</v>
+      </c>
+      <c r="E720">
+        <v>3739.5302734375</v>
+      </c>
+      <c r="F720">
+        <f t="shared" si="8"/>
+        <v>3.7395302734375</v>
+      </c>
+      <c r="G720">
+        <v>27336128</v>
+      </c>
+      <c r="H720">
+        <v>27336128</v>
+      </c>
+    </row>
+    <row r="721" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A721" s="1">
+        <v>44979</v>
+      </c>
+      <c r="B721">
+        <v>3712.302490234375</v>
+      </c>
+      <c r="C721">
+        <v>3730.087646484375</v>
+      </c>
+      <c r="D721">
+        <v>3697.661376953125</v>
+      </c>
+      <c r="E721">
+        <v>3709.724609375</v>
+      </c>
+      <c r="F721">
+        <f t="shared" si="8"/>
+        <v>3.7097246093749998</v>
+      </c>
+      <c r="G721">
+        <v>21230264</v>
+      </c>
+      <c r="H721">
+        <v>21230264</v>
+      </c>
+    </row>
+    <row r="722" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A722" s="1">
+        <v>44980</v>
+      </c>
+      <c r="B722">
+        <v>3706.565185546875</v>
+      </c>
+      <c r="C722">
+        <v>3733.9375</v>
+      </c>
+      <c r="D722">
+        <v>3697.26171875</v>
+      </c>
+      <c r="E722">
+        <v>3713.523193359375</v>
+      </c>
+      <c r="F722">
+        <f t="shared" si="8"/>
+        <v>3.7135231933593751</v>
+      </c>
+      <c r="G722">
+        <v>22724140</v>
+      </c>
+      <c r="H722">
+        <v>22724140</v>
+      </c>
+    </row>
+    <row r="723" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A723" s="1">
+        <v>44981</v>
+      </c>
+      <c r="B723">
+        <v>3713.09033203125</v>
+      </c>
+      <c r="C723">
+        <v>3714.319580078125</v>
+      </c>
+      <c r="D723">
+        <v>3672.4208984375</v>
+      </c>
+      <c r="E723">
+        <v>3683.28759765625</v>
+      </c>
+      <c r="F723">
+        <f t="shared" si="8"/>
+        <v>3.6832875976562498</v>
+      </c>
+      <c r="G723">
+        <v>21054758</v>
+      </c>
+      <c r="H723">
+        <v>21054758</v>
+      </c>
+    </row>
+    <row r="724" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A724" s="1">
+        <v>44984</v>
+      </c>
+      <c r="B724">
+        <v>3660.90966796875</v>
+      </c>
+      <c r="C724">
+        <v>3677.21533203125</v>
+      </c>
+      <c r="D724">
+        <v>3640.158203125</v>
+      </c>
+      <c r="E724">
+        <v>3645.96533203125</v>
+      </c>
+      <c r="F724">
+        <f t="shared" si="8"/>
+        <v>3.64596533203125</v>
+      </c>
+      <c r="G724">
+        <v>20933362</v>
+      </c>
+      <c r="H724">
+        <v>20933362</v>
+      </c>
+    </row>
+    <row r="725" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A725" s="1">
+        <v>44985</v>
+      </c>
+      <c r="B725">
+        <v>3662.222900390625</v>
+      </c>
+      <c r="C725">
+        <v>3683.2353515625</v>
+      </c>
+      <c r="D725">
+        <v>3641.981689453125</v>
+      </c>
+      <c r="E725">
+        <v>3677.729248046875</v>
+      </c>
+      <c r="F725">
+        <f t="shared" si="8"/>
+        <v>3.6777292480468748</v>
+      </c>
+      <c r="G725">
+        <v>24696244</v>
+      </c>
+      <c r="H725">
+        <v>24696244</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index.xlsx
+++ b/lai/valuationquan/szseinnovation100index.xlsx
@@ -400,10 +400,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H725"/>
+  <dimension ref="A1:H762"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A710" workbookViewId="0">
-      <selection activeCell="A726" sqref="A726"/>
+    <sheetView tabSelected="1" topLeftCell="A747" workbookViewId="0">
+      <selection activeCell="A763" sqref="A763"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -17193,7 +17193,7 @@
         <v>3668.27001953125</v>
       </c>
       <c r="F623">
-        <f t="shared" ref="F623:F688" si="7">E623/1000</f>
+        <f t="shared" ref="F623:F702" si="7">E623/1000</f>
         <v>3.6682700195312501</v>
       </c>
       <c r="G623">
@@ -18177,1784 +18177,2783 @@
     </row>
     <row r="660" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A660" s="1">
-        <v>44875</v>
+        <v>44866</v>
       </c>
       <c r="B660">
-        <v>3447.840087890625</v>
+        <v>3307.79</v>
       </c>
       <c r="C660">
-        <v>3456.550048828125</v>
+        <v>3404.45</v>
       </c>
       <c r="D660">
-        <v>3395.860107421875</v>
+        <v>3288.87</v>
       </c>
       <c r="E660">
-        <v>3413.8701171875</v>
+        <v>3404.45</v>
       </c>
       <c r="F660">
         <f t="shared" si="7"/>
-        <v>3.4138701171874999</v>
+        <v>3.4044499999999998</v>
       </c>
       <c r="G660">
-        <v>20861090</v>
+        <v>32514247</v>
       </c>
       <c r="H660">
-        <v>20861090</v>
+        <v>99296747520</v>
       </c>
     </row>
     <row r="661" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A661" s="1">
-        <v>44876</v>
+        <v>44867</v>
       </c>
       <c r="B661">
-        <v>3518.199951171875</v>
+        <v>3394.83</v>
       </c>
       <c r="C661">
-        <v>3543.360107421875</v>
+        <v>3483.02</v>
       </c>
       <c r="D661">
-        <v>3481.409912109375</v>
+        <v>3390.67</v>
       </c>
       <c r="E661">
-        <v>3499.14990234375</v>
+        <v>3456.57</v>
       </c>
       <c r="F661">
         <f t="shared" si="7"/>
-        <v>3.49914990234375</v>
+        <v>3.4565700000000001</v>
       </c>
       <c r="G661">
-        <v>39530328</v>
+        <v>35100526</v>
       </c>
       <c r="H661">
-        <v>39530328</v>
+        <v>107467898880</v>
       </c>
     </row>
     <row r="662" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A662" s="1">
-        <v>44879</v>
+        <v>44868</v>
       </c>
       <c r="B662">
-        <v>3517.820068359375</v>
+        <v>3422.12</v>
       </c>
       <c r="C662">
-        <v>3547.3701171875</v>
+        <v>3454.2</v>
       </c>
       <c r="D662">
-        <v>3485.489990234375</v>
+        <v>3416.6</v>
       </c>
       <c r="E662">
-        <v>3500.659912109375</v>
+        <v>3437.99</v>
       </c>
       <c r="F662">
         <f t="shared" si="7"/>
-        <v>3.5006599121093749</v>
+        <v>3.4379899999999997</v>
       </c>
       <c r="G662">
-        <v>36659748</v>
+        <v>24913607</v>
       </c>
       <c r="H662">
-        <v>36659748</v>
+        <v>79445090304</v>
       </c>
     </row>
     <row r="663" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A663" s="1">
-        <v>44880</v>
+        <v>44869</v>
       </c>
       <c r="B663">
-        <v>3501.409912109375</v>
+        <v>3443.2</v>
       </c>
       <c r="C663">
-        <v>3587.2900390625</v>
+        <v>3561.29</v>
       </c>
       <c r="D663">
-        <v>3484.409912109375</v>
+        <v>3443.2</v>
       </c>
       <c r="E663">
-        <v>3587.2900390625</v>
+        <v>3547.9</v>
       </c>
       <c r="F663">
         <f t="shared" si="7"/>
-        <v>3.5872900390625002</v>
+        <v>3.5479000000000003</v>
       </c>
       <c r="G663">
-        <v>37644496</v>
+        <v>33543206</v>
       </c>
       <c r="H663">
-        <v>37644496</v>
+        <v>109500096512</v>
       </c>
     </row>
     <row r="664" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A664" s="1">
-        <v>44881</v>
+        <v>44872</v>
       </c>
       <c r="B664">
-        <v>3581.68994140625</v>
+        <v>3545.88</v>
       </c>
       <c r="C664">
-        <v>3593.52001953125</v>
+        <v>3573.14</v>
       </c>
       <c r="D664">
-        <v>3535.050048828125</v>
+        <v>3522.34</v>
       </c>
       <c r="E664">
-        <v>3538.889892578125</v>
+        <v>3545.15</v>
       </c>
       <c r="F664">
         <f t="shared" si="7"/>
-        <v>3.5388898925781249</v>
+        <v>3.54515</v>
       </c>
       <c r="G664">
-        <v>29536374</v>
+        <v>26571005</v>
       </c>
       <c r="H664">
-        <v>29536374</v>
+        <v>88198529024</v>
       </c>
     </row>
     <row r="665" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A665" s="1">
-        <v>44882</v>
+        <v>44873</v>
       </c>
       <c r="B665">
-        <v>3524.179931640625</v>
+        <v>3545.03</v>
       </c>
       <c r="C665">
-        <v>3524.179931640625</v>
+        <v>3551.8</v>
       </c>
       <c r="D665">
-        <v>3471.820068359375</v>
+        <v>3492.53</v>
       </c>
       <c r="E665">
-        <v>3523.830078125</v>
+        <v>3520.99</v>
       </c>
       <c r="F665">
         <f t="shared" si="7"/>
-        <v>3.523830078125</v>
+        <v>3.5209899999999998</v>
       </c>
       <c r="G665">
-        <v>25814184</v>
+        <v>23019741</v>
       </c>
       <c r="H665">
-        <v>25814184</v>
+        <v>72721850368</v>
       </c>
     </row>
     <row r="666" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A666" s="1">
-        <v>44883</v>
+        <v>44874</v>
       </c>
       <c r="B666">
-        <v>3533.02001953125</v>
+        <v>3518.9</v>
       </c>
       <c r="C666">
-        <v>3562.85009765625</v>
+        <v>3529.77</v>
       </c>
       <c r="D666">
-        <v>3518.969970703125</v>
+        <v>3480.94</v>
       </c>
       <c r="E666">
-        <v>3521.929931640625</v>
+        <v>3482.74</v>
       </c>
       <c r="F666">
         <f t="shared" si="7"/>
-        <v>3.5219299316406252</v>
+        <v>3.4827399999999997</v>
       </c>
       <c r="G666">
-        <v>30900584</v>
+        <v>19756482</v>
       </c>
       <c r="H666">
-        <v>30900584</v>
+        <v>65130156032</v>
       </c>
     </row>
     <row r="667" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A667" s="1">
-        <v>44886</v>
+        <v>44875</v>
       </c>
       <c r="B667">
-        <v>3492.5</v>
+        <v>3447.840087890625</v>
       </c>
       <c r="C667">
-        <v>3517.469970703125</v>
+        <v>3456.550048828125</v>
       </c>
       <c r="D667">
-        <v>3472.719970703125</v>
+        <v>3395.860107421875</v>
       </c>
       <c r="E667">
-        <v>3515.72998046875</v>
+        <v>3413.8701171875</v>
       </c>
       <c r="F667">
         <f t="shared" si="7"/>
-        <v>3.5157299804687501</v>
+        <v>3.4138701171874999</v>
       </c>
       <c r="G667">
-        <v>26427496</v>
+        <v>20861090</v>
       </c>
       <c r="H667">
-        <v>26427496</v>
+        <v>20861090</v>
       </c>
     </row>
     <row r="668" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A668" s="1">
-        <v>44887</v>
+        <v>44876</v>
       </c>
       <c r="B668">
-        <v>3503.659912109375</v>
+        <v>3518.199951171875</v>
       </c>
       <c r="C668">
-        <v>3509.800048828125</v>
+        <v>3543.360107421875</v>
       </c>
       <c r="D668">
-        <v>3448.469970703125</v>
+        <v>3481.409912109375</v>
       </c>
       <c r="E668">
-        <v>3461.9599609375</v>
+        <v>3499.14990234375</v>
       </c>
       <c r="F668">
         <f t="shared" si="7"/>
-        <v>3.4619599609375</v>
+        <v>3.49914990234375</v>
       </c>
       <c r="G668">
-        <v>24698522</v>
+        <v>39530328</v>
       </c>
       <c r="H668">
-        <v>24698522</v>
+        <v>39530328</v>
       </c>
     </row>
     <row r="669" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A669" s="1">
-        <v>44888</v>
+        <v>44879</v>
       </c>
       <c r="B669">
-        <v>3448.550048828125</v>
+        <v>3517.820068359375</v>
       </c>
       <c r="C669">
-        <v>3465.469970703125</v>
+        <v>3547.3701171875</v>
       </c>
       <c r="D669">
-        <v>3404.7099609375</v>
+        <v>3485.489990234375</v>
       </c>
       <c r="E669">
-        <v>3446.010009765625</v>
+        <v>3500.659912109375</v>
       </c>
       <c r="F669">
         <f t="shared" si="7"/>
-        <v>3.446010009765625</v>
+        <v>3.5006599121093749</v>
       </c>
       <c r="G669">
-        <v>21697766</v>
+        <v>36659748</v>
       </c>
       <c r="H669">
-        <v>21697766</v>
+        <v>36659748</v>
       </c>
     </row>
     <row r="670" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A670" s="1">
-        <v>44889</v>
+        <v>44880</v>
       </c>
       <c r="B670">
-        <v>3463.010009765625</v>
+        <v>3501.409912109375</v>
       </c>
       <c r="C670">
-        <v>3475.219970703125</v>
+        <v>3587.2900390625</v>
       </c>
       <c r="D670">
-        <v>3429.199951171875</v>
+        <v>3484.409912109375</v>
       </c>
       <c r="E670">
-        <v>3439.31005859375</v>
+        <v>3587.2900390625</v>
       </c>
       <c r="F670">
         <f t="shared" si="7"/>
-        <v>3.4393100585937502</v>
+        <v>3.5872900390625002</v>
       </c>
       <c r="G670">
-        <v>18827920</v>
+        <v>37644496</v>
       </c>
       <c r="H670">
-        <v>18827920</v>
+        <v>37644496</v>
       </c>
     </row>
     <row r="671" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A671" s="1">
-        <v>44890</v>
+        <v>44881</v>
       </c>
       <c r="B671">
-        <v>3427.909912109375</v>
+        <v>3581.68994140625</v>
       </c>
       <c r="C671">
-        <v>3438.139892578125</v>
+        <v>3593.52001953125</v>
       </c>
       <c r="D671">
-        <v>3410.330078125</v>
+        <v>3535.050048828125</v>
       </c>
       <c r="E671">
-        <v>3413.85009765625</v>
+        <v>3538.889892578125</v>
       </c>
       <c r="F671">
         <f t="shared" si="7"/>
-        <v>3.4138500976562498</v>
+        <v>3.5388898925781249</v>
       </c>
       <c r="G671">
-        <v>18817832</v>
+        <v>29536374</v>
       </c>
       <c r="H671">
-        <v>18817832</v>
+        <v>29536374</v>
       </c>
     </row>
     <row r="672" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A672" s="1">
-        <v>44893</v>
+        <v>44882</v>
       </c>
       <c r="B672">
-        <v>3349.239990234375</v>
+        <v>3524.179931640625</v>
       </c>
       <c r="C672">
-        <v>3392.52001953125</v>
+        <v>3524.179931640625</v>
       </c>
       <c r="D672">
-        <v>3340.739990234375</v>
+        <v>3471.820068359375</v>
       </c>
       <c r="E672">
-        <v>3389.6201171875</v>
+        <v>3523.830078125</v>
       </c>
       <c r="F672">
         <f t="shared" si="7"/>
-        <v>3.3896201171875</v>
+        <v>3.523830078125</v>
       </c>
       <c r="G672">
-        <v>21086980</v>
+        <v>25814184</v>
       </c>
       <c r="H672">
-        <v>21086980</v>
+        <v>25814184</v>
       </c>
     </row>
     <row r="673" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A673" s="1">
-        <v>44894</v>
+        <v>44883</v>
       </c>
       <c r="B673">
-        <v>3408.320068359375</v>
+        <v>3533.02001953125</v>
       </c>
       <c r="C673">
-        <v>3474.080078125</v>
+        <v>3562.85009765625</v>
       </c>
       <c r="D673">
-        <v>3402.820068359375</v>
+        <v>3518.969970703125</v>
       </c>
       <c r="E673">
-        <v>3466.5400390625</v>
+        <v>3521.929931640625</v>
       </c>
       <c r="F673">
         <f t="shared" si="7"/>
-        <v>3.4665400390625001</v>
+        <v>3.5219299316406252</v>
       </c>
       <c r="G673">
-        <v>31109882</v>
+        <v>30900584</v>
       </c>
       <c r="H673">
-        <v>31109882</v>
+        <v>30900584</v>
       </c>
     </row>
     <row r="674" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A674" s="1">
-        <v>44895</v>
+        <v>44886</v>
       </c>
       <c r="B674">
-        <v>3459.139892578125</v>
+        <v>3492.5</v>
       </c>
       <c r="C674">
-        <v>3485.0400390625</v>
+        <v>3517.469970703125</v>
       </c>
       <c r="D674">
-        <v>3448.510009765625</v>
+        <v>3472.719970703125</v>
       </c>
       <c r="E674">
-        <v>3480.2900390625</v>
+        <v>3515.72998046875</v>
       </c>
       <c r="F674">
         <f t="shared" si="7"/>
-        <v>3.4802900390625</v>
+        <v>3.5157299804687501</v>
       </c>
       <c r="G674">
-        <v>28683508</v>
+        <v>26427496</v>
       </c>
       <c r="H674">
-        <v>28683508</v>
+        <v>26427496</v>
       </c>
     </row>
     <row r="675" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A675" s="1">
-        <v>44907</v>
+        <v>44887</v>
       </c>
       <c r="B675">
-        <v>3609.10009765625</v>
+        <v>3503.659912109375</v>
       </c>
       <c r="C675">
-        <v>3629.239990234375</v>
+        <v>3509.800048828125</v>
       </c>
       <c r="D675">
-        <v>3597.340087890625</v>
+        <v>3448.469970703125</v>
       </c>
       <c r="E675">
-        <v>3607.06005859375</v>
+        <v>3461.9599609375</v>
       </c>
       <c r="F675">
         <f t="shared" si="7"/>
-        <v>3.60706005859375</v>
+        <v>3.4619599609375</v>
       </c>
       <c r="G675">
-        <v>25407580</v>
+        <v>24698522</v>
       </c>
       <c r="H675">
-        <v>25407580</v>
+        <v>24698522</v>
       </c>
     </row>
     <row r="676" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A676" s="1">
-        <v>44908</v>
+        <v>44888</v>
       </c>
       <c r="B676">
-        <v>3608.77001953125</v>
+        <v>3448.550048828125</v>
       </c>
       <c r="C676">
-        <v>3608.969970703125</v>
+        <v>3465.469970703125</v>
       </c>
       <c r="D676">
-        <v>3562.97998046875</v>
+        <v>3404.7099609375</v>
       </c>
       <c r="E676">
-        <v>3564.9599609375</v>
+        <v>3446.010009765625</v>
       </c>
       <c r="F676">
         <f t="shared" si="7"/>
-        <v>3.5649599609374998</v>
+        <v>3.446010009765625</v>
       </c>
       <c r="G676">
-        <v>20180190</v>
+        <v>21697766</v>
       </c>
       <c r="H676">
-        <v>20180190</v>
+        <v>21697766</v>
       </c>
     </row>
     <row r="677" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A677" s="1">
-        <v>44909</v>
+        <v>44889</v>
       </c>
       <c r="B677">
-        <v>3578.050048828125</v>
+        <v>3463.010009765625</v>
       </c>
       <c r="C677">
-        <v>3584.14990234375</v>
+        <v>3475.219970703125</v>
       </c>
       <c r="D677">
-        <v>3549.389892578125</v>
+        <v>3429.199951171875</v>
       </c>
       <c r="E677">
-        <v>3555.800048828125</v>
+        <v>3439.31005859375</v>
       </c>
       <c r="F677">
         <f t="shared" si="7"/>
-        <v>3.5558000488281252</v>
+        <v>3.4393100585937502</v>
       </c>
       <c r="G677">
-        <v>21631760</v>
+        <v>18827920</v>
       </c>
       <c r="H677">
-        <v>21631760</v>
+        <v>18827920</v>
       </c>
     </row>
     <row r="678" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A678" s="1">
-        <v>44910</v>
+        <v>44890</v>
       </c>
       <c r="B678">
-        <v>3552.389892578125</v>
+        <v>3427.909912109375</v>
       </c>
       <c r="C678">
-        <v>3592.31005859375</v>
+        <v>3438.139892578125</v>
       </c>
       <c r="D678">
-        <v>3548.2099609375</v>
+        <v>3410.330078125</v>
       </c>
       <c r="E678">
-        <v>3589.489990234375</v>
+        <v>3413.85009765625</v>
       </c>
       <c r="F678">
         <f t="shared" si="7"/>
-        <v>3.5894899902343749</v>
+        <v>3.4138500976562498</v>
       </c>
       <c r="G678">
-        <v>20078540</v>
+        <v>18817832</v>
       </c>
       <c r="H678">
-        <v>20078540</v>
+        <v>18817832</v>
       </c>
     </row>
     <row r="679" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A679" s="1">
-        <v>44911</v>
+        <v>44893</v>
       </c>
       <c r="B679">
-        <v>3565.719970703125</v>
+        <v>3349.239990234375</v>
       </c>
       <c r="C679">
-        <v>3577.2900390625</v>
+        <v>3392.52001953125</v>
       </c>
       <c r="D679">
-        <v>3546.7900390625</v>
+        <v>3340.739990234375</v>
       </c>
       <c r="E679">
-        <v>3567.14990234375</v>
+        <v>3389.6201171875</v>
       </c>
       <c r="F679">
         <f t="shared" si="7"/>
-        <v>3.5671499023437501</v>
+        <v>3.3896201171875</v>
       </c>
       <c r="G679">
-        <v>18673392</v>
+        <v>21086980</v>
       </c>
       <c r="H679">
-        <v>18673392</v>
+        <v>21086980</v>
       </c>
     </row>
     <row r="680" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A680" s="1">
-        <v>44914</v>
+        <v>44894</v>
       </c>
       <c r="B680">
-        <v>3565.75</v>
+        <v>3408.320068359375</v>
       </c>
       <c r="C680">
-        <v>3586.010009765625</v>
+        <v>3474.080078125</v>
       </c>
       <c r="D680">
-        <v>3513.10009765625</v>
+        <v>3402.820068359375</v>
       </c>
       <c r="E680">
-        <v>3525.510009765625</v>
+        <v>3466.5400390625</v>
       </c>
       <c r="F680">
         <f t="shared" si="7"/>
-        <v>3.5255100097656249</v>
+        <v>3.4665400390625001</v>
       </c>
       <c r="G680">
-        <v>21680292</v>
+        <v>31109882</v>
       </c>
       <c r="H680">
-        <v>21680292</v>
+        <v>31109882</v>
       </c>
     </row>
     <row r="681" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A681" s="1">
-        <v>44915</v>
+        <v>44895</v>
       </c>
       <c r="B681">
-        <v>3514.239990234375</v>
+        <v>3459.139892578125</v>
       </c>
       <c r="C681">
-        <v>3514.570068359375</v>
+        <v>3485.0400390625</v>
       </c>
       <c r="D681">
-        <v>3456.780029296875</v>
+        <v>3448.510009765625</v>
       </c>
       <c r="E681">
-        <v>3467.97998046875</v>
+        <v>3480.2900390625</v>
       </c>
       <c r="F681">
         <f t="shared" si="7"/>
-        <v>3.4679799804687499</v>
+        <v>3.4802900390625</v>
       </c>
       <c r="G681">
-        <v>18025520</v>
+        <v>28683508</v>
       </c>
       <c r="H681">
-        <v>18025520</v>
+        <v>28683508</v>
       </c>
     </row>
     <row r="682" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A682" s="1">
-        <v>44916</v>
+        <v>44896</v>
       </c>
       <c r="B682">
-        <v>3471.60009765625</v>
+        <v>3544.57</v>
       </c>
       <c r="C682">
-        <v>3481.989990234375</v>
+        <v>3562.04</v>
       </c>
       <c r="D682">
-        <v>3440.239990234375</v>
+        <v>3530.68</v>
       </c>
       <c r="E682">
-        <v>3453.199951171875</v>
+        <v>3531.42</v>
       </c>
       <c r="F682">
         <f t="shared" si="7"/>
-        <v>3.4531999511718752</v>
+        <v>3.5314200000000002</v>
       </c>
       <c r="G682">
-        <v>14782428</v>
+        <v>36192799</v>
       </c>
       <c r="H682">
-        <v>14782428</v>
+        <v>109980139520</v>
       </c>
     </row>
     <row r="683" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A683" s="1">
-        <v>44917</v>
+        <v>44897</v>
       </c>
       <c r="B683">
-        <v>3476.35009765625</v>
+        <v>3521.36</v>
       </c>
       <c r="C683">
-        <v>3489.139892578125</v>
+        <v>3547.26</v>
       </c>
       <c r="D683">
-        <v>3433.7900390625</v>
+        <v>3512.6</v>
       </c>
       <c r="E683">
-        <v>3443.830078125</v>
+        <v>3512.7</v>
       </c>
       <c r="F683">
         <f t="shared" si="7"/>
-        <v>3.443830078125</v>
+        <v>3.5126999999999997</v>
       </c>
       <c r="G683">
-        <v>19048650</v>
+        <v>23129305</v>
       </c>
       <c r="H683">
-        <v>19048650</v>
+        <v>67748864000</v>
       </c>
     </row>
     <row r="684" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A684" s="1">
-        <v>44918</v>
+        <v>44900</v>
       </c>
       <c r="B684">
-        <v>3421.8701171875</v>
+        <v>3528.98</v>
       </c>
       <c r="C684">
-        <v>3450.989990234375</v>
+        <v>3542.16</v>
       </c>
       <c r="D684">
-        <v>3409.989990234375</v>
+        <v>3513.21</v>
       </c>
       <c r="E684">
-        <v>3426.989990234375</v>
+        <v>3539.95</v>
       </c>
       <c r="F684">
         <f t="shared" si="7"/>
-        <v>3.4269899902343748</v>
+        <v>3.5399499999999997</v>
       </c>
       <c r="G684">
-        <v>14672771</v>
+        <v>33913884</v>
       </c>
       <c r="H684">
-        <v>14672771</v>
+        <v>95812288512</v>
       </c>
     </row>
     <row r="685" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A685" s="1">
-        <v>44921</v>
+        <v>44901</v>
       </c>
       <c r="B685">
-        <v>3430.8798828125</v>
+        <v>3525.64</v>
       </c>
       <c r="C685">
-        <v>3486.5</v>
+        <v>3595.84</v>
       </c>
       <c r="D685">
-        <v>3430.8798828125</v>
+        <v>3520.53</v>
       </c>
       <c r="E685">
-        <v>3480.330078125</v>
+        <v>3570.08</v>
       </c>
       <c r="F685">
         <f t="shared" si="7"/>
-        <v>3.4803300781250002</v>
+        <v>3.5700799999999999</v>
       </c>
       <c r="G685">
-        <v>16333860</v>
+        <v>30711045</v>
       </c>
       <c r="H685">
-        <v>16333860</v>
+        <v>97535811584</v>
       </c>
     </row>
     <row r="686" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A686" s="1">
-        <v>44922</v>
+        <v>44902</v>
       </c>
       <c r="B686">
-        <v>3487.590087890625</v>
+        <v>3559.21</v>
       </c>
       <c r="C686">
-        <v>3517.739990234375</v>
+        <v>3620.11</v>
       </c>
       <c r="D686">
-        <v>3476.340087890625</v>
+        <v>3559.21</v>
       </c>
       <c r="E686">
-        <v>3513.85009765625</v>
+        <v>3596.38</v>
       </c>
       <c r="F686">
         <f t="shared" si="7"/>
-        <v>3.5138500976562499</v>
+        <v>3.5963799999999999</v>
       </c>
       <c r="G686">
-        <v>16493398</v>
+        <v>29244058</v>
       </c>
       <c r="H686">
-        <v>16493398</v>
+        <v>101329567744</v>
       </c>
     </row>
     <row r="687" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A687" s="1">
-        <v>44923</v>
+        <v>44903</v>
       </c>
       <c r="B687">
-        <v>3492.9599609375</v>
+        <v>3593.01</v>
       </c>
       <c r="C687">
-        <v>3495.7099609375</v>
+        <v>3609.34</v>
       </c>
       <c r="D687">
-        <v>3455.699951171875</v>
+        <v>3579.26</v>
       </c>
       <c r="E687">
-        <v>3472.489990234375</v>
+        <v>3592.87</v>
       </c>
       <c r="F687">
         <f t="shared" si="7"/>
-        <v>3.4724899902343749</v>
+        <v>3.59287</v>
       </c>
       <c r="G687">
-        <v>17957264</v>
+        <v>23505599</v>
       </c>
       <c r="H687">
-        <v>17957264</v>
+        <v>77932265472</v>
       </c>
     </row>
     <row r="688" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A688" s="1">
-        <v>44924</v>
+        <v>44904</v>
       </c>
       <c r="B688">
-        <v>3460.449951171875</v>
+        <v>3596.55</v>
       </c>
       <c r="C688">
-        <v>3499.260009765625</v>
+        <v>3628.6</v>
       </c>
       <c r="D688">
-        <v>3456.27001953125</v>
+        <v>3585.23</v>
       </c>
       <c r="E688">
-        <v>3476.469970703125</v>
+        <v>3626.43</v>
       </c>
       <c r="F688">
         <f t="shared" si="7"/>
-        <v>3.4764699707031248</v>
+        <v>3.62643</v>
       </c>
       <c r="G688">
-        <v>16271264</v>
+        <v>28932945</v>
       </c>
       <c r="H688">
-        <v>16271264</v>
+        <v>92951527424</v>
       </c>
     </row>
     <row r="689" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A689" s="1">
-        <v>44925</v>
+        <v>44907</v>
       </c>
       <c r="B689">
-        <v>3494.699951171875</v>
+        <v>3609.10009765625</v>
       </c>
       <c r="C689">
-        <v>3507.47998046875</v>
+        <v>3629.239990234375</v>
       </c>
       <c r="D689">
-        <v>3473.530029296875</v>
+        <v>3597.340087890625</v>
       </c>
       <c r="E689">
-        <v>3473.530029296875</v>
+        <v>3607.06005859375</v>
       </c>
       <c r="F689">
-        <f t="shared" ref="F689:F725" si="8">E689/1000</f>
-        <v>3.4735300292968749</v>
+        <f t="shared" si="7"/>
+        <v>3.60706005859375</v>
       </c>
       <c r="G689">
-        <v>15288984</v>
+        <v>25407580</v>
       </c>
       <c r="H689">
-        <v>15288984</v>
+        <v>25407580</v>
       </c>
     </row>
     <row r="690" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A690" s="1">
+        <v>44908</v>
+      </c>
+      <c r="B690">
+        <v>3608.77001953125</v>
+      </c>
+      <c r="C690">
+        <v>3608.969970703125</v>
+      </c>
+      <c r="D690">
+        <v>3562.97998046875</v>
+      </c>
+      <c r="E690">
+        <v>3564.9599609375</v>
+      </c>
+      <c r="F690">
+        <f t="shared" si="7"/>
+        <v>3.5649599609374998</v>
+      </c>
+      <c r="G690">
+        <v>20180190</v>
+      </c>
+      <c r="H690">
+        <v>20180190</v>
+      </c>
+    </row>
+    <row r="691" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A691" s="1">
+        <v>44909</v>
+      </c>
+      <c r="B691">
+        <v>3578.050048828125</v>
+      </c>
+      <c r="C691">
+        <v>3584.14990234375</v>
+      </c>
+      <c r="D691">
+        <v>3549.389892578125</v>
+      </c>
+      <c r="E691">
+        <v>3555.800048828125</v>
+      </c>
+      <c r="F691">
+        <f t="shared" si="7"/>
+        <v>3.5558000488281252</v>
+      </c>
+      <c r="G691">
+        <v>21631760</v>
+      </c>
+      <c r="H691">
+        <v>21631760</v>
+      </c>
+    </row>
+    <row r="692" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A692" s="1">
+        <v>44910</v>
+      </c>
+      <c r="B692">
+        <v>3552.389892578125</v>
+      </c>
+      <c r="C692">
+        <v>3592.31005859375</v>
+      </c>
+      <c r="D692">
+        <v>3548.2099609375</v>
+      </c>
+      <c r="E692">
+        <v>3589.489990234375</v>
+      </c>
+      <c r="F692">
+        <f t="shared" si="7"/>
+        <v>3.5894899902343749</v>
+      </c>
+      <c r="G692">
+        <v>20078540</v>
+      </c>
+      <c r="H692">
+        <v>20078540</v>
+      </c>
+    </row>
+    <row r="693" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A693" s="1">
+        <v>44911</v>
+      </c>
+      <c r="B693">
+        <v>3565.719970703125</v>
+      </c>
+      <c r="C693">
+        <v>3577.2900390625</v>
+      </c>
+      <c r="D693">
+        <v>3546.7900390625</v>
+      </c>
+      <c r="E693">
+        <v>3567.14990234375</v>
+      </c>
+      <c r="F693">
+        <f t="shared" si="7"/>
+        <v>3.5671499023437501</v>
+      </c>
+      <c r="G693">
+        <v>18673392</v>
+      </c>
+      <c r="H693">
+        <v>18673392</v>
+      </c>
+    </row>
+    <row r="694" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A694" s="1">
+        <v>44914</v>
+      </c>
+      <c r="B694">
+        <v>3565.75</v>
+      </c>
+      <c r="C694">
+        <v>3586.010009765625</v>
+      </c>
+      <c r="D694">
+        <v>3513.10009765625</v>
+      </c>
+      <c r="E694">
+        <v>3525.510009765625</v>
+      </c>
+      <c r="F694">
+        <f t="shared" si="7"/>
+        <v>3.5255100097656249</v>
+      </c>
+      <c r="G694">
+        <v>21680292</v>
+      </c>
+      <c r="H694">
+        <v>21680292</v>
+      </c>
+    </row>
+    <row r="695" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A695" s="1">
+        <v>44915</v>
+      </c>
+      <c r="B695">
+        <v>3514.239990234375</v>
+      </c>
+      <c r="C695">
+        <v>3514.570068359375</v>
+      </c>
+      <c r="D695">
+        <v>3456.780029296875</v>
+      </c>
+      <c r="E695">
+        <v>3467.97998046875</v>
+      </c>
+      <c r="F695">
+        <f t="shared" si="7"/>
+        <v>3.4679799804687499</v>
+      </c>
+      <c r="G695">
+        <v>18025520</v>
+      </c>
+      <c r="H695">
+        <v>18025520</v>
+      </c>
+    </row>
+    <row r="696" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A696" s="1">
+        <v>44916</v>
+      </c>
+      <c r="B696">
+        <v>3471.60009765625</v>
+      </c>
+      <c r="C696">
+        <v>3481.989990234375</v>
+      </c>
+      <c r="D696">
+        <v>3440.239990234375</v>
+      </c>
+      <c r="E696">
+        <v>3453.199951171875</v>
+      </c>
+      <c r="F696">
+        <f t="shared" si="7"/>
+        <v>3.4531999511718752</v>
+      </c>
+      <c r="G696">
+        <v>14782428</v>
+      </c>
+      <c r="H696">
+        <v>14782428</v>
+      </c>
+    </row>
+    <row r="697" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A697" s="1">
+        <v>44917</v>
+      </c>
+      <c r="B697">
+        <v>3476.35009765625</v>
+      </c>
+      <c r="C697">
+        <v>3489.139892578125</v>
+      </c>
+      <c r="D697">
+        <v>3433.7900390625</v>
+      </c>
+      <c r="E697">
+        <v>3443.830078125</v>
+      </c>
+      <c r="F697">
+        <f t="shared" si="7"/>
+        <v>3.443830078125</v>
+      </c>
+      <c r="G697">
+        <v>19048650</v>
+      </c>
+      <c r="H697">
+        <v>19048650</v>
+      </c>
+    </row>
+    <row r="698" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A698" s="1">
+        <v>44918</v>
+      </c>
+      <c r="B698">
+        <v>3421.8701171875</v>
+      </c>
+      <c r="C698">
+        <v>3450.989990234375</v>
+      </c>
+      <c r="D698">
+        <v>3409.989990234375</v>
+      </c>
+      <c r="E698">
+        <v>3426.989990234375</v>
+      </c>
+      <c r="F698">
+        <f t="shared" si="7"/>
+        <v>3.4269899902343748</v>
+      </c>
+      <c r="G698">
+        <v>14672771</v>
+      </c>
+      <c r="H698">
+        <v>14672771</v>
+      </c>
+    </row>
+    <row r="699" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A699" s="1">
+        <v>44921</v>
+      </c>
+      <c r="B699">
+        <v>3430.8798828125</v>
+      </c>
+      <c r="C699">
+        <v>3486.5</v>
+      </c>
+      <c r="D699">
+        <v>3430.8798828125</v>
+      </c>
+      <c r="E699">
+        <v>3480.330078125</v>
+      </c>
+      <c r="F699">
+        <f t="shared" si="7"/>
+        <v>3.4803300781250002</v>
+      </c>
+      <c r="G699">
+        <v>16333860</v>
+      </c>
+      <c r="H699">
+        <v>16333860</v>
+      </c>
+    </row>
+    <row r="700" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A700" s="1">
+        <v>44922</v>
+      </c>
+      <c r="B700">
+        <v>3487.590087890625</v>
+      </c>
+      <c r="C700">
+        <v>3517.739990234375</v>
+      </c>
+      <c r="D700">
+        <v>3476.340087890625</v>
+      </c>
+      <c r="E700">
+        <v>3513.85009765625</v>
+      </c>
+      <c r="F700">
+        <f t="shared" si="7"/>
+        <v>3.5138500976562499</v>
+      </c>
+      <c r="G700">
+        <v>16493398</v>
+      </c>
+      <c r="H700">
+        <v>16493398</v>
+      </c>
+    </row>
+    <row r="701" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A701" s="1">
+        <v>44923</v>
+      </c>
+      <c r="B701">
+        <v>3492.9599609375</v>
+      </c>
+      <c r="C701">
+        <v>3495.7099609375</v>
+      </c>
+      <c r="D701">
+        <v>3455.699951171875</v>
+      </c>
+      <c r="E701">
+        <v>3472.489990234375</v>
+      </c>
+      <c r="F701">
+        <f t="shared" si="7"/>
+        <v>3.4724899902343749</v>
+      </c>
+      <c r="G701">
+        <v>17957264</v>
+      </c>
+      <c r="H701">
+        <v>17957264</v>
+      </c>
+    </row>
+    <row r="702" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A702" s="1">
+        <v>44924</v>
+      </c>
+      <c r="B702">
+        <v>3460.449951171875</v>
+      </c>
+      <c r="C702">
+        <v>3499.260009765625</v>
+      </c>
+      <c r="D702">
+        <v>3456.27001953125</v>
+      </c>
+      <c r="E702">
+        <v>3476.469970703125</v>
+      </c>
+      <c r="F702">
+        <f t="shared" si="7"/>
+        <v>3.4764699707031248</v>
+      </c>
+      <c r="G702">
+        <v>16271264</v>
+      </c>
+      <c r="H702">
+        <v>16271264</v>
+      </c>
+    </row>
+    <row r="703" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A703" s="1">
+        <v>44925</v>
+      </c>
+      <c r="B703">
+        <v>3494.699951171875</v>
+      </c>
+      <c r="C703">
+        <v>3507.47998046875</v>
+      </c>
+      <c r="D703">
+        <v>3473.530029296875</v>
+      </c>
+      <c r="E703">
+        <v>3473.530029296875</v>
+      </c>
+      <c r="F703">
+        <f t="shared" ref="F703:F762" si="8">E703/1000</f>
+        <v>3.4735300292968749</v>
+      </c>
+      <c r="G703">
+        <v>15288984</v>
+      </c>
+      <c r="H703">
+        <v>15288984</v>
+      </c>
+    </row>
+    <row r="704" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A704" s="1">
         <v>44929</v>
       </c>
-      <c r="B690">
+      <c r="B704">
         <v>3469.269287109375</v>
       </c>
-      <c r="C690">
+      <c r="C704">
         <v>3516.888427734375</v>
       </c>
-      <c r="D690">
+      <c r="D704">
         <v>3441.99169921875</v>
       </c>
-      <c r="E690">
+      <c r="E704">
         <v>3508.3173828125</v>
       </c>
-      <c r="F690">
+      <c r="F704">
         <f t="shared" si="8"/>
         <v>3.5083173828124998</v>
       </c>
-      <c r="G690">
+      <c r="G704">
         <v>22997436</v>
       </c>
-      <c r="H690">
+      <c r="H704">
         <v>22997436</v>
       </c>
     </row>
-    <row r="691" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A691" s="1">
+    <row r="705" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A705" s="1">
         <v>44930</v>
       </c>
-      <c r="B691">
+      <c r="B705">
         <v>3500.761474609375</v>
       </c>
-      <c r="C691">
+      <c r="C705">
         <v>3509.062744140625</v>
       </c>
-      <c r="D691">
+      <c r="D705">
         <v>3469.442138671875</v>
       </c>
-      <c r="E691">
+      <c r="E705">
         <v>3489.908447265625</v>
       </c>
-      <c r="F691">
+      <c r="F705">
         <f t="shared" si="8"/>
         <v>3.4899084472656252</v>
       </c>
-      <c r="G691">
+      <c r="G705">
         <v>24958500</v>
       </c>
-      <c r="H691">
+      <c r="H705">
         <v>24958500</v>
       </c>
     </row>
-    <row r="692" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A692" s="1">
+    <row r="706" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A706" s="1">
         <v>44931</v>
       </c>
-      <c r="B692">
+      <c r="B706">
         <v>3506.47021484375</v>
       </c>
-      <c r="C692">
+      <c r="C706">
         <v>3584.12353515625</v>
       </c>
-      <c r="D692">
+      <c r="D706">
         <v>3505.536376953125</v>
       </c>
-      <c r="E692">
+      <c r="E706">
         <v>3577.919921875</v>
       </c>
-      <c r="F692">
+      <c r="F706">
         <f t="shared" si="8"/>
         <v>3.577919921875</v>
       </c>
-      <c r="G692">
+      <c r="G706">
         <v>30590436</v>
       </c>
-      <c r="H692">
+      <c r="H706">
         <v>30590436</v>
       </c>
     </row>
-    <row r="693" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A693" s="1">
+    <row r="707" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A707" s="1">
         <v>44932</v>
       </c>
-      <c r="B693">
+      <c r="B707">
         <v>3573.02392578125</v>
       </c>
-      <c r="C693">
+      <c r="C707">
         <v>3624.267333984375</v>
       </c>
-      <c r="D693">
+      <c r="D707">
         <v>3572.197998046875</v>
       </c>
-      <c r="E693">
+      <c r="E707">
         <v>3590.678955078125</v>
       </c>
-      <c r="F693">
+      <c r="F707">
         <f t="shared" si="8"/>
         <v>3.5906789550781251</v>
       </c>
-      <c r="G693">
+      <c r="G707">
         <v>31453516</v>
       </c>
-      <c r="H693">
+      <c r="H707">
         <v>31453516</v>
       </c>
     </row>
-    <row r="694" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A694" s="1">
+    <row r="708" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A708" s="1">
         <v>44935</v>
       </c>
-      <c r="B694">
+      <c r="B708">
         <v>3601.79736328125</v>
       </c>
-      <c r="C694">
+      <c r="C708">
         <v>3624.94677734375</v>
       </c>
-      <c r="D694">
+      <c r="D708">
         <v>3596.2919921875</v>
       </c>
-      <c r="E694">
+      <c r="E708">
         <v>3604.57666015625</v>
       </c>
-      <c r="F694">
+      <c r="F708">
         <f t="shared" si="8"/>
         <v>3.6045766601562499</v>
       </c>
-      <c r="G694">
+      <c r="G708">
         <v>25345104</v>
       </c>
-      <c r="H694">
+      <c r="H708">
         <v>25345104</v>
       </c>
     </row>
-    <row r="695" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A695" s="1">
+    <row r="709" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A709" s="1">
         <v>44936</v>
       </c>
-      <c r="B695">
+      <c r="B709">
         <v>3607.819580078125</v>
       </c>
-      <c r="C695">
+      <c r="C709">
         <v>3646.35693359375</v>
       </c>
-      <c r="D695">
+      <c r="D709">
         <v>3592.638671875</v>
       </c>
-      <c r="E695">
+      <c r="E709">
         <v>3638.47021484375</v>
       </c>
-      <c r="F695">
+      <c r="F709">
         <f t="shared" si="8"/>
         <v>3.6384702148437502</v>
       </c>
-      <c r="G695">
+      <c r="G709">
         <v>24758556</v>
       </c>
-      <c r="H695">
+      <c r="H709">
         <v>24758556</v>
       </c>
     </row>
-    <row r="696" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A696" s="1">
+    <row r="710" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A710" s="1">
         <v>44937</v>
       </c>
-      <c r="B696">
+      <c r="B710">
         <v>3633.132568359375</v>
       </c>
-      <c r="C696">
+      <c r="C710">
         <v>3653.69287109375</v>
       </c>
-      <c r="D696">
+      <c r="D710">
         <v>3606.408203125</v>
       </c>
-      <c r="E696">
+      <c r="E710">
         <v>3610.81103515625</v>
       </c>
-      <c r="F696">
+      <c r="F710">
         <f t="shared" si="8"/>
         <v>3.6108110351562499</v>
       </c>
-      <c r="G696">
+      <c r="G710">
         <v>24229984</v>
       </c>
-      <c r="H696">
+      <c r="H710">
         <v>24229984</v>
       </c>
     </row>
-    <row r="697" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A697" s="1">
+    <row r="711" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A711" s="1">
         <v>44938</v>
       </c>
-      <c r="B697">
+      <c r="B711">
         <v>3624.650634765625</v>
       </c>
-      <c r="C697">
+      <c r="C711">
         <v>3652.45654296875</v>
       </c>
-      <c r="D697">
+      <c r="D711">
         <v>3616.583251953125</v>
       </c>
-      <c r="E697">
+      <c r="E711">
         <v>3631.021240234375</v>
       </c>
-      <c r="F697">
+      <c r="F711">
         <f t="shared" si="8"/>
         <v>3.6310212402343751</v>
       </c>
-      <c r="G697">
+      <c r="G711">
         <v>21757552</v>
       </c>
-      <c r="H697">
+      <c r="H711">
         <v>21757552</v>
       </c>
     </row>
-    <row r="698" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A698" s="1">
+    <row r="712" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A712" s="1">
         <v>44939</v>
       </c>
-      <c r="B698">
+      <c r="B712">
         <v>3653.294921875</v>
       </c>
-      <c r="C698">
+      <c r="C712">
         <v>3673.21337890625</v>
       </c>
-      <c r="D698">
+      <c r="D712">
         <v>3633.6328125</v>
       </c>
-      <c r="E698">
+      <c r="E712">
         <v>3673.21337890625</v>
       </c>
-      <c r="F698">
+      <c r="F712">
         <f t="shared" si="8"/>
         <v>3.67321337890625</v>
       </c>
-      <c r="G698">
+      <c r="G712">
         <v>21355884</v>
       </c>
-      <c r="H698">
+      <c r="H712">
         <v>21355884</v>
       </c>
     </row>
-    <row r="699" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A699" s="1">
+    <row r="713" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A713" s="1">
         <v>44942</v>
       </c>
-      <c r="B699">
+      <c r="B713">
         <v>3671.072509765625</v>
       </c>
-      <c r="C699">
+      <c r="C713">
         <v>3762.3359375</v>
       </c>
-      <c r="D699">
+      <c r="D713">
         <v>3671.072509765625</v>
       </c>
-      <c r="E699">
+      <c r="E713">
         <v>3731.450927734375</v>
       </c>
-      <c r="F699">
+      <c r="F713">
         <f t="shared" si="8"/>
         <v>3.7314509277343748</v>
       </c>
-      <c r="G699">
+      <c r="G713">
         <v>31552740</v>
       </c>
-      <c r="H699">
+      <c r="H713">
         <v>31552740</v>
       </c>
     </row>
-    <row r="700" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A700" s="1">
+    <row r="714" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A714" s="1">
         <v>44943</v>
       </c>
-      <c r="B700">
+      <c r="B714">
         <v>3735.49560546875</v>
       </c>
-      <c r="C700">
+      <c r="C714">
         <v>3756.7470703125</v>
       </c>
-      <c r="D700">
+      <c r="D714">
         <v>3730.148193359375</v>
       </c>
-      <c r="E700">
+      <c r="E714">
         <v>3745.24853515625</v>
       </c>
-      <c r="F700">
+      <c r="F714">
         <f t="shared" si="8"/>
         <v>3.7452485351562501</v>
       </c>
-      <c r="G700">
+      <c r="G714">
         <v>21888510</v>
       </c>
-      <c r="H700">
+      <c r="H714">
         <v>21888510</v>
       </c>
     </row>
-    <row r="701" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A701" s="1">
+    <row r="715" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A715" s="1">
         <v>44944</v>
       </c>
-      <c r="B701">
+      <c r="B715">
         <v>3750.16259765625</v>
       </c>
-      <c r="C701">
+      <c r="C715">
         <v>3760.9462890625</v>
       </c>
-      <c r="D701">
+      <c r="D715">
         <v>3739.308349609375</v>
       </c>
-      <c r="E701">
+      <c r="E715">
         <v>3748.58447265625</v>
       </c>
-      <c r="F701">
+      <c r="F715">
         <f t="shared" si="8"/>
         <v>3.7485844726562498</v>
       </c>
-      <c r="G701">
+      <c r="G715">
         <v>17674320</v>
       </c>
-      <c r="H701">
+      <c r="H715">
         <v>17674320</v>
       </c>
     </row>
-    <row r="702" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A702" s="1">
+    <row r="716" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A716" s="1">
         <v>44945</v>
       </c>
-      <c r="B702">
+      <c r="B716">
         <v>3743.17724609375</v>
       </c>
-      <c r="C702">
+      <c r="C716">
         <v>3780.742431640625</v>
       </c>
-      <c r="D702">
+      <c r="D716">
         <v>3733.563720703125</v>
       </c>
-      <c r="E702">
+      <c r="E716">
         <v>3780.742431640625</v>
       </c>
-      <c r="F702">
+      <c r="F716">
         <f t="shared" si="8"/>
         <v>3.7807424316406251</v>
       </c>
-      <c r="G702">
+      <c r="G716">
         <v>22880750</v>
       </c>
-      <c r="H702">
+      <c r="H716">
         <v>22880750</v>
       </c>
     </row>
-    <row r="703" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A703" s="1">
+    <row r="717" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A717" s="1">
         <v>44946</v>
       </c>
-      <c r="B703">
+      <c r="B717">
         <v>3790.78759765625</v>
       </c>
-      <c r="C703">
+      <c r="C717">
         <v>3804.211181640625</v>
       </c>
-      <c r="D703">
+      <c r="D717">
         <v>3779.6181640625</v>
       </c>
-      <c r="E703">
+      <c r="E717">
         <v>3797.16845703125</v>
       </c>
-      <c r="F703">
+      <c r="F717">
         <f t="shared" si="8"/>
         <v>3.7971684570312498</v>
       </c>
-      <c r="G703">
+      <c r="G717">
         <v>22100910</v>
       </c>
-      <c r="H703">
+      <c r="H717">
         <v>22100910</v>
       </c>
     </row>
-    <row r="704" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A704" s="1">
+    <row r="718" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A718" s="1">
         <v>44956</v>
       </c>
-      <c r="B704">
+      <c r="B718">
         <v>3897.607421875</v>
       </c>
-      <c r="C704">
+      <c r="C718">
         <v>3912.39501953125</v>
       </c>
-      <c r="D704">
+      <c r="D718">
         <v>3848.337158203125</v>
       </c>
-      <c r="E704">
+      <c r="E718">
         <v>3853.490234375</v>
       </c>
-      <c r="F704">
+      <c r="F718">
         <f t="shared" si="8"/>
         <v>3.8534902343750002</v>
       </c>
-      <c r="G704">
+      <c r="G718">
         <v>37655500</v>
       </c>
-      <c r="H704">
+      <c r="H718">
         <v>37655500</v>
       </c>
     </row>
-    <row r="705" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A705" s="1">
+    <row r="719" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A719" s="1">
         <v>44957</v>
       </c>
-      <c r="B705">
+      <c r="B719">
         <v>3849.224609375</v>
       </c>
-      <c r="C705">
+      <c r="C719">
         <v>3857.215087890625</v>
       </c>
-      <c r="D705">
+      <c r="D719">
         <v>3805.035888671875</v>
       </c>
-      <c r="E705">
+      <c r="E719">
         <v>3811.03369140625</v>
       </c>
-      <c r="F705">
+      <c r="F719">
         <f t="shared" si="8"/>
         <v>3.8110336914062501</v>
       </c>
-      <c r="G705">
+      <c r="G719">
         <v>30250528</v>
       </c>
-      <c r="H705">
+      <c r="H719">
         <v>30250528</v>
       </c>
     </row>
-    <row r="706" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A706" s="1">
+    <row r="720" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A720" s="1">
         <v>44958</v>
       </c>
-      <c r="B706">
+      <c r="B720">
         <v>3826.91259765625</v>
       </c>
-      <c r="C706">
+      <c r="C720">
         <v>3861.890380859375</v>
       </c>
-      <c r="D706">
+      <c r="D720">
         <v>3809.948486328125</v>
       </c>
-      <c r="E706">
+      <c r="E720">
         <v>3861.890380859375</v>
       </c>
-      <c r="F706">
+      <c r="F720">
         <f t="shared" si="8"/>
         <v>3.861890380859375</v>
       </c>
-      <c r="G706">
+      <c r="G720">
         <v>31717178</v>
       </c>
-      <c r="H706">
+      <c r="H720">
         <v>31717178</v>
       </c>
     </row>
-    <row r="707" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A707" s="1">
+    <row r="721" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A721" s="1">
         <v>44959</v>
       </c>
-      <c r="B707">
+      <c r="B721">
         <v>3870.02783203125</v>
       </c>
-      <c r="C707">
+      <c r="C721">
         <v>3875.9189453125</v>
       </c>
-      <c r="D707">
+      <c r="D721">
         <v>3834.403564453125</v>
       </c>
-      <c r="E707">
+      <c r="E721">
         <v>3841.62939453125</v>
       </c>
-      <c r="F707">
+      <c r="F721">
         <f t="shared" si="8"/>
         <v>3.8416293945312501</v>
       </c>
-      <c r="G707">
+      <c r="G721">
         <v>27523888</v>
       </c>
-      <c r="H707">
+      <c r="H721">
         <v>27523888</v>
       </c>
     </row>
-    <row r="708" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A708" s="1">
+    <row r="722" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A722" s="1">
         <v>44960</v>
       </c>
-      <c r="B708">
+      <c r="B722">
         <v>3827.781982421875</v>
       </c>
-      <c r="C708">
+      <c r="C722">
         <v>3834.679931640625</v>
       </c>
-      <c r="D708">
+      <c r="D722">
         <v>3764.18212890625</v>
       </c>
-      <c r="E708">
+      <c r="E722">
         <v>3814.672607421875</v>
       </c>
-      <c r="F708">
+      <c r="F722">
         <f t="shared" si="8"/>
         <v>3.8146726074218749</v>
       </c>
-      <c r="G708">
+      <c r="G722">
         <v>26531142</v>
       </c>
-      <c r="H708">
+      <c r="H722">
         <v>26531142</v>
       </c>
     </row>
-    <row r="709" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A709" s="1">
+    <row r="723" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A723" s="1">
         <v>44963</v>
       </c>
-      <c r="B709">
+      <c r="B723">
         <v>3787.275390625</v>
       </c>
-      <c r="C709">
+      <c r="C723">
         <v>3792.05712890625</v>
       </c>
-      <c r="D709">
+      <c r="D723">
         <v>3741.56640625</v>
       </c>
-      <c r="E709">
+      <c r="E723">
         <v>3767.203125</v>
       </c>
-      <c r="F709">
+      <c r="F723">
         <f t="shared" si="8"/>
         <v>3.767203125</v>
       </c>
-      <c r="G709">
+      <c r="G723">
         <v>28317204</v>
       </c>
-      <c r="H709">
+      <c r="H723">
         <v>28317204</v>
       </c>
     </row>
-    <row r="710" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A710" s="1">
+    <row r="724" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A724" s="1">
         <v>44964</v>
       </c>
-      <c r="B710">
+      <c r="B724">
         <v>3776.9912109375</v>
       </c>
-      <c r="C710">
+      <c r="C724">
         <v>3785.594482421875</v>
       </c>
-      <c r="D710">
+      <c r="D724">
         <v>3749.65185546875</v>
       </c>
-      <c r="E710">
+      <c r="E724">
         <v>3765.985595703125</v>
       </c>
-      <c r="F710">
+      <c r="F724">
         <f t="shared" si="8"/>
         <v>3.7659855957031252</v>
       </c>
-      <c r="G710">
+      <c r="G724">
         <v>24796046</v>
       </c>
-      <c r="H710">
+      <c r="H724">
         <v>24796046</v>
       </c>
     </row>
-    <row r="711" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A711" s="1">
+    <row r="725" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A725" s="1">
         <v>44965</v>
       </c>
-      <c r="B711">
+      <c r="B725">
         <v>3771.941650390625</v>
       </c>
-      <c r="C711">
+      <c r="C725">
         <v>3779.919189453125</v>
       </c>
-      <c r="D711">
+      <c r="D725">
         <v>3744.5322265625</v>
       </c>
-      <c r="E711">
+      <c r="E725">
         <v>3748.6572265625</v>
       </c>
-      <c r="F711">
+      <c r="F725">
         <f t="shared" si="8"/>
         <v>3.7486572265625</v>
       </c>
-      <c r="G711">
+      <c r="G725">
         <v>21148778</v>
       </c>
-      <c r="H711">
+      <c r="H725">
         <v>21148778</v>
       </c>
     </row>
-    <row r="712" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A712" s="1">
+    <row r="726" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A726" s="1">
         <v>44966</v>
       </c>
-      <c r="B712">
+      <c r="B726">
         <v>3737.456787109375</v>
       </c>
-      <c r="C712">
+      <c r="C726">
         <v>3805.634033203125</v>
       </c>
-      <c r="D712">
+      <c r="D726">
         <v>3728.27880859375</v>
       </c>
-      <c r="E712">
+      <c r="E726">
         <v>3805.634033203125</v>
       </c>
-      <c r="F712">
+      <c r="F726">
         <f t="shared" si="8"/>
         <v>3.8056340332031251</v>
       </c>
-      <c r="G712">
+      <c r="G726">
         <v>26926806</v>
       </c>
-      <c r="H712">
+      <c r="H726">
         <v>26926806</v>
       </c>
     </row>
-    <row r="713" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A713" s="1">
+    <row r="727" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A727" s="1">
         <v>44967</v>
       </c>
-      <c r="B713">
+      <c r="B727">
         <v>3799.178466796875</v>
       </c>
-      <c r="C713">
+      <c r="C727">
         <v>3808.2763671875</v>
       </c>
-      <c r="D713">
+      <c r="D727">
         <v>3756.863037109375</v>
       </c>
-      <c r="E713">
+      <c r="E727">
         <v>3773.57568359375</v>
       </c>
-      <c r="F713">
+      <c r="F727">
         <f t="shared" si="8"/>
         <v>3.7735756835937502</v>
       </c>
-      <c r="G713">
+      <c r="G727">
         <v>25391758</v>
       </c>
-      <c r="H713">
+      <c r="H727">
         <v>25391758</v>
       </c>
     </row>
-    <row r="714" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A714" s="1">
+    <row r="728" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A728" s="1">
         <v>44970</v>
       </c>
-      <c r="B714">
+      <c r="B728">
         <v>3769.485595703125</v>
       </c>
-      <c r="C714">
+      <c r="C728">
         <v>3811.090576171875</v>
       </c>
-      <c r="D714">
+      <c r="D728">
         <v>3759.244384765625</v>
       </c>
-      <c r="E714">
+      <c r="E728">
         <v>3810.79931640625</v>
       </c>
-      <c r="F714">
+      <c r="F728">
         <f t="shared" si="8"/>
         <v>3.8107993164062499</v>
       </c>
-      <c r="G714">
+      <c r="G728">
         <v>30213038</v>
       </c>
-      <c r="H714">
+      <c r="H728">
         <v>30213038</v>
       </c>
     </row>
-    <row r="715" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A715" s="1">
+    <row r="729" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A729" s="1">
         <v>44971</v>
       </c>
-      <c r="B715">
+      <c r="B729">
         <v>3824.993896484375</v>
       </c>
-      <c r="C715">
+      <c r="C729">
         <v>3825.396728515625</v>
       </c>
-      <c r="D715">
+      <c r="D729">
         <v>3778.573974609375</v>
       </c>
-      <c r="E715">
+      <c r="E729">
         <v>3799.543212890625</v>
       </c>
-      <c r="F715">
+      <c r="F729">
         <f t="shared" si="8"/>
         <v>3.799543212890625</v>
       </c>
-      <c r="G715">
+      <c r="G729">
         <v>22650280</v>
       </c>
-      <c r="H715">
+      <c r="H729">
         <v>22650280</v>
       </c>
     </row>
-    <row r="716" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A716" s="1">
+    <row r="730" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A730" s="1">
         <v>44972</v>
       </c>
-      <c r="B716">
+      <c r="B730">
         <v>3803.33544921875</v>
       </c>
-      <c r="C716">
+      <c r="C730">
         <v>3819.007080078125</v>
       </c>
-      <c r="D716">
+      <c r="D730">
         <v>3780.156005859375</v>
       </c>
-      <c r="E716">
+      <c r="E730">
         <v>3792.92822265625</v>
       </c>
-      <c r="F716">
+      <c r="F730">
         <f t="shared" si="8"/>
         <v>3.7929282226562502</v>
       </c>
-      <c r="G716">
+      <c r="G730">
         <v>32648264</v>
       </c>
-      <c r="H716">
+      <c r="H730">
         <v>32648264</v>
       </c>
     </row>
-    <row r="717" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A717" s="1">
+    <row r="731" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A731" s="1">
         <v>44973</v>
       </c>
-      <c r="B717">
+      <c r="B731">
         <v>3795.4775390625</v>
       </c>
-      <c r="C717">
+      <c r="C731">
         <v>3828.3017578125</v>
       </c>
-      <c r="D717">
+      <c r="D731">
         <v>3725.235595703125</v>
       </c>
-      <c r="E717">
+      <c r="E731">
         <v>3750.837646484375</v>
       </c>
-      <c r="F717">
+      <c r="F731">
         <f t="shared" si="8"/>
         <v>3.7508376464843751</v>
       </c>
-      <c r="G717">
+      <c r="G731">
         <v>36710000</v>
       </c>
-      <c r="H717">
+      <c r="H731">
         <v>36710000</v>
       </c>
     </row>
-    <row r="718" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A718" s="1">
+    <row r="732" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A732" s="1">
         <v>44974</v>
       </c>
-      <c r="B718">
+      <c r="B732">
         <v>3745.79541015625</v>
       </c>
-      <c r="C718">
+      <c r="C732">
         <v>3750.267578125</v>
       </c>
-      <c r="D718">
+      <c r="D732">
         <v>3665.463134765625</v>
       </c>
-      <c r="E718">
+      <c r="E732">
         <v>3666.324462890625</v>
       </c>
-      <c r="F718">
+      <c r="F732">
         <f t="shared" si="8"/>
         <v>3.6663244628906249</v>
       </c>
-      <c r="G718">
+      <c r="G732">
         <v>28534430</v>
       </c>
-      <c r="H718">
+      <c r="H732">
         <v>28534430</v>
       </c>
     </row>
-    <row r="719" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A719" s="1">
+    <row r="733" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A733" s="1">
         <v>44977</v>
       </c>
-      <c r="B719">
+      <c r="B733">
         <v>3659.568603515625</v>
       </c>
-      <c r="C719">
+      <c r="C733">
         <v>3738.56591796875</v>
       </c>
-      <c r="D719">
+      <c r="D733">
         <v>3645.048095703125</v>
       </c>
-      <c r="E719">
+      <c r="E733">
         <v>3738.56591796875</v>
       </c>
-      <c r="F719">
+      <c r="F733">
         <f t="shared" si="8"/>
         <v>3.7385659179687498</v>
       </c>
-      <c r="G719">
+      <c r="G733">
         <v>32727740</v>
       </c>
-      <c r="H719">
+      <c r="H733">
         <v>32727740</v>
       </c>
     </row>
-    <row r="720" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A720" s="1">
+    <row r="734" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A734" s="1">
         <v>44978</v>
       </c>
-      <c r="B720">
+      <c r="B734">
         <v>3732.120849609375</v>
       </c>
-      <c r="C720">
+      <c r="C734">
         <v>3753.77587890625</v>
       </c>
-      <c r="D720">
+      <c r="D734">
         <v>3713.380126953125</v>
       </c>
-      <c r="E720">
+      <c r="E734">
         <v>3739.5302734375</v>
       </c>
-      <c r="F720">
+      <c r="F734">
         <f t="shared" si="8"/>
         <v>3.7395302734375</v>
       </c>
-      <c r="G720">
+      <c r="G734">
         <v>27336128</v>
       </c>
-      <c r="H720">
+      <c r="H734">
         <v>27336128</v>
       </c>
     </row>
-    <row r="721" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A721" s="1">
+    <row r="735" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A735" s="1">
         <v>44979</v>
       </c>
-      <c r="B721">
+      <c r="B735">
         <v>3712.302490234375</v>
       </c>
-      <c r="C721">
+      <c r="C735">
         <v>3730.087646484375</v>
       </c>
-      <c r="D721">
+      <c r="D735">
         <v>3697.661376953125</v>
       </c>
-      <c r="E721">
+      <c r="E735">
         <v>3709.724609375</v>
       </c>
-      <c r="F721">
+      <c r="F735">
         <f t="shared" si="8"/>
         <v>3.7097246093749998</v>
       </c>
-      <c r="G721">
+      <c r="G735">
         <v>21230264</v>
       </c>
-      <c r="H721">
+      <c r="H735">
         <v>21230264</v>
       </c>
     </row>
-    <row r="722" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A722" s="1">
+    <row r="736" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A736" s="1">
         <v>44980</v>
       </c>
-      <c r="B722">
+      <c r="B736">
         <v>3706.565185546875</v>
       </c>
-      <c r="C722">
+      <c r="C736">
         <v>3733.9375</v>
       </c>
-      <c r="D722">
+      <c r="D736">
         <v>3697.26171875</v>
       </c>
-      <c r="E722">
+      <c r="E736">
         <v>3713.523193359375</v>
       </c>
-      <c r="F722">
+      <c r="F736">
         <f t="shared" si="8"/>
         <v>3.7135231933593751</v>
       </c>
-      <c r="G722">
+      <c r="G736">
         <v>22724140</v>
       </c>
-      <c r="H722">
+      <c r="H736">
         <v>22724140</v>
       </c>
     </row>
-    <row r="723" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A723" s="1">
+    <row r="737" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A737" s="1">
         <v>44981</v>
       </c>
-      <c r="B723">
+      <c r="B737">
         <v>3713.09033203125</v>
       </c>
-      <c r="C723">
+      <c r="C737">
         <v>3714.319580078125</v>
       </c>
-      <c r="D723">
+      <c r="D737">
         <v>3672.4208984375</v>
       </c>
-      <c r="E723">
+      <c r="E737">
         <v>3683.28759765625</v>
       </c>
-      <c r="F723">
+      <c r="F737">
         <f t="shared" si="8"/>
         <v>3.6832875976562498</v>
       </c>
-      <c r="G723">
+      <c r="G737">
         <v>21054758</v>
       </c>
-      <c r="H723">
+      <c r="H737">
         <v>21054758</v>
       </c>
     </row>
-    <row r="724" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A724" s="1">
+    <row r="738" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A738" s="1">
         <v>44984</v>
       </c>
-      <c r="B724">
+      <c r="B738">
         <v>3660.90966796875</v>
       </c>
-      <c r="C724">
+      <c r="C738">
         <v>3677.21533203125</v>
       </c>
-      <c r="D724">
+      <c r="D738">
         <v>3640.158203125</v>
       </c>
-      <c r="E724">
+      <c r="E738">
         <v>3645.96533203125</v>
       </c>
-      <c r="F724">
+      <c r="F738">
         <f t="shared" si="8"/>
         <v>3.64596533203125</v>
       </c>
-      <c r="G724">
+      <c r="G738">
         <v>20933362</v>
       </c>
-      <c r="H724">
+      <c r="H738">
         <v>20933362</v>
       </c>
     </row>
-    <row r="725" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A725" s="1">
+    <row r="739" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A739" s="1">
         <v>44985</v>
       </c>
-      <c r="B725">
+      <c r="B739">
         <v>3662.222900390625</v>
       </c>
-      <c r="C725">
+      <c r="C739">
         <v>3683.2353515625</v>
       </c>
-      <c r="D725">
+      <c r="D739">
         <v>3641.981689453125</v>
       </c>
-      <c r="E725">
+      <c r="E739">
         <v>3677.729248046875</v>
       </c>
-      <c r="F725">
+      <c r="F739">
         <f t="shared" si="8"/>
         <v>3.6777292480468748</v>
       </c>
-      <c r="G725">
+      <c r="G739">
         <v>24696244</v>
       </c>
-      <c r="H725">
+      <c r="H739">
         <v>24696244</v>
+      </c>
+    </row>
+    <row r="740" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A740" s="1">
+        <v>44986</v>
+      </c>
+      <c r="B740">
+        <v>3679.235595703125</v>
+      </c>
+      <c r="C740">
+        <v>3734.964111328125</v>
+      </c>
+      <c r="D740">
+        <v>3671.52880859375</v>
+      </c>
+      <c r="E740">
+        <v>3727.04296875</v>
+      </c>
+      <c r="F740">
+        <f t="shared" si="8"/>
+        <v>3.7270429687500002</v>
+      </c>
+      <c r="G740">
+        <v>30295198</v>
+      </c>
+      <c r="H740">
+        <v>30295198</v>
+      </c>
+    </row>
+    <row r="741" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A741" s="1">
+        <v>44987</v>
+      </c>
+      <c r="B741">
+        <v>3724.690185546875</v>
+      </c>
+      <c r="C741">
+        <v>3737.31591796875</v>
+      </c>
+      <c r="D741">
+        <v>3699.3193359375</v>
+      </c>
+      <c r="E741">
+        <v>3703.163818359375</v>
+      </c>
+      <c r="F741">
+        <f t="shared" si="8"/>
+        <v>3.7031638183593749</v>
+      </c>
+      <c r="G741">
+        <v>25896448</v>
+      </c>
+      <c r="H741">
+        <v>25896448</v>
+      </c>
+    </row>
+    <row r="742" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A742" s="1">
+        <v>44988</v>
+      </c>
+      <c r="B742">
+        <v>3707.760498046875</v>
+      </c>
+      <c r="C742">
+        <v>3719.341552734375</v>
+      </c>
+      <c r="D742">
+        <v>3677.580810546875</v>
+      </c>
+      <c r="E742">
+        <v>3700.079833984375</v>
+      </c>
+      <c r="F742">
+        <f t="shared" si="8"/>
+        <v>3.700079833984375</v>
+      </c>
+      <c r="G742">
+        <v>19661852</v>
+      </c>
+      <c r="H742">
+        <v>19661852</v>
+      </c>
+    </row>
+    <row r="743" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A743" s="1">
+        <v>44991</v>
+      </c>
+      <c r="B743">
+        <v>3700.73779296875</v>
+      </c>
+      <c r="C743">
+        <v>3716.0791015625</v>
+      </c>
+      <c r="D743">
+        <v>3663.602294921875</v>
+      </c>
+      <c r="E743">
+        <v>3710.91259765625</v>
+      </c>
+      <c r="F743">
+        <f t="shared" si="8"/>
+        <v>3.7109125976562498</v>
+      </c>
+      <c r="G743">
+        <v>29963614</v>
+      </c>
+      <c r="H743">
+        <v>29963614</v>
+      </c>
+    </row>
+    <row r="744" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A744" s="1">
+        <v>44992</v>
+      </c>
+      <c r="B744">
+        <v>3702.102294921875</v>
+      </c>
+      <c r="C744">
+        <v>3710.8408203125</v>
+      </c>
+      <c r="D744">
+        <v>3639.647216796875</v>
+      </c>
+      <c r="E744">
+        <v>3642.208984375</v>
+      </c>
+      <c r="F744">
+        <f t="shared" si="8"/>
+        <v>3.6422089843749998</v>
+      </c>
+      <c r="G744">
+        <v>28751324</v>
+      </c>
+      <c r="H744">
+        <v>28751324</v>
+      </c>
+    </row>
+    <row r="745" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A745" s="1">
+        <v>44993</v>
+      </c>
+      <c r="B745">
+        <v>3628.21240234375</v>
+      </c>
+      <c r="C745">
+        <v>3639.055908203125</v>
+      </c>
+      <c r="D745">
+        <v>3610.260498046875</v>
+      </c>
+      <c r="E745">
+        <v>3631.111328125</v>
+      </c>
+      <c r="F745">
+        <f t="shared" si="8"/>
+        <v>3.6311113281249998</v>
+      </c>
+      <c r="G745">
+        <v>20982288</v>
+      </c>
+      <c r="H745">
+        <v>20982288</v>
+      </c>
+    </row>
+    <row r="746" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A746" s="1">
+        <v>44994</v>
+      </c>
+      <c r="B746">
+        <v>3632.78173828125</v>
+      </c>
+      <c r="C746">
+        <v>3655.949951171875</v>
+      </c>
+      <c r="D746">
+        <v>3620.01806640625</v>
+      </c>
+      <c r="E746">
+        <v>3635.63720703125</v>
+      </c>
+      <c r="F746">
+        <f t="shared" si="8"/>
+        <v>3.6356372070312499</v>
+      </c>
+      <c r="G746">
+        <v>21059694</v>
+      </c>
+      <c r="H746">
+        <v>21059694</v>
+      </c>
+    </row>
+    <row r="747" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A747" s="1">
+        <v>44995</v>
+      </c>
+      <c r="B747">
+        <v>3616.142578125</v>
+      </c>
+      <c r="C747">
+        <v>3633.265380859375</v>
+      </c>
+      <c r="D747">
+        <v>3594.03271484375</v>
+      </c>
+      <c r="E747">
+        <v>3600.42333984375</v>
+      </c>
+      <c r="F747">
+        <f t="shared" si="8"/>
+        <v>3.6004233398437502</v>
+      </c>
+      <c r="G747">
+        <v>24005168</v>
+      </c>
+      <c r="H747">
+        <v>24005168</v>
+      </c>
+    </row>
+    <row r="748" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A748" s="1">
+        <v>44998</v>
+      </c>
+      <c r="B748">
+        <v>3585.982666015625</v>
+      </c>
+      <c r="C748">
+        <v>3617.8994140625</v>
+      </c>
+      <c r="D748">
+        <v>3581.552490234375</v>
+      </c>
+      <c r="E748">
+        <v>3611.220703125</v>
+      </c>
+      <c r="F748">
+        <f t="shared" si="8"/>
+        <v>3.6112207031249999</v>
+      </c>
+      <c r="G748">
+        <v>26213920</v>
+      </c>
+      <c r="H748">
+        <v>26213920</v>
+      </c>
+    </row>
+    <row r="749" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A749" s="1">
+        <v>44999</v>
+      </c>
+      <c r="B749">
+        <v>3602.19482421875</v>
+      </c>
+      <c r="C749">
+        <v>3603.126953125</v>
+      </c>
+      <c r="D749">
+        <v>3529.0546875</v>
+      </c>
+      <c r="E749">
+        <v>3578.468017578125</v>
+      </c>
+      <c r="F749">
+        <f t="shared" si="8"/>
+        <v>3.5784680175781252</v>
+      </c>
+      <c r="G749">
+        <v>25717436</v>
+      </c>
+      <c r="H749">
+        <v>25717436</v>
+      </c>
+    </row>
+    <row r="750" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A750" s="1">
+        <v>45000</v>
+      </c>
+      <c r="B750">
+        <v>3603.0341796875</v>
+      </c>
+      <c r="C750">
+        <v>3622.616943359375</v>
+      </c>
+      <c r="D750">
+        <v>3570.852294921875</v>
+      </c>
+      <c r="E750">
+        <v>3573.798583984375</v>
+      </c>
+      <c r="F750">
+        <f t="shared" si="8"/>
+        <v>3.5737985839843751</v>
+      </c>
+      <c r="G750">
+        <v>23488994</v>
+      </c>
+      <c r="H750">
+        <v>23488994</v>
+      </c>
+    </row>
+    <row r="751" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A751" s="1">
+        <v>45001</v>
+      </c>
+      <c r="B751">
+        <v>3543.778564453125</v>
+      </c>
+      <c r="C751">
+        <v>3560.405029296875</v>
+      </c>
+      <c r="D751">
+        <v>3508.775146484375</v>
+      </c>
+      <c r="E751">
+        <v>3514.404296875</v>
+      </c>
+      <c r="F751">
+        <f t="shared" si="8"/>
+        <v>3.514404296875</v>
+      </c>
+      <c r="G751">
+        <v>23269764</v>
+      </c>
+      <c r="H751">
+        <v>23269764</v>
+      </c>
+    </row>
+    <row r="752" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A752" s="1">
+        <v>45002</v>
+      </c>
+      <c r="B752">
+        <v>3545.07470703125</v>
+      </c>
+      <c r="C752">
+        <v>3564.849365234375</v>
+      </c>
+      <c r="D752">
+        <v>3518.380615234375</v>
+      </c>
+      <c r="E752">
+        <v>3528.466552734375</v>
+      </c>
+      <c r="F752">
+        <f t="shared" si="8"/>
+        <v>3.528466552734375</v>
+      </c>
+      <c r="G752">
+        <v>31446372</v>
+      </c>
+      <c r="H752">
+        <v>31446372</v>
+      </c>
+    </row>
+    <row r="753" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A753" s="1">
+        <v>45005</v>
+      </c>
+      <c r="B753">
+        <v>3529.004150390625</v>
+      </c>
+      <c r="C753">
+        <v>3565.441162109375</v>
+      </c>
+      <c r="D753">
+        <v>3520.334228515625</v>
+      </c>
+      <c r="E753">
+        <v>3529.935791015625</v>
+      </c>
+      <c r="F753">
+        <f t="shared" si="8"/>
+        <v>3.529935791015625</v>
+      </c>
+      <c r="G753">
+        <v>33132518</v>
+      </c>
+      <c r="H753">
+        <v>33132518</v>
+      </c>
+    </row>
+    <row r="754" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A754" s="1">
+        <v>45006</v>
+      </c>
+      <c r="B754">
+        <v>3536.402099609375</v>
+      </c>
+      <c r="C754">
+        <v>3588.783203125</v>
+      </c>
+      <c r="D754">
+        <v>3536.402099609375</v>
+      </c>
+      <c r="E754">
+        <v>3588.783203125</v>
+      </c>
+      <c r="F754">
+        <f t="shared" si="8"/>
+        <v>3.5887832031250002</v>
+      </c>
+      <c r="G754">
+        <v>25029820</v>
+      </c>
+      <c r="H754">
+        <v>25029820</v>
+      </c>
+    </row>
+    <row r="755" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A755" s="1">
+        <v>45007</v>
+      </c>
+      <c r="B755">
+        <v>3603.396484375</v>
+      </c>
+      <c r="C755">
+        <v>3630.830810546875</v>
+      </c>
+      <c r="D755">
+        <v>3600.8125</v>
+      </c>
+      <c r="E755">
+        <v>3622.9248046875</v>
+      </c>
+      <c r="F755">
+        <f t="shared" si="8"/>
+        <v>3.6229248046875</v>
+      </c>
+      <c r="G755">
+        <v>35154724</v>
+      </c>
+      <c r="H755">
+        <v>35154724</v>
+      </c>
+    </row>
+    <row r="756" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A756" s="1">
+        <v>45008</v>
+      </c>
+      <c r="B756">
+        <v>3610.755615234375</v>
+      </c>
+      <c r="C756">
+        <v>3668.856689453125</v>
+      </c>
+      <c r="D756">
+        <v>3605.07080078125</v>
+      </c>
+      <c r="E756">
+        <v>3668.856689453125</v>
+      </c>
+      <c r="F756">
+        <f t="shared" si="8"/>
+        <v>3.6688566894531252</v>
+      </c>
+      <c r="G756">
+        <v>38024412</v>
+      </c>
+      <c r="H756">
+        <v>38024412</v>
+      </c>
+    </row>
+    <row r="757" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A757" s="1">
+        <v>45009</v>
+      </c>
+      <c r="B757">
+        <v>3669.477783203125</v>
+      </c>
+      <c r="C757">
+        <v>3677.586181640625</v>
+      </c>
+      <c r="D757">
+        <v>3652.59228515625</v>
+      </c>
+      <c r="E757">
+        <v>3675.0947265625</v>
+      </c>
+      <c r="F757">
+        <f t="shared" si="8"/>
+        <v>3.6750947265625</v>
+      </c>
+      <c r="G757">
+        <v>35922184</v>
+      </c>
+      <c r="H757">
+        <v>35922184</v>
+      </c>
+    </row>
+    <row r="758" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A758" s="1">
+        <v>45012</v>
+      </c>
+      <c r="B758">
+        <v>3669.6025390625</v>
+      </c>
+      <c r="C758">
+        <v>3686.9560546875</v>
+      </c>
+      <c r="D758">
+        <v>3650.401611328125</v>
+      </c>
+      <c r="E758">
+        <v>3681.478515625</v>
+      </c>
+      <c r="F758">
+        <f t="shared" si="8"/>
+        <v>3.6814785156249998</v>
+      </c>
+      <c r="G758">
+        <v>36559016</v>
+      </c>
+      <c r="H758">
+        <v>36559016</v>
+      </c>
+    </row>
+    <row r="759" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A759" s="1">
+        <v>45013</v>
+      </c>
+      <c r="B759">
+        <v>3673.244140625</v>
+      </c>
+      <c r="C759">
+        <v>3676.364501953125</v>
+      </c>
+      <c r="D759">
+        <v>3636.5078125</v>
+      </c>
+      <c r="E759">
+        <v>3641.67138671875</v>
+      </c>
+      <c r="F759">
+        <f t="shared" si="8"/>
+        <v>3.64167138671875</v>
+      </c>
+      <c r="G759">
+        <v>29782836</v>
+      </c>
+      <c r="H759">
+        <v>29782836</v>
+      </c>
+    </row>
+    <row r="760" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A760" s="1">
+        <v>45014</v>
+      </c>
+      <c r="B760">
+        <v>3649.276611328125</v>
+      </c>
+      <c r="C760">
+        <v>3678.656982421875</v>
+      </c>
+      <c r="D760">
+        <v>3646.605712890625</v>
+      </c>
+      <c r="E760">
+        <v>3664.1455078125</v>
+      </c>
+      <c r="F760">
+        <f t="shared" si="8"/>
+        <v>3.6641455078125</v>
+      </c>
+      <c r="G760">
+        <v>26763098</v>
+      </c>
+      <c r="H760">
+        <v>26763098</v>
+      </c>
+    </row>
+    <row r="761" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A761" s="1">
+        <v>45015</v>
+      </c>
+      <c r="B761">
+        <v>3665.772216796875</v>
+      </c>
+      <c r="C761">
+        <v>3689.90087890625</v>
+      </c>
+      <c r="D761">
+        <v>3640.125</v>
+      </c>
+      <c r="E761">
+        <v>3688.77880859375</v>
+      </c>
+      <c r="F761">
+        <f t="shared" si="8"/>
+        <v>3.6887788085937498</v>
+      </c>
+      <c r="G761">
+        <v>28306560</v>
+      </c>
+      <c r="H761">
+        <v>28306560</v>
+      </c>
+    </row>
+    <row r="762" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A762" s="1">
+        <v>45016</v>
+      </c>
+      <c r="B762">
+        <v>3694.220703125</v>
+      </c>
+      <c r="C762">
+        <v>3721.2080078125</v>
+      </c>
+      <c r="D762">
+        <v>3687.50048828125</v>
+      </c>
+      <c r="E762">
+        <v>3716.197998046875</v>
+      </c>
+      <c r="F762">
+        <f t="shared" si="8"/>
+        <v>3.7161979980468751</v>
+      </c>
+      <c r="G762">
+        <v>26852726</v>
+      </c>
+      <c r="H762">
+        <v>26852726</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index.xlsx
+++ b/lai/valuationquan/szseinnovation100index.xlsx
@@ -400,10 +400,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H762"/>
+  <dimension ref="A1:H739"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A747" workbookViewId="0">
-      <selection activeCell="A763" sqref="A763"/>
+    <sheetView tabSelected="1" topLeftCell="A738" workbookViewId="0">
+      <selection activeCell="A740" sqref="A740"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -19353,7 +19353,7 @@
         <v>3473.530029296875</v>
       </c>
       <c r="F703">
-        <f t="shared" ref="F703:F762" si="8">E703/1000</f>
+        <f t="shared" ref="F703:F739" si="8">E703/1000</f>
         <v>3.4735300292968749</v>
       </c>
       <c r="G703">
@@ -20333,627 +20333,6 @@
       </c>
       <c r="H739">
         <v>24696244</v>
-      </c>
-    </row>
-    <row r="740" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A740" s="1">
-        <v>44986</v>
-      </c>
-      <c r="B740">
-        <v>3679.235595703125</v>
-      </c>
-      <c r="C740">
-        <v>3734.964111328125</v>
-      </c>
-      <c r="D740">
-        <v>3671.52880859375</v>
-      </c>
-      <c r="E740">
-        <v>3727.04296875</v>
-      </c>
-      <c r="F740">
-        <f t="shared" si="8"/>
-        <v>3.7270429687500002</v>
-      </c>
-      <c r="G740">
-        <v>30295198</v>
-      </c>
-      <c r="H740">
-        <v>30295198</v>
-      </c>
-    </row>
-    <row r="741" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A741" s="1">
-        <v>44987</v>
-      </c>
-      <c r="B741">
-        <v>3724.690185546875</v>
-      </c>
-      <c r="C741">
-        <v>3737.31591796875</v>
-      </c>
-      <c r="D741">
-        <v>3699.3193359375</v>
-      </c>
-      <c r="E741">
-        <v>3703.163818359375</v>
-      </c>
-      <c r="F741">
-        <f t="shared" si="8"/>
-        <v>3.7031638183593749</v>
-      </c>
-      <c r="G741">
-        <v>25896448</v>
-      </c>
-      <c r="H741">
-        <v>25896448</v>
-      </c>
-    </row>
-    <row r="742" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A742" s="1">
-        <v>44988</v>
-      </c>
-      <c r="B742">
-        <v>3707.760498046875</v>
-      </c>
-      <c r="C742">
-        <v>3719.341552734375</v>
-      </c>
-      <c r="D742">
-        <v>3677.580810546875</v>
-      </c>
-      <c r="E742">
-        <v>3700.079833984375</v>
-      </c>
-      <c r="F742">
-        <f t="shared" si="8"/>
-        <v>3.700079833984375</v>
-      </c>
-      <c r="G742">
-        <v>19661852</v>
-      </c>
-      <c r="H742">
-        <v>19661852</v>
-      </c>
-    </row>
-    <row r="743" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A743" s="1">
-        <v>44991</v>
-      </c>
-      <c r="B743">
-        <v>3700.73779296875</v>
-      </c>
-      <c r="C743">
-        <v>3716.0791015625</v>
-      </c>
-      <c r="D743">
-        <v>3663.602294921875</v>
-      </c>
-      <c r="E743">
-        <v>3710.91259765625</v>
-      </c>
-      <c r="F743">
-        <f t="shared" si="8"/>
-        <v>3.7109125976562498</v>
-      </c>
-      <c r="G743">
-        <v>29963614</v>
-      </c>
-      <c r="H743">
-        <v>29963614</v>
-      </c>
-    </row>
-    <row r="744" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A744" s="1">
-        <v>44992</v>
-      </c>
-      <c r="B744">
-        <v>3702.102294921875</v>
-      </c>
-      <c r="C744">
-        <v>3710.8408203125</v>
-      </c>
-      <c r="D744">
-        <v>3639.647216796875</v>
-      </c>
-      <c r="E744">
-        <v>3642.208984375</v>
-      </c>
-      <c r="F744">
-        <f t="shared" si="8"/>
-        <v>3.6422089843749998</v>
-      </c>
-      <c r="G744">
-        <v>28751324</v>
-      </c>
-      <c r="H744">
-        <v>28751324</v>
-      </c>
-    </row>
-    <row r="745" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A745" s="1">
-        <v>44993</v>
-      </c>
-      <c r="B745">
-        <v>3628.21240234375</v>
-      </c>
-      <c r="C745">
-        <v>3639.055908203125</v>
-      </c>
-      <c r="D745">
-        <v>3610.260498046875</v>
-      </c>
-      <c r="E745">
-        <v>3631.111328125</v>
-      </c>
-      <c r="F745">
-        <f t="shared" si="8"/>
-        <v>3.6311113281249998</v>
-      </c>
-      <c r="G745">
-        <v>20982288</v>
-      </c>
-      <c r="H745">
-        <v>20982288</v>
-      </c>
-    </row>
-    <row r="746" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A746" s="1">
-        <v>44994</v>
-      </c>
-      <c r="B746">
-        <v>3632.78173828125</v>
-      </c>
-      <c r="C746">
-        <v>3655.949951171875</v>
-      </c>
-      <c r="D746">
-        <v>3620.01806640625</v>
-      </c>
-      <c r="E746">
-        <v>3635.63720703125</v>
-      </c>
-      <c r="F746">
-        <f t="shared" si="8"/>
-        <v>3.6356372070312499</v>
-      </c>
-      <c r="G746">
-        <v>21059694</v>
-      </c>
-      <c r="H746">
-        <v>21059694</v>
-      </c>
-    </row>
-    <row r="747" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A747" s="1">
-        <v>44995</v>
-      </c>
-      <c r="B747">
-        <v>3616.142578125</v>
-      </c>
-      <c r="C747">
-        <v>3633.265380859375</v>
-      </c>
-      <c r="D747">
-        <v>3594.03271484375</v>
-      </c>
-      <c r="E747">
-        <v>3600.42333984375</v>
-      </c>
-      <c r="F747">
-        <f t="shared" si="8"/>
-        <v>3.6004233398437502</v>
-      </c>
-      <c r="G747">
-        <v>24005168</v>
-      </c>
-      <c r="H747">
-        <v>24005168</v>
-      </c>
-    </row>
-    <row r="748" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A748" s="1">
-        <v>44998</v>
-      </c>
-      <c r="B748">
-        <v>3585.982666015625</v>
-      </c>
-      <c r="C748">
-        <v>3617.8994140625</v>
-      </c>
-      <c r="D748">
-        <v>3581.552490234375</v>
-      </c>
-      <c r="E748">
-        <v>3611.220703125</v>
-      </c>
-      <c r="F748">
-        <f t="shared" si="8"/>
-        <v>3.6112207031249999</v>
-      </c>
-      <c r="G748">
-        <v>26213920</v>
-      </c>
-      <c r="H748">
-        <v>26213920</v>
-      </c>
-    </row>
-    <row r="749" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A749" s="1">
-        <v>44999</v>
-      </c>
-      <c r="B749">
-        <v>3602.19482421875</v>
-      </c>
-      <c r="C749">
-        <v>3603.126953125</v>
-      </c>
-      <c r="D749">
-        <v>3529.0546875</v>
-      </c>
-      <c r="E749">
-        <v>3578.468017578125</v>
-      </c>
-      <c r="F749">
-        <f t="shared" si="8"/>
-        <v>3.5784680175781252</v>
-      </c>
-      <c r="G749">
-        <v>25717436</v>
-      </c>
-      <c r="H749">
-        <v>25717436</v>
-      </c>
-    </row>
-    <row r="750" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A750" s="1">
-        <v>45000</v>
-      </c>
-      <c r="B750">
-        <v>3603.0341796875</v>
-      </c>
-      <c r="C750">
-        <v>3622.616943359375</v>
-      </c>
-      <c r="D750">
-        <v>3570.852294921875</v>
-      </c>
-      <c r="E750">
-        <v>3573.798583984375</v>
-      </c>
-      <c r="F750">
-        <f t="shared" si="8"/>
-        <v>3.5737985839843751</v>
-      </c>
-      <c r="G750">
-        <v>23488994</v>
-      </c>
-      <c r="H750">
-        <v>23488994</v>
-      </c>
-    </row>
-    <row r="751" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A751" s="1">
-        <v>45001</v>
-      </c>
-      <c r="B751">
-        <v>3543.778564453125</v>
-      </c>
-      <c r="C751">
-        <v>3560.405029296875</v>
-      </c>
-      <c r="D751">
-        <v>3508.775146484375</v>
-      </c>
-      <c r="E751">
-        <v>3514.404296875</v>
-      </c>
-      <c r="F751">
-        <f t="shared" si="8"/>
-        <v>3.514404296875</v>
-      </c>
-      <c r="G751">
-        <v>23269764</v>
-      </c>
-      <c r="H751">
-        <v>23269764</v>
-      </c>
-    </row>
-    <row r="752" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A752" s="1">
-        <v>45002</v>
-      </c>
-      <c r="B752">
-        <v>3545.07470703125</v>
-      </c>
-      <c r="C752">
-        <v>3564.849365234375</v>
-      </c>
-      <c r="D752">
-        <v>3518.380615234375</v>
-      </c>
-      <c r="E752">
-        <v>3528.466552734375</v>
-      </c>
-      <c r="F752">
-        <f t="shared" si="8"/>
-        <v>3.528466552734375</v>
-      </c>
-      <c r="G752">
-        <v>31446372</v>
-      </c>
-      <c r="H752">
-        <v>31446372</v>
-      </c>
-    </row>
-    <row r="753" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A753" s="1">
-        <v>45005</v>
-      </c>
-      <c r="B753">
-        <v>3529.004150390625</v>
-      </c>
-      <c r="C753">
-        <v>3565.441162109375</v>
-      </c>
-      <c r="D753">
-        <v>3520.334228515625</v>
-      </c>
-      <c r="E753">
-        <v>3529.935791015625</v>
-      </c>
-      <c r="F753">
-        <f t="shared" si="8"/>
-        <v>3.529935791015625</v>
-      </c>
-      <c r="G753">
-        <v>33132518</v>
-      </c>
-      <c r="H753">
-        <v>33132518</v>
-      </c>
-    </row>
-    <row r="754" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A754" s="1">
-        <v>45006</v>
-      </c>
-      <c r="B754">
-        <v>3536.402099609375</v>
-      </c>
-      <c r="C754">
-        <v>3588.783203125</v>
-      </c>
-      <c r="D754">
-        <v>3536.402099609375</v>
-      </c>
-      <c r="E754">
-        <v>3588.783203125</v>
-      </c>
-      <c r="F754">
-        <f t="shared" si="8"/>
-        <v>3.5887832031250002</v>
-      </c>
-      <c r="G754">
-        <v>25029820</v>
-      </c>
-      <c r="H754">
-        <v>25029820</v>
-      </c>
-    </row>
-    <row r="755" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A755" s="1">
-        <v>45007</v>
-      </c>
-      <c r="B755">
-        <v>3603.396484375</v>
-      </c>
-      <c r="C755">
-        <v>3630.830810546875</v>
-      </c>
-      <c r="D755">
-        <v>3600.8125</v>
-      </c>
-      <c r="E755">
-        <v>3622.9248046875</v>
-      </c>
-      <c r="F755">
-        <f t="shared" si="8"/>
-        <v>3.6229248046875</v>
-      </c>
-      <c r="G755">
-        <v>35154724</v>
-      </c>
-      <c r="H755">
-        <v>35154724</v>
-      </c>
-    </row>
-    <row r="756" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A756" s="1">
-        <v>45008</v>
-      </c>
-      <c r="B756">
-        <v>3610.755615234375</v>
-      </c>
-      <c r="C756">
-        <v>3668.856689453125</v>
-      </c>
-      <c r="D756">
-        <v>3605.07080078125</v>
-      </c>
-      <c r="E756">
-        <v>3668.856689453125</v>
-      </c>
-      <c r="F756">
-        <f t="shared" si="8"/>
-        <v>3.6688566894531252</v>
-      </c>
-      <c r="G756">
-        <v>38024412</v>
-      </c>
-      <c r="H756">
-        <v>38024412</v>
-      </c>
-    </row>
-    <row r="757" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A757" s="1">
-        <v>45009</v>
-      </c>
-      <c r="B757">
-        <v>3669.477783203125</v>
-      </c>
-      <c r="C757">
-        <v>3677.586181640625</v>
-      </c>
-      <c r="D757">
-        <v>3652.59228515625</v>
-      </c>
-      <c r="E757">
-        <v>3675.0947265625</v>
-      </c>
-      <c r="F757">
-        <f t="shared" si="8"/>
-        <v>3.6750947265625</v>
-      </c>
-      <c r="G757">
-        <v>35922184</v>
-      </c>
-      <c r="H757">
-        <v>35922184</v>
-      </c>
-    </row>
-    <row r="758" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A758" s="1">
-        <v>45012</v>
-      </c>
-      <c r="B758">
-        <v>3669.6025390625</v>
-      </c>
-      <c r="C758">
-        <v>3686.9560546875</v>
-      </c>
-      <c r="D758">
-        <v>3650.401611328125</v>
-      </c>
-      <c r="E758">
-        <v>3681.478515625</v>
-      </c>
-      <c r="F758">
-        <f t="shared" si="8"/>
-        <v>3.6814785156249998</v>
-      </c>
-      <c r="G758">
-        <v>36559016</v>
-      </c>
-      <c r="H758">
-        <v>36559016</v>
-      </c>
-    </row>
-    <row r="759" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A759" s="1">
-        <v>45013</v>
-      </c>
-      <c r="B759">
-        <v>3673.244140625</v>
-      </c>
-      <c r="C759">
-        <v>3676.364501953125</v>
-      </c>
-      <c r="D759">
-        <v>3636.5078125</v>
-      </c>
-      <c r="E759">
-        <v>3641.67138671875</v>
-      </c>
-      <c r="F759">
-        <f t="shared" si="8"/>
-        <v>3.64167138671875</v>
-      </c>
-      <c r="G759">
-        <v>29782836</v>
-      </c>
-      <c r="H759">
-        <v>29782836</v>
-      </c>
-    </row>
-    <row r="760" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A760" s="1">
-        <v>45014</v>
-      </c>
-      <c r="B760">
-        <v>3649.276611328125</v>
-      </c>
-      <c r="C760">
-        <v>3678.656982421875</v>
-      </c>
-      <c r="D760">
-        <v>3646.605712890625</v>
-      </c>
-      <c r="E760">
-        <v>3664.1455078125</v>
-      </c>
-      <c r="F760">
-        <f t="shared" si="8"/>
-        <v>3.6641455078125</v>
-      </c>
-      <c r="G760">
-        <v>26763098</v>
-      </c>
-      <c r="H760">
-        <v>26763098</v>
-      </c>
-    </row>
-    <row r="761" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A761" s="1">
-        <v>45015</v>
-      </c>
-      <c r="B761">
-        <v>3665.772216796875</v>
-      </c>
-      <c r="C761">
-        <v>3689.90087890625</v>
-      </c>
-      <c r="D761">
-        <v>3640.125</v>
-      </c>
-      <c r="E761">
-        <v>3688.77880859375</v>
-      </c>
-      <c r="F761">
-        <f t="shared" si="8"/>
-        <v>3.6887788085937498</v>
-      </c>
-      <c r="G761">
-        <v>28306560</v>
-      </c>
-      <c r="H761">
-        <v>28306560</v>
-      </c>
-    </row>
-    <row r="762" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A762" s="1">
-        <v>45016</v>
-      </c>
-      <c r="B762">
-        <v>3694.220703125</v>
-      </c>
-      <c r="C762">
-        <v>3721.2080078125</v>
-      </c>
-      <c r="D762">
-        <v>3687.50048828125</v>
-      </c>
-      <c r="E762">
-        <v>3716.197998046875</v>
-      </c>
-      <c r="F762">
-        <f t="shared" si="8"/>
-        <v>3.7161979980468751</v>
-      </c>
-      <c r="G762">
-        <v>26852726</v>
-      </c>
-      <c r="H762">
-        <v>26852726</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index.xlsx
+++ b/lai/valuationquan/szseinnovation100index.xlsx
@@ -400,10 +400,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H739"/>
+  <dimension ref="A1:H762"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A738" workbookViewId="0">
-      <selection activeCell="A740" sqref="A740"/>
+    <sheetView tabSelected="1" topLeftCell="A747" workbookViewId="0">
+      <selection activeCell="A763" sqref="A763"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -19353,7 +19353,7 @@
         <v>3473.530029296875</v>
       </c>
       <c r="F703">
-        <f t="shared" ref="F703:F739" si="8">E703/1000</f>
+        <f t="shared" ref="F703:F762" si="8">E703/1000</f>
         <v>3.4735300292968749</v>
       </c>
       <c r="G703">
@@ -20333,6 +20333,627 @@
       </c>
       <c r="H739">
         <v>24696244</v>
+      </c>
+    </row>
+    <row r="740" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A740" s="1">
+        <v>44986</v>
+      </c>
+      <c r="B740">
+        <v>3679.235595703125</v>
+      </c>
+      <c r="C740">
+        <v>3734.964111328125</v>
+      </c>
+      <c r="D740">
+        <v>3671.52880859375</v>
+      </c>
+      <c r="E740">
+        <v>3727.04296875</v>
+      </c>
+      <c r="F740">
+        <f t="shared" si="8"/>
+        <v>3.7270429687500002</v>
+      </c>
+      <c r="G740">
+        <v>30295198</v>
+      </c>
+      <c r="H740">
+        <v>30295198</v>
+      </c>
+    </row>
+    <row r="741" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A741" s="1">
+        <v>44987</v>
+      </c>
+      <c r="B741">
+        <v>3724.690185546875</v>
+      </c>
+      <c r="C741">
+        <v>3737.31591796875</v>
+      </c>
+      <c r="D741">
+        <v>3699.3193359375</v>
+      </c>
+      <c r="E741">
+        <v>3703.163818359375</v>
+      </c>
+      <c r="F741">
+        <f t="shared" si="8"/>
+        <v>3.7031638183593749</v>
+      </c>
+      <c r="G741">
+        <v>25896448</v>
+      </c>
+      <c r="H741">
+        <v>25896448</v>
+      </c>
+    </row>
+    <row r="742" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A742" s="1">
+        <v>44988</v>
+      </c>
+      <c r="B742">
+        <v>3707.760498046875</v>
+      </c>
+      <c r="C742">
+        <v>3719.341552734375</v>
+      </c>
+      <c r="D742">
+        <v>3677.580810546875</v>
+      </c>
+      <c r="E742">
+        <v>3700.079833984375</v>
+      </c>
+      <c r="F742">
+        <f t="shared" si="8"/>
+        <v>3.700079833984375</v>
+      </c>
+      <c r="G742">
+        <v>19661852</v>
+      </c>
+      <c r="H742">
+        <v>19661852</v>
+      </c>
+    </row>
+    <row r="743" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A743" s="1">
+        <v>44991</v>
+      </c>
+      <c r="B743">
+        <v>3700.73779296875</v>
+      </c>
+      <c r="C743">
+        <v>3716.0791015625</v>
+      </c>
+      <c r="D743">
+        <v>3663.602294921875</v>
+      </c>
+      <c r="E743">
+        <v>3710.91259765625</v>
+      </c>
+      <c r="F743">
+        <f t="shared" si="8"/>
+        <v>3.7109125976562498</v>
+      </c>
+      <c r="G743">
+        <v>29963614</v>
+      </c>
+      <c r="H743">
+        <v>29963614</v>
+      </c>
+    </row>
+    <row r="744" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A744" s="1">
+        <v>44992</v>
+      </c>
+      <c r="B744">
+        <v>3702.102294921875</v>
+      </c>
+      <c r="C744">
+        <v>3710.8408203125</v>
+      </c>
+      <c r="D744">
+        <v>3639.647216796875</v>
+      </c>
+      <c r="E744">
+        <v>3642.208984375</v>
+      </c>
+      <c r="F744">
+        <f t="shared" si="8"/>
+        <v>3.6422089843749998</v>
+      </c>
+      <c r="G744">
+        <v>28751324</v>
+      </c>
+      <c r="H744">
+        <v>28751324</v>
+      </c>
+    </row>
+    <row r="745" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A745" s="1">
+        <v>44993</v>
+      </c>
+      <c r="B745">
+        <v>3628.21240234375</v>
+      </c>
+      <c r="C745">
+        <v>3639.055908203125</v>
+      </c>
+      <c r="D745">
+        <v>3610.260498046875</v>
+      </c>
+      <c r="E745">
+        <v>3631.111328125</v>
+      </c>
+      <c r="F745">
+        <f t="shared" si="8"/>
+        <v>3.6311113281249998</v>
+      </c>
+      <c r="G745">
+        <v>20982288</v>
+      </c>
+      <c r="H745">
+        <v>20982288</v>
+      </c>
+    </row>
+    <row r="746" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A746" s="1">
+        <v>44994</v>
+      </c>
+      <c r="B746">
+        <v>3632.78173828125</v>
+      </c>
+      <c r="C746">
+        <v>3655.949951171875</v>
+      </c>
+      <c r="D746">
+        <v>3620.01806640625</v>
+      </c>
+      <c r="E746">
+        <v>3635.63720703125</v>
+      </c>
+      <c r="F746">
+        <f t="shared" si="8"/>
+        <v>3.6356372070312499</v>
+      </c>
+      <c r="G746">
+        <v>21059694</v>
+      </c>
+      <c r="H746">
+        <v>21059694</v>
+      </c>
+    </row>
+    <row r="747" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A747" s="1">
+        <v>44995</v>
+      </c>
+      <c r="B747">
+        <v>3616.142578125</v>
+      </c>
+      <c r="C747">
+        <v>3633.265380859375</v>
+      </c>
+      <c r="D747">
+        <v>3594.03271484375</v>
+      </c>
+      <c r="E747">
+        <v>3600.42333984375</v>
+      </c>
+      <c r="F747">
+        <f t="shared" si="8"/>
+        <v>3.6004233398437502</v>
+      </c>
+      <c r="G747">
+        <v>24005168</v>
+      </c>
+      <c r="H747">
+        <v>24005168</v>
+      </c>
+    </row>
+    <row r="748" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A748" s="1">
+        <v>44998</v>
+      </c>
+      <c r="B748">
+        <v>3585.982666015625</v>
+      </c>
+      <c r="C748">
+        <v>3617.8994140625</v>
+      </c>
+      <c r="D748">
+        <v>3581.552490234375</v>
+      </c>
+      <c r="E748">
+        <v>3611.220703125</v>
+      </c>
+      <c r="F748">
+        <f t="shared" si="8"/>
+        <v>3.6112207031249999</v>
+      </c>
+      <c r="G748">
+        <v>26213920</v>
+      </c>
+      <c r="H748">
+        <v>26213920</v>
+      </c>
+    </row>
+    <row r="749" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A749" s="1">
+        <v>44999</v>
+      </c>
+      <c r="B749">
+        <v>3602.19482421875</v>
+      </c>
+      <c r="C749">
+        <v>3603.126953125</v>
+      </c>
+      <c r="D749">
+        <v>3529.0546875</v>
+      </c>
+      <c r="E749">
+        <v>3578.468017578125</v>
+      </c>
+      <c r="F749">
+        <f t="shared" si="8"/>
+        <v>3.5784680175781252</v>
+      </c>
+      <c r="G749">
+        <v>25717436</v>
+      </c>
+      <c r="H749">
+        <v>25717436</v>
+      </c>
+    </row>
+    <row r="750" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A750" s="1">
+        <v>45000</v>
+      </c>
+      <c r="B750">
+        <v>3603.0341796875</v>
+      </c>
+      <c r="C750">
+        <v>3622.616943359375</v>
+      </c>
+      <c r="D750">
+        <v>3570.852294921875</v>
+      </c>
+      <c r="E750">
+        <v>3573.798583984375</v>
+      </c>
+      <c r="F750">
+        <f t="shared" si="8"/>
+        <v>3.5737985839843751</v>
+      </c>
+      <c r="G750">
+        <v>23488994</v>
+      </c>
+      <c r="H750">
+        <v>23488994</v>
+      </c>
+    </row>
+    <row r="751" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A751" s="1">
+        <v>45001</v>
+      </c>
+      <c r="B751">
+        <v>3543.778564453125</v>
+      </c>
+      <c r="C751">
+        <v>3560.405029296875</v>
+      </c>
+      <c r="D751">
+        <v>3508.775146484375</v>
+      </c>
+      <c r="E751">
+        <v>3514.404296875</v>
+      </c>
+      <c r="F751">
+        <f t="shared" si="8"/>
+        <v>3.514404296875</v>
+      </c>
+      <c r="G751">
+        <v>23269764</v>
+      </c>
+      <c r="H751">
+        <v>23269764</v>
+      </c>
+    </row>
+    <row r="752" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A752" s="1">
+        <v>45002</v>
+      </c>
+      <c r="B752">
+        <v>3545.07470703125</v>
+      </c>
+      <c r="C752">
+        <v>3564.849365234375</v>
+      </c>
+      <c r="D752">
+        <v>3518.380615234375</v>
+      </c>
+      <c r="E752">
+        <v>3528.466552734375</v>
+      </c>
+      <c r="F752">
+        <f t="shared" si="8"/>
+        <v>3.528466552734375</v>
+      </c>
+      <c r="G752">
+        <v>31446372</v>
+      </c>
+      <c r="H752">
+        <v>31446372</v>
+      </c>
+    </row>
+    <row r="753" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A753" s="1">
+        <v>45005</v>
+      </c>
+      <c r="B753">
+        <v>3529.004150390625</v>
+      </c>
+      <c r="C753">
+        <v>3565.441162109375</v>
+      </c>
+      <c r="D753">
+        <v>3520.334228515625</v>
+      </c>
+      <c r="E753">
+        <v>3529.935791015625</v>
+      </c>
+      <c r="F753">
+        <f t="shared" si="8"/>
+        <v>3.529935791015625</v>
+      </c>
+      <c r="G753">
+        <v>33132518</v>
+      </c>
+      <c r="H753">
+        <v>33132518</v>
+      </c>
+    </row>
+    <row r="754" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A754" s="1">
+        <v>45006</v>
+      </c>
+      <c r="B754">
+        <v>3536.402099609375</v>
+      </c>
+      <c r="C754">
+        <v>3588.783203125</v>
+      </c>
+      <c r="D754">
+        <v>3536.402099609375</v>
+      </c>
+      <c r="E754">
+        <v>3588.783203125</v>
+      </c>
+      <c r="F754">
+        <f t="shared" si="8"/>
+        <v>3.5887832031250002</v>
+      </c>
+      <c r="G754">
+        <v>25029820</v>
+      </c>
+      <c r="H754">
+        <v>25029820</v>
+      </c>
+    </row>
+    <row r="755" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A755" s="1">
+        <v>45007</v>
+      </c>
+      <c r="B755">
+        <v>3603.396484375</v>
+      </c>
+      <c r="C755">
+        <v>3630.830810546875</v>
+      </c>
+      <c r="D755">
+        <v>3600.8125</v>
+      </c>
+      <c r="E755">
+        <v>3622.9248046875</v>
+      </c>
+      <c r="F755">
+        <f t="shared" si="8"/>
+        <v>3.6229248046875</v>
+      </c>
+      <c r="G755">
+        <v>35154724</v>
+      </c>
+      <c r="H755">
+        <v>35154724</v>
+      </c>
+    </row>
+    <row r="756" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A756" s="1">
+        <v>45008</v>
+      </c>
+      <c r="B756">
+        <v>3610.755615234375</v>
+      </c>
+      <c r="C756">
+        <v>3668.856689453125</v>
+      </c>
+      <c r="D756">
+        <v>3605.07080078125</v>
+      </c>
+      <c r="E756">
+        <v>3668.856689453125</v>
+      </c>
+      <c r="F756">
+        <f t="shared" si="8"/>
+        <v>3.6688566894531252</v>
+      </c>
+      <c r="G756">
+        <v>38024412</v>
+      </c>
+      <c r="H756">
+        <v>38024412</v>
+      </c>
+    </row>
+    <row r="757" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A757" s="1">
+        <v>45009</v>
+      </c>
+      <c r="B757">
+        <v>3669.477783203125</v>
+      </c>
+      <c r="C757">
+        <v>3677.586181640625</v>
+      </c>
+      <c r="D757">
+        <v>3652.59228515625</v>
+      </c>
+      <c r="E757">
+        <v>3675.0947265625</v>
+      </c>
+      <c r="F757">
+        <f t="shared" si="8"/>
+        <v>3.6750947265625</v>
+      </c>
+      <c r="G757">
+        <v>35922184</v>
+      </c>
+      <c r="H757">
+        <v>35922184</v>
+      </c>
+    </row>
+    <row r="758" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A758" s="1">
+        <v>45012</v>
+      </c>
+      <c r="B758">
+        <v>3669.6025390625</v>
+      </c>
+      <c r="C758">
+        <v>3686.9560546875</v>
+      </c>
+      <c r="D758">
+        <v>3650.401611328125</v>
+      </c>
+      <c r="E758">
+        <v>3681.478515625</v>
+      </c>
+      <c r="F758">
+        <f t="shared" si="8"/>
+        <v>3.6814785156249998</v>
+      </c>
+      <c r="G758">
+        <v>36559016</v>
+      </c>
+      <c r="H758">
+        <v>36559016</v>
+      </c>
+    </row>
+    <row r="759" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A759" s="1">
+        <v>45013</v>
+      </c>
+      <c r="B759">
+        <v>3673.244140625</v>
+      </c>
+      <c r="C759">
+        <v>3676.364501953125</v>
+      </c>
+      <c r="D759">
+        <v>3636.5078125</v>
+      </c>
+      <c r="E759">
+        <v>3641.67138671875</v>
+      </c>
+      <c r="F759">
+        <f t="shared" si="8"/>
+        <v>3.64167138671875</v>
+      </c>
+      <c r="G759">
+        <v>29782836</v>
+      </c>
+      <c r="H759">
+        <v>29782836</v>
+      </c>
+    </row>
+    <row r="760" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A760" s="1">
+        <v>45014</v>
+      </c>
+      <c r="B760">
+        <v>3649.276611328125</v>
+      </c>
+      <c r="C760">
+        <v>3678.656982421875</v>
+      </c>
+      <c r="D760">
+        <v>3646.605712890625</v>
+      </c>
+      <c r="E760">
+        <v>3664.1455078125</v>
+      </c>
+      <c r="F760">
+        <f t="shared" si="8"/>
+        <v>3.6641455078125</v>
+      </c>
+      <c r="G760">
+        <v>26763098</v>
+      </c>
+      <c r="H760">
+        <v>26763098</v>
+      </c>
+    </row>
+    <row r="761" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A761" s="1">
+        <v>45015</v>
+      </c>
+      <c r="B761">
+        <v>3665.772216796875</v>
+      </c>
+      <c r="C761">
+        <v>3689.90087890625</v>
+      </c>
+      <c r="D761">
+        <v>3640.125</v>
+      </c>
+      <c r="E761">
+        <v>3688.77880859375</v>
+      </c>
+      <c r="F761">
+        <f t="shared" si="8"/>
+        <v>3.6887788085937498</v>
+      </c>
+      <c r="G761">
+        <v>28306560</v>
+      </c>
+      <c r="H761">
+        <v>28306560</v>
+      </c>
+    </row>
+    <row r="762" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A762" s="1">
+        <v>45016</v>
+      </c>
+      <c r="B762">
+        <v>3694.220703125</v>
+      </c>
+      <c r="C762">
+        <v>3721.2080078125</v>
+      </c>
+      <c r="D762">
+        <v>3687.50048828125</v>
+      </c>
+      <c r="E762">
+        <v>3716.197998046875</v>
+      </c>
+      <c r="F762">
+        <f t="shared" si="8"/>
+        <v>3.7161979980468751</v>
+      </c>
+      <c r="G762">
+        <v>26852726</v>
+      </c>
+      <c r="H762">
+        <v>26852726</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index.xlsx
+++ b/lai/valuationquan/szseinnovation100index.xlsx
@@ -400,10 +400,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H762"/>
+  <dimension ref="A1:H781"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A747" workbookViewId="0">
-      <selection activeCell="A763" sqref="A763"/>
+    <sheetView tabSelected="1" topLeftCell="A763" workbookViewId="0">
+      <selection activeCell="A782" sqref="A782"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -19353,7 +19353,7 @@
         <v>3473.530029296875</v>
       </c>
       <c r="F703">
-        <f t="shared" ref="F703:F762" si="8">E703/1000</f>
+        <f t="shared" ref="F703:F781" si="8">E703/1000</f>
         <v>3.4735300292968749</v>
       </c>
       <c r="G703">
@@ -20954,6 +20954,519 @@
       </c>
       <c r="H762">
         <v>26852726</v>
+      </c>
+    </row>
+    <row r="763" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A763" s="1">
+        <v>45019</v>
+      </c>
+      <c r="B763">
+        <v>3735.169921875</v>
+      </c>
+      <c r="C763">
+        <v>3757.923095703125</v>
+      </c>
+      <c r="D763">
+        <v>3724.37890625</v>
+      </c>
+      <c r="E763">
+        <v>3756.660888671875</v>
+      </c>
+      <c r="F763">
+        <f t="shared" si="8"/>
+        <v>3.7566608886718749</v>
+      </c>
+      <c r="G763">
+        <v>3722556416</v>
+      </c>
+      <c r="H763">
+        <v>3722556416</v>
+      </c>
+    </row>
+    <row r="764" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A764" s="1">
+        <v>45020</v>
+      </c>
+      <c r="B764">
+        <v>3748.618896484375</v>
+      </c>
+      <c r="C764">
+        <v>3748.618896484375</v>
+      </c>
+      <c r="D764">
+        <v>3709.16796875</v>
+      </c>
+      <c r="E764">
+        <v>3734.16796875</v>
+      </c>
+      <c r="F764">
+        <f t="shared" si="8"/>
+        <v>3.73416796875</v>
+      </c>
+      <c r="G764">
+        <v>3721758720</v>
+      </c>
+      <c r="H764">
+        <v>3721758720</v>
+      </c>
+    </row>
+    <row r="765" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A765" s="1">
+        <v>45022</v>
+      </c>
+      <c r="B765">
+        <v>3707.116943359375</v>
+      </c>
+      <c r="C765">
+        <v>3753.595947265625</v>
+      </c>
+      <c r="D765">
+        <v>3703.549072265625</v>
+      </c>
+      <c r="E765">
+        <v>3748.825927734375</v>
+      </c>
+      <c r="F765">
+        <f t="shared" si="8"/>
+        <v>3.7488259277343752</v>
+      </c>
+      <c r="G765">
+        <v>3570732032</v>
+      </c>
+      <c r="H765">
+        <v>3570732032</v>
+      </c>
+    </row>
+    <row r="766" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A766" s="1">
+        <v>45023</v>
+      </c>
+      <c r="B766">
+        <v>3751.512939453125</v>
+      </c>
+      <c r="C766">
+        <v>3798.468994140625</v>
+      </c>
+      <c r="D766">
+        <v>3751.512939453125</v>
+      </c>
+      <c r="E766">
+        <v>3790.9189453125</v>
+      </c>
+      <c r="F766">
+        <f t="shared" si="8"/>
+        <v>3.7909189453124998</v>
+      </c>
+      <c r="G766">
+        <v>2932276736</v>
+      </c>
+      <c r="H766">
+        <v>2932276736</v>
+      </c>
+    </row>
+    <row r="767" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A767" s="1">
+        <v>45026</v>
+      </c>
+      <c r="B767">
+        <v>3808.23193359375</v>
+      </c>
+      <c r="C767">
+        <v>3811.922119140625</v>
+      </c>
+      <c r="D767">
+        <v>3761.656005859375</v>
+      </c>
+      <c r="E767">
+        <v>3770.716064453125</v>
+      </c>
+      <c r="F767">
+        <f t="shared" si="8"/>
+        <v>3.7707160644531248</v>
+      </c>
+      <c r="G767">
+        <v>3321581824</v>
+      </c>
+      <c r="H767">
+        <v>3321581824</v>
+      </c>
+    </row>
+    <row r="768" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A768" s="1">
+        <v>45027</v>
+      </c>
+      <c r="B768">
+        <v>3771.031005859375</v>
+      </c>
+      <c r="C768">
+        <v>3798.06396484375</v>
+      </c>
+      <c r="D768">
+        <v>3756.18505859375</v>
+      </c>
+      <c r="E768">
+        <v>3773.998046875</v>
+      </c>
+      <c r="F768">
+        <f t="shared" si="8"/>
+        <v>3.7739980468750001</v>
+      </c>
+      <c r="G768">
+        <v>3294188032</v>
+      </c>
+      <c r="H768">
+        <v>3294188032</v>
+      </c>
+    </row>
+    <row r="769" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A769" s="1">
+        <v>45028</v>
+      </c>
+      <c r="B769">
+        <v>3772.18505859375</v>
+      </c>
+      <c r="C769">
+        <v>3789.340087890625</v>
+      </c>
+      <c r="D769">
+        <v>3759.844970703125</v>
+      </c>
+      <c r="E769">
+        <v>3776.97412109375</v>
+      </c>
+      <c r="F769">
+        <f t="shared" si="8"/>
+        <v>3.7769741210937502</v>
+      </c>
+      <c r="G769">
+        <v>3489682176</v>
+      </c>
+      <c r="H769">
+        <v>3489682176</v>
+      </c>
+    </row>
+    <row r="770" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A770" s="1">
+        <v>45029</v>
+      </c>
+      <c r="B770">
+        <v>3754.528076171875</v>
+      </c>
+      <c r="C770">
+        <v>3755.3798828125</v>
+      </c>
+      <c r="D770">
+        <v>3706.303955078125</v>
+      </c>
+      <c r="E770">
+        <v>3709.1630859375</v>
+      </c>
+      <c r="F770">
+        <f t="shared" si="8"/>
+        <v>3.7091630859375</v>
+      </c>
+      <c r="G770">
+        <v>3331738624</v>
+      </c>
+      <c r="H770">
+        <v>3331738624</v>
+      </c>
+    </row>
+    <row r="771" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A771" s="1">
+        <v>45030</v>
+      </c>
+      <c r="B771">
+        <v>3714.592041015625</v>
+      </c>
+      <c r="C771">
+        <v>3740.471923828125</v>
+      </c>
+      <c r="D771">
+        <v>3714.592041015625</v>
+      </c>
+      <c r="E771">
+        <v>3735.10400390625</v>
+      </c>
+      <c r="F771">
+        <f t="shared" si="8"/>
+        <v>3.7351040039062502</v>
+      </c>
+      <c r="G771">
+        <v>3158240512</v>
+      </c>
+      <c r="H771">
+        <v>3158240512</v>
+      </c>
+    </row>
+    <row r="772" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A772" s="1">
+        <v>45033</v>
+      </c>
+      <c r="B772">
+        <v>3727.0849609375</v>
+      </c>
+      <c r="C772">
+        <v>3756.2900390625</v>
+      </c>
+      <c r="D772">
+        <v>3725.239013671875</v>
+      </c>
+      <c r="E772">
+        <v>3755.2890625</v>
+      </c>
+      <c r="F772">
+        <f t="shared" si="8"/>
+        <v>3.7552890625000002</v>
+      </c>
+      <c r="G772">
+        <v>2905752320</v>
+      </c>
+      <c r="H772">
+        <v>2905752320</v>
+      </c>
+    </row>
+    <row r="773" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A773" s="1">
+        <v>45034</v>
+      </c>
+      <c r="B773">
+        <v>3747.367919921875</v>
+      </c>
+      <c r="C773">
+        <v>3777.388916015625</v>
+      </c>
+      <c r="D773">
+        <v>3747.10888671875</v>
+      </c>
+      <c r="E773">
+        <v>3766.675048828125</v>
+      </c>
+      <c r="F773">
+        <f t="shared" si="8"/>
+        <v>3.7666750488281249</v>
+      </c>
+      <c r="G773">
+        <v>3235203328</v>
+      </c>
+      <c r="H773">
+        <v>3235203328</v>
+      </c>
+    </row>
+    <row r="774" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A774" s="1">
+        <v>45035</v>
+      </c>
+      <c r="B774">
+        <v>3761.89599609375</v>
+      </c>
+      <c r="C774">
+        <v>3761.89599609375</v>
+      </c>
+      <c r="D774">
+        <v>3727.791015625</v>
+      </c>
+      <c r="E774">
+        <v>3732.178955078125</v>
+      </c>
+      <c r="F774">
+        <f t="shared" si="8"/>
+        <v>3.7321789550781248</v>
+      </c>
+      <c r="G774">
+        <v>3167320576</v>
+      </c>
+      <c r="H774">
+        <v>3167320576</v>
+      </c>
+    </row>
+    <row r="775" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A775" s="1">
+        <v>45036</v>
+      </c>
+      <c r="B775">
+        <v>3732.22802734375</v>
+      </c>
+      <c r="C775">
+        <v>3733.04296875</v>
+      </c>
+      <c r="D775">
+        <v>3696.89599609375</v>
+      </c>
+      <c r="E775">
+        <v>3714.02197265625</v>
+      </c>
+      <c r="F775">
+        <f t="shared" si="8"/>
+        <v>3.71402197265625</v>
+      </c>
+      <c r="G775">
+        <v>3308921344</v>
+      </c>
+      <c r="H775">
+        <v>3308921344</v>
+      </c>
+    </row>
+    <row r="776" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A776" s="1">
+        <v>45037</v>
+      </c>
+      <c r="B776">
+        <v>3727.196044921875</v>
+      </c>
+      <c r="C776">
+        <v>3739.302001953125</v>
+      </c>
+      <c r="D776">
+        <v>3641.012939453125</v>
+      </c>
+      <c r="E776">
+        <v>3642.08203125</v>
+      </c>
+      <c r="F776">
+        <f t="shared" si="8"/>
+        <v>3.6420820312500002</v>
+      </c>
+      <c r="G776">
+        <v>3966724352</v>
+      </c>
+      <c r="H776">
+        <v>3966724352</v>
+      </c>
+    </row>
+    <row r="777" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A777" s="1">
+        <v>45040</v>
+      </c>
+      <c r="B777">
+        <v>3645.385986328125</v>
+      </c>
+      <c r="C777">
+        <v>3651.841064453125</v>
+      </c>
+      <c r="D777">
+        <v>3588.010986328125</v>
+      </c>
+      <c r="E777">
+        <v>3606.845947265625</v>
+      </c>
+      <c r="F777">
+        <f t="shared" si="8"/>
+        <v>3.6068459472656249</v>
+      </c>
+      <c r="G777">
+        <v>3638731776</v>
+      </c>
+      <c r="H777">
+        <v>3638731776</v>
+      </c>
+    </row>
+    <row r="778" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A778" s="1">
+        <v>45041</v>
+      </c>
+      <c r="B778">
+        <v>3604.821044921875</v>
+      </c>
+      <c r="C778">
+        <v>3610.23291015625</v>
+      </c>
+      <c r="D778">
+        <v>3512.77197265625</v>
+      </c>
+      <c r="E778">
+        <v>3541.445068359375</v>
+      </c>
+      <c r="F778">
+        <f t="shared" si="8"/>
+        <v>3.541445068359375</v>
+      </c>
+      <c r="G778">
+        <v>3562008064</v>
+      </c>
+      <c r="H778">
+        <v>3562008064</v>
+      </c>
+    </row>
+    <row r="779" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A779" s="1">
+        <v>45042</v>
+      </c>
+      <c r="B779">
+        <v>3528.386962890625</v>
+      </c>
+      <c r="C779">
+        <v>3588.485107421875</v>
+      </c>
+      <c r="D779">
+        <v>3522.4580078125</v>
+      </c>
+      <c r="E779">
+        <v>3569.028076171875</v>
+      </c>
+      <c r="F779">
+        <f t="shared" si="8"/>
+        <v>3.5690280761718749</v>
+      </c>
+      <c r="G779">
+        <v>3320868096</v>
+      </c>
+      <c r="H779">
+        <v>3320868096</v>
+      </c>
+    </row>
+    <row r="780" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A780" s="1">
+        <v>45043</v>
+      </c>
+      <c r="B780">
+        <v>3554.64404296875</v>
+      </c>
+      <c r="C780">
+        <v>3599.799072265625</v>
+      </c>
+      <c r="D780">
+        <v>3551.9140625</v>
+      </c>
+      <c r="E780">
+        <v>3593.64111328125</v>
+      </c>
+      <c r="F780">
+        <f t="shared" si="8"/>
+        <v>3.59364111328125</v>
+      </c>
+      <c r="G780">
+        <v>2863688192</v>
+      </c>
+      <c r="H780">
+        <v>2863688192</v>
+      </c>
+    </row>
+    <row r="781" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A781" s="1">
+        <v>45044</v>
+      </c>
+      <c r="B781">
+        <v>3600.02197265625</v>
+      </c>
+      <c r="C781">
+        <v>3618.89404296875</v>
+      </c>
+      <c r="D781">
+        <v>3593.60693359375</v>
+      </c>
+      <c r="E781">
+        <v>3615.93798828125</v>
+      </c>
+      <c r="F781">
+        <f t="shared" si="8"/>
+        <v>3.6159379882812499</v>
+      </c>
+      <c r="G781">
+        <v>3003443968</v>
+      </c>
+      <c r="H781">
+        <v>3003443968</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index.xlsx
+++ b/lai/valuationquan/szseinnovation100index.xlsx
@@ -400,13 +400,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H781"/>
+  <dimension ref="A1:H801"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A763" workbookViewId="0">
-      <selection activeCell="A782" sqref="A782"/>
+    <sheetView tabSelected="1" topLeftCell="A782" workbookViewId="0">
+      <selection activeCell="A802" sqref="A802"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
@@ -19353,7 +19356,7 @@
         <v>3473.530029296875</v>
       </c>
       <c r="F703">
-        <f t="shared" ref="F703:F781" si="8">E703/1000</f>
+        <f t="shared" ref="F703:F801" si="8">E703/1000</f>
         <v>3.4735300292968749</v>
       </c>
       <c r="G703">
@@ -20977,7 +20980,7 @@
         <v>3.7566608886718749</v>
       </c>
       <c r="G763">
-        <v>3722556416</v>
+        <v>37225564.159999996</v>
       </c>
       <c r="H763">
         <v>3722556416</v>
@@ -21004,7 +21007,7 @@
         <v>3.73416796875</v>
       </c>
       <c r="G764">
-        <v>3721758720</v>
+        <v>37217587.200000003</v>
       </c>
       <c r="H764">
         <v>3721758720</v>
@@ -21031,7 +21034,7 @@
         <v>3.7488259277343752</v>
       </c>
       <c r="G765">
-        <v>3570732032</v>
+        <v>35707320.32</v>
       </c>
       <c r="H765">
         <v>3570732032</v>
@@ -21058,7 +21061,7 @@
         <v>3.7909189453124998</v>
       </c>
       <c r="G766">
-        <v>2932276736</v>
+        <v>29322767.359999999</v>
       </c>
       <c r="H766">
         <v>2932276736</v>
@@ -21085,7 +21088,7 @@
         <v>3.7707160644531248</v>
       </c>
       <c r="G767">
-        <v>3321581824</v>
+        <v>33215818.239999998</v>
       </c>
       <c r="H767">
         <v>3321581824</v>
@@ -21112,7 +21115,7 @@
         <v>3.7739980468750001</v>
       </c>
       <c r="G768">
-        <v>3294188032</v>
+        <v>32941880.32</v>
       </c>
       <c r="H768">
         <v>3294188032</v>
@@ -21139,7 +21142,7 @@
         <v>3.7769741210937502</v>
       </c>
       <c r="G769">
-        <v>3489682176</v>
+        <v>34896821.759999998</v>
       </c>
       <c r="H769">
         <v>3489682176</v>
@@ -21166,7 +21169,7 @@
         <v>3.7091630859375</v>
       </c>
       <c r="G770">
-        <v>3331738624</v>
+        <v>33317386.239999998</v>
       </c>
       <c r="H770">
         <v>3331738624</v>
@@ -21193,7 +21196,7 @@
         <v>3.7351040039062502</v>
       </c>
       <c r="G771">
-        <v>3158240512</v>
+        <v>31582405.120000001</v>
       </c>
       <c r="H771">
         <v>3158240512</v>
@@ -21220,7 +21223,7 @@
         <v>3.7552890625000002</v>
       </c>
       <c r="G772">
-        <v>2905752320</v>
+        <v>29057523.199999999</v>
       </c>
       <c r="H772">
         <v>2905752320</v>
@@ -21247,7 +21250,7 @@
         <v>3.7666750488281249</v>
       </c>
       <c r="G773">
-        <v>3235203328</v>
+        <v>32352033.280000001</v>
       </c>
       <c r="H773">
         <v>3235203328</v>
@@ -21274,7 +21277,7 @@
         <v>3.7321789550781248</v>
       </c>
       <c r="G774">
-        <v>3167320576</v>
+        <v>31673205.760000002</v>
       </c>
       <c r="H774">
         <v>3167320576</v>
@@ -21301,7 +21304,7 @@
         <v>3.71402197265625</v>
       </c>
       <c r="G775">
-        <v>3308921344</v>
+        <v>33089213.440000001</v>
       </c>
       <c r="H775">
         <v>3308921344</v>
@@ -21328,7 +21331,7 @@
         <v>3.6420820312500002</v>
       </c>
       <c r="G776">
-        <v>3966724352</v>
+        <v>39667243.520000003</v>
       </c>
       <c r="H776">
         <v>3966724352</v>
@@ -21355,7 +21358,7 @@
         <v>3.6068459472656249</v>
       </c>
       <c r="G777">
-        <v>3638731776</v>
+        <v>36387317.759999998</v>
       </c>
       <c r="H777">
         <v>3638731776</v>
@@ -21382,7 +21385,7 @@
         <v>3.541445068359375</v>
       </c>
       <c r="G778">
-        <v>3562008064</v>
+        <v>35620080.640000001</v>
       </c>
       <c r="H778">
         <v>3562008064</v>
@@ -21409,7 +21412,7 @@
         <v>3.5690280761718749</v>
       </c>
       <c r="G779">
-        <v>3320868096</v>
+        <v>33208680.960000001</v>
       </c>
       <c r="H779">
         <v>3320868096</v>
@@ -21436,7 +21439,7 @@
         <v>3.59364111328125</v>
       </c>
       <c r="G780">
-        <v>2863688192</v>
+        <v>28636881.920000002</v>
       </c>
       <c r="H780">
         <v>2863688192</v>
@@ -21463,10 +21466,550 @@
         <v>3.6159379882812499</v>
       </c>
       <c r="G781">
-        <v>3003443968</v>
+        <v>30034439.68</v>
       </c>
       <c r="H781">
         <v>3003443968</v>
+      </c>
+    </row>
+    <row r="782" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A782" s="1">
+        <v>45050</v>
+      </c>
+      <c r="B782">
+        <v>3600.3349609375</v>
+      </c>
+      <c r="C782">
+        <v>3604.012939453125</v>
+      </c>
+      <c r="D782">
+        <v>3566.62109375</v>
+      </c>
+      <c r="E782">
+        <v>3574.118896484375</v>
+      </c>
+      <c r="F782">
+        <f t="shared" si="8"/>
+        <v>3.5741188964843751</v>
+      </c>
+      <c r="G782">
+        <v>35532572</v>
+      </c>
+      <c r="H782">
+        <v>35532572</v>
+      </c>
+    </row>
+    <row r="783" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A783" s="1">
+        <v>45051</v>
+      </c>
+      <c r="B783">
+        <v>3570.10107421875</v>
+      </c>
+      <c r="C783">
+        <v>3570.742919921875</v>
+      </c>
+      <c r="D783">
+        <v>3515.02001953125</v>
+      </c>
+      <c r="E783">
+        <v>3532.298095703125</v>
+      </c>
+      <c r="F783">
+        <f t="shared" si="8"/>
+        <v>3.5322980957031249</v>
+      </c>
+      <c r="G783">
+        <v>30711304</v>
+      </c>
+      <c r="H783">
+        <v>30711304</v>
+      </c>
+    </row>
+    <row r="784" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A784" s="1">
+        <v>45054</v>
+      </c>
+      <c r="B784">
+        <v>3545.659912109375</v>
+      </c>
+      <c r="C784">
+        <v>3550.7060546875</v>
+      </c>
+      <c r="D784">
+        <v>3523.10791015625</v>
+      </c>
+      <c r="E784">
+        <v>3541.653076171875</v>
+      </c>
+      <c r="F784">
+        <f t="shared" si="8"/>
+        <v>3.5416530761718752</v>
+      </c>
+      <c r="G784">
+        <v>27779200</v>
+      </c>
+      <c r="H784">
+        <v>27779200</v>
+      </c>
+    </row>
+    <row r="785" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A785" s="1">
+        <v>45055</v>
+      </c>
+      <c r="B785">
+        <v>3536.5830078125</v>
+      </c>
+      <c r="C785">
+        <v>3546.386962890625</v>
+      </c>
+      <c r="D785">
+        <v>3504.087890625</v>
+      </c>
+      <c r="E785">
+        <v>3505.407958984375</v>
+      </c>
+      <c r="F785">
+        <f t="shared" si="8"/>
+        <v>3.505407958984375</v>
+      </c>
+      <c r="G785">
+        <v>29132810</v>
+      </c>
+      <c r="H785">
+        <v>29132810</v>
+      </c>
+    </row>
+    <row r="786" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A786" s="1">
+        <v>45056</v>
+      </c>
+      <c r="B786">
+        <v>3501.7939453125</v>
+      </c>
+      <c r="C786">
+        <v>3537.72705078125</v>
+      </c>
+      <c r="D786">
+        <v>3481.531982421875</v>
+      </c>
+      <c r="E786">
+        <v>3524.303955078125</v>
+      </c>
+      <c r="F786">
+        <f t="shared" si="8"/>
+        <v>3.5243039550781252</v>
+      </c>
+      <c r="G786">
+        <v>27338990</v>
+      </c>
+      <c r="H786">
+        <v>27338990</v>
+      </c>
+    </row>
+    <row r="787" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A787" s="1">
+        <v>45057</v>
+      </c>
+      <c r="B787">
+        <v>3528.123046875</v>
+      </c>
+      <c r="C787">
+        <v>3557.41796875</v>
+      </c>
+      <c r="D787">
+        <v>3523.27001953125</v>
+      </c>
+      <c r="E787">
+        <v>3528.928955078125</v>
+      </c>
+      <c r="F787">
+        <f t="shared" si="8"/>
+        <v>3.5289289550781251</v>
+      </c>
+      <c r="G787">
+        <v>22310416</v>
+      </c>
+      <c r="H787">
+        <v>22310416</v>
+      </c>
+    </row>
+    <row r="788" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A788" s="1">
+        <v>45058</v>
+      </c>
+      <c r="B788">
+        <v>3529.68798828125</v>
+      </c>
+      <c r="C788">
+        <v>3547.076904296875</v>
+      </c>
+      <c r="D788">
+        <v>3493.52490234375</v>
+      </c>
+      <c r="E788">
+        <v>3493.597900390625</v>
+      </c>
+      <c r="F788">
+        <f t="shared" si="8"/>
+        <v>3.493597900390625</v>
+      </c>
+      <c r="G788">
+        <v>20766434</v>
+      </c>
+      <c r="H788">
+        <v>20766434</v>
+      </c>
+    </row>
+    <row r="789" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A789" s="1">
+        <v>45061</v>
+      </c>
+      <c r="B789">
+        <v>3504.513916015625</v>
+      </c>
+      <c r="C789">
+        <v>3557.287109375</v>
+      </c>
+      <c r="D789">
+        <v>3495.458984375</v>
+      </c>
+      <c r="E789">
+        <v>3557.287109375</v>
+      </c>
+      <c r="F789">
+        <f t="shared" si="8"/>
+        <v>3.5572871093749998</v>
+      </c>
+      <c r="G789">
+        <v>24309464</v>
+      </c>
+      <c r="H789">
+        <v>24309464</v>
+      </c>
+    </row>
+    <row r="790" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A790" s="1">
+        <v>45062</v>
+      </c>
+      <c r="B790">
+        <v>3558.89697265625</v>
+      </c>
+      <c r="C790">
+        <v>3561.876953125</v>
+      </c>
+      <c r="D790">
+        <v>3528.847900390625</v>
+      </c>
+      <c r="E790">
+        <v>3539.7900390625</v>
+      </c>
+      <c r="F790">
+        <f t="shared" si="8"/>
+        <v>3.5397900390624999</v>
+      </c>
+      <c r="G790">
+        <v>21169014</v>
+      </c>
+      <c r="H790">
+        <v>21169014</v>
+      </c>
+    </row>
+    <row r="791" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A791" s="1">
+        <v>45063</v>
+      </c>
+      <c r="B791">
+        <v>3540.305908203125</v>
+      </c>
+      <c r="C791">
+        <v>3550.85205078125</v>
+      </c>
+      <c r="D791">
+        <v>3522.97412109375</v>
+      </c>
+      <c r="E791">
+        <v>3542.89208984375</v>
+      </c>
+      <c r="F791">
+        <f t="shared" si="8"/>
+        <v>3.5428920898437499</v>
+      </c>
+      <c r="G791">
+        <v>19475980</v>
+      </c>
+      <c r="H791">
+        <v>19475980</v>
+      </c>
+    </row>
+    <row r="792" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A792" s="1">
+        <v>45064</v>
+      </c>
+      <c r="B792">
+        <v>3552.06005859375</v>
+      </c>
+      <c r="C792">
+        <v>3562.492919921875</v>
+      </c>
+      <c r="D792">
+        <v>3520.902099609375</v>
+      </c>
+      <c r="E792">
+        <v>3540.989013671875</v>
+      </c>
+      <c r="F792">
+        <f t="shared" si="8"/>
+        <v>3.5409890136718749</v>
+      </c>
+      <c r="G792">
+        <v>25139980</v>
+      </c>
+      <c r="H792">
+        <v>25139980</v>
+      </c>
+    </row>
+    <row r="793" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A793" s="1">
+        <v>45065</v>
+      </c>
+      <c r="B793">
+        <v>3538.800048828125</v>
+      </c>
+      <c r="C793">
+        <v>3567.85693359375</v>
+      </c>
+      <c r="D793">
+        <v>3533.43994140625</v>
+      </c>
+      <c r="E793">
+        <v>3549.6630859375</v>
+      </c>
+      <c r="F793">
+        <f t="shared" si="8"/>
+        <v>3.5496630859375</v>
+      </c>
+      <c r="G793">
+        <v>24229882</v>
+      </c>
+      <c r="H793">
+        <v>24229882</v>
+      </c>
+    </row>
+    <row r="794" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A794" s="1">
+        <v>45068</v>
+      </c>
+      <c r="B794">
+        <v>3550.64990234375</v>
+      </c>
+      <c r="C794">
+        <v>3569.218017578125</v>
+      </c>
+      <c r="D794">
+        <v>3532.837890625</v>
+      </c>
+      <c r="E794">
+        <v>3555.241943359375</v>
+      </c>
+      <c r="F794">
+        <f t="shared" si="8"/>
+        <v>3.5552419433593752</v>
+      </c>
+      <c r="G794">
+        <v>20200200</v>
+      </c>
+      <c r="H794">
+        <v>20200200</v>
+      </c>
+    </row>
+    <row r="795" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A795" s="1">
+        <v>45069</v>
+      </c>
+      <c r="B795">
+        <v>3556.238037109375</v>
+      </c>
+      <c r="C795">
+        <v>3567.822021484375</v>
+      </c>
+      <c r="D795">
+        <v>3523.279052734375</v>
+      </c>
+      <c r="E795">
+        <v>3523.506103515625</v>
+      </c>
+      <c r="F795">
+        <f t="shared" si="8"/>
+        <v>3.5235061035156252</v>
+      </c>
+      <c r="G795">
+        <v>20641774</v>
+      </c>
+      <c r="H795">
+        <v>20641774</v>
+      </c>
+    </row>
+    <row r="796" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A796" s="1">
+        <v>45070</v>
+      </c>
+      <c r="B796">
+        <v>3511.430908203125</v>
+      </c>
+      <c r="C796">
+        <v>3533.173095703125</v>
+      </c>
+      <c r="D796">
+        <v>3494.09912109375</v>
+      </c>
+      <c r="E796">
+        <v>3494.09912109375</v>
+      </c>
+      <c r="F796">
+        <f t="shared" si="8"/>
+        <v>3.49409912109375</v>
+      </c>
+      <c r="G796">
+        <v>22570998</v>
+      </c>
+      <c r="H796">
+        <v>22570998</v>
+      </c>
+    </row>
+    <row r="797" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A797" s="1">
+        <v>45071</v>
+      </c>
+      <c r="B797">
+        <v>3497.89794921875</v>
+      </c>
+      <c r="C797">
+        <v>3515.260986328125</v>
+      </c>
+      <c r="D797">
+        <v>3472.6669921875</v>
+      </c>
+      <c r="E797">
+        <v>3496.55810546875</v>
+      </c>
+      <c r="F797">
+        <f t="shared" si="8"/>
+        <v>3.49655810546875</v>
+      </c>
+      <c r="G797">
+        <v>24137466</v>
+      </c>
+      <c r="H797">
+        <v>24137466</v>
+      </c>
+    </row>
+    <row r="798" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A798" s="1">
+        <v>45072</v>
+      </c>
+      <c r="B798">
+        <v>3495.389892578125</v>
+      </c>
+      <c r="C798">
+        <v>3495.389892578125</v>
+      </c>
+      <c r="D798">
+        <v>3453.39404296875</v>
+      </c>
+      <c r="E798">
+        <v>3487.3779296875</v>
+      </c>
+      <c r="F798">
+        <f t="shared" si="8"/>
+        <v>3.4873779296874998</v>
+      </c>
+      <c r="G798">
+        <v>20203132</v>
+      </c>
+      <c r="H798">
+        <v>20203132</v>
+      </c>
+    </row>
+    <row r="799" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A799" s="1">
+        <v>45075</v>
+      </c>
+      <c r="B799">
+        <v>3500.5849609375</v>
+      </c>
+      <c r="C799">
+        <v>3504.076904296875</v>
+      </c>
+      <c r="D799">
+        <v>3436.324951171875</v>
+      </c>
+      <c r="E799">
+        <v>3446.52001953125</v>
+      </c>
+      <c r="F799">
+        <f t="shared" si="8"/>
+        <v>3.44652001953125</v>
+      </c>
+      <c r="G799">
+        <v>26587402</v>
+      </c>
+      <c r="H799">
+        <v>26587402</v>
+      </c>
+    </row>
+    <row r="800" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A800" s="1">
+        <v>45076</v>
+      </c>
+      <c r="B800">
+        <v>3442.239990234375</v>
+      </c>
+      <c r="C800">
+        <v>3478.193115234375</v>
+      </c>
+      <c r="D800">
+        <v>3423.291015625</v>
+      </c>
+      <c r="E800">
+        <v>3478.193115234375</v>
+      </c>
+      <c r="F800">
+        <f t="shared" si="8"/>
+        <v>3.478193115234375</v>
+      </c>
+      <c r="G800">
+        <v>25532572</v>
+      </c>
+      <c r="H800">
+        <v>25532572</v>
+      </c>
+    </row>
+    <row r="801" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A801" s="1">
+        <v>45077</v>
+      </c>
+      <c r="B801">
+        <v>3475.318115234375</v>
+      </c>
+      <c r="C801">
+        <v>3475.318115234375</v>
+      </c>
+      <c r="D801">
+        <v>3431.27001953125</v>
+      </c>
+      <c r="E801">
+        <v>3450.5849609375</v>
+      </c>
+      <c r="F801">
+        <f t="shared" si="8"/>
+        <v>3.4505849609374999</v>
+      </c>
+      <c r="G801">
+        <v>25719294</v>
+      </c>
+      <c r="H801">
+        <v>25719294</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index.xlsx
+++ b/lai/valuationquan/szseinnovation100index.xlsx
@@ -400,10 +400,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H801"/>
+  <dimension ref="A1:H821"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A782" workbookViewId="0">
-      <selection activeCell="A802" sqref="A802"/>
+    <sheetView tabSelected="1" topLeftCell="A802" workbookViewId="0">
+      <selection activeCell="A822" sqref="A822"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -19356,7 +19356,7 @@
         <v>3473.530029296875</v>
       </c>
       <c r="F703">
-        <f t="shared" ref="F703:F801" si="8">E703/1000</f>
+        <f t="shared" ref="F703:F821" si="8">E703/1000</f>
         <v>3.4735300292968749</v>
       </c>
       <c r="G703">
@@ -22010,6 +22010,546 @@
       </c>
       <c r="H801">
         <v>25719294</v>
+      </c>
+    </row>
+    <row r="802" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A802" s="1">
+        <v>45078</v>
+      </c>
+      <c r="B802">
+        <v>3438.89208984375</v>
+      </c>
+      <c r="C802">
+        <v>3489.427001953125</v>
+      </c>
+      <c r="D802">
+        <v>3428.488037109375</v>
+      </c>
+      <c r="E802">
+        <v>3464.00390625</v>
+      </c>
+      <c r="F802">
+        <f t="shared" si="8"/>
+        <v>3.4640039062499999</v>
+      </c>
+      <c r="G802">
+        <v>26458982</v>
+      </c>
+      <c r="H802">
+        <v>26458982</v>
+      </c>
+    </row>
+    <row r="803" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A803" s="1">
+        <v>45079</v>
+      </c>
+      <c r="B803">
+        <v>3481.9970703125</v>
+      </c>
+      <c r="C803">
+        <v>3520.947998046875</v>
+      </c>
+      <c r="D803">
+        <v>3479.779052734375</v>
+      </c>
+      <c r="E803">
+        <v>3516.64404296875</v>
+      </c>
+      <c r="F803">
+        <f t="shared" si="8"/>
+        <v>3.5166440429687502</v>
+      </c>
+      <c r="G803">
+        <v>24680764</v>
+      </c>
+      <c r="H803">
+        <v>24680764</v>
+      </c>
+    </row>
+    <row r="804" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A804" s="1">
+        <v>45082</v>
+      </c>
+      <c r="B804">
+        <v>3516.721923828125</v>
+      </c>
+      <c r="C804">
+        <v>3516.721923828125</v>
+      </c>
+      <c r="D804">
+        <v>3482.343017578125</v>
+      </c>
+      <c r="E804">
+        <v>3499.27392578125</v>
+      </c>
+      <c r="F804">
+        <f t="shared" si="8"/>
+        <v>3.49927392578125</v>
+      </c>
+      <c r="G804">
+        <v>22565294</v>
+      </c>
+      <c r="H804">
+        <v>22565294</v>
+      </c>
+    </row>
+    <row r="805" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A805" s="1">
+        <v>45083</v>
+      </c>
+      <c r="B805">
+        <v>3490.20703125</v>
+      </c>
+      <c r="C805">
+        <v>3490.219970703125</v>
+      </c>
+      <c r="D805">
+        <v>3440.52099609375</v>
+      </c>
+      <c r="E805">
+        <v>3446.449951171875</v>
+      </c>
+      <c r="F805">
+        <f t="shared" si="8"/>
+        <v>3.4464499511718749</v>
+      </c>
+      <c r="G805">
+        <v>24450232</v>
+      </c>
+      <c r="H805">
+        <v>24450232</v>
+      </c>
+    </row>
+    <row r="806" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A806" s="1">
+        <v>45084</v>
+      </c>
+      <c r="B806">
+        <v>3449.971923828125</v>
+      </c>
+      <c r="C806">
+        <v>3455.2880859375</v>
+      </c>
+      <c r="D806">
+        <v>3406.01806640625</v>
+      </c>
+      <c r="E806">
+        <v>3412.99609375</v>
+      </c>
+      <c r="F806">
+        <f t="shared" si="8"/>
+        <v>3.4129960937499999</v>
+      </c>
+      <c r="G806">
+        <v>21177508</v>
+      </c>
+      <c r="H806">
+        <v>21177508</v>
+      </c>
+    </row>
+    <row r="807" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A807" s="1">
+        <v>45085</v>
+      </c>
+      <c r="B807">
+        <v>3420.968994140625</v>
+      </c>
+      <c r="C807">
+        <v>3434.092041015625</v>
+      </c>
+      <c r="D807">
+        <v>3394.821044921875</v>
+      </c>
+      <c r="E807">
+        <v>3417.79296875</v>
+      </c>
+      <c r="F807">
+        <f t="shared" si="8"/>
+        <v>3.4177929687500002</v>
+      </c>
+      <c r="G807">
+        <v>21912098</v>
+      </c>
+      <c r="H807">
+        <v>21912098</v>
+      </c>
+    </row>
+    <row r="808" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A808" s="1">
+        <v>45086</v>
+      </c>
+      <c r="B808">
+        <v>3423.762939453125</v>
+      </c>
+      <c r="C808">
+        <v>3442.72412109375</v>
+      </c>
+      <c r="D808">
+        <v>3407.5048828125</v>
+      </c>
+      <c r="E808">
+        <v>3442.72412109375</v>
+      </c>
+      <c r="F808">
+        <f t="shared" si="8"/>
+        <v>3.4427241210937498</v>
+      </c>
+      <c r="G808">
+        <v>30825672</v>
+      </c>
+      <c r="H808">
+        <v>30825672</v>
+      </c>
+    </row>
+    <row r="809" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A809" s="1">
+        <v>45089</v>
+      </c>
+      <c r="B809">
+        <v>3437.85009765625</v>
+      </c>
+      <c r="C809">
+        <v>3487.762939453125</v>
+      </c>
+      <c r="D809">
+        <v>3434.364990234375</v>
+      </c>
+      <c r="E809">
+        <v>3473.324951171875</v>
+      </c>
+      <c r="F809">
+        <f t="shared" si="8"/>
+        <v>3.4733249511718749</v>
+      </c>
+      <c r="G809">
+        <v>26449916</v>
+      </c>
+      <c r="H809">
+        <v>26449916</v>
+      </c>
+    </row>
+    <row r="810" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A810" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B810">
+        <v>3468.035888671875</v>
+      </c>
+      <c r="C810">
+        <v>3514.069091796875</v>
+      </c>
+      <c r="D810">
+        <v>3466.596923828125</v>
+      </c>
+      <c r="E810">
+        <v>3509.777099609375</v>
+      </c>
+      <c r="F810">
+        <f t="shared" si="8"/>
+        <v>3.5097770996093751</v>
+      </c>
+      <c r="G810">
+        <v>26862986</v>
+      </c>
+      <c r="H810">
+        <v>26862986</v>
+      </c>
+    </row>
+    <row r="811" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A811" s="1">
+        <v>45091</v>
+      </c>
+      <c r="B811">
+        <v>3520.714111328125</v>
+      </c>
+      <c r="C811">
+        <v>3533.196044921875</v>
+      </c>
+      <c r="D811">
+        <v>3513.054931640625</v>
+      </c>
+      <c r="E811">
+        <v>3515.47705078125</v>
+      </c>
+      <c r="F811">
+        <f t="shared" si="8"/>
+        <v>3.5154770507812501</v>
+      </c>
+      <c r="G811">
+        <v>28779156</v>
+      </c>
+      <c r="H811">
+        <v>28779156</v>
+      </c>
+    </row>
+    <row r="812" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A812" s="1">
+        <v>45092</v>
+      </c>
+      <c r="B812">
+        <v>3526.760009765625</v>
+      </c>
+      <c r="C812">
+        <v>3612.472900390625</v>
+      </c>
+      <c r="D812">
+        <v>3526.760009765625</v>
+      </c>
+      <c r="E812">
+        <v>3612.472900390625</v>
+      </c>
+      <c r="F812">
+        <f t="shared" si="8"/>
+        <v>3.6124729003906251</v>
+      </c>
+      <c r="G812">
+        <v>32034110</v>
+      </c>
+      <c r="H812">
+        <v>32034110</v>
+      </c>
+    </row>
+    <row r="813" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A813" s="1">
+        <v>45093</v>
+      </c>
+      <c r="B813">
+        <v>3619.967041015625</v>
+      </c>
+      <c r="C813">
+        <v>3668.912109375</v>
+      </c>
+      <c r="D813">
+        <v>3612.169921875</v>
+      </c>
+      <c r="E813">
+        <v>3665.73095703125</v>
+      </c>
+      <c r="F813">
+        <f t="shared" si="8"/>
+        <v>3.6657309570312502</v>
+      </c>
+      <c r="G813">
+        <v>31481270</v>
+      </c>
+      <c r="H813">
+        <v>31481270</v>
+      </c>
+    </row>
+    <row r="814" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A814" s="1">
+        <v>45096</v>
+      </c>
+      <c r="B814">
+        <v>3667.412109375</v>
+      </c>
+      <c r="C814">
+        <v>3668.7060546875</v>
+      </c>
+      <c r="D814">
+        <v>3647.197998046875</v>
+      </c>
+      <c r="E814">
+        <v>3661.821044921875</v>
+      </c>
+      <c r="F814">
+        <f t="shared" si="8"/>
+        <v>3.6618210449218749</v>
+      </c>
+      <c r="G814">
+        <v>30720288</v>
+      </c>
+      <c r="H814">
+        <v>30720288</v>
+      </c>
+    </row>
+    <row r="815" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A815" s="1">
+        <v>45097</v>
+      </c>
+      <c r="B815">
+        <v>3659.44189453125</v>
+      </c>
+      <c r="C815">
+        <v>3708.258056640625</v>
+      </c>
+      <c r="D815">
+        <v>3658.5400390625</v>
+      </c>
+      <c r="E815">
+        <v>3699.60693359375</v>
+      </c>
+      <c r="F815">
+        <f t="shared" si="8"/>
+        <v>3.69960693359375</v>
+      </c>
+      <c r="G815">
+        <v>30972362</v>
+      </c>
+      <c r="H815">
+        <v>30972362</v>
+      </c>
+    </row>
+    <row r="816" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A816" s="1">
+        <v>45098</v>
+      </c>
+      <c r="B816">
+        <v>3686.404052734375</v>
+      </c>
+      <c r="C816">
+        <v>3694.847900390625</v>
+      </c>
+      <c r="D816">
+        <v>3625.64892578125</v>
+      </c>
+      <c r="E816">
+        <v>3625.64892578125</v>
+      </c>
+      <c r="F816">
+        <f t="shared" si="8"/>
+        <v>3.6256489257812499</v>
+      </c>
+      <c r="G816">
+        <v>27777422</v>
+      </c>
+      <c r="H816">
+        <v>27777422</v>
+      </c>
+    </row>
+    <row r="817" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A817" s="1">
+        <v>45103</v>
+      </c>
+      <c r="B817">
+        <v>3592.001953125</v>
+      </c>
+      <c r="C817">
+        <v>3618.52490234375</v>
+      </c>
+      <c r="D817">
+        <v>3562.0830078125</v>
+      </c>
+      <c r="E817">
+        <v>3575.532958984375</v>
+      </c>
+      <c r="F817">
+        <f t="shared" si="8"/>
+        <v>3.575532958984375</v>
+      </c>
+      <c r="G817">
+        <v>32485728</v>
+      </c>
+      <c r="H817">
+        <v>32485728</v>
+      </c>
+    </row>
+    <row r="818" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A818" s="1">
+        <v>45104</v>
+      </c>
+      <c r="B818">
+        <v>3575.675048828125</v>
+      </c>
+      <c r="C818">
+        <v>3611.7099609375</v>
+      </c>
+      <c r="D818">
+        <v>3573.60400390625</v>
+      </c>
+      <c r="E818">
+        <v>3607.55810546875</v>
+      </c>
+      <c r="F818">
+        <f t="shared" si="8"/>
+        <v>3.6075581054687502</v>
+      </c>
+      <c r="G818">
+        <v>25580488</v>
+      </c>
+      <c r="H818">
+        <v>25580488</v>
+      </c>
+    </row>
+    <row r="819" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A819" s="1">
+        <v>45105</v>
+      </c>
+      <c r="B819">
+        <v>3591.493896484375</v>
+      </c>
+      <c r="C819">
+        <v>3592.4560546875</v>
+      </c>
+      <c r="D819">
+        <v>3544.742919921875</v>
+      </c>
+      <c r="E819">
+        <v>3580.074951171875</v>
+      </c>
+      <c r="F819">
+        <f t="shared" si="8"/>
+        <v>3.5800749511718748</v>
+      </c>
+      <c r="G819">
+        <v>25230192</v>
+      </c>
+      <c r="H819">
+        <v>25230192</v>
+      </c>
+    </row>
+    <row r="820" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A820" s="1">
+        <v>45106</v>
+      </c>
+      <c r="B820">
+        <v>3575.736083984375</v>
+      </c>
+      <c r="C820">
+        <v>3592.68310546875</v>
+      </c>
+      <c r="D820">
+        <v>3559.125</v>
+      </c>
+      <c r="E820">
+        <v>3574.8779296875</v>
+      </c>
+      <c r="F820">
+        <f t="shared" si="8"/>
+        <v>3.5748779296875002</v>
+      </c>
+      <c r="G820">
+        <v>27852000</v>
+      </c>
+      <c r="H820">
+        <v>27852000</v>
+      </c>
+    </row>
+    <row r="821" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A821" s="1">
+        <v>45107</v>
+      </c>
+      <c r="B821">
+        <v>3566.43505859375</v>
+      </c>
+      <c r="C821">
+        <v>3620.720947265625</v>
+      </c>
+      <c r="D821">
+        <v>3560.928955078125</v>
+      </c>
+      <c r="E821">
+        <v>3608.843017578125</v>
+      </c>
+      <c r="F821">
+        <f t="shared" si="8"/>
+        <v>3.608843017578125</v>
+      </c>
+      <c r="G821">
+        <v>29581058</v>
+      </c>
+      <c r="H821">
+        <v>29581058</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index.xlsx
+++ b/lai/valuationquan/szseinnovation100index.xlsx
@@ -400,10 +400,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H821"/>
+  <dimension ref="A1:H842"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A802" workbookViewId="0">
-      <selection activeCell="A822" sqref="A822"/>
+    <sheetView tabSelected="1" topLeftCell="A822" workbookViewId="0">
+      <selection activeCell="A843" sqref="A843"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -19356,7 +19356,7 @@
         <v>3473.530029296875</v>
       </c>
       <c r="F703">
-        <f t="shared" ref="F703:F821" si="8">E703/1000</f>
+        <f t="shared" ref="F703:F842" si="8">E703/1000</f>
         <v>3.4735300292968749</v>
       </c>
       <c r="G703">
@@ -22550,6 +22550,573 @@
       </c>
       <c r="H821">
         <v>29581058</v>
+      </c>
+    </row>
+    <row r="822" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A822" s="1">
+        <v>45110</v>
+      </c>
+      <c r="B822">
+        <v>3625.368896484375</v>
+      </c>
+      <c r="C822">
+        <v>3657.159912109375</v>
+      </c>
+      <c r="D822">
+        <v>3614.764892578125</v>
+      </c>
+      <c r="E822">
+        <v>3630.62890625</v>
+      </c>
+      <c r="F822">
+        <f t="shared" si="8"/>
+        <v>3.6306289062500001</v>
+      </c>
+      <c r="G822">
+        <v>35050512</v>
+      </c>
+      <c r="H822">
+        <v>35050512</v>
+      </c>
+    </row>
+    <row r="823" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A823" s="1">
+        <v>45111</v>
+      </c>
+      <c r="B823">
+        <v>3623.865966796875</v>
+      </c>
+      <c r="C823">
+        <v>3652.633056640625</v>
+      </c>
+      <c r="D823">
+        <v>3615.550048828125</v>
+      </c>
+      <c r="E823">
+        <v>3648.9619140625</v>
+      </c>
+      <c r="F823">
+        <f t="shared" si="8"/>
+        <v>3.6489619140624998</v>
+      </c>
+      <c r="G823">
+        <v>28520772</v>
+      </c>
+      <c r="H823">
+        <v>28520772</v>
+      </c>
+    </row>
+    <row r="824" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A824" s="1">
+        <v>45112</v>
+      </c>
+      <c r="B824">
+        <v>3651.783935546875</v>
+      </c>
+      <c r="C824">
+        <v>3652.60107421875</v>
+      </c>
+      <c r="D824">
+        <v>3610.662109375</v>
+      </c>
+      <c r="E824">
+        <v>3616.19189453125</v>
+      </c>
+      <c r="F824">
+        <f t="shared" si="8"/>
+        <v>3.6161918945312501</v>
+      </c>
+      <c r="G824">
+        <v>24796648</v>
+      </c>
+      <c r="H824">
+        <v>24796648</v>
+      </c>
+    </row>
+    <row r="825" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A825" s="1">
+        <v>45113</v>
+      </c>
+      <c r="B825">
+        <v>3603.321044921875</v>
+      </c>
+      <c r="C825">
+        <v>3631.429931640625</v>
+      </c>
+      <c r="D825">
+        <v>3588.712890625</v>
+      </c>
+      <c r="E825">
+        <v>3595.22705078125</v>
+      </c>
+      <c r="F825">
+        <f t="shared" si="8"/>
+        <v>3.5952270507812498</v>
+      </c>
+      <c r="G825">
+        <v>28509872</v>
+      </c>
+      <c r="H825">
+        <v>28509872</v>
+      </c>
+    </row>
+    <row r="826" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A826" s="1">
+        <v>45114</v>
+      </c>
+      <c r="B826">
+        <v>3586.2119140625</v>
+      </c>
+      <c r="C826">
+        <v>3586.2119140625</v>
+      </c>
+      <c r="D826">
+        <v>3550.487060546875</v>
+      </c>
+      <c r="E826">
+        <v>3559.60009765625</v>
+      </c>
+      <c r="F826">
+        <f t="shared" si="8"/>
+        <v>3.5596000976562499</v>
+      </c>
+      <c r="G826">
+        <v>26237452</v>
+      </c>
+      <c r="H826">
+        <v>26237452</v>
+      </c>
+    </row>
+    <row r="827" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A827" s="1">
+        <v>45117</v>
+      </c>
+      <c r="B827">
+        <v>3571.35693359375</v>
+      </c>
+      <c r="C827">
+        <v>3599.212890625</v>
+      </c>
+      <c r="D827">
+        <v>3567.10595703125</v>
+      </c>
+      <c r="E827">
+        <v>3581.135986328125</v>
+      </c>
+      <c r="F827">
+        <f t="shared" si="8"/>
+        <v>3.5811359863281251</v>
+      </c>
+      <c r="G827">
+        <v>23897786</v>
+      </c>
+      <c r="H827">
+        <v>23897786</v>
+      </c>
+    </row>
+    <row r="828" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A828" s="1">
+        <v>45118</v>
+      </c>
+      <c r="B828">
+        <v>3585.593017578125</v>
+      </c>
+      <c r="C828">
+        <v>3623.373046875</v>
+      </c>
+      <c r="D828">
+        <v>3584.35595703125</v>
+      </c>
+      <c r="E828">
+        <v>3621.675048828125</v>
+      </c>
+      <c r="F828">
+        <f t="shared" si="8"/>
+        <v>3.6216750488281249</v>
+      </c>
+      <c r="G828">
+        <v>23475546</v>
+      </c>
+      <c r="H828">
+        <v>23475546</v>
+      </c>
+    </row>
+    <row r="829" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A829" s="1">
+        <v>45119</v>
+      </c>
+      <c r="B829">
+        <v>3618.887939453125</v>
+      </c>
+      <c r="C829">
+        <v>3622.330078125</v>
+      </c>
+      <c r="D829">
+        <v>3577.2099609375</v>
+      </c>
+      <c r="E829">
+        <v>3582.94091796875</v>
+      </c>
+      <c r="F829">
+        <f t="shared" si="8"/>
+        <v>3.5829409179687501</v>
+      </c>
+      <c r="G829">
+        <v>29071242</v>
+      </c>
+      <c r="H829">
+        <v>29071242</v>
+      </c>
+    </row>
+    <row r="830" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A830" s="1">
+        <v>45120</v>
+      </c>
+      <c r="B830">
+        <v>3597.64404296875</v>
+      </c>
+      <c r="C830">
+        <v>3638.18798828125</v>
+      </c>
+      <c r="D830">
+        <v>3597.64404296875</v>
+      </c>
+      <c r="E830">
+        <v>3635.705078125</v>
+      </c>
+      <c r="F830">
+        <f t="shared" si="8"/>
+        <v>3.635705078125</v>
+      </c>
+      <c r="G830">
+        <v>27975964</v>
+      </c>
+      <c r="H830">
+        <v>27975964</v>
+      </c>
+    </row>
+    <row r="831" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A831" s="1">
+        <v>45121</v>
+      </c>
+      <c r="B831">
+        <v>3639.19189453125</v>
+      </c>
+      <c r="C831">
+        <v>3642.93408203125</v>
+      </c>
+      <c r="D831">
+        <v>3625.51708984375</v>
+      </c>
+      <c r="E831">
+        <v>3628.491943359375</v>
+      </c>
+      <c r="F831">
+        <f t="shared" si="8"/>
+        <v>3.628491943359375</v>
+      </c>
+      <c r="G831">
+        <v>27517380</v>
+      </c>
+      <c r="H831">
+        <v>27517380</v>
+      </c>
+    </row>
+    <row r="832" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A832" s="1">
+        <v>45124</v>
+      </c>
+      <c r="B832">
+        <v>3618.2080078125</v>
+      </c>
+      <c r="C832">
+        <v>3620.4619140625</v>
+      </c>
+      <c r="D832">
+        <v>3595.73291015625</v>
+      </c>
+      <c r="E832">
+        <v>3609.2119140625</v>
+      </c>
+      <c r="F832">
+        <f t="shared" si="8"/>
+        <v>3.6092119140625001</v>
+      </c>
+      <c r="G832">
+        <v>22186626</v>
+      </c>
+      <c r="H832">
+        <v>22186626</v>
+      </c>
+    </row>
+    <row r="833" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A833" s="1">
+        <v>45125</v>
+      </c>
+      <c r="B833">
+        <v>3618.263916015625</v>
+      </c>
+      <c r="C833">
+        <v>3618.52001953125</v>
+      </c>
+      <c r="D833">
+        <v>3582.868896484375</v>
+      </c>
+      <c r="E833">
+        <v>3590.555908203125</v>
+      </c>
+      <c r="F833">
+        <f t="shared" si="8"/>
+        <v>3.5905559082031249</v>
+      </c>
+      <c r="G833">
+        <v>20945226</v>
+      </c>
+      <c r="H833">
+        <v>20945226</v>
+      </c>
+    </row>
+    <row r="834" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A834" s="1">
+        <v>45126</v>
+      </c>
+      <c r="B834">
+        <v>3587.531005859375</v>
+      </c>
+      <c r="C834">
+        <v>3594.322021484375</v>
+      </c>
+      <c r="D834">
+        <v>3553.283935546875</v>
+      </c>
+      <c r="E834">
+        <v>3571.208984375</v>
+      </c>
+      <c r="F834">
+        <f t="shared" si="8"/>
+        <v>3.5712089843750001</v>
+      </c>
+      <c r="G834">
+        <v>18359944</v>
+      </c>
+      <c r="H834">
+        <v>18359944</v>
+      </c>
+    </row>
+    <row r="835" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A835" s="1">
+        <v>45127</v>
+      </c>
+      <c r="B835">
+        <v>3575.800048828125</v>
+      </c>
+      <c r="C835">
+        <v>3594.634033203125</v>
+      </c>
+      <c r="D835">
+        <v>3519.5048828125</v>
+      </c>
+      <c r="E835">
+        <v>3523.947998046875</v>
+      </c>
+      <c r="F835">
+        <f t="shared" si="8"/>
+        <v>3.5239479980468751</v>
+      </c>
+      <c r="G835">
+        <v>22931590</v>
+      </c>
+      <c r="H835">
+        <v>22931590</v>
+      </c>
+    </row>
+    <row r="836" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A836" s="1">
+        <v>45128</v>
+      </c>
+      <c r="B836">
+        <v>3518.445068359375</v>
+      </c>
+      <c r="C836">
+        <v>3538.85791015625</v>
+      </c>
+      <c r="D836">
+        <v>3500.6689453125</v>
+      </c>
+      <c r="E836">
+        <v>3513.552001953125</v>
+      </c>
+      <c r="F836">
+        <f t="shared" si="8"/>
+        <v>3.513552001953125</v>
+      </c>
+      <c r="G836">
+        <v>19473790</v>
+      </c>
+      <c r="H836">
+        <v>19473790</v>
+      </c>
+    </row>
+    <row r="837" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A837" s="1">
+        <v>45131</v>
+      </c>
+      <c r="B837">
+        <v>3496.62890625</v>
+      </c>
+      <c r="C837">
+        <v>3527.43505859375</v>
+      </c>
+      <c r="D837">
+        <v>3483.616943359375</v>
+      </c>
+      <c r="E837">
+        <v>3491.883056640625</v>
+      </c>
+      <c r="F837">
+        <f t="shared" si="8"/>
+        <v>3.4918830566406251</v>
+      </c>
+      <c r="G837">
+        <v>18314524</v>
+      </c>
+      <c r="H837">
+        <v>18314524</v>
+      </c>
+    </row>
+    <row r="838" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A838" s="1">
+        <v>45132</v>
+      </c>
+      <c r="B838">
+        <v>3545.404052734375</v>
+      </c>
+      <c r="C838">
+        <v>3584.660888671875</v>
+      </c>
+      <c r="D838">
+        <v>3541.305908203125</v>
+      </c>
+      <c r="E838">
+        <v>3580.70703125</v>
+      </c>
+      <c r="F838">
+        <f t="shared" si="8"/>
+        <v>3.5807070312499998</v>
+      </c>
+      <c r="G838">
+        <v>30719102</v>
+      </c>
+      <c r="H838">
+        <v>30719102</v>
+      </c>
+    </row>
+    <row r="839" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A839" s="1">
+        <v>45133</v>
+      </c>
+      <c r="B839">
+        <v>3570.638916015625</v>
+      </c>
+      <c r="C839">
+        <v>3575.030029296875</v>
+      </c>
+      <c r="D839">
+        <v>3555.47900390625</v>
+      </c>
+      <c r="E839">
+        <v>3564.068115234375</v>
+      </c>
+      <c r="F839">
+        <f t="shared" si="8"/>
+        <v>3.5640681152343752</v>
+      </c>
+      <c r="G839">
+        <v>24423656</v>
+      </c>
+      <c r="H839">
+        <v>24423656</v>
+      </c>
+    </row>
+    <row r="840" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A840" s="1">
+        <v>45134</v>
+      </c>
+      <c r="B840">
+        <v>3576.514892578125</v>
+      </c>
+      <c r="C840">
+        <v>3581.531982421875</v>
+      </c>
+      <c r="D840">
+        <v>3545.12890625</v>
+      </c>
+      <c r="E840">
+        <v>3551.884033203125</v>
+      </c>
+      <c r="F840">
+        <f t="shared" si="8"/>
+        <v>3.551884033203125</v>
+      </c>
+      <c r="G840">
+        <v>21953264</v>
+      </c>
+      <c r="H840">
+        <v>21953264</v>
+      </c>
+    </row>
+    <row r="841" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A841" s="1">
+        <v>45135</v>
+      </c>
+      <c r="B841">
+        <v>3543.97900390625</v>
+      </c>
+      <c r="C841">
+        <v>3608.450927734375</v>
+      </c>
+      <c r="D841">
+        <v>3536.091064453125</v>
+      </c>
+      <c r="E841">
+        <v>3602.60302734375</v>
+      </c>
+      <c r="F841">
+        <f t="shared" si="8"/>
+        <v>3.6026030273437502</v>
+      </c>
+      <c r="G841">
+        <v>27762384</v>
+      </c>
+      <c r="H841">
+        <v>27762384</v>
+      </c>
+    </row>
+    <row r="842" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A842" s="1">
+        <v>45138</v>
+      </c>
+      <c r="B842">
+        <v>3622.48388671875</v>
+      </c>
+      <c r="C842">
+        <v>3667.64599609375</v>
+      </c>
+      <c r="D842">
+        <v>3619.72998046875</v>
+      </c>
+      <c r="E842">
+        <v>3630.39404296875</v>
+      </c>
+      <c r="F842">
+        <f t="shared" si="8"/>
+        <v>3.6303940429687498</v>
+      </c>
+      <c r="G842">
+        <v>34370968</v>
+      </c>
+      <c r="H842">
+        <v>34370968</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index.xlsx
+++ b/lai/valuationquan/szseinnovation100index.xlsx
@@ -400,10 +400,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H842"/>
+  <dimension ref="A1:H865"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A822" workbookViewId="0">
-      <selection activeCell="A843" sqref="A843"/>
+    <sheetView tabSelected="1" topLeftCell="A843" workbookViewId="0">
+      <selection activeCell="A866" sqref="A866"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -19356,7 +19356,7 @@
         <v>3473.530029296875</v>
       </c>
       <c r="F703">
-        <f t="shared" ref="F703:F842" si="8">E703/1000</f>
+        <f t="shared" ref="F703:F865" si="8">E703/1000</f>
         <v>3.4735300292968749</v>
       </c>
       <c r="G703">
@@ -23117,6 +23117,627 @@
       </c>
       <c r="H842">
         <v>34370968</v>
+      </c>
+    </row>
+    <row r="843" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A843" s="1">
+        <v>45139</v>
+      </c>
+      <c r="B843">
+        <v>3623.748046875</v>
+      </c>
+      <c r="C843">
+        <v>3636.91796875</v>
+      </c>
+      <c r="D843">
+        <v>3602.1640625</v>
+      </c>
+      <c r="E843">
+        <v>3615.4130859375</v>
+      </c>
+      <c r="F843">
+        <f t="shared" si="8"/>
+        <v>3.6154130859375</v>
+      </c>
+      <c r="G843">
+        <v>25165372</v>
+      </c>
+      <c r="H843">
+        <v>25165372</v>
+      </c>
+    </row>
+    <row r="844" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A844" s="1">
+        <v>45140</v>
+      </c>
+      <c r="B844">
+        <v>3609.52099609375</v>
+      </c>
+      <c r="C844">
+        <v>3627.258056640625</v>
+      </c>
+      <c r="D844">
+        <v>3594.363037109375</v>
+      </c>
+      <c r="E844">
+        <v>3604.574951171875</v>
+      </c>
+      <c r="F844">
+        <f t="shared" si="8"/>
+        <v>3.604574951171875</v>
+      </c>
+      <c r="G844">
+        <v>20522224</v>
+      </c>
+      <c r="H844">
+        <v>20522224</v>
+      </c>
+    </row>
+    <row r="845" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A845" s="1">
+        <v>45141</v>
+      </c>
+      <c r="B845">
+        <v>3588.89404296875</v>
+      </c>
+      <c r="C845">
+        <v>3623.014892578125</v>
+      </c>
+      <c r="D845">
+        <v>3588.340087890625</v>
+      </c>
+      <c r="E845">
+        <v>3621.638916015625</v>
+      </c>
+      <c r="F845">
+        <f t="shared" si="8"/>
+        <v>3.621638916015625</v>
+      </c>
+      <c r="G845">
+        <v>19746778</v>
+      </c>
+      <c r="H845">
+        <v>19746778</v>
+      </c>
+    </row>
+    <row r="846" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A846" s="1">
+        <v>45142</v>
+      </c>
+      <c r="B846">
+        <v>3640.384033203125</v>
+      </c>
+      <c r="C846">
+        <v>3665.4140625</v>
+      </c>
+      <c r="D846">
+        <v>3625.35400390625</v>
+      </c>
+      <c r="E846">
+        <v>3649.721923828125</v>
+      </c>
+      <c r="F846">
+        <f t="shared" si="8"/>
+        <v>3.6497219238281251</v>
+      </c>
+      <c r="G846">
+        <v>23856396</v>
+      </c>
+      <c r="H846">
+        <v>23856396</v>
+      </c>
+    </row>
+    <row r="847" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A847" s="1">
+        <v>45145</v>
+      </c>
+      <c r="B847">
+        <v>3642.47705078125</v>
+      </c>
+      <c r="C847">
+        <v>3645.10400390625</v>
+      </c>
+      <c r="D847">
+        <v>3605.123046875</v>
+      </c>
+      <c r="E847">
+        <v>3614.839111328125</v>
+      </c>
+      <c r="F847">
+        <f t="shared" si="8"/>
+        <v>3.6148391113281249</v>
+      </c>
+      <c r="G847">
+        <v>24311898</v>
+      </c>
+      <c r="H847">
+        <v>24311898</v>
+      </c>
+    </row>
+    <row r="848" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A848" s="1">
+        <v>45146</v>
+      </c>
+      <c r="B848">
+        <v>3612.123046875</v>
+      </c>
+      <c r="C848">
+        <v>3625.406982421875</v>
+      </c>
+      <c r="D848">
+        <v>3599.8798828125</v>
+      </c>
+      <c r="E848">
+        <v>3601.695068359375</v>
+      </c>
+      <c r="F848">
+        <f t="shared" si="8"/>
+        <v>3.6016950683593749</v>
+      </c>
+      <c r="G848">
+        <v>18744322</v>
+      </c>
+      <c r="H848">
+        <v>18744322</v>
+      </c>
+    </row>
+    <row r="849" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A849" s="1">
+        <v>45147</v>
+      </c>
+      <c r="B849">
+        <v>3590.705078125</v>
+      </c>
+      <c r="C849">
+        <v>3600.429931640625</v>
+      </c>
+      <c r="D849">
+        <v>3576.85400390625</v>
+      </c>
+      <c r="E849">
+        <v>3581.47412109375</v>
+      </c>
+      <c r="F849">
+        <f t="shared" si="8"/>
+        <v>3.5814741210937502</v>
+      </c>
+      <c r="G849">
+        <v>19656878</v>
+      </c>
+      <c r="H849">
+        <v>19656878</v>
+      </c>
+    </row>
+    <row r="850" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A850" s="1">
+        <v>45148</v>
+      </c>
+      <c r="B850">
+        <v>3576.264892578125</v>
+      </c>
+      <c r="C850">
+        <v>3587.237060546875</v>
+      </c>
+      <c r="D850">
+        <v>3553.013916015625</v>
+      </c>
+      <c r="E850">
+        <v>3579.0849609375</v>
+      </c>
+      <c r="F850">
+        <f t="shared" si="8"/>
+        <v>3.5790849609375002</v>
+      </c>
+      <c r="G850">
+        <v>15572857</v>
+      </c>
+      <c r="H850">
+        <v>15572857</v>
+      </c>
+    </row>
+    <row r="851" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A851" s="1">
+        <v>45149</v>
+      </c>
+      <c r="B851">
+        <v>3585.4150390625</v>
+      </c>
+      <c r="C851">
+        <v>3585.4150390625</v>
+      </c>
+      <c r="D851">
+        <v>3501.514892578125</v>
+      </c>
+      <c r="E851">
+        <v>3501.514892578125</v>
+      </c>
+      <c r="F851">
+        <f t="shared" si="8"/>
+        <v>3.501514892578125</v>
+      </c>
+      <c r="G851">
+        <v>20105726</v>
+      </c>
+      <c r="H851">
+        <v>20105726</v>
+      </c>
+    </row>
+    <row r="852" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A852" s="1">
+        <v>45152</v>
+      </c>
+      <c r="B852">
+        <v>3465.389892578125</v>
+      </c>
+      <c r="C852">
+        <v>3474.64404296875</v>
+      </c>
+      <c r="D852">
+        <v>3425.243896484375</v>
+      </c>
+      <c r="E852">
+        <v>3472.02587890625</v>
+      </c>
+      <c r="F852">
+        <f t="shared" si="8"/>
+        <v>3.4720258789062499</v>
+      </c>
+      <c r="G852">
+        <v>21406010</v>
+      </c>
+      <c r="H852">
+        <v>21406010</v>
+      </c>
+    </row>
+    <row r="853" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A853" s="1">
+        <v>45153</v>
+      </c>
+      <c r="B853">
+        <v>3476.068115234375</v>
+      </c>
+      <c r="C853">
+        <v>3481.926025390625</v>
+      </c>
+      <c r="D853">
+        <v>3414.9580078125</v>
+      </c>
+      <c r="E853">
+        <v>3440.760986328125</v>
+      </c>
+      <c r="F853">
+        <f t="shared" si="8"/>
+        <v>3.440760986328125</v>
+      </c>
+      <c r="G853">
+        <v>18848714</v>
+      </c>
+      <c r="H853">
+        <v>18848714</v>
+      </c>
+    </row>
+    <row r="854" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A854" s="1">
+        <v>45154</v>
+      </c>
+      <c r="B854">
+        <v>3429.419921875</v>
+      </c>
+      <c r="C854">
+        <v>3441.091064453125</v>
+      </c>
+      <c r="D854">
+        <v>3403.60595703125</v>
+      </c>
+      <c r="E854">
+        <v>3403.906005859375</v>
+      </c>
+      <c r="F854">
+        <f t="shared" si="8"/>
+        <v>3.4039060058593749</v>
+      </c>
+      <c r="G854">
+        <v>17912612</v>
+      </c>
+      <c r="H854">
+        <v>17912612</v>
+      </c>
+    </row>
+    <row r="855" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A855" s="1">
+        <v>45155</v>
+      </c>
+      <c r="B855">
+        <v>3392.868896484375</v>
+      </c>
+      <c r="C855">
+        <v>3431.7060546875</v>
+      </c>
+      <c r="D855">
+        <v>3368.43798828125</v>
+      </c>
+      <c r="E855">
+        <v>3426.55810546875</v>
+      </c>
+      <c r="F855">
+        <f t="shared" si="8"/>
+        <v>3.4265581054687502</v>
+      </c>
+      <c r="G855">
+        <v>18289652</v>
+      </c>
+      <c r="H855">
+        <v>18289652</v>
+      </c>
+    </row>
+    <row r="856" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A856" s="1">
+        <v>45156</v>
+      </c>
+      <c r="B856">
+        <v>3424.25</v>
+      </c>
+      <c r="C856">
+        <v>3428.365966796875</v>
+      </c>
+      <c r="D856">
+        <v>3373.741943359375</v>
+      </c>
+      <c r="E856">
+        <v>3373.741943359375</v>
+      </c>
+      <c r="F856">
+        <f t="shared" si="8"/>
+        <v>3.3737419433593749</v>
+      </c>
+      <c r="G856">
+        <v>17995588</v>
+      </c>
+      <c r="H856">
+        <v>17995588</v>
+      </c>
+    </row>
+    <row r="857" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A857" s="1">
+        <v>45159</v>
+      </c>
+      <c r="B857">
+        <v>3365.738037109375</v>
+      </c>
+      <c r="C857">
+        <v>3379.89501953125</v>
+      </c>
+      <c r="D857">
+        <v>3327.1201171875</v>
+      </c>
+      <c r="E857">
+        <v>3327.1201171875</v>
+      </c>
+      <c r="F857">
+        <f t="shared" si="8"/>
+        <v>3.3271201171875</v>
+      </c>
+      <c r="G857">
+        <v>18648924</v>
+      </c>
+      <c r="H857">
+        <v>18648924</v>
+      </c>
+    </row>
+    <row r="858" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A858" s="1">
+        <v>45160</v>
+      </c>
+      <c r="B858">
+        <v>3348.806884765625</v>
+      </c>
+      <c r="C858">
+        <v>3356.514892578125</v>
+      </c>
+      <c r="D858">
+        <v>3282.907958984375</v>
+      </c>
+      <c r="E858">
+        <v>3342.221923828125</v>
+      </c>
+      <c r="F858">
+        <f t="shared" si="8"/>
+        <v>3.342221923828125</v>
+      </c>
+      <c r="G858">
+        <v>23617966</v>
+      </c>
+      <c r="H858">
+        <v>23617966</v>
+      </c>
+    </row>
+    <row r="859" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A859" s="1">
+        <v>45161</v>
+      </c>
+      <c r="B859">
+        <v>3334.287109375</v>
+      </c>
+      <c r="C859">
+        <v>3334.287109375</v>
+      </c>
+      <c r="D859">
+        <v>3264.077880859375</v>
+      </c>
+      <c r="E859">
+        <v>3264.10400390625</v>
+      </c>
+      <c r="F859">
+        <f t="shared" si="8"/>
+        <v>3.2641040039062501</v>
+      </c>
+      <c r="G859">
+        <v>19447552</v>
+      </c>
+      <c r="H859">
+        <v>19447552</v>
+      </c>
+    </row>
+    <row r="860" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A860" s="1">
+        <v>45162</v>
+      </c>
+      <c r="B860">
+        <v>3285.346923828125</v>
+      </c>
+      <c r="C860">
+        <v>3332.532958984375</v>
+      </c>
+      <c r="D860">
+        <v>3269.549072265625</v>
+      </c>
+      <c r="E860">
+        <v>3302.512939453125</v>
+      </c>
+      <c r="F860">
+        <f t="shared" si="8"/>
+        <v>3.3025129394531252</v>
+      </c>
+      <c r="G860">
+        <v>21265702</v>
+      </c>
+      <c r="H860">
+        <v>21265702</v>
+      </c>
+    </row>
+    <row r="861" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A861" s="1">
+        <v>45163</v>
+      </c>
+      <c r="B861">
+        <v>3279.818115234375</v>
+      </c>
+      <c r="C861">
+        <v>3281.2470703125</v>
+      </c>
+      <c r="D861">
+        <v>3245.072998046875</v>
+      </c>
+      <c r="E861">
+        <v>3257.47802734375</v>
+      </c>
+      <c r="F861">
+        <f t="shared" si="8"/>
+        <v>3.2574780273437498</v>
+      </c>
+      <c r="G861">
+        <v>22496744</v>
+      </c>
+      <c r="H861">
+        <v>22496744</v>
+      </c>
+    </row>
+    <row r="862" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A862" s="1">
+        <v>45166</v>
+      </c>
+      <c r="B862">
+        <v>3443.465087890625</v>
+      </c>
+      <c r="C862">
+        <v>3443.465087890625</v>
+      </c>
+      <c r="D862">
+        <v>3288.094970703125</v>
+      </c>
+      <c r="E862">
+        <v>3297.756103515625</v>
+      </c>
+      <c r="F862">
+        <f t="shared" si="8"/>
+        <v>3.2977561035156251</v>
+      </c>
+      <c r="G862">
+        <v>31189002</v>
+      </c>
+      <c r="H862">
+        <v>31189002</v>
+      </c>
+    </row>
+    <row r="863" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A863" s="1">
+        <v>45167</v>
+      </c>
+      <c r="B863">
+        <v>3291.530029296875</v>
+      </c>
+      <c r="C863">
+        <v>3392.840087890625</v>
+      </c>
+      <c r="D863">
+        <v>3289.967041015625</v>
+      </c>
+      <c r="E863">
+        <v>3375.3330078125</v>
+      </c>
+      <c r="F863">
+        <f t="shared" si="8"/>
+        <v>3.3753330078124999</v>
+      </c>
+      <c r="G863">
+        <v>30547332</v>
+      </c>
+      <c r="H863">
+        <v>30547332</v>
+      </c>
+    </row>
+    <row r="864" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A864" s="1">
+        <v>45168</v>
+      </c>
+      <c r="B864">
+        <v>3387.783935546875</v>
+      </c>
+      <c r="C864">
+        <v>3426.22412109375</v>
+      </c>
+      <c r="D864">
+        <v>3385.278076171875</v>
+      </c>
+      <c r="E864">
+        <v>3397.718994140625</v>
+      </c>
+      <c r="F864">
+        <f t="shared" si="8"/>
+        <v>3.3977189941406252</v>
+      </c>
+      <c r="G864">
+        <v>28553694</v>
+      </c>
+      <c r="H864">
+        <v>28553694</v>
+      </c>
+    </row>
+    <row r="865" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A865" s="1">
+        <v>45169</v>
+      </c>
+      <c r="B865">
+        <v>3393.912109375</v>
+      </c>
+      <c r="C865">
+        <v>3402.35107421875</v>
+      </c>
+      <c r="D865">
+        <v>3376.256103515625</v>
+      </c>
+      <c r="E865">
+        <v>3383.0390625</v>
+      </c>
+      <c r="F865">
+        <f t="shared" si="8"/>
+        <v>3.3830390625</v>
+      </c>
+      <c r="G865">
+        <v>23097956</v>
+      </c>
+      <c r="H865">
+        <v>23097956</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index.xlsx
+++ b/lai/valuationquan/szseinnovation100index.xlsx
@@ -400,10 +400,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H865"/>
+  <dimension ref="A1:H885"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A843" workbookViewId="0">
-      <selection activeCell="A866" sqref="A866"/>
+    <sheetView tabSelected="1" topLeftCell="A866" workbookViewId="0">
+      <selection activeCell="A886" sqref="A886"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -19356,7 +19356,7 @@
         <v>3473.530029296875</v>
       </c>
       <c r="F703">
-        <f t="shared" ref="F703:F865" si="8">E703/1000</f>
+        <f t="shared" ref="F703:F885" si="8">E703/1000</f>
         <v>3.4735300292968749</v>
       </c>
       <c r="G703">
@@ -23738,6 +23738,546 @@
       </c>
       <c r="H865">
         <v>23097956</v>
+      </c>
+    </row>
+    <row r="866" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A866" s="1">
+        <v>45170</v>
+      </c>
+      <c r="B866">
+        <v>3393.43896484375</v>
+      </c>
+      <c r="C866">
+        <v>3411.639892578125</v>
+      </c>
+      <c r="D866">
+        <v>3377.1640625</v>
+      </c>
+      <c r="E866">
+        <v>3388.385986328125</v>
+      </c>
+      <c r="F866">
+        <f t="shared" si="8"/>
+        <v>3.3883859863281249</v>
+      </c>
+      <c r="G866">
+        <v>17866706</v>
+      </c>
+      <c r="H866">
+        <v>17866706</v>
+      </c>
+    </row>
+    <row r="867" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A867" s="1">
+        <v>45173</v>
+      </c>
+      <c r="B867">
+        <v>3409.570068359375</v>
+      </c>
+      <c r="C867">
+        <v>3424.80810546875</v>
+      </c>
+      <c r="D867">
+        <v>3384.181884765625</v>
+      </c>
+      <c r="E867">
+        <v>3421.965087890625</v>
+      </c>
+      <c r="F867">
+        <f t="shared" si="8"/>
+        <v>3.4219650878906251</v>
+      </c>
+      <c r="G867">
+        <v>24154402</v>
+      </c>
+      <c r="H867">
+        <v>24154402</v>
+      </c>
+    </row>
+    <row r="868" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A868" s="1">
+        <v>45174</v>
+      </c>
+      <c r="B868">
+        <v>3417.3369140625</v>
+      </c>
+      <c r="C868">
+        <v>3426.181884765625</v>
+      </c>
+      <c r="D868">
+        <v>3393.39794921875</v>
+      </c>
+      <c r="E868">
+        <v>3399.118896484375</v>
+      </c>
+      <c r="F868">
+        <f t="shared" si="8"/>
+        <v>3.3991188964843748</v>
+      </c>
+      <c r="G868">
+        <v>21818790</v>
+      </c>
+      <c r="H868">
+        <v>21818790</v>
+      </c>
+    </row>
+    <row r="869" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A869" s="1">
+        <v>45175</v>
+      </c>
+      <c r="B869">
+        <v>3385.966064453125</v>
+      </c>
+      <c r="C869">
+        <v>3389.259033203125</v>
+      </c>
+      <c r="D869">
+        <v>3364.822021484375</v>
+      </c>
+      <c r="E869">
+        <v>3383.218994140625</v>
+      </c>
+      <c r="F869">
+        <f t="shared" si="8"/>
+        <v>3.3832189941406252</v>
+      </c>
+      <c r="G869">
+        <v>18482116</v>
+      </c>
+      <c r="H869">
+        <v>18482116</v>
+      </c>
+    </row>
+    <row r="870" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A870" s="1">
+        <v>45176</v>
+      </c>
+      <c r="B870">
+        <v>3374.16796875</v>
+      </c>
+      <c r="C870">
+        <v>3374.16796875</v>
+      </c>
+      <c r="D870">
+        <v>3311.988037109375</v>
+      </c>
+      <c r="E870">
+        <v>3311.988037109375</v>
+      </c>
+      <c r="F870">
+        <f t="shared" si="8"/>
+        <v>3.3119880371093751</v>
+      </c>
+      <c r="G870">
+        <v>19085692</v>
+      </c>
+      <c r="H870">
+        <v>19085692</v>
+      </c>
+    </row>
+    <row r="871" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A871" s="1">
+        <v>45177</v>
+      </c>
+      <c r="B871">
+        <v>3299.657958984375</v>
+      </c>
+      <c r="C871">
+        <v>3308.205078125</v>
+      </c>
+      <c r="D871">
+        <v>3274.34912109375</v>
+      </c>
+      <c r="E871">
+        <v>3291.337890625</v>
+      </c>
+      <c r="F871">
+        <f t="shared" si="8"/>
+        <v>3.2913378906249999</v>
+      </c>
+      <c r="G871">
+        <v>16010929</v>
+      </c>
+      <c r="H871">
+        <v>16010929</v>
+      </c>
+    </row>
+    <row r="872" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A872" s="1">
+        <v>45180</v>
+      </c>
+      <c r="B872">
+        <v>3294.431884765625</v>
+      </c>
+      <c r="C872">
+        <v>3344.3310546875</v>
+      </c>
+      <c r="D872">
+        <v>3282.285888671875</v>
+      </c>
+      <c r="E872">
+        <v>3319.595947265625</v>
+      </c>
+      <c r="F872">
+        <f t="shared" si="8"/>
+        <v>3.3195959472656251</v>
+      </c>
+      <c r="G872">
+        <v>26432546</v>
+      </c>
+      <c r="H872">
+        <v>26432546</v>
+      </c>
+    </row>
+    <row r="873" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A873" s="1">
+        <v>45181</v>
+      </c>
+      <c r="B873">
+        <v>3318.31396484375</v>
+      </c>
+      <c r="C873">
+        <v>3336.156005859375</v>
+      </c>
+      <c r="D873">
+        <v>3307.7060546875</v>
+      </c>
+      <c r="E873">
+        <v>3320.18994140625</v>
+      </c>
+      <c r="F873">
+        <f t="shared" si="8"/>
+        <v>3.3201899414062499</v>
+      </c>
+      <c r="G873">
+        <v>20407334</v>
+      </c>
+      <c r="H873">
+        <v>20407334</v>
+      </c>
+    </row>
+    <row r="874" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A874" s="1">
+        <v>45182</v>
+      </c>
+      <c r="B874">
+        <v>3309.843017578125</v>
+      </c>
+      <c r="C874">
+        <v>3318.805908203125</v>
+      </c>
+      <c r="D874">
+        <v>3259.737060546875</v>
+      </c>
+      <c r="E874">
+        <v>3276.64599609375</v>
+      </c>
+      <c r="F874">
+        <f t="shared" si="8"/>
+        <v>3.27664599609375</v>
+      </c>
+      <c r="G874">
+        <v>18692090</v>
+      </c>
+      <c r="H874">
+        <v>18692090</v>
+      </c>
+    </row>
+    <row r="875" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A875" s="1">
+        <v>45183</v>
+      </c>
+      <c r="B875">
+        <v>3268.4970703125</v>
+      </c>
+      <c r="C875">
+        <v>3272.636962890625</v>
+      </c>
+      <c r="D875">
+        <v>3235.634033203125</v>
+      </c>
+      <c r="E875">
+        <v>3248.986083984375</v>
+      </c>
+      <c r="F875">
+        <f t="shared" si="8"/>
+        <v>3.2489860839843749</v>
+      </c>
+      <c r="G875">
+        <v>17638882</v>
+      </c>
+      <c r="H875">
+        <v>17638882</v>
+      </c>
+    </row>
+    <row r="876" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A876" s="1">
+        <v>45184</v>
+      </c>
+      <c r="B876">
+        <v>3251.610107421875</v>
+      </c>
+      <c r="C876">
+        <v>3258.9970703125</v>
+      </c>
+      <c r="D876">
+        <v>3213.575927734375</v>
+      </c>
+      <c r="E876">
+        <v>3223.0419921875</v>
+      </c>
+      <c r="F876">
+        <f t="shared" si="8"/>
+        <v>3.2230419921875</v>
+      </c>
+      <c r="G876">
+        <v>20232700</v>
+      </c>
+      <c r="H876">
+        <v>20232700</v>
+      </c>
+    </row>
+    <row r="877" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A877" s="1">
+        <v>45187</v>
+      </c>
+      <c r="B877">
+        <v>3213.200927734375</v>
+      </c>
+      <c r="C877">
+        <v>3274.14306640625</v>
+      </c>
+      <c r="D877">
+        <v>3210.427978515625</v>
+      </c>
+      <c r="E877">
+        <v>3247.6240234375</v>
+      </c>
+      <c r="F877">
+        <f t="shared" si="8"/>
+        <v>3.2476240234375</v>
+      </c>
+      <c r="G877">
+        <v>19572434</v>
+      </c>
+      <c r="H877">
+        <v>19572434</v>
+      </c>
+    </row>
+    <row r="878" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A878" s="1">
+        <v>45188</v>
+      </c>
+      <c r="B878">
+        <v>3243.175048828125</v>
+      </c>
+      <c r="C878">
+        <v>3243.175048828125</v>
+      </c>
+      <c r="D878">
+        <v>3206.2470703125</v>
+      </c>
+      <c r="E878">
+        <v>3221.3798828125</v>
+      </c>
+      <c r="F878">
+        <f t="shared" si="8"/>
+        <v>3.2213798828125002</v>
+      </c>
+      <c r="G878">
+        <v>16933732</v>
+      </c>
+      <c r="H878">
+        <v>16933732</v>
+      </c>
+    </row>
+    <row r="879" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A879" s="1">
+        <v>45189</v>
+      </c>
+      <c r="B879">
+        <v>3218.93798828125</v>
+      </c>
+      <c r="C879">
+        <v>3220.62890625</v>
+      </c>
+      <c r="D879">
+        <v>3205.0390625</v>
+      </c>
+      <c r="E879">
+        <v>3205.617919921875</v>
+      </c>
+      <c r="F879">
+        <f t="shared" si="8"/>
+        <v>3.2056179199218748</v>
+      </c>
+      <c r="G879">
+        <v>15667905</v>
+      </c>
+      <c r="H879">
+        <v>15667905</v>
+      </c>
+    </row>
+    <row r="880" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A880" s="1">
+        <v>45190</v>
+      </c>
+      <c r="B880">
+        <v>3197.998046875</v>
+      </c>
+      <c r="C880">
+        <v>3211.64111328125</v>
+      </c>
+      <c r="D880">
+        <v>3177.8330078125</v>
+      </c>
+      <c r="E880">
+        <v>3179.696044921875</v>
+      </c>
+      <c r="F880">
+        <f t="shared" si="8"/>
+        <v>3.179696044921875</v>
+      </c>
+      <c r="G880">
+        <v>17028000</v>
+      </c>
+      <c r="H880">
+        <v>17028000</v>
+      </c>
+    </row>
+    <row r="881" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A881" s="1">
+        <v>45191</v>
+      </c>
+      <c r="B881">
+        <v>3179.326904296875</v>
+      </c>
+      <c r="C881">
+        <v>3254.055908203125</v>
+      </c>
+      <c r="D881">
+        <v>3173.716064453125</v>
+      </c>
+      <c r="E881">
+        <v>3251.971923828125</v>
+      </c>
+      <c r="F881">
+        <f t="shared" si="8"/>
+        <v>3.2519719238281248</v>
+      </c>
+      <c r="G881">
+        <v>24561184</v>
+      </c>
+      <c r="H881">
+        <v>24561184</v>
+      </c>
+    </row>
+    <row r="882" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A882" s="1">
+        <v>45194</v>
+      </c>
+      <c r="B882">
+        <v>3257.801025390625</v>
+      </c>
+      <c r="C882">
+        <v>3257.801025390625</v>
+      </c>
+      <c r="D882">
+        <v>3231.284912109375</v>
+      </c>
+      <c r="E882">
+        <v>3236.173095703125</v>
+      </c>
+      <c r="F882">
+        <f t="shared" si="8"/>
+        <v>3.2361730957031249</v>
+      </c>
+      <c r="G882">
+        <v>21744280</v>
+      </c>
+      <c r="H882">
+        <v>21744280</v>
+      </c>
+    </row>
+    <row r="883" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A883" s="1">
+        <v>45195</v>
+      </c>
+      <c r="B883">
+        <v>3233.403076171875</v>
+      </c>
+      <c r="C883">
+        <v>3248.798095703125</v>
+      </c>
+      <c r="D883">
+        <v>3216.450927734375</v>
+      </c>
+      <c r="E883">
+        <v>3216.888916015625</v>
+      </c>
+      <c r="F883">
+        <f t="shared" si="8"/>
+        <v>3.2168889160156251</v>
+      </c>
+      <c r="G883">
+        <v>18356294</v>
+      </c>
+      <c r="H883">
+        <v>18356294</v>
+      </c>
+    </row>
+    <row r="884" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A884" s="1">
+        <v>45196</v>
+      </c>
+      <c r="B884">
+        <v>3216.97900390625</v>
+      </c>
+      <c r="C884">
+        <v>3263.719970703125</v>
+      </c>
+      <c r="D884">
+        <v>3216.493896484375</v>
+      </c>
+      <c r="E884">
+        <v>3232.7900390625</v>
+      </c>
+      <c r="F884">
+        <f t="shared" si="8"/>
+        <v>3.2327900390625</v>
+      </c>
+      <c r="G884">
+        <v>22010802</v>
+      </c>
+      <c r="H884">
+        <v>22010802</v>
+      </c>
+    </row>
+    <row r="885" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A885" s="1">
+        <v>45197</v>
+      </c>
+      <c r="B885">
+        <v>3240.52294921875</v>
+      </c>
+      <c r="C885">
+        <v>3248.257080078125</v>
+      </c>
+      <c r="D885">
+        <v>3220.587890625</v>
+      </c>
+      <c r="E885">
+        <v>3231.1640625</v>
+      </c>
+      <c r="F885">
+        <f t="shared" si="8"/>
+        <v>3.2311640625</v>
+      </c>
+      <c r="G885">
+        <v>22257188</v>
+      </c>
+      <c r="H885">
+        <v>22257188</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index.xlsx
+++ b/lai/valuationquan/szseinnovation100index.xlsx
@@ -400,10 +400,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H885"/>
+  <dimension ref="A1:H902"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A866" workbookViewId="0">
-      <selection activeCell="A886" sqref="A886"/>
+    <sheetView tabSelected="1" topLeftCell="A887" workbookViewId="0">
+      <selection activeCell="A903" sqref="A903"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -19356,7 +19356,7 @@
         <v>3473.530029296875</v>
       </c>
       <c r="F703">
-        <f t="shared" ref="F703:F885" si="8">E703/1000</f>
+        <f t="shared" ref="F703:F902" si="8">E703/1000</f>
         <v>3.4735300292968749</v>
       </c>
       <c r="G703">
@@ -24278,6 +24278,465 @@
       </c>
       <c r="H885">
         <v>22257188</v>
+      </c>
+    </row>
+    <row r="886" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A886" s="1">
+        <v>45208</v>
+      </c>
+      <c r="B886">
+        <v>3230.135009765625</v>
+      </c>
+      <c r="C886">
+        <v>3260.23095703125</v>
+      </c>
+      <c r="D886">
+        <v>3199.075927734375</v>
+      </c>
+      <c r="E886">
+        <v>3249.243896484375</v>
+      </c>
+      <c r="F886">
+        <f t="shared" si="8"/>
+        <v>3.2492438964843751</v>
+      </c>
+      <c r="G886">
+        <v>27731250</v>
+      </c>
+      <c r="H886">
+        <v>27731250</v>
+      </c>
+    </row>
+    <row r="887" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A887" s="1">
+        <v>45209</v>
+      </c>
+      <c r="B887">
+        <v>3255.39599609375</v>
+      </c>
+      <c r="C887">
+        <v>3260.54296875</v>
+      </c>
+      <c r="D887">
+        <v>3218.534912109375</v>
+      </c>
+      <c r="E887">
+        <v>3219.4990234375</v>
+      </c>
+      <c r="F887">
+        <f t="shared" si="8"/>
+        <v>3.2194990234374998</v>
+      </c>
+      <c r="G887">
+        <v>25646620</v>
+      </c>
+      <c r="H887">
+        <v>25646620</v>
+      </c>
+    </row>
+    <row r="888" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A888" s="1">
+        <v>45210</v>
+      </c>
+      <c r="B888">
+        <v>3235.110107421875</v>
+      </c>
+      <c r="C888">
+        <v>3269.637939453125</v>
+      </c>
+      <c r="D888">
+        <v>3232.014892578125</v>
+      </c>
+      <c r="E888">
+        <v>3240.904052734375</v>
+      </c>
+      <c r="F888">
+        <f t="shared" si="8"/>
+        <v>3.2409040527343751</v>
+      </c>
+      <c r="G888">
+        <v>29784662</v>
+      </c>
+      <c r="H888">
+        <v>29784662</v>
+      </c>
+    </row>
+    <row r="889" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A889" s="1">
+        <v>45211</v>
+      </c>
+      <c r="B889">
+        <v>3256.9619140625</v>
+      </c>
+      <c r="C889">
+        <v>3269.764892578125</v>
+      </c>
+      <c r="D889">
+        <v>3240.945068359375</v>
+      </c>
+      <c r="E889">
+        <v>3263.610107421875</v>
+      </c>
+      <c r="F889">
+        <f t="shared" si="8"/>
+        <v>3.2636101074218749</v>
+      </c>
+      <c r="G889">
+        <v>27157634</v>
+      </c>
+      <c r="H889">
+        <v>27157634</v>
+      </c>
+    </row>
+    <row r="890" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A890" s="1">
+        <v>45212</v>
+      </c>
+      <c r="B890">
+        <v>3242.491943359375</v>
+      </c>
+      <c r="C890">
+        <v>3242.491943359375</v>
+      </c>
+      <c r="D890">
+        <v>3208.7099609375</v>
+      </c>
+      <c r="E890">
+        <v>3222.626953125</v>
+      </c>
+      <c r="F890">
+        <f t="shared" si="8"/>
+        <v>3.2226269531249998</v>
+      </c>
+      <c r="G890">
+        <v>26337934</v>
+      </c>
+      <c r="H890">
+        <v>26337934</v>
+      </c>
+    </row>
+    <row r="891" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A891" s="1">
+        <v>45215</v>
+      </c>
+      <c r="B891">
+        <v>3221.77294921875</v>
+      </c>
+      <c r="C891">
+        <v>3221.77294921875</v>
+      </c>
+      <c r="D891">
+        <v>3162.074951171875</v>
+      </c>
+      <c r="E891">
+        <v>3173.116943359375</v>
+      </c>
+      <c r="F891">
+        <f t="shared" si="8"/>
+        <v>3.1731169433593749</v>
+      </c>
+      <c r="G891">
+        <v>25490452</v>
+      </c>
+      <c r="H891">
+        <v>25490452</v>
+      </c>
+    </row>
+    <row r="892" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A892" s="1">
+        <v>45216</v>
+      </c>
+      <c r="B892">
+        <v>3183.7060546875</v>
+      </c>
+      <c r="C892">
+        <v>3187.908935546875</v>
+      </c>
+      <c r="D892">
+        <v>3163.407958984375</v>
+      </c>
+      <c r="E892">
+        <v>3176.589111328125</v>
+      </c>
+      <c r="F892">
+        <f t="shared" si="8"/>
+        <v>3.1765891113281248</v>
+      </c>
+      <c r="G892">
+        <v>20790610</v>
+      </c>
+      <c r="H892">
+        <v>20790610</v>
+      </c>
+    </row>
+    <row r="893" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A893" s="1">
+        <v>45217</v>
+      </c>
+      <c r="B893">
+        <v>3169.52001953125</v>
+      </c>
+      <c r="C893">
+        <v>3169.52001953125</v>
+      </c>
+      <c r="D893">
+        <v>3134.5009765625</v>
+      </c>
+      <c r="E893">
+        <v>3140.56298828125</v>
+      </c>
+      <c r="F893">
+        <f t="shared" si="8"/>
+        <v>3.1405629882812498</v>
+      </c>
+      <c r="G893">
+        <v>23885592</v>
+      </c>
+      <c r="H893">
+        <v>23885592</v>
+      </c>
+    </row>
+    <row r="894" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A894" s="1">
+        <v>45218</v>
+      </c>
+      <c r="B894">
+        <v>3120.27294921875</v>
+      </c>
+      <c r="C894">
+        <v>3130.029052734375</v>
+      </c>
+      <c r="D894">
+        <v>3083.281982421875</v>
+      </c>
+      <c r="E894">
+        <v>3083.77197265625</v>
+      </c>
+      <c r="F894">
+        <f t="shared" si="8"/>
+        <v>3.0837719726562498</v>
+      </c>
+      <c r="G894">
+        <v>25460308</v>
+      </c>
+      <c r="H894">
+        <v>25460308</v>
+      </c>
+    </row>
+    <row r="895" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A895" s="1">
+        <v>45219</v>
+      </c>
+      <c r="B895">
+        <v>3064.235107421875</v>
+      </c>
+      <c r="C895">
+        <v>3086.138916015625</v>
+      </c>
+      <c r="D895">
+        <v>3042.553955078125</v>
+      </c>
+      <c r="E895">
+        <v>3048.251953125</v>
+      </c>
+      <c r="F895">
+        <f t="shared" si="8"/>
+        <v>3.0482519531249999</v>
+      </c>
+      <c r="G895">
+        <v>23750958</v>
+      </c>
+      <c r="H895">
+        <v>23750958</v>
+      </c>
+    </row>
+    <row r="896" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A896" s="1">
+        <v>45222</v>
+      </c>
+      <c r="B896">
+        <v>3049.7509765625</v>
+      </c>
+      <c r="C896">
+        <v>3049.7509765625</v>
+      </c>
+      <c r="D896">
+        <v>2997.781982421875</v>
+      </c>
+      <c r="E896">
+        <v>3019.304931640625</v>
+      </c>
+      <c r="F896">
+        <f t="shared" si="8"/>
+        <v>3.0193049316406251</v>
+      </c>
+      <c r="G896">
+        <v>22763166</v>
+      </c>
+      <c r="H896">
+        <v>22763166</v>
+      </c>
+    </row>
+    <row r="897" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A897" s="1">
+        <v>45223</v>
+      </c>
+      <c r="B897">
+        <v>3030.068115234375</v>
+      </c>
+      <c r="C897">
+        <v>3039.697998046875</v>
+      </c>
+      <c r="D897">
+        <v>2991.2958984375</v>
+      </c>
+      <c r="E897">
+        <v>3020.12890625</v>
+      </c>
+      <c r="F897">
+        <f t="shared" si="8"/>
+        <v>3.0201289062500001</v>
+      </c>
+      <c r="G897">
+        <v>27984014</v>
+      </c>
+      <c r="H897">
+        <v>27984014</v>
+      </c>
+    </row>
+    <row r="898" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A898" s="1">
+        <v>45224</v>
+      </c>
+      <c r="B898">
+        <v>3049.427001953125</v>
+      </c>
+      <c r="C898">
+        <v>3062.62109375</v>
+      </c>
+      <c r="D898">
+        <v>3023.35400390625</v>
+      </c>
+      <c r="E898">
+        <v>3025.9189453125</v>
+      </c>
+      <c r="F898">
+        <f t="shared" si="8"/>
+        <v>3.0259189453125002</v>
+      </c>
+      <c r="G898">
+        <v>32421058</v>
+      </c>
+      <c r="H898">
+        <v>32421058</v>
+      </c>
+    </row>
+    <row r="899" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A899" s="1">
+        <v>45225</v>
+      </c>
+      <c r="B899">
+        <v>3007.0859375</v>
+      </c>
+      <c r="C899">
+        <v>3033.955078125</v>
+      </c>
+      <c r="D899">
+        <v>2984.633056640625</v>
+      </c>
+      <c r="E899">
+        <v>3033.095947265625</v>
+      </c>
+      <c r="F899">
+        <f t="shared" si="8"/>
+        <v>3.0330959472656249</v>
+      </c>
+      <c r="G899">
+        <v>30482876</v>
+      </c>
+      <c r="H899">
+        <v>30482876</v>
+      </c>
+    </row>
+    <row r="900" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A900" s="1">
+        <v>45226</v>
+      </c>
+      <c r="B900">
+        <v>3022.89208984375</v>
+      </c>
+      <c r="C900">
+        <v>3118.40087890625</v>
+      </c>
+      <c r="D900">
+        <v>3013.590087890625</v>
+      </c>
+      <c r="E900">
+        <v>3106.35693359375</v>
+      </c>
+      <c r="F900">
+        <f t="shared" si="8"/>
+        <v>3.1063569335937502</v>
+      </c>
+      <c r="G900">
+        <v>33517580</v>
+      </c>
+      <c r="H900">
+        <v>33517580</v>
+      </c>
+    </row>
+    <row r="901" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A901" s="1">
+        <v>45229</v>
+      </c>
+      <c r="B901">
+        <v>3104.571044921875</v>
+      </c>
+      <c r="C901">
+        <v>3174.68603515625</v>
+      </c>
+      <c r="D901">
+        <v>3103.217041015625</v>
+      </c>
+      <c r="E901">
+        <v>3165.60302734375</v>
+      </c>
+      <c r="F901">
+        <f t="shared" si="8"/>
+        <v>3.1656030273437499</v>
+      </c>
+      <c r="G901">
+        <v>36430948</v>
+      </c>
+      <c r="H901">
+        <v>36430948</v>
+      </c>
+    </row>
+    <row r="902" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A902" s="1">
+        <v>45230</v>
+      </c>
+      <c r="B902">
+        <v>3160.364013671875</v>
+      </c>
+      <c r="C902">
+        <v>3160.364013671875</v>
+      </c>
+      <c r="D902">
+        <v>3113.412109375</v>
+      </c>
+      <c r="E902">
+        <v>3130.216064453125</v>
+      </c>
+      <c r="F902">
+        <f t="shared" si="8"/>
+        <v>3.1302160644531249</v>
+      </c>
+      <c r="G902">
+        <v>27216364</v>
+      </c>
+      <c r="H902">
+        <v>27216364</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index.xlsx
+++ b/lai/valuationquan/szseinnovation100index.xlsx
@@ -400,10 +400,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H902"/>
+  <dimension ref="A1:H924"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A887" workbookViewId="0">
-      <selection activeCell="A903" sqref="A903"/>
+    <sheetView tabSelected="1" topLeftCell="A904" workbookViewId="0">
+      <selection activeCell="A925" sqref="A925"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -19356,7 +19356,7 @@
         <v>3473.530029296875</v>
       </c>
       <c r="F703">
-        <f t="shared" ref="F703:F902" si="8">E703/1000</f>
+        <f t="shared" ref="F703:F924" si="8">E703/1000</f>
         <v>3.4735300292968749</v>
       </c>
       <c r="G703">
@@ -24737,6 +24737,600 @@
       </c>
       <c r="H902">
         <v>27216364</v>
+      </c>
+    </row>
+    <row r="903" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A903" s="1">
+        <v>45231</v>
+      </c>
+      <c r="B903">
+        <v>3129.614990234375</v>
+      </c>
+      <c r="C903">
+        <v>3131.507080078125</v>
+      </c>
+      <c r="D903">
+        <v>3101.091064453125</v>
+      </c>
+      <c r="E903">
+        <v>3109.324951171875</v>
+      </c>
+      <c r="F903">
+        <f t="shared" si="8"/>
+        <v>3.109324951171875</v>
+      </c>
+      <c r="G903">
+        <v>26225412</v>
+      </c>
+      <c r="H903">
+        <v>26225412</v>
+      </c>
+    </row>
+    <row r="904" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A904" s="1">
+        <v>45232</v>
+      </c>
+      <c r="B904">
+        <v>3117.85302734375</v>
+      </c>
+      <c r="C904">
+        <v>3132.31494140625</v>
+      </c>
+      <c r="D904">
+        <v>3083.135009765625</v>
+      </c>
+      <c r="E904">
+        <v>3083.701904296875</v>
+      </c>
+      <c r="F904">
+        <f t="shared" si="8"/>
+        <v>3.0837019042968752</v>
+      </c>
+      <c r="G904">
+        <v>21746850</v>
+      </c>
+      <c r="H904">
+        <v>21746850</v>
+      </c>
+    </row>
+    <row r="905" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A905" s="1">
+        <v>45233</v>
+      </c>
+      <c r="B905">
+        <v>3089.631103515625</v>
+      </c>
+      <c r="C905">
+        <v>3135.076904296875</v>
+      </c>
+      <c r="D905">
+        <v>3089.48193359375</v>
+      </c>
+      <c r="E905">
+        <v>3122.993896484375</v>
+      </c>
+      <c r="F905">
+        <f t="shared" si="8"/>
+        <v>3.1229938964843749</v>
+      </c>
+      <c r="G905">
+        <v>26432546</v>
+      </c>
+      <c r="H905">
+        <v>26432546</v>
+      </c>
+    </row>
+    <row r="906" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A906" s="1">
+        <v>45236</v>
+      </c>
+      <c r="B906">
+        <v>3144.583984375</v>
+      </c>
+      <c r="C906">
+        <v>3212.510009765625</v>
+      </c>
+      <c r="D906">
+        <v>3144.583984375</v>
+      </c>
+      <c r="E906">
+        <v>3210.221923828125</v>
+      </c>
+      <c r="F906">
+        <f t="shared" si="8"/>
+        <v>3.2102219238281249</v>
+      </c>
+      <c r="G906">
+        <v>38199732</v>
+      </c>
+      <c r="H906">
+        <v>38199732</v>
+      </c>
+    </row>
+    <row r="907" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A907" s="1">
+        <v>45237</v>
+      </c>
+      <c r="B907">
+        <v>3200.777099609375</v>
+      </c>
+      <c r="C907">
+        <v>3211.986083984375</v>
+      </c>
+      <c r="D907">
+        <v>3180.68408203125</v>
+      </c>
+      <c r="E907">
+        <v>3200.367919921875</v>
+      </c>
+      <c r="F907">
+        <f t="shared" si="8"/>
+        <v>3.2003679199218751</v>
+      </c>
+      <c r="G907">
+        <v>31203446</v>
+      </c>
+      <c r="H907">
+        <v>31203446</v>
+      </c>
+    </row>
+    <row r="908" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A908" s="1">
+        <v>45238</v>
+      </c>
+      <c r="B908">
+        <v>3191.677001953125</v>
+      </c>
+      <c r="C908">
+        <v>3215.2470703125</v>
+      </c>
+      <c r="D908">
+        <v>3177.56396484375</v>
+      </c>
+      <c r="E908">
+        <v>3198.076904296875</v>
+      </c>
+      <c r="F908">
+        <f t="shared" si="8"/>
+        <v>3.1980769042968751</v>
+      </c>
+      <c r="G908">
+        <v>28222032</v>
+      </c>
+      <c r="H908">
+        <v>28222032</v>
+      </c>
+    </row>
+    <row r="909" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A909" s="1">
+        <v>45239</v>
+      </c>
+      <c r="B909">
+        <v>3193.4619140625</v>
+      </c>
+      <c r="C909">
+        <v>3214.446044921875</v>
+      </c>
+      <c r="D909">
+        <v>3185.3330078125</v>
+      </c>
+      <c r="E909">
+        <v>3197.93896484375</v>
+      </c>
+      <c r="F909">
+        <f t="shared" si="8"/>
+        <v>3.19793896484375</v>
+      </c>
+      <c r="G909">
+        <v>29916450</v>
+      </c>
+      <c r="H909">
+        <v>29916450</v>
+      </c>
+    </row>
+    <row r="910" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A910" s="1">
+        <v>45240</v>
+      </c>
+      <c r="B910">
+        <v>3180.6669921875</v>
+      </c>
+      <c r="C910">
+        <v>3185.302001953125</v>
+      </c>
+      <c r="D910">
+        <v>3164.220947265625</v>
+      </c>
+      <c r="E910">
+        <v>3178.444091796875</v>
+      </c>
+      <c r="F910">
+        <f t="shared" si="8"/>
+        <v>3.1784440917968748</v>
+      </c>
+      <c r="G910">
+        <v>25416458</v>
+      </c>
+      <c r="H910">
+        <v>25416458</v>
+      </c>
+    </row>
+    <row r="911" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A911" s="1">
+        <v>45243</v>
+      </c>
+      <c r="B911">
+        <v>3194.02587890625</v>
+      </c>
+      <c r="C911">
+        <v>3199.99609375</v>
+      </c>
+      <c r="D911">
+        <v>3161.1240234375</v>
+      </c>
+      <c r="E911">
+        <v>3173.514892578125</v>
+      </c>
+      <c r="F911">
+        <f t="shared" si="8"/>
+        <v>3.1735148925781251</v>
+      </c>
+      <c r="G911">
+        <v>25945282</v>
+      </c>
+      <c r="H911">
+        <v>25945282</v>
+      </c>
+    </row>
+    <row r="912" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A912" s="1">
+        <v>45244</v>
+      </c>
+      <c r="B912">
+        <v>3173.06494140625</v>
+      </c>
+      <c r="C912">
+        <v>3194.568115234375</v>
+      </c>
+      <c r="D912">
+        <v>3159.85693359375</v>
+      </c>
+      <c r="E912">
+        <v>3171.0869140625</v>
+      </c>
+      <c r="F912">
+        <f t="shared" si="8"/>
+        <v>3.1710869140625002</v>
+      </c>
+      <c r="G912">
+        <v>23596510</v>
+      </c>
+      <c r="H912">
+        <v>23596510</v>
+      </c>
+    </row>
+    <row r="913" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A913" s="1">
+        <v>45245</v>
+      </c>
+      <c r="B913">
+        <v>3209.239013671875</v>
+      </c>
+      <c r="C913">
+        <v>3212.375</v>
+      </c>
+      <c r="D913">
+        <v>3187.51708984375</v>
+      </c>
+      <c r="E913">
+        <v>3198.950927734375</v>
+      </c>
+      <c r="F913">
+        <f t="shared" si="8"/>
+        <v>3.1989509277343751</v>
+      </c>
+      <c r="G913">
+        <v>28600982</v>
+      </c>
+      <c r="H913">
+        <v>28600982</v>
+      </c>
+    </row>
+    <row r="914" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A914" s="1">
+        <v>45246</v>
+      </c>
+      <c r="B914">
+        <v>3192.410888671875</v>
+      </c>
+      <c r="C914">
+        <v>3195.4130859375</v>
+      </c>
+      <c r="D914">
+        <v>3154.85595703125</v>
+      </c>
+      <c r="E914">
+        <v>3154.85595703125</v>
+      </c>
+      <c r="F914">
+        <f t="shared" si="8"/>
+        <v>3.1548559570312502</v>
+      </c>
+      <c r="G914">
+        <v>21433792</v>
+      </c>
+      <c r="H914">
+        <v>21433792</v>
+      </c>
+    </row>
+    <row r="915" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A915" s="1">
+        <v>45247</v>
+      </c>
+      <c r="B915">
+        <v>3142.1240234375</v>
+      </c>
+      <c r="C915">
+        <v>3163.537109375</v>
+      </c>
+      <c r="D915">
+        <v>3139.833984375</v>
+      </c>
+      <c r="E915">
+        <v>3160.39892578125</v>
+      </c>
+      <c r="F915">
+        <f t="shared" si="8"/>
+        <v>3.1603989257812501</v>
+      </c>
+      <c r="G915">
+        <v>21037902</v>
+      </c>
+      <c r="H915">
+        <v>21037902</v>
+      </c>
+    </row>
+    <row r="916" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A916" s="1">
+        <v>45250</v>
+      </c>
+      <c r="B916">
+        <v>3159.72607421875</v>
+      </c>
+      <c r="C916">
+        <v>3178.18408203125</v>
+      </c>
+      <c r="D916">
+        <v>3136.06591796875</v>
+      </c>
+      <c r="E916">
+        <v>3166.56396484375</v>
+      </c>
+      <c r="F916">
+        <f t="shared" si="8"/>
+        <v>3.1665639648437498</v>
+      </c>
+      <c r="G916">
+        <v>24633246</v>
+      </c>
+      <c r="H916">
+        <v>24633246</v>
+      </c>
+    </row>
+    <row r="917" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A917" s="1">
+        <v>45251</v>
+      </c>
+      <c r="B917">
+        <v>3175.66796875</v>
+      </c>
+      <c r="C917">
+        <v>3199.513916015625</v>
+      </c>
+      <c r="D917">
+        <v>3151.14208984375</v>
+      </c>
+      <c r="E917">
+        <v>3155.902099609375</v>
+      </c>
+      <c r="F917">
+        <f t="shared" si="8"/>
+        <v>3.1559020996093752</v>
+      </c>
+      <c r="G917">
+        <v>25329706</v>
+      </c>
+      <c r="H917">
+        <v>25329706</v>
+      </c>
+    </row>
+    <row r="918" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A918" s="1">
+        <v>45252</v>
+      </c>
+      <c r="B918">
+        <v>3141.97607421875</v>
+      </c>
+      <c r="C918">
+        <v>3145.35400390625</v>
+      </c>
+      <c r="D918">
+        <v>3104.012939453125</v>
+      </c>
+      <c r="E918">
+        <v>3104.012939453125</v>
+      </c>
+      <c r="F918">
+        <f t="shared" si="8"/>
+        <v>3.1040129394531251</v>
+      </c>
+      <c r="G918">
+        <v>21011608</v>
+      </c>
+      <c r="H918">
+        <v>21011608</v>
+      </c>
+    </row>
+    <row r="919" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A919" s="1">
+        <v>45253</v>
+      </c>
+      <c r="B919">
+        <v>3101.51806640625</v>
+      </c>
+      <c r="C919">
+        <v>3133.23095703125</v>
+      </c>
+      <c r="D919">
+        <v>3090.74609375</v>
+      </c>
+      <c r="E919">
+        <v>3131.174072265625</v>
+      </c>
+      <c r="F919">
+        <f t="shared" si="8"/>
+        <v>3.1311740722656252</v>
+      </c>
+      <c r="G919">
+        <v>25877328</v>
+      </c>
+      <c r="H919">
+        <v>25877328</v>
+      </c>
+    </row>
+    <row r="920" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A920" s="1">
+        <v>45254</v>
+      </c>
+      <c r="B920">
+        <v>3132.43310546875</v>
+      </c>
+      <c r="C920">
+        <v>3132.43310546875</v>
+      </c>
+      <c r="D920">
+        <v>3091.31591796875</v>
+      </c>
+      <c r="E920">
+        <v>3098.18896484375</v>
+      </c>
+      <c r="F920">
+        <f t="shared" si="8"/>
+        <v>3.0981889648437502</v>
+      </c>
+      <c r="G920">
+        <v>24338436</v>
+      </c>
+      <c r="H920">
+        <v>24338436</v>
+      </c>
+    </row>
+    <row r="921" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A921" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B921">
+        <v>3097.385986328125</v>
+      </c>
+      <c r="C921">
+        <v>3097.385986328125</v>
+      </c>
+      <c r="D921">
+        <v>3065.251953125</v>
+      </c>
+      <c r="E921">
+        <v>3081.677001953125</v>
+      </c>
+      <c r="F921">
+        <f t="shared" si="8"/>
+        <v>3.0816770019531252</v>
+      </c>
+      <c r="G921">
+        <v>21591090</v>
+      </c>
+      <c r="H921">
+        <v>21591090</v>
+      </c>
+    </row>
+    <row r="922" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A922" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B922">
+        <v>3082.705078125</v>
+      </c>
+      <c r="C922">
+        <v>3106.27392578125</v>
+      </c>
+      <c r="D922">
+        <v>3072.85400390625</v>
+      </c>
+      <c r="E922">
+        <v>3106.27392578125</v>
+      </c>
+      <c r="F922">
+        <f t="shared" si="8"/>
+        <v>3.1062739257812502</v>
+      </c>
+      <c r="G922">
+        <v>28844448</v>
+      </c>
+      <c r="H922">
+        <v>28844448</v>
+      </c>
+    </row>
+    <row r="923" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A923" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B923">
+        <v>3103.134033203125</v>
+      </c>
+      <c r="C923">
+        <v>3103.134033203125</v>
+      </c>
+      <c r="D923">
+        <v>3067.197998046875</v>
+      </c>
+      <c r="E923">
+        <v>3070.696044921875</v>
+      </c>
+      <c r="F923">
+        <f t="shared" si="8"/>
+        <v>3.070696044921875</v>
+      </c>
+      <c r="G923">
+        <v>25716004</v>
+      </c>
+      <c r="H923">
+        <v>25716004</v>
+      </c>
+    </row>
+    <row r="924" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A924" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B924">
+        <v>3063.044921875</v>
+      </c>
+      <c r="C924">
+        <v>3084.490966796875</v>
+      </c>
+      <c r="D924">
+        <v>3051.803955078125</v>
+      </c>
+      <c r="E924">
+        <v>3065.35205078125</v>
+      </c>
+      <c r="F924">
+        <f t="shared" si="8"/>
+        <v>3.0653520507812502</v>
+      </c>
+      <c r="G924">
+        <v>23898968</v>
+      </c>
+      <c r="H924">
+        <v>23898968</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index.xlsx
+++ b/lai/valuationquan/szseinnovation100index.xlsx
@@ -400,10 +400,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H924"/>
+  <dimension ref="A1:H945"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A904" workbookViewId="0">
-      <selection activeCell="A925" sqref="A925"/>
+    <sheetView tabSelected="1" topLeftCell="A926" workbookViewId="0">
+      <selection activeCell="A946" sqref="A946"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -19356,7 +19356,7 @@
         <v>3473.530029296875</v>
       </c>
       <c r="F703">
-        <f t="shared" ref="F703:F924" si="8">E703/1000</f>
+        <f t="shared" ref="F703:F945" si="8">E703/1000</f>
         <v>3.4735300292968749</v>
       </c>
       <c r="G703">
@@ -25331,6 +25331,573 @@
       </c>
       <c r="H924">
         <v>23898968</v>
+      </c>
+    </row>
+    <row r="925" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A925" s="1">
+        <v>45261</v>
+      </c>
+      <c r="B925">
+        <v>3067.111083984375</v>
+      </c>
+      <c r="C925">
+        <v>3067.259033203125</v>
+      </c>
+      <c r="D925">
+        <v>3021.64794921875</v>
+      </c>
+      <c r="E925">
+        <v>3053.60107421875</v>
+      </c>
+      <c r="F925">
+        <f t="shared" si="8"/>
+        <v>3.0536010742187498</v>
+      </c>
+      <c r="G925">
+        <v>29740802</v>
+      </c>
+      <c r="H925">
+        <v>29740802</v>
+      </c>
+    </row>
+    <row r="926" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A926" s="1">
+        <v>45264</v>
+      </c>
+      <c r="B926">
+        <v>3051.4580078125</v>
+      </c>
+      <c r="C926">
+        <v>3057.695068359375</v>
+      </c>
+      <c r="D926">
+        <v>3028.5</v>
+      </c>
+      <c r="E926">
+        <v>3028.549072265625</v>
+      </c>
+      <c r="F926">
+        <f t="shared" si="8"/>
+        <v>3.028549072265625</v>
+      </c>
+      <c r="G926">
+        <v>25633312</v>
+      </c>
+      <c r="H926">
+        <v>25633312</v>
+      </c>
+    </row>
+    <row r="927" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A927" s="1">
+        <v>45265</v>
+      </c>
+      <c r="B927">
+        <v>3015.861083984375</v>
+      </c>
+      <c r="C927">
+        <v>3018.39599609375</v>
+      </c>
+      <c r="D927">
+        <v>2967.990966796875</v>
+      </c>
+      <c r="E927">
+        <v>2968.133056640625</v>
+      </c>
+      <c r="F927">
+        <f t="shared" si="8"/>
+        <v>2.968133056640625</v>
+      </c>
+      <c r="G927">
+        <v>25513290</v>
+      </c>
+      <c r="H927">
+        <v>25513290</v>
+      </c>
+    </row>
+    <row r="928" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A928" s="1">
+        <v>45266</v>
+      </c>
+      <c r="B928">
+        <v>2963.301025390625</v>
+      </c>
+      <c r="C928">
+        <v>3002.281982421875</v>
+      </c>
+      <c r="D928">
+        <v>2960.712890625</v>
+      </c>
+      <c r="E928">
+        <v>2979.486083984375</v>
+      </c>
+      <c r="F928">
+        <f t="shared" si="8"/>
+        <v>2.9794860839843751</v>
+      </c>
+      <c r="G928">
+        <v>25872670</v>
+      </c>
+      <c r="H928">
+        <v>25872670</v>
+      </c>
+    </row>
+    <row r="929" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A929" s="1">
+        <v>45267</v>
+      </c>
+      <c r="B929">
+        <v>2975.047119140625</v>
+      </c>
+      <c r="C929">
+        <v>2990.075927734375</v>
+      </c>
+      <c r="D929">
+        <v>2953.597900390625</v>
+      </c>
+      <c r="E929">
+        <v>2973.571044921875</v>
+      </c>
+      <c r="F929">
+        <f t="shared" si="8"/>
+        <v>2.9735710449218749</v>
+      </c>
+      <c r="G929">
+        <v>22287030</v>
+      </c>
+      <c r="H929">
+        <v>22287030</v>
+      </c>
+    </row>
+    <row r="930" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A930" s="1">
+        <v>45268</v>
+      </c>
+      <c r="B930">
+        <v>2978.15087890625</v>
+      </c>
+      <c r="C930">
+        <v>3007.001953125</v>
+      </c>
+      <c r="D930">
+        <v>2967.9580078125</v>
+      </c>
+      <c r="E930">
+        <v>2997.4951171875</v>
+      </c>
+      <c r="F930">
+        <f t="shared" si="8"/>
+        <v>2.9974951171874999</v>
+      </c>
+      <c r="G930">
+        <v>31317062</v>
+      </c>
+      <c r="H930">
+        <v>31317062</v>
+      </c>
+    </row>
+    <row r="931" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A931" s="1">
+        <v>45271</v>
+      </c>
+      <c r="B931">
+        <v>2980.47509765625</v>
+      </c>
+      <c r="C931">
+        <v>3040.112060546875</v>
+      </c>
+      <c r="D931">
+        <v>2955.583984375</v>
+      </c>
+      <c r="E931">
+        <v>3033.844970703125</v>
+      </c>
+      <c r="F931">
+        <f t="shared" si="8"/>
+        <v>3.0338449707031252</v>
+      </c>
+      <c r="G931">
+        <v>32035020</v>
+      </c>
+      <c r="H931">
+        <v>32035020</v>
+      </c>
+    </row>
+    <row r="932" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A932" s="1">
+        <v>45272</v>
+      </c>
+      <c r="B932">
+        <v>3026.738037109375</v>
+      </c>
+      <c r="C932">
+        <v>3037.235107421875</v>
+      </c>
+      <c r="D932">
+        <v>3017.385986328125</v>
+      </c>
+      <c r="E932">
+        <v>3026.804931640625</v>
+      </c>
+      <c r="F932">
+        <f t="shared" si="8"/>
+        <v>3.0268049316406249</v>
+      </c>
+      <c r="G932">
+        <v>23204180</v>
+      </c>
+      <c r="H932">
+        <v>23204180</v>
+      </c>
+    </row>
+    <row r="933" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A933" s="1">
+        <v>45273</v>
+      </c>
+      <c r="B933">
+        <v>3021.23291015625</v>
+      </c>
+      <c r="C933">
+        <v>3021.23291015625</v>
+      </c>
+      <c r="D933">
+        <v>2983.56494140625</v>
+      </c>
+      <c r="E933">
+        <v>2983.56494140625</v>
+      </c>
+      <c r="F933">
+        <f t="shared" si="8"/>
+        <v>2.9835649414062502</v>
+      </c>
+      <c r="G933">
+        <v>21638332</v>
+      </c>
+      <c r="H933">
+        <v>21638332</v>
+      </c>
+    </row>
+    <row r="934" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A934" s="1">
+        <v>45274</v>
+      </c>
+      <c r="B934">
+        <v>3000.552978515625</v>
+      </c>
+      <c r="C934">
+        <v>3022.527099609375</v>
+      </c>
+      <c r="D934">
+        <v>2964.1640625</v>
+      </c>
+      <c r="E934">
+        <v>2966.014892578125</v>
+      </c>
+      <c r="F934">
+        <f t="shared" si="8"/>
+        <v>2.9660148925781251</v>
+      </c>
+      <c r="G934">
+        <v>21784526</v>
+      </c>
+      <c r="H934">
+        <v>21784526</v>
+      </c>
+    </row>
+    <row r="935" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A935" s="1">
+        <v>45275</v>
+      </c>
+      <c r="B935">
+        <v>2977.80908203125</v>
+      </c>
+      <c r="C935">
+        <v>2995.613037109375</v>
+      </c>
+      <c r="D935">
+        <v>2946.239990234375</v>
+      </c>
+      <c r="E935">
+        <v>2951.205078125</v>
+      </c>
+      <c r="F935">
+        <f t="shared" si="8"/>
+        <v>2.9512050781250001</v>
+      </c>
+      <c r="G935">
+        <v>22160984</v>
+      </c>
+      <c r="H935">
+        <v>22160984</v>
+      </c>
+    </row>
+    <row r="936" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A936" s="1">
+        <v>45278</v>
+      </c>
+      <c r="B936">
+        <v>2936.572998046875</v>
+      </c>
+      <c r="C936">
+        <v>2946.490966796875</v>
+      </c>
+      <c r="D936">
+        <v>2908.238037109375</v>
+      </c>
+      <c r="E936">
+        <v>2915.301025390625</v>
+      </c>
+      <c r="F936">
+        <f t="shared" si="8"/>
+        <v>2.9153010253906251</v>
+      </c>
+      <c r="G936">
+        <v>18592990</v>
+      </c>
+      <c r="H936">
+        <v>18592990</v>
+      </c>
+    </row>
+    <row r="937" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A937" s="1">
+        <v>45279</v>
+      </c>
+      <c r="B937">
+        <v>2911.93798828125</v>
+      </c>
+      <c r="C937">
+        <v>2936.6630859375</v>
+      </c>
+      <c r="D937">
+        <v>2902.174072265625</v>
+      </c>
+      <c r="E937">
+        <v>2923.3740234375</v>
+      </c>
+      <c r="F937">
+        <f t="shared" si="8"/>
+        <v>2.9233740234374999</v>
+      </c>
+      <c r="G937">
+        <v>18925670</v>
+      </c>
+      <c r="H937">
+        <v>18925670</v>
+      </c>
+    </row>
+    <row r="938" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A938" s="1">
+        <v>45280</v>
+      </c>
+      <c r="B938">
+        <v>2926.341064453125</v>
+      </c>
+      <c r="C938">
+        <v>2929.889892578125</v>
+      </c>
+      <c r="D938">
+        <v>2882.10791015625</v>
+      </c>
+      <c r="E938">
+        <v>2882.10791015625</v>
+      </c>
+      <c r="F938">
+        <f t="shared" si="8"/>
+        <v>2.8821079101562499</v>
+      </c>
+      <c r="G938">
+        <v>19991612</v>
+      </c>
+      <c r="H938">
+        <v>19991612</v>
+      </c>
+    </row>
+    <row r="939" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A939" s="1">
+        <v>45281</v>
+      </c>
+      <c r="B939">
+        <v>2872.24609375</v>
+      </c>
+      <c r="C939">
+        <v>2935.54296875</v>
+      </c>
+      <c r="D939">
+        <v>2869.73388671875</v>
+      </c>
+      <c r="E939">
+        <v>2923.6689453125</v>
+      </c>
+      <c r="F939">
+        <f t="shared" si="8"/>
+        <v>2.9236689453125</v>
+      </c>
+      <c r="G939">
+        <v>24217784</v>
+      </c>
+      <c r="H939">
+        <v>24217784</v>
+      </c>
+    </row>
+    <row r="940" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A940" s="1">
+        <v>45282</v>
+      </c>
+      <c r="B940">
+        <v>2917.98388671875</v>
+      </c>
+      <c r="C940">
+        <v>2951.282958984375</v>
+      </c>
+      <c r="D940">
+        <v>2900.968994140625</v>
+      </c>
+      <c r="E940">
+        <v>2921.7470703125</v>
+      </c>
+      <c r="F940">
+        <f t="shared" si="8"/>
+        <v>2.9217470703125001</v>
+      </c>
+      <c r="G940">
+        <v>24262854</v>
+      </c>
+      <c r="H940">
+        <v>24262854</v>
+      </c>
+    </row>
+    <row r="941" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A941" s="1">
+        <v>45285</v>
+      </c>
+      <c r="B941">
+        <v>2916.43310546875</v>
+      </c>
+      <c r="C941">
+        <v>2947.0810546875</v>
+      </c>
+      <c r="D941">
+        <v>2916.43310546875</v>
+      </c>
+      <c r="E941">
+        <v>2939.117919921875</v>
+      </c>
+      <c r="F941">
+        <f t="shared" si="8"/>
+        <v>2.9391179199218751</v>
+      </c>
+      <c r="G941">
+        <v>16658993</v>
+      </c>
+      <c r="H941">
+        <v>16658993</v>
+      </c>
+    </row>
+    <row r="942" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A942" s="1">
+        <v>45286</v>
+      </c>
+      <c r="B942">
+        <v>2935.446044921875</v>
+      </c>
+      <c r="C942">
+        <v>2935.446044921875</v>
+      </c>
+      <c r="D942">
+        <v>2897.31396484375</v>
+      </c>
+      <c r="E942">
+        <v>2907.716064453125</v>
+      </c>
+      <c r="F942">
+        <f t="shared" si="8"/>
+        <v>2.9077160644531248</v>
+      </c>
+      <c r="G942">
+        <v>16224645</v>
+      </c>
+      <c r="H942">
+        <v>16224645</v>
+      </c>
+    </row>
+    <row r="943" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A943" s="1">
+        <v>45287</v>
+      </c>
+      <c r="B943">
+        <v>2912.037109375</v>
+      </c>
+      <c r="C943">
+        <v>2924.409912109375</v>
+      </c>
+      <c r="D943">
+        <v>2896.162109375</v>
+      </c>
+      <c r="E943">
+        <v>2915.9990234375</v>
+      </c>
+      <c r="F943">
+        <f t="shared" si="8"/>
+        <v>2.9159990234375002</v>
+      </c>
+      <c r="G943">
+        <v>18179158</v>
+      </c>
+      <c r="H943">
+        <v>18179158</v>
+      </c>
+    </row>
+    <row r="944" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A944" s="1">
+        <v>45288</v>
+      </c>
+      <c r="B944">
+        <v>2913.587890625</v>
+      </c>
+      <c r="C944">
+        <v>3016.5380859375</v>
+      </c>
+      <c r="D944">
+        <v>2906.702880859375</v>
+      </c>
+      <c r="E944">
+        <v>3006.344970703125</v>
+      </c>
+      <c r="F944">
+        <f t="shared" si="8"/>
+        <v>3.0063449707031249</v>
+      </c>
+      <c r="G944">
+        <v>31059244</v>
+      </c>
+      <c r="H944">
+        <v>31059244</v>
+      </c>
+    </row>
+    <row r="945" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A945" s="1">
+        <v>45289</v>
+      </c>
+      <c r="B945">
+        <v>3007.988037109375</v>
+      </c>
+      <c r="C945">
+        <v>3040.964111328125</v>
+      </c>
+      <c r="D945">
+        <v>3005.06005859375</v>
+      </c>
+      <c r="E945">
+        <v>3033.510009765625</v>
+      </c>
+      <c r="F945">
+        <f t="shared" si="8"/>
+        <v>3.0335100097656249</v>
+      </c>
+      <c r="G945">
+        <v>29144680</v>
+      </c>
+      <c r="H945">
+        <v>29144680</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index.xlsx
+++ b/lai/valuationquan/szseinnovation100index.xlsx
@@ -400,10 +400,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H945"/>
+  <dimension ref="A1:H967"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A926" workbookViewId="0">
-      <selection activeCell="A946" sqref="A946"/>
+    <sheetView tabSelected="1" topLeftCell="A957" workbookViewId="0">
+      <selection activeCell="A968" sqref="A968"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -19356,7 +19356,7 @@
         <v>3473.530029296875</v>
       </c>
       <c r="F703">
-        <f t="shared" ref="F703:F945" si="8">E703/1000</f>
+        <f t="shared" ref="F703:F957" si="8">E703/1000</f>
         <v>3.4735300292968749</v>
       </c>
       <c r="G703">
@@ -25898,6 +25898,600 @@
       </c>
       <c r="H945">
         <v>29144680</v>
+      </c>
+    </row>
+    <row r="946" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A946" s="1">
+        <v>45293</v>
+      </c>
+      <c r="B946">
+        <v>3033.089111328125</v>
+      </c>
+      <c r="C946">
+        <v>3033.089111328125</v>
+      </c>
+      <c r="D946">
+        <v>2978.572998046875</v>
+      </c>
+      <c r="E946">
+        <v>2978.712890625</v>
+      </c>
+      <c r="F946">
+        <f t="shared" si="8"/>
+        <v>2.9787128906250002</v>
+      </c>
+      <c r="G946">
+        <v>25490744</v>
+      </c>
+      <c r="H946">
+        <v>25490744</v>
+      </c>
+    </row>
+    <row r="947" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A947" s="1">
+        <v>45294</v>
+      </c>
+      <c r="B947">
+        <v>2969.52490234375</v>
+      </c>
+      <c r="C947">
+        <v>2975.15087890625</v>
+      </c>
+      <c r="D947">
+        <v>2931.839111328125</v>
+      </c>
+      <c r="E947">
+        <v>2945.45703125</v>
+      </c>
+      <c r="F947">
+        <f t="shared" si="8"/>
+        <v>2.9454570312500001</v>
+      </c>
+      <c r="G947">
+        <v>22808194</v>
+      </c>
+      <c r="H947">
+        <v>22808194</v>
+      </c>
+    </row>
+    <row r="948" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A948" s="1">
+        <v>45295</v>
+      </c>
+      <c r="B948">
+        <v>2942.85693359375</v>
+      </c>
+      <c r="C948">
+        <v>2943.033935546875</v>
+      </c>
+      <c r="D948">
+        <v>2890.376953125</v>
+      </c>
+      <c r="E948">
+        <v>2907.56689453125</v>
+      </c>
+      <c r="F948">
+        <f t="shared" si="8"/>
+        <v>2.9075668945312501</v>
+      </c>
+      <c r="G948">
+        <v>21182156</v>
+      </c>
+      <c r="H948">
+        <v>21182156</v>
+      </c>
+    </row>
+    <row r="949" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A949" s="1">
+        <v>45296</v>
+      </c>
+      <c r="B949">
+        <v>2906.050048828125</v>
+      </c>
+      <c r="C949">
+        <v>2938.43505859375</v>
+      </c>
+      <c r="D949">
+        <v>2868.381103515625</v>
+      </c>
+      <c r="E949">
+        <v>2883.43896484375</v>
+      </c>
+      <c r="F949">
+        <f t="shared" si="8"/>
+        <v>2.8834389648437502</v>
+      </c>
+      <c r="G949">
+        <v>25675196</v>
+      </c>
+      <c r="H949">
+        <v>25675196</v>
+      </c>
+    </row>
+    <row r="950" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A950" s="1">
+        <v>45299</v>
+      </c>
+      <c r="B950">
+        <v>2877.218017578125</v>
+      </c>
+      <c r="C950">
+        <v>2890.7490234375</v>
+      </c>
+      <c r="D950">
+        <v>2836.445068359375</v>
+      </c>
+      <c r="E950">
+        <v>2838.971923828125</v>
+      </c>
+      <c r="F950">
+        <f t="shared" si="8"/>
+        <v>2.838971923828125</v>
+      </c>
+      <c r="G950">
+        <v>26826548</v>
+      </c>
+      <c r="H950">
+        <v>26826548</v>
+      </c>
+    </row>
+    <row r="951" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A951" s="1">
+        <v>45300</v>
+      </c>
+      <c r="B951">
+        <v>2843.19189453125</v>
+      </c>
+      <c r="C951">
+        <v>2870.972900390625</v>
+      </c>
+      <c r="D951">
+        <v>2825.885009765625</v>
+      </c>
+      <c r="E951">
+        <v>2846.5009765625</v>
+      </c>
+      <c r="F951">
+        <f t="shared" si="8"/>
+        <v>2.8465009765625</v>
+      </c>
+      <c r="G951">
+        <v>24783792</v>
+      </c>
+      <c r="H951">
+        <v>24783792</v>
+      </c>
+    </row>
+    <row r="952" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A952" s="1">
+        <v>45301</v>
+      </c>
+      <c r="B952">
+        <v>2834.0458984375</v>
+      </c>
+      <c r="C952">
+        <v>2867.68603515625</v>
+      </c>
+      <c r="D952">
+        <v>2811.677001953125</v>
+      </c>
+      <c r="E952">
+        <v>2830.388916015625</v>
+      </c>
+      <c r="F952">
+        <f t="shared" si="8"/>
+        <v>2.8303889160156248</v>
+      </c>
+      <c r="G952">
+        <v>23371078</v>
+      </c>
+      <c r="H952">
+        <v>23371078</v>
+      </c>
+    </row>
+    <row r="953" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A953" s="1">
+        <v>45302</v>
+      </c>
+      <c r="B953">
+        <v>2829.8720703125</v>
+      </c>
+      <c r="C953">
+        <v>2885.22607421875</v>
+      </c>
+      <c r="D953">
+        <v>2821.97607421875</v>
+      </c>
+      <c r="E953">
+        <v>2868.867919921875</v>
+      </c>
+      <c r="F953">
+        <f t="shared" si="8"/>
+        <v>2.868867919921875</v>
+      </c>
+      <c r="G953">
+        <v>25143730</v>
+      </c>
+      <c r="H953">
+        <v>25143730</v>
+      </c>
+    </row>
+    <row r="954" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A954" s="1">
+        <v>45303</v>
+      </c>
+      <c r="B954">
+        <v>2858.884033203125</v>
+      </c>
+      <c r="C954">
+        <v>2876.823974609375</v>
+      </c>
+      <c r="D954">
+        <v>2842.717041015625</v>
+      </c>
+      <c r="E954">
+        <v>2844.033935546875</v>
+      </c>
+      <c r="F954">
+        <f t="shared" si="8"/>
+        <v>2.8440339355468751</v>
+      </c>
+      <c r="G954">
+        <v>22388808</v>
+      </c>
+      <c r="H954">
+        <v>22388808</v>
+      </c>
+    </row>
+    <row r="955" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A955" s="1">
+        <v>45306</v>
+      </c>
+      <c r="B955">
+        <v>2829.157958984375</v>
+      </c>
+      <c r="C955">
+        <v>2859.819091796875</v>
+      </c>
+      <c r="D955">
+        <v>2812.3720703125</v>
+      </c>
+      <c r="E955">
+        <v>2833.72998046875</v>
+      </c>
+      <c r="F955">
+        <f t="shared" si="8"/>
+        <v>2.8337299804687501</v>
+      </c>
+      <c r="G955">
+        <v>19903426</v>
+      </c>
+      <c r="H955">
+        <v>19903426</v>
+      </c>
+    </row>
+    <row r="956" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A956" s="1">
+        <v>45307</v>
+      </c>
+      <c r="B956">
+        <v>2828.115966796875</v>
+      </c>
+      <c r="C956">
+        <v>2853.18798828125</v>
+      </c>
+      <c r="D956">
+        <v>2813.48388671875</v>
+      </c>
+      <c r="E956">
+        <v>2852.718994140625</v>
+      </c>
+      <c r="F956">
+        <f t="shared" si="8"/>
+        <v>2.8527189941406248</v>
+      </c>
+      <c r="G956">
+        <v>27862712</v>
+      </c>
+      <c r="H956">
+        <v>27862712</v>
+      </c>
+    </row>
+    <row r="957" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A957" s="1">
+        <v>45308</v>
+      </c>
+      <c r="B957">
+        <v>2844.787109375</v>
+      </c>
+      <c r="C957">
+        <v>2844.787109375</v>
+      </c>
+      <c r="D957">
+        <v>2778.9130859375</v>
+      </c>
+      <c r="E957">
+        <v>2778.9130859375</v>
+      </c>
+      <c r="F957">
+        <f t="shared" si="8"/>
+        <v>2.7789130859375</v>
+      </c>
+      <c r="G957">
+        <v>24768968</v>
+      </c>
+      <c r="H957">
+        <v>24768968</v>
+      </c>
+    </row>
+    <row r="958" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A958" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B958">
+        <v>2759.25390625</v>
+      </c>
+      <c r="C958">
+        <v>2826.64794921875</v>
+      </c>
+      <c r="D958">
+        <v>2738.027099609375</v>
+      </c>
+      <c r="E958">
+        <v>2821.385009765625</v>
+      </c>
+      <c r="F958">
+        <f t="shared" ref="F958:F967" si="9">E958/1000</f>
+        <v>2.821385009765625</v>
+      </c>
+      <c r="G958">
+        <v>36722676</v>
+      </c>
+      <c r="H958">
+        <v>36722676</v>
+      </c>
+    </row>
+    <row r="959" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A959" s="1">
+        <v>45310</v>
+      </c>
+      <c r="B959">
+        <v>2812.552978515625</v>
+      </c>
+      <c r="C959">
+        <v>2841.056884765625</v>
+      </c>
+      <c r="D959">
+        <v>2799.76904296875</v>
+      </c>
+      <c r="E959">
+        <v>2806.406005859375</v>
+      </c>
+      <c r="F959">
+        <f t="shared" si="9"/>
+        <v>2.8064060058593752</v>
+      </c>
+      <c r="G959">
+        <v>26995010</v>
+      </c>
+      <c r="H959">
+        <v>26995010</v>
+      </c>
+    </row>
+    <row r="960" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A960" s="1">
+        <v>45313</v>
+      </c>
+      <c r="B960">
+        <v>2802.070068359375</v>
+      </c>
+      <c r="C960">
+        <v>2814.001953125</v>
+      </c>
+      <c r="D960">
+        <v>2723.14111328125</v>
+      </c>
+      <c r="E960">
+        <v>2738.4599609375</v>
+      </c>
+      <c r="F960">
+        <f t="shared" si="9"/>
+        <v>2.7384599609375</v>
+      </c>
+      <c r="G960">
+        <v>31670606</v>
+      </c>
+      <c r="H960">
+        <v>31670606</v>
+      </c>
+    </row>
+    <row r="961" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A961" s="1">
+        <v>45314</v>
+      </c>
+      <c r="B961">
+        <v>2734.9208984375</v>
+      </c>
+      <c r="C961">
+        <v>2786.85888671875</v>
+      </c>
+      <c r="D961">
+        <v>2719.26708984375</v>
+      </c>
+      <c r="E961">
+        <v>2772.39208984375</v>
+      </c>
+      <c r="F961">
+        <f t="shared" si="9"/>
+        <v>2.7723920898437502</v>
+      </c>
+      <c r="G961">
+        <v>30160880</v>
+      </c>
+      <c r="H961">
+        <v>30160880</v>
+      </c>
+    </row>
+    <row r="962" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A962" s="1">
+        <v>45315</v>
+      </c>
+      <c r="B962">
+        <v>2782.64306640625</v>
+      </c>
+      <c r="C962">
+        <v>2795.116943359375</v>
+      </c>
+      <c r="D962">
+        <v>2710.37109375</v>
+      </c>
+      <c r="E962">
+        <v>2792.212890625</v>
+      </c>
+      <c r="F962">
+        <f t="shared" si="9"/>
+        <v>2.7922128906250001</v>
+      </c>
+      <c r="G962">
+        <v>30600718</v>
+      </c>
+      <c r="H962">
+        <v>30600718</v>
+      </c>
+    </row>
+    <row r="963" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A963" s="1">
+        <v>45316</v>
+      </c>
+      <c r="B963">
+        <v>2782.506103515625</v>
+      </c>
+      <c r="C963">
+        <v>2828.97802734375</v>
+      </c>
+      <c r="D963">
+        <v>2762.3701171875</v>
+      </c>
+      <c r="E963">
+        <v>2827.818115234375</v>
+      </c>
+      <c r="F963">
+        <f t="shared" si="9"/>
+        <v>2.8278181152343751</v>
+      </c>
+      <c r="G963">
+        <v>33107666</v>
+      </c>
+      <c r="H963">
+        <v>33107666</v>
+      </c>
+    </row>
+    <row r="964" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A964" s="1">
+        <v>45317</v>
+      </c>
+      <c r="B964">
+        <v>2808.04296875</v>
+      </c>
+      <c r="C964">
+        <v>2821.8310546875</v>
+      </c>
+      <c r="D964">
+        <v>2783.367919921875</v>
+      </c>
+      <c r="E964">
+        <v>2787.571044921875</v>
+      </c>
+      <c r="F964">
+        <f t="shared" si="9"/>
+        <v>2.7875710449218749</v>
+      </c>
+      <c r="G964">
+        <v>29683172</v>
+      </c>
+      <c r="H964">
+        <v>29683172</v>
+      </c>
+    </row>
+    <row r="965" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A965" s="1">
+        <v>45320</v>
+      </c>
+      <c r="B965">
+        <v>2789.677001953125</v>
+      </c>
+      <c r="C965">
+        <v>2794.1689453125</v>
+      </c>
+      <c r="D965">
+        <v>2723.10693359375</v>
+      </c>
+      <c r="E965">
+        <v>2723.10693359375</v>
+      </c>
+      <c r="F965">
+        <f t="shared" si="9"/>
+        <v>2.7231069335937499</v>
+      </c>
+      <c r="G965">
+        <v>28200660</v>
+      </c>
+      <c r="H965">
+        <v>28200660</v>
+      </c>
+    </row>
+    <row r="966" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A966" s="1">
+        <v>45321</v>
+      </c>
+      <c r="B966">
+        <v>2704.373046875</v>
+      </c>
+      <c r="C966">
+        <v>2724.987060546875</v>
+      </c>
+      <c r="D966">
+        <v>2655.52490234375</v>
+      </c>
+      <c r="E966">
+        <v>2657.22509765625</v>
+      </c>
+      <c r="F966">
+        <f t="shared" si="9"/>
+        <v>2.6572250976562501</v>
+      </c>
+      <c r="G966">
+        <v>25531778</v>
+      </c>
+      <c r="H966">
+        <v>25531778</v>
+      </c>
+    </row>
+    <row r="967" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A967" s="1">
+        <v>45322</v>
+      </c>
+      <c r="B967">
+        <v>2654.927001953125</v>
+      </c>
+      <c r="C967">
+        <v>2679.156005859375</v>
+      </c>
+      <c r="D967">
+        <v>2625.85791015625</v>
+      </c>
+      <c r="E967">
+        <v>2630.843017578125</v>
+      </c>
+      <c r="F967">
+        <f t="shared" si="9"/>
+        <v>2.6308430175781252</v>
+      </c>
+      <c r="G967">
+        <v>29503686</v>
+      </c>
+      <c r="H967">
+        <v>29503686</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index.xlsx
+++ b/lai/valuationquan/szseinnovation100index.xlsx
@@ -40,11 +40,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>turnover</t>
+    <t>transaction amount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>transaction amount</t>
+    <t>volume</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -400,10 +400,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H967"/>
+  <dimension ref="A1:H982"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A957" workbookViewId="0">
-      <selection activeCell="A968" sqref="A968"/>
+    <sheetView tabSelected="1" topLeftCell="A950" workbookViewId="0">
+      <selection activeCell="A983" sqref="A983"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -433,10 +433,10 @@
         <v>5</v>
       </c>
       <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
         <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -26241,7 +26241,7 @@
         <v>2821.385009765625</v>
       </c>
       <c r="F958">
-        <f t="shared" ref="F958:F967" si="9">E958/1000</f>
+        <f t="shared" ref="F958:F982" si="9">E958/1000</f>
         <v>2.821385009765625</v>
       </c>
       <c r="G958">
@@ -26492,6 +26492,411 @@
       </c>
       <c r="H967">
         <v>29503686</v>
+      </c>
+    </row>
+    <row r="968" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A968" s="1">
+        <v>45323</v>
+      </c>
+      <c r="B968">
+        <v>2623.14697265625</v>
+      </c>
+      <c r="C968">
+        <v>2692.77099609375</v>
+      </c>
+      <c r="D968">
+        <v>2616.10302734375</v>
+      </c>
+      <c r="E968">
+        <v>2653.98095703125</v>
+      </c>
+      <c r="F968">
+        <f t="shared" si="9"/>
+        <v>2.65398095703125</v>
+      </c>
+      <c r="G968">
+        <v>27930526</v>
+      </c>
+      <c r="H968">
+        <v>27930526</v>
+      </c>
+    </row>
+    <row r="969" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A969" s="1">
+        <v>45324</v>
+      </c>
+      <c r="B969">
+        <v>2650.722900390625</v>
+      </c>
+      <c r="C969">
+        <v>2663.5390625</v>
+      </c>
+      <c r="D969">
+        <v>2532.802001953125</v>
+      </c>
+      <c r="E969">
+        <v>2597.634033203125</v>
+      </c>
+      <c r="F969">
+        <f t="shared" si="9"/>
+        <v>2.5976340332031249</v>
+      </c>
+      <c r="G969">
+        <v>32406090</v>
+      </c>
+      <c r="H969">
+        <v>32406090</v>
+      </c>
+    </row>
+    <row r="970" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A970" s="1">
+        <v>45327</v>
+      </c>
+      <c r="B970">
+        <v>2574.3779296875</v>
+      </c>
+      <c r="C970">
+        <v>2665.26611328125</v>
+      </c>
+      <c r="D970">
+        <v>2513.404052734375</v>
+      </c>
+      <c r="E970">
+        <v>2616.469970703125</v>
+      </c>
+      <c r="F970">
+        <f t="shared" si="9"/>
+        <v>2.6164699707031249</v>
+      </c>
+      <c r="G970">
+        <v>39505680</v>
+      </c>
+      <c r="H970">
+        <v>39505680</v>
+      </c>
+    </row>
+    <row r="971" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A971" s="1">
+        <v>45328</v>
+      </c>
+      <c r="B971">
+        <v>2591.9609375</v>
+      </c>
+      <c r="C971">
+        <v>2754.424072265625</v>
+      </c>
+      <c r="D971">
+        <v>2590.281982421875</v>
+      </c>
+      <c r="E971">
+        <v>2752.222900390625</v>
+      </c>
+      <c r="F971">
+        <f t="shared" si="9"/>
+        <v>2.7522229003906249</v>
+      </c>
+      <c r="G971">
+        <v>41201480</v>
+      </c>
+      <c r="H971">
+        <v>41201480</v>
+      </c>
+    </row>
+    <row r="972" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A972" s="1">
+        <v>45329</v>
+      </c>
+      <c r="B972">
+        <v>2753.31396484375</v>
+      </c>
+      <c r="C972">
+        <v>2811.0791015625</v>
+      </c>
+      <c r="D972">
+        <v>2738.596923828125</v>
+      </c>
+      <c r="E972">
+        <v>2803.031982421875</v>
+      </c>
+      <c r="F972">
+        <f t="shared" si="9"/>
+        <v>2.8030319824218748</v>
+      </c>
+      <c r="G972">
+        <v>44890892</v>
+      </c>
+      <c r="H972">
+        <v>44890892</v>
+      </c>
+    </row>
+    <row r="973" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A973" s="1">
+        <v>45330</v>
+      </c>
+      <c r="B973">
+        <v>2816.85400390625</v>
+      </c>
+      <c r="C973">
+        <v>2870.6689453125</v>
+      </c>
+      <c r="D973">
+        <v>2810.714111328125</v>
+      </c>
+      <c r="E973">
+        <v>2837.573974609375</v>
+      </c>
+      <c r="F973">
+        <f t="shared" si="9"/>
+        <v>2.8375739746093749</v>
+      </c>
+      <c r="G973">
+        <v>40309260</v>
+      </c>
+      <c r="H973">
+        <v>40309260</v>
+      </c>
+    </row>
+    <row r="974" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A974" s="1">
+        <v>45341</v>
+      </c>
+      <c r="B974">
+        <v>2880.47900390625</v>
+      </c>
+      <c r="C974">
+        <v>2880.47900390625</v>
+      </c>
+      <c r="D974">
+        <v>2834.214111328125</v>
+      </c>
+      <c r="E974">
+        <v>2865.10302734375</v>
+      </c>
+      <c r="F974">
+        <f t="shared" si="9"/>
+        <v>2.8651030273437499</v>
+      </c>
+      <c r="G974">
+        <v>37929724</v>
+      </c>
+      <c r="H974">
+        <v>37929724</v>
+      </c>
+    </row>
+    <row r="975" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A975" s="1">
+        <v>45342</v>
+      </c>
+      <c r="B975">
+        <v>2853.18603515625</v>
+      </c>
+      <c r="C975">
+        <v>2869.194091796875</v>
+      </c>
+      <c r="D975">
+        <v>2829.365966796875</v>
+      </c>
+      <c r="E975">
+        <v>2865.73193359375</v>
+      </c>
+      <c r="F975">
+        <f t="shared" si="9"/>
+        <v>2.8657319335937501</v>
+      </c>
+      <c r="G975">
+        <v>29771568</v>
+      </c>
+      <c r="H975">
+        <v>29771568</v>
+      </c>
+    </row>
+    <row r="976" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A976" s="1">
+        <v>45343</v>
+      </c>
+      <c r="B976">
+        <v>2840.05908203125</v>
+      </c>
+      <c r="C976">
+        <v>2929.235107421875</v>
+      </c>
+      <c r="D976">
+        <v>2832.10107421875</v>
+      </c>
+      <c r="E976">
+        <v>2888.256103515625</v>
+      </c>
+      <c r="F976">
+        <f t="shared" si="9"/>
+        <v>2.8882561035156251</v>
+      </c>
+      <c r="G976">
+        <v>40147316</v>
+      </c>
+      <c r="H976">
+        <v>40147316</v>
+      </c>
+    </row>
+    <row r="977" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A977" s="1">
+        <v>45344</v>
+      </c>
+      <c r="B977">
+        <v>2887.9580078125</v>
+      </c>
+      <c r="C977">
+        <v>2911.3359375</v>
+      </c>
+      <c r="D977">
+        <v>2881.695068359375</v>
+      </c>
+      <c r="E977">
+        <v>2906.364990234375</v>
+      </c>
+      <c r="F977">
+        <f t="shared" si="9"/>
+        <v>2.9063649902343749</v>
+      </c>
+      <c r="G977">
+        <v>33470258</v>
+      </c>
+      <c r="H977">
+        <v>33470258</v>
+      </c>
+    </row>
+    <row r="978" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A978" s="1">
+        <v>45345</v>
+      </c>
+      <c r="B978">
+        <v>2918.782958984375</v>
+      </c>
+      <c r="C978">
+        <v>2920.611083984375</v>
+      </c>
+      <c r="D978">
+        <v>2880.625</v>
+      </c>
+      <c r="E978">
+        <v>2903.431884765625</v>
+      </c>
+      <c r="F978">
+        <f t="shared" si="9"/>
+        <v>2.9034318847656251</v>
+      </c>
+      <c r="G978">
+        <v>34831736</v>
+      </c>
+      <c r="H978">
+        <v>34831736</v>
+      </c>
+    </row>
+    <row r="979" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A979" s="1">
+        <v>45348</v>
+      </c>
+      <c r="B979">
+        <v>2909.35009765625</v>
+      </c>
+      <c r="C979">
+        <v>2932.364013671875</v>
+      </c>
+      <c r="D979">
+        <v>2896.029052734375</v>
+      </c>
+      <c r="E979">
+        <v>2908.01904296875</v>
+      </c>
+      <c r="F979">
+        <f t="shared" si="9"/>
+        <v>2.9080190429687498</v>
+      </c>
+      <c r="G979">
+        <v>37815776</v>
+      </c>
+      <c r="H979">
+        <v>37815776</v>
+      </c>
+    </row>
+    <row r="980" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A980" s="1">
+        <v>45349</v>
+      </c>
+      <c r="B980">
+        <v>2896.279052734375</v>
+      </c>
+      <c r="C980">
+        <v>2977.25390625</v>
+      </c>
+      <c r="D980">
+        <v>2891.87109375</v>
+      </c>
+      <c r="E980">
+        <v>2977.25390625</v>
+      </c>
+      <c r="F980">
+        <f t="shared" si="9"/>
+        <v>2.9772539062500001</v>
+      </c>
+      <c r="G980">
+        <v>39505252</v>
+      </c>
+      <c r="H980">
+        <v>39505252</v>
+      </c>
+    </row>
+    <row r="981" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A981" s="1">
+        <v>45350</v>
+      </c>
+      <c r="B981">
+        <v>2986.77392578125</v>
+      </c>
+      <c r="C981">
+        <v>3013.44189453125</v>
+      </c>
+      <c r="D981">
+        <v>2909.208984375</v>
+      </c>
+      <c r="E981">
+        <v>2909.208984375</v>
+      </c>
+      <c r="F981">
+        <f t="shared" si="9"/>
+        <v>2.9092089843750002</v>
+      </c>
+      <c r="G981">
+        <v>51586492</v>
+      </c>
+      <c r="H981">
+        <v>51586492</v>
+      </c>
+    </row>
+    <row r="982" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A982" s="1">
+        <v>45351</v>
+      </c>
+      <c r="B982">
+        <v>2895.68408203125</v>
+      </c>
+      <c r="C982">
+        <v>3006.0458984375</v>
+      </c>
+      <c r="D982">
+        <v>2895.68408203125</v>
+      </c>
+      <c r="E982">
+        <v>3002.22509765625</v>
+      </c>
+      <c r="F982">
+        <f t="shared" si="9"/>
+        <v>3.0022250976562499</v>
+      </c>
+      <c r="G982">
+        <v>43743300</v>
+      </c>
+      <c r="H982">
+        <v>43743300</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index.xlsx
+++ b/lai/valuationquan/szseinnovation100index.xlsx
@@ -40,11 +40,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>transaction amount</t>
+    <t>turnover</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>volume</t>
+    <t>transaction amount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -400,10 +400,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H982"/>
+  <dimension ref="A1:H1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A950" workbookViewId="0">
-      <selection activeCell="A983" sqref="A983"/>
+    <sheetView tabSelected="1" topLeftCell="A985" workbookViewId="0">
+      <selection activeCell="A1004" sqref="A1004"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -433,10 +433,10 @@
         <v>5</v>
       </c>
       <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
         <v>7</v>
-      </c>
-      <c r="H2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -26241,7 +26241,7 @@
         <v>2821.385009765625</v>
       </c>
       <c r="F958">
-        <f t="shared" ref="F958:F982" si="9">E958/1000</f>
+        <f t="shared" ref="F958:F1003" si="9">E958/1000</f>
         <v>2.821385009765625</v>
       </c>
       <c r="G958">
@@ -26897,6 +26897,573 @@
       </c>
       <c r="H982">
         <v>43743300</v>
+      </c>
+    </row>
+    <row r="983" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A983" s="1">
+        <v>45352</v>
+      </c>
+      <c r="B983">
+        <v>3010.343994140625</v>
+      </c>
+      <c r="C983">
+        <v>3054.156005859375</v>
+      </c>
+      <c r="D983">
+        <v>2998.5419921875</v>
+      </c>
+      <c r="E983">
+        <v>3048.426025390625</v>
+      </c>
+      <c r="F983">
+        <f t="shared" si="9"/>
+        <v>3.0484260253906248</v>
+      </c>
+      <c r="G983">
+        <v>47496916</v>
+      </c>
+      <c r="H983">
+        <v>47496916</v>
+      </c>
+    </row>
+    <row r="984" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A984" s="1">
+        <v>45355</v>
+      </c>
+      <c r="B984">
+        <v>3056.80908203125</v>
+      </c>
+      <c r="C984">
+        <v>3077.716064453125</v>
+      </c>
+      <c r="D984">
+        <v>3031.6708984375</v>
+      </c>
+      <c r="E984">
+        <v>3051.801025390625</v>
+      </c>
+      <c r="F984">
+        <f t="shared" si="9"/>
+        <v>3.0518010253906249</v>
+      </c>
+      <c r="G984">
+        <v>43151412</v>
+      </c>
+      <c r="H984">
+        <v>43151412</v>
+      </c>
+    </row>
+    <row r="985" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A985" s="1">
+        <v>45356</v>
+      </c>
+      <c r="B985">
+        <v>3027.5458984375</v>
+      </c>
+      <c r="C985">
+        <v>3060.676025390625</v>
+      </c>
+      <c r="D985">
+        <v>3016.756103515625</v>
+      </c>
+      <c r="E985">
+        <v>3052.458984375</v>
+      </c>
+      <c r="F985">
+        <f t="shared" si="9"/>
+        <v>3.0524589843749999</v>
+      </c>
+      <c r="G985">
+        <v>43543240</v>
+      </c>
+      <c r="H985">
+        <v>43543240</v>
+      </c>
+    </row>
+    <row r="986" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A986" s="1">
+        <v>45357</v>
+      </c>
+      <c r="B986">
+        <v>3034.1201171875</v>
+      </c>
+      <c r="C986">
+        <v>3078.7529296875</v>
+      </c>
+      <c r="D986">
+        <v>3019.971923828125</v>
+      </c>
+      <c r="E986">
+        <v>3045.533935546875</v>
+      </c>
+      <c r="F986">
+        <f t="shared" si="9"/>
+        <v>3.0455339355468749</v>
+      </c>
+      <c r="G986">
+        <v>37406664</v>
+      </c>
+      <c r="H986">
+        <v>37406664</v>
+      </c>
+    </row>
+    <row r="987" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A987" s="1">
+        <v>45358</v>
+      </c>
+      <c r="B987">
+        <v>3044.839111328125</v>
+      </c>
+      <c r="C987">
+        <v>3064.864013671875</v>
+      </c>
+      <c r="D987">
+        <v>3000.39599609375</v>
+      </c>
+      <c r="E987">
+        <v>3001.10693359375</v>
+      </c>
+      <c r="F987">
+        <f t="shared" si="9"/>
+        <v>3.0011069335937499</v>
+      </c>
+      <c r="G987">
+        <v>36089600</v>
+      </c>
+      <c r="H987">
+        <v>36089600</v>
+      </c>
+    </row>
+    <row r="988" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A988" s="1">
+        <v>45359</v>
+      </c>
+      <c r="B988">
+        <v>3006.011962890625</v>
+      </c>
+      <c r="C988">
+        <v>3037.344970703125</v>
+      </c>
+      <c r="D988">
+        <v>2986.718994140625</v>
+      </c>
+      <c r="E988">
+        <v>3031.52490234375</v>
+      </c>
+      <c r="F988">
+        <f t="shared" si="9"/>
+        <v>3.03152490234375</v>
+      </c>
+      <c r="G988">
+        <v>33192862</v>
+      </c>
+      <c r="H988">
+        <v>33192862</v>
+      </c>
+    </row>
+    <row r="989" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A989" s="1">
+        <v>45362</v>
+      </c>
+      <c r="B989">
+        <v>3036.0859375</v>
+      </c>
+      <c r="C989">
+        <v>3117.787109375</v>
+      </c>
+      <c r="D989">
+        <v>3032.506103515625</v>
+      </c>
+      <c r="E989">
+        <v>3117.787109375</v>
+      </c>
+      <c r="F989">
+        <f t="shared" si="9"/>
+        <v>3.117787109375</v>
+      </c>
+      <c r="G989">
+        <v>41774608</v>
+      </c>
+      <c r="H989">
+        <v>41774608</v>
+      </c>
+    </row>
+    <row r="990" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A990" s="1">
+        <v>45363</v>
+      </c>
+      <c r="B990">
+        <v>3127.007080078125</v>
+      </c>
+      <c r="C990">
+        <v>3136.945068359375</v>
+      </c>
+      <c r="D990">
+        <v>3098.43505859375</v>
+      </c>
+      <c r="E990">
+        <v>3132.180908203125</v>
+      </c>
+      <c r="F990">
+        <f t="shared" si="9"/>
+        <v>3.1321809082031251</v>
+      </c>
+      <c r="G990">
+        <v>44705576</v>
+      </c>
+      <c r="H990">
+        <v>44705576</v>
+      </c>
+    </row>
+    <row r="991" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A991" s="1">
+        <v>45364</v>
+      </c>
+      <c r="B991">
+        <v>3136.820068359375</v>
+      </c>
+      <c r="C991">
+        <v>3139.79296875</v>
+      </c>
+      <c r="D991">
+        <v>3108.864990234375</v>
+      </c>
+      <c r="E991">
+        <v>3117.85595703125</v>
+      </c>
+      <c r="F991">
+        <f t="shared" si="9"/>
+        <v>3.1178559570312498</v>
+      </c>
+      <c r="G991">
+        <v>37394348</v>
+      </c>
+      <c r="H991">
+        <v>37394348</v>
+      </c>
+    </row>
+    <row r="992" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A992" s="1">
+        <v>45365</v>
+      </c>
+      <c r="B992">
+        <v>3116.31201171875</v>
+      </c>
+      <c r="C992">
+        <v>3143.56201171875</v>
+      </c>
+      <c r="D992">
+        <v>3079.02294921875</v>
+      </c>
+      <c r="E992">
+        <v>3098.385009765625</v>
+      </c>
+      <c r="F992">
+        <f t="shared" si="9"/>
+        <v>3.0983850097656251</v>
+      </c>
+      <c r="G992">
+        <v>36347544</v>
+      </c>
+      <c r="H992">
+        <v>36347544</v>
+      </c>
+    </row>
+    <row r="993" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A993" s="1">
+        <v>45366</v>
+      </c>
+      <c r="B993">
+        <v>3091.68896484375</v>
+      </c>
+      <c r="C993">
+        <v>3102.62109375</v>
+      </c>
+      <c r="D993">
+        <v>3050.322021484375</v>
+      </c>
+      <c r="E993">
+        <v>3100.114990234375</v>
+      </c>
+      <c r="F993">
+        <f t="shared" si="9"/>
+        <v>3.100114990234375</v>
+      </c>
+      <c r="G993">
+        <v>35377688</v>
+      </c>
+      <c r="H993">
+        <v>35377688</v>
+      </c>
+    </row>
+    <row r="994" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A994" s="1">
+        <v>45369</v>
+      </c>
+      <c r="B994">
+        <v>3126.18408203125</v>
+      </c>
+      <c r="C994">
+        <v>3150.986083984375</v>
+      </c>
+      <c r="D994">
+        <v>3118.60107421875</v>
+      </c>
+      <c r="E994">
+        <v>3150.986083984375</v>
+      </c>
+      <c r="F994">
+        <f t="shared" si="9"/>
+        <v>3.1509860839843751</v>
+      </c>
+      <c r="G994">
+        <v>43684672</v>
+      </c>
+      <c r="H994">
+        <v>43684672</v>
+      </c>
+    </row>
+    <row r="995" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A995" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B995">
+        <v>3139.952880859375</v>
+      </c>
+      <c r="C995">
+        <v>3155.452880859375</v>
+      </c>
+      <c r="D995">
+        <v>3124.64892578125</v>
+      </c>
+      <c r="E995">
+        <v>3124.64892578125</v>
+      </c>
+      <c r="F995">
+        <f t="shared" si="9"/>
+        <v>3.12464892578125</v>
+      </c>
+      <c r="G995">
+        <v>39215668</v>
+      </c>
+      <c r="H995">
+        <v>39215668</v>
+      </c>
+    </row>
+    <row r="996" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A996" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B996">
+        <v>3114.513916015625</v>
+      </c>
+      <c r="C996">
+        <v>3136.98388671875</v>
+      </c>
+      <c r="D996">
+        <v>3108.6630859375</v>
+      </c>
+      <c r="E996">
+        <v>3128.39892578125</v>
+      </c>
+      <c r="F996">
+        <f t="shared" si="9"/>
+        <v>3.1283989257812501</v>
+      </c>
+      <c r="G996">
+        <v>35679504</v>
+      </c>
+      <c r="H996">
+        <v>35679504</v>
+      </c>
+    </row>
+    <row r="997" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A997" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B997">
+        <v>3133.541015625</v>
+      </c>
+      <c r="C997">
+        <v>3140.339111328125</v>
+      </c>
+      <c r="D997">
+        <v>3103.179931640625</v>
+      </c>
+      <c r="E997">
+        <v>3104.780029296875</v>
+      </c>
+      <c r="F997">
+        <f t="shared" si="9"/>
+        <v>3.104780029296875</v>
+      </c>
+      <c r="G997">
+        <v>34783532</v>
+      </c>
+      <c r="H997">
+        <v>34783532</v>
+      </c>
+    </row>
+    <row r="998" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A998" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B998">
+        <v>3099.02392578125</v>
+      </c>
+      <c r="C998">
+        <v>3106.6630859375</v>
+      </c>
+      <c r="D998">
+        <v>3059.326904296875</v>
+      </c>
+      <c r="E998">
+        <v>3079.320068359375</v>
+      </c>
+      <c r="F998">
+        <f t="shared" si="9"/>
+        <v>3.0793200683593751</v>
+      </c>
+      <c r="G998">
+        <v>36652300</v>
+      </c>
+      <c r="H998">
+        <v>36652300</v>
+      </c>
+    </row>
+    <row r="999" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A999" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B999">
+        <v>3071.59912109375</v>
+      </c>
+      <c r="C999">
+        <v>3097.8349609375</v>
+      </c>
+      <c r="D999">
+        <v>3041.9208984375</v>
+      </c>
+      <c r="E999">
+        <v>3042.60400390625</v>
+      </c>
+      <c r="F999">
+        <f t="shared" si="9"/>
+        <v>3.0426040039062499</v>
+      </c>
+      <c r="G999">
+        <v>32814536</v>
+      </c>
+      <c r="H999">
+        <v>32814536</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1000" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B1000">
+        <v>3038.56396484375</v>
+      </c>
+      <c r="C1000">
+        <v>3073.133056640625</v>
+      </c>
+      <c r="D1000">
+        <v>3032.837890625</v>
+      </c>
+      <c r="E1000">
+        <v>3057.81298828125</v>
+      </c>
+      <c r="F1000">
+        <f t="shared" si="9"/>
+        <v>3.0578129882812499</v>
+      </c>
+      <c r="G1000">
+        <v>32268062</v>
+      </c>
+      <c r="H1000">
+        <v>32268062</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1001" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B1001">
+        <v>3056.52099609375</v>
+      </c>
+      <c r="C1001">
+        <v>3056.9150390625</v>
+      </c>
+      <c r="D1001">
+        <v>2990.800048828125</v>
+      </c>
+      <c r="E1001">
+        <v>2990.800048828125</v>
+      </c>
+      <c r="F1001">
+        <f t="shared" si="9"/>
+        <v>2.9908000488281248</v>
+      </c>
+      <c r="G1001">
+        <v>32729492</v>
+      </c>
+      <c r="H1001">
+        <v>32729492</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1002" s="1">
+        <v>45379</v>
+      </c>
+      <c r="B1002">
+        <v>2990.511962890625</v>
+      </c>
+      <c r="C1002">
+        <v>3061.466064453125</v>
+      </c>
+      <c r="D1002">
+        <v>2986.736083984375</v>
+      </c>
+      <c r="E1002">
+        <v>3029.904052734375</v>
+      </c>
+      <c r="F1002">
+        <f t="shared" si="9"/>
+        <v>3.0299040527343748</v>
+      </c>
+      <c r="G1002">
+        <v>34948292</v>
+      </c>
+      <c r="H1002">
+        <v>34948292</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1003" s="1">
+        <v>45380</v>
+      </c>
+      <c r="B1003">
+        <v>3030.053955078125</v>
+      </c>
+      <c r="C1003">
+        <v>3047.51904296875</v>
+      </c>
+      <c r="D1003">
+        <v>3012.47705078125</v>
+      </c>
+      <c r="E1003">
+        <v>3039.02294921875</v>
+      </c>
+      <c r="F1003">
+        <f t="shared" si="9"/>
+        <v>3.0390229492187499</v>
+      </c>
+      <c r="G1003">
+        <v>29494352</v>
+      </c>
+      <c r="H1003">
+        <v>29494352</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index.xlsx
+++ b/lai/valuationquan/szseinnovation100index.xlsx
@@ -400,10 +400,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H1003"/>
+  <dimension ref="A1:H1023"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A985" workbookViewId="0">
-      <selection activeCell="A1004" sqref="A1004"/>
+    <sheetView tabSelected="1" topLeftCell="A1005" workbookViewId="0">
+      <selection activeCell="A1024" sqref="A1024"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -26241,7 +26241,7 @@
         <v>2821.385009765625</v>
       </c>
       <c r="F958">
-        <f t="shared" ref="F958:F1003" si="9">E958/1000</f>
+        <f t="shared" ref="F958:F1023" si="9">E958/1000</f>
         <v>2.821385009765625</v>
       </c>
       <c r="G958">
@@ -27464,6 +27464,546 @@
       </c>
       <c r="H1003">
         <v>29494352</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1004" s="1">
+        <v>45383</v>
+      </c>
+      <c r="B1004">
+        <v>3058.4599609375</v>
+      </c>
+      <c r="C1004">
+        <v>3124.096923828125</v>
+      </c>
+      <c r="D1004">
+        <v>3058.4599609375</v>
+      </c>
+      <c r="E1004">
+        <v>3123.180908203125</v>
+      </c>
+      <c r="F1004">
+        <f t="shared" si="9"/>
+        <v>3.1231809082031252</v>
+      </c>
+      <c r="G1004">
+        <v>46674024</v>
+      </c>
+      <c r="H1004">
+        <v>46674024</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1005" s="1">
+        <v>45384</v>
+      </c>
+      <c r="B1005">
+        <v>3118.7548828125</v>
+      </c>
+      <c r="C1005">
+        <v>3118.7548828125</v>
+      </c>
+      <c r="D1005">
+        <v>3089.97412109375</v>
+      </c>
+      <c r="E1005">
+        <v>3103.092041015625</v>
+      </c>
+      <c r="F1005">
+        <f t="shared" si="9"/>
+        <v>3.1030920410156249</v>
+      </c>
+      <c r="G1005">
+        <v>37642748</v>
+      </c>
+      <c r="H1005">
+        <v>37642748</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1006" s="1">
+        <v>45385</v>
+      </c>
+      <c r="B1006">
+        <v>3091.875</v>
+      </c>
+      <c r="C1006">
+        <v>3095.26611328125</v>
+      </c>
+      <c r="D1006">
+        <v>3072.616943359375</v>
+      </c>
+      <c r="E1006">
+        <v>3080.1640625</v>
+      </c>
+      <c r="F1006">
+        <f t="shared" si="9"/>
+        <v>3.0801640625000002</v>
+      </c>
+      <c r="G1006">
+        <v>35145020</v>
+      </c>
+      <c r="H1006">
+        <v>35145020</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1007" s="1">
+        <v>45390</v>
+      </c>
+      <c r="B1007">
+        <v>3075.090087890625</v>
+      </c>
+      <c r="C1007">
+        <v>3083.666015625</v>
+      </c>
+      <c r="D1007">
+        <v>3039.444091796875</v>
+      </c>
+      <c r="E1007">
+        <v>3039.824951171875</v>
+      </c>
+      <c r="F1007">
+        <f t="shared" si="9"/>
+        <v>3.0398249511718749</v>
+      </c>
+      <c r="G1007">
+        <v>34013324</v>
+      </c>
+      <c r="H1007">
+        <v>34013324</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1008" s="1">
+        <v>45391</v>
+      </c>
+      <c r="B1008">
+        <v>3037.493896484375</v>
+      </c>
+      <c r="C1008">
+        <v>3056.0791015625</v>
+      </c>
+      <c r="D1008">
+        <v>3024.830078125</v>
+      </c>
+      <c r="E1008">
+        <v>3055.41796875</v>
+      </c>
+      <c r="F1008">
+        <f t="shared" si="9"/>
+        <v>3.05541796875</v>
+      </c>
+      <c r="G1008">
+        <v>29067126</v>
+      </c>
+      <c r="H1008">
+        <v>29067126</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1009" s="1">
+        <v>45392</v>
+      </c>
+      <c r="B1009">
+        <v>3047.81103515625</v>
+      </c>
+      <c r="C1009">
+        <v>3047.81103515625</v>
+      </c>
+      <c r="D1009">
+        <v>2989.5869140625</v>
+      </c>
+      <c r="E1009">
+        <v>3005.1669921875</v>
+      </c>
+      <c r="F1009">
+        <f t="shared" si="9"/>
+        <v>3.0051669921875002</v>
+      </c>
+      <c r="G1009">
+        <v>28650742</v>
+      </c>
+      <c r="H1009">
+        <v>28650742</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1010" s="1">
+        <v>45393</v>
+      </c>
+      <c r="B1010">
+        <v>2984.875</v>
+      </c>
+      <c r="C1010">
+        <v>3028.01611328125</v>
+      </c>
+      <c r="D1010">
+        <v>2984.302001953125</v>
+      </c>
+      <c r="E1010">
+        <v>3004.073974609375</v>
+      </c>
+      <c r="F1010">
+        <f t="shared" si="9"/>
+        <v>3.004073974609375</v>
+      </c>
+      <c r="G1010">
+        <v>28735308</v>
+      </c>
+      <c r="H1010">
+        <v>28735308</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1011" s="1">
+        <v>45394</v>
+      </c>
+      <c r="B1011">
+        <v>3001.93896484375</v>
+      </c>
+      <c r="C1011">
+        <v>3019.174072265625</v>
+      </c>
+      <c r="D1011">
+        <v>2975.4208984375</v>
+      </c>
+      <c r="E1011">
+        <v>2981.2060546875</v>
+      </c>
+      <c r="F1011">
+        <f t="shared" si="9"/>
+        <v>2.9812060546875001</v>
+      </c>
+      <c r="G1011">
+        <v>31618988</v>
+      </c>
+      <c r="H1011">
+        <v>31618988</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1012" s="1">
+        <v>45397</v>
+      </c>
+      <c r="B1012">
+        <v>2989.422119140625</v>
+      </c>
+      <c r="C1012">
+        <v>3049.6708984375</v>
+      </c>
+      <c r="D1012">
+        <v>2988.387939453125</v>
+      </c>
+      <c r="E1012">
+        <v>3042.98193359375</v>
+      </c>
+      <c r="F1012">
+        <f t="shared" si="9"/>
+        <v>3.04298193359375</v>
+      </c>
+      <c r="G1012">
+        <v>35538468</v>
+      </c>
+      <c r="H1012">
+        <v>35538468</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1013" s="1">
+        <v>45398</v>
+      </c>
+      <c r="B1013">
+        <v>3027.22705078125</v>
+      </c>
+      <c r="C1013">
+        <v>3039.68798828125</v>
+      </c>
+      <c r="D1013">
+        <v>2993.14599609375</v>
+      </c>
+      <c r="E1013">
+        <v>2994.27001953125</v>
+      </c>
+      <c r="F1013">
+        <f t="shared" si="9"/>
+        <v>2.9942700195312502</v>
+      </c>
+      <c r="G1013">
+        <v>35899656</v>
+      </c>
+      <c r="H1013">
+        <v>35899656</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1014" s="1">
+        <v>45399</v>
+      </c>
+      <c r="B1014">
+        <v>2998.1279296875</v>
+      </c>
+      <c r="C1014">
+        <v>3055.388916015625</v>
+      </c>
+      <c r="D1014">
+        <v>2993.080078125</v>
+      </c>
+      <c r="E1014">
+        <v>3054.738037109375</v>
+      </c>
+      <c r="F1014">
+        <f t="shared" si="9"/>
+        <v>3.0547380371093751</v>
+      </c>
+      <c r="G1014">
+        <v>34686148</v>
+      </c>
+      <c r="H1014">
+        <v>34686148</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1015" s="1">
+        <v>45400</v>
+      </c>
+      <c r="B1015">
+        <v>3038.43408203125</v>
+      </c>
+      <c r="C1015">
+        <v>3080.069091796875</v>
+      </c>
+      <c r="D1015">
+        <v>3025.492919921875</v>
+      </c>
+      <c r="E1015">
+        <v>3048.69189453125</v>
+      </c>
+      <c r="F1015">
+        <f t="shared" si="9"/>
+        <v>3.0486918945312498</v>
+      </c>
+      <c r="G1015">
+        <v>35930024</v>
+      </c>
+      <c r="H1015">
+        <v>35930024</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1016" s="1">
+        <v>45401</v>
+      </c>
+      <c r="B1016">
+        <v>3024.5048828125</v>
+      </c>
+      <c r="C1016">
+        <v>3030.912109375</v>
+      </c>
+      <c r="D1016">
+        <v>2979.968017578125</v>
+      </c>
+      <c r="E1016">
+        <v>3003.77587890625</v>
+      </c>
+      <c r="F1016">
+        <f t="shared" si="9"/>
+        <v>3.0037758789062501</v>
+      </c>
+      <c r="G1016">
+        <v>32044382</v>
+      </c>
+      <c r="H1016">
+        <v>32044382</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1017" s="1">
+        <v>45404</v>
+      </c>
+      <c r="B1017">
+        <v>2986.125</v>
+      </c>
+      <c r="C1017">
+        <v>3018.947021484375</v>
+      </c>
+      <c r="D1017">
+        <v>2983.451904296875</v>
+      </c>
+      <c r="E1017">
+        <v>2992.6630859375</v>
+      </c>
+      <c r="F1017">
+        <f t="shared" si="9"/>
+        <v>2.9926630859375001</v>
+      </c>
+      <c r="G1017">
+        <v>30400366</v>
+      </c>
+      <c r="H1017">
+        <v>30400366</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1018" s="1">
+        <v>45405</v>
+      </c>
+      <c r="B1018">
+        <v>2990.62890625</v>
+      </c>
+      <c r="C1018">
+        <v>3003.423095703125</v>
+      </c>
+      <c r="D1018">
+        <v>2954.30810546875</v>
+      </c>
+      <c r="E1018">
+        <v>2970.050048828125</v>
+      </c>
+      <c r="F1018">
+        <f t="shared" si="9"/>
+        <v>2.9700500488281252</v>
+      </c>
+      <c r="G1018">
+        <v>29937188</v>
+      </c>
+      <c r="H1018">
+        <v>29937188</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1019" s="1">
+        <v>45406</v>
+      </c>
+      <c r="B1019">
+        <v>2974.194091796875</v>
+      </c>
+      <c r="C1019">
+        <v>2988.06689453125</v>
+      </c>
+      <c r="D1019">
+        <v>2952.886962890625</v>
+      </c>
+      <c r="E1019">
+        <v>2984.43798828125</v>
+      </c>
+      <c r="F1019">
+        <f t="shared" si="9"/>
+        <v>2.98443798828125</v>
+      </c>
+      <c r="G1019">
+        <v>30249306</v>
+      </c>
+      <c r="H1019">
+        <v>30249306</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1020" s="1">
+        <v>45407</v>
+      </c>
+      <c r="B1020">
+        <v>2969.64990234375</v>
+      </c>
+      <c r="C1020">
+        <v>3014.47900390625</v>
+      </c>
+      <c r="D1020">
+        <v>2966.699951171875</v>
+      </c>
+      <c r="E1020">
+        <v>2991.572021484375</v>
+      </c>
+      <c r="F1020">
+        <f t="shared" si="9"/>
+        <v>2.9915720214843748</v>
+      </c>
+      <c r="G1020">
+        <v>30166330</v>
+      </c>
+      <c r="H1020">
+        <v>30166330</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1021" s="1">
+        <v>45408</v>
+      </c>
+      <c r="B1021">
+        <v>2985.577880859375</v>
+      </c>
+      <c r="C1021">
+        <v>3058.72802734375</v>
+      </c>
+      <c r="D1021">
+        <v>2985.577880859375</v>
+      </c>
+      <c r="E1021">
+        <v>3057.217041015625</v>
+      </c>
+      <c r="F1021">
+        <f t="shared" si="9"/>
+        <v>3.0572170410156252</v>
+      </c>
+      <c r="G1021">
+        <v>40609108</v>
+      </c>
+      <c r="H1021">
+        <v>40609108</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1022" s="1">
+        <v>45411</v>
+      </c>
+      <c r="B1022">
+        <v>3070.635009765625</v>
+      </c>
+      <c r="C1022">
+        <v>3161.89599609375</v>
+      </c>
+      <c r="D1022">
+        <v>3068.739990234375</v>
+      </c>
+      <c r="E1022">
+        <v>3138.0810546875</v>
+      </c>
+      <c r="F1022">
+        <f t="shared" si="9"/>
+        <v>3.1380810546875</v>
+      </c>
+      <c r="G1022">
+        <v>46509888</v>
+      </c>
+      <c r="H1022">
+        <v>46509888</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1023" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B1023">
+        <v>3127.3291015625</v>
+      </c>
+      <c r="C1023">
+        <v>3130.923095703125</v>
+      </c>
+      <c r="D1023">
+        <v>3107.498046875</v>
+      </c>
+      <c r="E1023">
+        <v>3108.10888671875</v>
+      </c>
+      <c r="F1023">
+        <f t="shared" si="9"/>
+        <v>3.1081088867187501</v>
+      </c>
+      <c r="G1023">
+        <v>46556888</v>
+      </c>
+      <c r="H1023">
+        <v>46556888</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index.xlsx
+++ b/lai/valuationquan/szseinnovation100index.xlsx
@@ -400,10 +400,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H1023"/>
+  <dimension ref="A1:H1043"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1005" workbookViewId="0">
-      <selection activeCell="A1024" sqref="A1024"/>
+    <sheetView tabSelected="1" topLeftCell="A1025" workbookViewId="0">
+      <selection activeCell="A1044" sqref="A1044"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -26241,7 +26241,7 @@
         <v>2821.385009765625</v>
       </c>
       <c r="F958">
-        <f t="shared" ref="F958:F1023" si="9">E958/1000</f>
+        <f t="shared" ref="F958:F1043" si="9">E958/1000</f>
         <v>2.821385009765625</v>
       </c>
       <c r="G958">
@@ -28004,6 +28004,546 @@
       </c>
       <c r="H1023">
         <v>46556888</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1024" s="1">
+        <v>45418</v>
+      </c>
+      <c r="B1024">
+        <v>3167.194091796875</v>
+      </c>
+      <c r="C1024">
+        <v>3184.431884765625</v>
+      </c>
+      <c r="D1024">
+        <v>3160.10888671875</v>
+      </c>
+      <c r="E1024">
+        <v>3176.294921875</v>
+      </c>
+      <c r="F1024">
+        <f t="shared" si="9"/>
+        <v>3.1762949218749998</v>
+      </c>
+      <c r="G1024">
+        <v>48297032</v>
+      </c>
+      <c r="H1024">
+        <v>48297032</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1025" s="1">
+        <v>45419</v>
+      </c>
+      <c r="B1025">
+        <v>3173.465087890625</v>
+      </c>
+      <c r="C1025">
+        <v>3186.239990234375</v>
+      </c>
+      <c r="D1025">
+        <v>3162.325927734375</v>
+      </c>
+      <c r="E1025">
+        <v>3170.93408203125</v>
+      </c>
+      <c r="F1025">
+        <f t="shared" si="9"/>
+        <v>3.1709340820312502</v>
+      </c>
+      <c r="G1025">
+        <v>34898164</v>
+      </c>
+      <c r="H1025">
+        <v>34898164</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1026" s="1">
+        <v>45420</v>
+      </c>
+      <c r="B1026">
+        <v>3161.824951171875</v>
+      </c>
+      <c r="C1026">
+        <v>3161.824951171875</v>
+      </c>
+      <c r="D1026">
+        <v>3119.873046875</v>
+      </c>
+      <c r="E1026">
+        <v>3121.277099609375</v>
+      </c>
+      <c r="F1026">
+        <f t="shared" si="9"/>
+        <v>3.121277099609375</v>
+      </c>
+      <c r="G1026">
+        <v>30946046</v>
+      </c>
+      <c r="H1026">
+        <v>30946046</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1027" s="1">
+        <v>45421</v>
+      </c>
+      <c r="B1027">
+        <v>3129.72412109375</v>
+      </c>
+      <c r="C1027">
+        <v>3178.1259765625</v>
+      </c>
+      <c r="D1027">
+        <v>3129.72412109375</v>
+      </c>
+      <c r="E1027">
+        <v>3171.113037109375</v>
+      </c>
+      <c r="F1027">
+        <f t="shared" si="9"/>
+        <v>3.1711130371093752</v>
+      </c>
+      <c r="G1027">
+        <v>34171212</v>
+      </c>
+      <c r="H1027">
+        <v>34171212</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1028" s="1">
+        <v>45422</v>
+      </c>
+      <c r="B1028">
+        <v>3169.076904296875</v>
+      </c>
+      <c r="C1028">
+        <v>3170.2919921875</v>
+      </c>
+      <c r="D1028">
+        <v>3126.2529296875</v>
+      </c>
+      <c r="E1028">
+        <v>3140.196044921875</v>
+      </c>
+      <c r="F1028">
+        <f t="shared" si="9"/>
+        <v>3.1401960449218751</v>
+      </c>
+      <c r="G1028">
+        <v>29563226</v>
+      </c>
+      <c r="H1028">
+        <v>29563226</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1029" s="1">
+        <v>45425</v>
+      </c>
+      <c r="B1029">
+        <v>3112.81591796875</v>
+      </c>
+      <c r="C1029">
+        <v>3144.841064453125</v>
+      </c>
+      <c r="D1029">
+        <v>3096.02490234375</v>
+      </c>
+      <c r="E1029">
+        <v>3127.032958984375</v>
+      </c>
+      <c r="F1029">
+        <f t="shared" si="9"/>
+        <v>3.1270329589843748</v>
+      </c>
+      <c r="G1029">
+        <v>28839372</v>
+      </c>
+      <c r="H1029">
+        <v>28839372</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1030" s="1">
+        <v>45426</v>
+      </c>
+      <c r="B1030">
+        <v>3136.216064453125</v>
+      </c>
+      <c r="C1030">
+        <v>3148.363037109375</v>
+      </c>
+      <c r="D1030">
+        <v>3108.527099609375</v>
+      </c>
+      <c r="E1030">
+        <v>3117.27197265625</v>
+      </c>
+      <c r="F1030">
+        <f t="shared" si="9"/>
+        <v>3.1172719726562499</v>
+      </c>
+      <c r="G1030">
+        <v>26979110</v>
+      </c>
+      <c r="H1030">
+        <v>26979110</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1031" s="1">
+        <v>45427</v>
+      </c>
+      <c r="B1031">
+        <v>3106.742919921875</v>
+      </c>
+      <c r="C1031">
+        <v>3117.01611328125</v>
+      </c>
+      <c r="D1031">
+        <v>3090.260009765625</v>
+      </c>
+      <c r="E1031">
+        <v>3091.947998046875</v>
+      </c>
+      <c r="F1031">
+        <f t="shared" si="9"/>
+        <v>3.0919479980468751</v>
+      </c>
+      <c r="G1031">
+        <v>22870682</v>
+      </c>
+      <c r="H1031">
+        <v>22870682</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1032" s="1">
+        <v>45428</v>
+      </c>
+      <c r="B1032">
+        <v>3102.798095703125</v>
+      </c>
+      <c r="C1032">
+        <v>3118.5048828125</v>
+      </c>
+      <c r="D1032">
+        <v>3086.117919921875</v>
+      </c>
+      <c r="E1032">
+        <v>3099.14404296875</v>
+      </c>
+      <c r="F1032">
+        <f t="shared" si="9"/>
+        <v>3.0991440429687498</v>
+      </c>
+      <c r="G1032">
+        <v>30650178</v>
+      </c>
+      <c r="H1032">
+        <v>30650178</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1033" s="1">
+        <v>45429</v>
+      </c>
+      <c r="B1033">
+        <v>3092.864013671875</v>
+      </c>
+      <c r="C1033">
+        <v>3118.011962890625</v>
+      </c>
+      <c r="D1033">
+        <v>3076.510009765625</v>
+      </c>
+      <c r="E1033">
+        <v>3117.587890625</v>
+      </c>
+      <c r="F1033">
+        <f t="shared" si="9"/>
+        <v>3.1175878906249999</v>
+      </c>
+      <c r="G1033">
+        <v>33374370</v>
+      </c>
+      <c r="H1033">
+        <v>33374370</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1034" s="1">
+        <v>45432</v>
+      </c>
+      <c r="B1034">
+        <v>3117.73193359375</v>
+      </c>
+      <c r="C1034">
+        <v>3129.782958984375</v>
+      </c>
+      <c r="D1034">
+        <v>3103.1630859375</v>
+      </c>
+      <c r="E1034">
+        <v>3118.263916015625</v>
+      </c>
+      <c r="F1034">
+        <f t="shared" si="9"/>
+        <v>3.1182639160156249</v>
+      </c>
+      <c r="G1034">
+        <v>34049800</v>
+      </c>
+      <c r="H1034">
+        <v>34049800</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1035" s="1">
+        <v>45433</v>
+      </c>
+      <c r="B1035">
+        <v>3108.320068359375</v>
+      </c>
+      <c r="C1035">
+        <v>3112.251953125</v>
+      </c>
+      <c r="D1035">
+        <v>3088.501953125</v>
+      </c>
+      <c r="E1035">
+        <v>3098.544921875</v>
+      </c>
+      <c r="F1035">
+        <f t="shared" si="9"/>
+        <v>3.0985449218749999</v>
+      </c>
+      <c r="G1035">
+        <v>26604670</v>
+      </c>
+      <c r="H1035">
+        <v>26604670</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1036" s="1">
+        <v>45434</v>
+      </c>
+      <c r="B1036">
+        <v>3096.26611328125</v>
+      </c>
+      <c r="C1036">
+        <v>3121.756103515625</v>
+      </c>
+      <c r="D1036">
+        <v>3086.009033203125</v>
+      </c>
+      <c r="E1036">
+        <v>3114.431884765625</v>
+      </c>
+      <c r="F1036">
+        <f t="shared" si="9"/>
+        <v>3.1144318847656249</v>
+      </c>
+      <c r="G1036">
+        <v>31052990</v>
+      </c>
+      <c r="H1036">
+        <v>31052990</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1037" s="1">
+        <v>45435</v>
+      </c>
+      <c r="B1037">
+        <v>3110.635009765625</v>
+      </c>
+      <c r="C1037">
+        <v>3114.554931640625</v>
+      </c>
+      <c r="D1037">
+        <v>3072.43994140625</v>
+      </c>
+      <c r="E1037">
+        <v>3080.23388671875</v>
+      </c>
+      <c r="F1037">
+        <f t="shared" si="9"/>
+        <v>3.0802338867187502</v>
+      </c>
+      <c r="G1037">
+        <v>32074744</v>
+      </c>
+      <c r="H1037">
+        <v>32074744</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1038" s="1">
+        <v>45436</v>
+      </c>
+      <c r="B1038">
+        <v>3067.178955078125</v>
+      </c>
+      <c r="C1038">
+        <v>3089.93603515625</v>
+      </c>
+      <c r="D1038">
+        <v>3033.19189453125</v>
+      </c>
+      <c r="E1038">
+        <v>3034.8310546875</v>
+      </c>
+      <c r="F1038">
+        <f t="shared" si="9"/>
+        <v>3.0348310546874999</v>
+      </c>
+      <c r="G1038">
+        <v>26029080</v>
+      </c>
+      <c r="H1038">
+        <v>26029080</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1039" s="1">
+        <v>45439</v>
+      </c>
+      <c r="B1039">
+        <v>3041.199951171875</v>
+      </c>
+      <c r="C1039">
+        <v>3060.958984375</v>
+      </c>
+      <c r="D1039">
+        <v>3022.219970703125</v>
+      </c>
+      <c r="E1039">
+        <v>3058.93603515625</v>
+      </c>
+      <c r="F1039">
+        <f t="shared" si="9"/>
+        <v>3.05893603515625</v>
+      </c>
+      <c r="G1039">
+        <v>25589518</v>
+      </c>
+      <c r="H1039">
+        <v>25589518</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1040" s="1">
+        <v>45440</v>
+      </c>
+      <c r="B1040">
+        <v>3051.930908203125</v>
+      </c>
+      <c r="C1040">
+        <v>3051.930908203125</v>
+      </c>
+      <c r="D1040">
+        <v>3016.1201171875</v>
+      </c>
+      <c r="E1040">
+        <v>3017.59912109375</v>
+      </c>
+      <c r="F1040">
+        <f t="shared" si="9"/>
+        <v>3.0175991210937498</v>
+      </c>
+      <c r="G1040">
+        <v>27128080</v>
+      </c>
+      <c r="H1040">
+        <v>27128080</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1041" s="1">
+        <v>45441</v>
+      </c>
+      <c r="B1041">
+        <v>3020.93701171875</v>
+      </c>
+      <c r="C1041">
+        <v>3046.176025390625</v>
+      </c>
+      <c r="D1041">
+        <v>3017.922119140625</v>
+      </c>
+      <c r="E1041">
+        <v>3027.883056640625</v>
+      </c>
+      <c r="F1041">
+        <f t="shared" si="9"/>
+        <v>3.0278830566406252</v>
+      </c>
+      <c r="G1041">
+        <v>26845770</v>
+      </c>
+      <c r="H1041">
+        <v>26845770</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1042" s="1">
+        <v>45442</v>
+      </c>
+      <c r="B1042">
+        <v>3024.2470703125</v>
+      </c>
+      <c r="C1042">
+        <v>3042.85302734375</v>
+      </c>
+      <c r="D1042">
+        <v>3017.674072265625</v>
+      </c>
+      <c r="E1042">
+        <v>3030.72900390625</v>
+      </c>
+      <c r="F1042">
+        <f t="shared" si="9"/>
+        <v>3.03072900390625</v>
+      </c>
+      <c r="G1042">
+        <v>26869846</v>
+      </c>
+      <c r="H1042">
+        <v>26869846</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1043" s="1">
+        <v>45443</v>
+      </c>
+      <c r="B1043">
+        <v>3031.093994140625</v>
+      </c>
+      <c r="C1043">
+        <v>3056.1259765625</v>
+      </c>
+      <c r="D1043">
+        <v>3017.85498046875</v>
+      </c>
+      <c r="E1043">
+        <v>3017.85498046875</v>
+      </c>
+      <c r="F1043">
+        <f t="shared" si="9"/>
+        <v>3.01785498046875</v>
+      </c>
+      <c r="G1043">
+        <v>27136198</v>
+      </c>
+      <c r="H1043">
+        <v>27136198</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index.xlsx
+++ b/lai/valuationquan/szseinnovation100index.xlsx
@@ -400,10 +400,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H1043"/>
+  <dimension ref="A1:H1062"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1025" workbookViewId="0">
-      <selection activeCell="A1044" sqref="A1044"/>
+    <sheetView tabSelected="1" topLeftCell="A1045" workbookViewId="0">
+      <selection activeCell="A1063" sqref="A1063"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -26241,7 +26241,7 @@
         <v>2821.385009765625</v>
       </c>
       <c r="F958">
-        <f t="shared" ref="F958:F1043" si="9">E958/1000</f>
+        <f t="shared" ref="F958:F1062" si="9">E958/1000</f>
         <v>2.821385009765625</v>
       </c>
       <c r="G958">
@@ -28544,6 +28544,519 @@
       </c>
       <c r="H1043">
         <v>27136198</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1044" s="1">
+        <v>45446</v>
+      </c>
+      <c r="B1044">
+        <v>3018.22802734375</v>
+      </c>
+      <c r="C1044">
+        <v>3056.2060546875</v>
+      </c>
+      <c r="D1044">
+        <v>3004.291015625</v>
+      </c>
+      <c r="E1044">
+        <v>3043.715087890625</v>
+      </c>
+      <c r="F1044">
+        <f t="shared" si="9"/>
+        <v>3.0437150878906252</v>
+      </c>
+      <c r="G1044">
+        <v>28835084</v>
+      </c>
+      <c r="H1044">
+        <v>28835084</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1045" s="1">
+        <v>45447</v>
+      </c>
+      <c r="B1045">
+        <v>3038.02197265625</v>
+      </c>
+      <c r="C1045">
+        <v>3081.85400390625</v>
+      </c>
+      <c r="D1045">
+        <v>3030.14794921875</v>
+      </c>
+      <c r="E1045">
+        <v>3074.60107421875</v>
+      </c>
+      <c r="F1045">
+        <f t="shared" si="9"/>
+        <v>3.0746010742187502</v>
+      </c>
+      <c r="G1045">
+        <v>26185128</v>
+      </c>
+      <c r="H1045">
+        <v>26185128</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1046" s="1">
+        <v>45448</v>
+      </c>
+      <c r="B1046">
+        <v>3072.60595703125</v>
+      </c>
+      <c r="C1046">
+        <v>3102.993896484375</v>
+      </c>
+      <c r="D1046">
+        <v>3064.10400390625</v>
+      </c>
+      <c r="E1046">
+        <v>3064.10400390625</v>
+      </c>
+      <c r="F1046">
+        <f t="shared" si="9"/>
+        <v>3.0641040039062499</v>
+      </c>
+      <c r="G1046">
+        <v>24891672</v>
+      </c>
+      <c r="H1046">
+        <v>24891672</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1047" s="1">
+        <v>45449</v>
+      </c>
+      <c r="B1047">
+        <v>3071.048095703125</v>
+      </c>
+      <c r="C1047">
+        <v>3096.698974609375</v>
+      </c>
+      <c r="D1047">
+        <v>3053.2060546875</v>
+      </c>
+      <c r="E1047">
+        <v>3060.89306640625</v>
+      </c>
+      <c r="F1047">
+        <f t="shared" si="9"/>
+        <v>3.0608930664062499</v>
+      </c>
+      <c r="G1047">
+        <v>30263930</v>
+      </c>
+      <c r="H1047">
+        <v>30263930</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1048" s="1">
+        <v>45450</v>
+      </c>
+      <c r="B1048">
+        <v>3050.8740234375</v>
+      </c>
+      <c r="C1048">
+        <v>3058.7548828125</v>
+      </c>
+      <c r="D1048">
+        <v>2984.530029296875</v>
+      </c>
+      <c r="E1048">
+        <v>3012.031005859375</v>
+      </c>
+      <c r="F1048">
+        <f t="shared" si="9"/>
+        <v>3.0120310058593751</v>
+      </c>
+      <c r="G1048">
+        <v>26397790</v>
+      </c>
+      <c r="H1048">
+        <v>26397790</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1049" s="1">
+        <v>45454</v>
+      </c>
+      <c r="B1049">
+        <v>2988.68896484375</v>
+      </c>
+      <c r="C1049">
+        <v>3024.056884765625</v>
+      </c>
+      <c r="D1049">
+        <v>2985.837890625</v>
+      </c>
+      <c r="E1049">
+        <v>3017.672119140625</v>
+      </c>
+      <c r="F1049">
+        <f t="shared" si="9"/>
+        <v>3.0176721191406251</v>
+      </c>
+      <c r="G1049">
+        <v>23753520</v>
+      </c>
+      <c r="H1049">
+        <v>23753520</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1050" s="1">
+        <v>45455</v>
+      </c>
+      <c r="B1050">
+        <v>3014.5048828125</v>
+      </c>
+      <c r="C1050">
+        <v>3032.9541015625</v>
+      </c>
+      <c r="D1050">
+        <v>3014.034912109375</v>
+      </c>
+      <c r="E1050">
+        <v>3017.090087890625</v>
+      </c>
+      <c r="F1050">
+        <f t="shared" si="9"/>
+        <v>3.017090087890625</v>
+      </c>
+      <c r="G1050">
+        <v>25297794</v>
+      </c>
+      <c r="H1050">
+        <v>25297794</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1051" s="1">
+        <v>45456</v>
+      </c>
+      <c r="B1051">
+        <v>3026.85400390625</v>
+      </c>
+      <c r="C1051">
+        <v>3043.281982421875</v>
+      </c>
+      <c r="D1051">
+        <v>3004.9560546875</v>
+      </c>
+      <c r="E1051">
+        <v>3007.8349609375</v>
+      </c>
+      <c r="F1051">
+        <f t="shared" si="9"/>
+        <v>3.0078349609375001</v>
+      </c>
+      <c r="G1051">
+        <v>30231228</v>
+      </c>
+      <c r="H1051">
+        <v>30231228</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1052" s="1">
+        <v>45457</v>
+      </c>
+      <c r="B1052">
+        <v>2997.638916015625</v>
+      </c>
+      <c r="C1052">
+        <v>3029.623046875</v>
+      </c>
+      <c r="D1052">
+        <v>2980.593994140625</v>
+      </c>
+      <c r="E1052">
+        <v>3027.177978515625</v>
+      </c>
+      <c r="F1052">
+        <f t="shared" si="9"/>
+        <v>3.027177978515625</v>
+      </c>
+      <c r="G1052">
+        <v>33248714</v>
+      </c>
+      <c r="H1052">
+        <v>33248714</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1053" s="1">
+        <v>45460</v>
+      </c>
+      <c r="B1053">
+        <v>3014.007080078125</v>
+      </c>
+      <c r="C1053">
+        <v>3061.299072265625</v>
+      </c>
+      <c r="D1053">
+        <v>3013.22998046875</v>
+      </c>
+      <c r="E1053">
+        <v>3052.7470703125</v>
+      </c>
+      <c r="F1053">
+        <f t="shared" si="9"/>
+        <v>3.0527470703124999</v>
+      </c>
+      <c r="G1053">
+        <v>35341716</v>
+      </c>
+      <c r="H1053">
+        <v>35341716</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1054" s="1">
+        <v>45461</v>
+      </c>
+      <c r="B1054">
+        <v>3051.180908203125</v>
+      </c>
+      <c r="C1054">
+        <v>3072.570068359375</v>
+      </c>
+      <c r="D1054">
+        <v>3047.876953125</v>
+      </c>
+      <c r="E1054">
+        <v>3069.998046875</v>
+      </c>
+      <c r="F1054">
+        <f t="shared" si="9"/>
+        <v>3.0699980468749999</v>
+      </c>
+      <c r="G1054">
+        <v>33548254</v>
+      </c>
+      <c r="H1054">
+        <v>33548254</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1055" s="1">
+        <v>45462</v>
+      </c>
+      <c r="B1055">
+        <v>3072.239013671875</v>
+      </c>
+      <c r="C1055">
+        <v>3072.6279296875</v>
+      </c>
+      <c r="D1055">
+        <v>3033.322021484375</v>
+      </c>
+      <c r="E1055">
+        <v>3035.952880859375</v>
+      </c>
+      <c r="F1055">
+        <f t="shared" si="9"/>
+        <v>3.0359528808593752</v>
+      </c>
+      <c r="G1055">
+        <v>25641334</v>
+      </c>
+      <c r="H1055">
+        <v>25641334</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1056" s="1">
+        <v>45463</v>
+      </c>
+      <c r="B1056">
+        <v>3030.7529296875</v>
+      </c>
+      <c r="C1056">
+        <v>3039.8369140625</v>
+      </c>
+      <c r="D1056">
+        <v>2991.76708984375</v>
+      </c>
+      <c r="E1056">
+        <v>2993.31689453125</v>
+      </c>
+      <c r="F1056">
+        <f t="shared" si="9"/>
+        <v>2.99331689453125</v>
+      </c>
+      <c r="G1056">
+        <v>28673960</v>
+      </c>
+      <c r="H1056">
+        <v>28673960</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1057" s="1">
+        <v>45464</v>
+      </c>
+      <c r="B1057">
+        <v>2982.24609375</v>
+      </c>
+      <c r="C1057">
+        <v>2997.6640625</v>
+      </c>
+      <c r="D1057">
+        <v>2963.472900390625</v>
+      </c>
+      <c r="E1057">
+        <v>2989.323974609375</v>
+      </c>
+      <c r="F1057">
+        <f t="shared" si="9"/>
+        <v>2.9893239746093752</v>
+      </c>
+      <c r="G1057">
+        <v>25112114</v>
+      </c>
+      <c r="H1057">
+        <v>25112114</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1058" s="1">
+        <v>45467</v>
+      </c>
+      <c r="B1058">
+        <v>2974.841064453125</v>
+      </c>
+      <c r="C1058">
+        <v>2992.0048828125</v>
+      </c>
+      <c r="D1058">
+        <v>2956.242919921875</v>
+      </c>
+      <c r="E1058">
+        <v>2959.037109375</v>
+      </c>
+      <c r="F1058">
+        <f t="shared" si="9"/>
+        <v>2.9590371093750001</v>
+      </c>
+      <c r="G1058">
+        <v>27745664</v>
+      </c>
+      <c r="H1058">
+        <v>27745664</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1059" s="1">
+        <v>45468</v>
+      </c>
+      <c r="B1059">
+        <v>2954.488037109375</v>
+      </c>
+      <c r="C1059">
+        <v>2964.66796875</v>
+      </c>
+      <c r="D1059">
+        <v>2914.875</v>
+      </c>
+      <c r="E1059">
+        <v>2932.240966796875</v>
+      </c>
+      <c r="F1059">
+        <f t="shared" si="9"/>
+        <v>2.9322409667968752</v>
+      </c>
+      <c r="G1059">
+        <v>27794784</v>
+      </c>
+      <c r="H1059">
+        <v>27794784</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1060" s="1">
+        <v>45469</v>
+      </c>
+      <c r="B1060">
+        <v>2930.73388671875</v>
+      </c>
+      <c r="C1060">
+        <v>2977.778076171875</v>
+      </c>
+      <c r="D1060">
+        <v>2919.823974609375</v>
+      </c>
+      <c r="E1060">
+        <v>2971.052001953125</v>
+      </c>
+      <c r="F1060">
+        <f t="shared" si="9"/>
+        <v>2.971052001953125</v>
+      </c>
+      <c r="G1060">
+        <v>27909726</v>
+      </c>
+      <c r="H1060">
+        <v>27909726</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1061" s="1">
+        <v>45470</v>
+      </c>
+      <c r="B1061">
+        <v>2957.27099609375</v>
+      </c>
+      <c r="C1061">
+        <v>2960.028076171875</v>
+      </c>
+      <c r="D1061">
+        <v>2934.7099609375</v>
+      </c>
+      <c r="E1061">
+        <v>2936.989013671875</v>
+      </c>
+      <c r="F1061">
+        <f t="shared" si="9"/>
+        <v>2.9369890136718748</v>
+      </c>
+      <c r="G1061">
+        <v>29672828</v>
+      </c>
+      <c r="H1061">
+        <v>29672828</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1062" s="1">
+        <v>45471</v>
+      </c>
+      <c r="B1062">
+        <v>2921.763916015625</v>
+      </c>
+      <c r="C1062">
+        <v>2971.243896484375</v>
+      </c>
+      <c r="D1062">
+        <v>2921.763916015625</v>
+      </c>
+      <c r="E1062">
+        <v>2937.010986328125</v>
+      </c>
+      <c r="F1062">
+        <f t="shared" si="9"/>
+        <v>2.9370109863281249</v>
+      </c>
+      <c r="G1062">
+        <v>32663308</v>
+      </c>
+      <c r="H1062">
+        <v>32663308</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index.xlsx
+++ b/lai/valuationquan/szseinnovation100index.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="420" windowWidth="20235" windowHeight="8220"/>
+    <workbookView xWindow="840" yWindow="420" windowWidth="15600" windowHeight="8220"/>
   </bookViews>
   <sheets>
     <sheet name="szse_innovation_100" sheetId="1" r:id="rId1"/>
@@ -400,10 +400,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H1062"/>
+  <dimension ref="A1:H1085"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1045" workbookViewId="0">
-      <selection activeCell="A1063" sqref="A1063"/>
+    <sheetView tabSelected="1" topLeftCell="A1064" workbookViewId="0">
+      <selection activeCell="A1086" sqref="A1086"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -26241,7 +26241,7 @@
         <v>2821.385009765625</v>
       </c>
       <c r="F958">
-        <f t="shared" ref="F958:F1062" si="9">E958/1000</f>
+        <f t="shared" ref="F958:F1085" si="9">E958/1000</f>
         <v>2.821385009765625</v>
       </c>
       <c r="G958">
@@ -29057,6 +29057,627 @@
       </c>
       <c r="H1062">
         <v>32663308</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1063" s="1">
+        <v>45474</v>
+      </c>
+      <c r="B1063">
+        <v>2930.62890625</v>
+      </c>
+      <c r="C1063">
+        <v>2935.007080078125</v>
+      </c>
+      <c r="D1063">
+        <v>2889.5830078125</v>
+      </c>
+      <c r="E1063">
+        <v>2930.0849609375</v>
+      </c>
+      <c r="F1063">
+        <f t="shared" si="9"/>
+        <v>2.9300849609375001</v>
+      </c>
+      <c r="G1063">
+        <v>28715068</v>
+      </c>
+      <c r="H1063">
+        <v>28715068</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1064" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B1064">
+        <v>2924.992919921875</v>
+      </c>
+      <c r="C1064">
+        <v>2930.541015625</v>
+      </c>
+      <c r="D1064">
+        <v>2887.537109375</v>
+      </c>
+      <c r="E1064">
+        <v>2895.013916015625</v>
+      </c>
+      <c r="F1064">
+        <f t="shared" si="9"/>
+        <v>2.8950139160156252</v>
+      </c>
+      <c r="G1064">
+        <v>28024496</v>
+      </c>
+      <c r="H1064">
+        <v>28024496</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1065" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B1065">
+        <v>2896.447998046875</v>
+      </c>
+      <c r="C1065">
+        <v>2906.90087890625</v>
+      </c>
+      <c r="D1065">
+        <v>2872.080078125</v>
+      </c>
+      <c r="E1065">
+        <v>2885.1650390625</v>
+      </c>
+      <c r="F1065">
+        <f t="shared" si="9"/>
+        <v>2.8851650390625001</v>
+      </c>
+      <c r="G1065">
+        <v>24466582</v>
+      </c>
+      <c r="H1065">
+        <v>24466582</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1066" s="1">
+        <v>45477</v>
+      </c>
+      <c r="B1066">
+        <v>2892.243896484375</v>
+      </c>
+      <c r="C1066">
+        <v>2916.1708984375</v>
+      </c>
+      <c r="D1066">
+        <v>2872.384033203125</v>
+      </c>
+      <c r="E1066">
+        <v>2872.68798828125</v>
+      </c>
+      <c r="F1066">
+        <f t="shared" si="9"/>
+        <v>2.8726879882812502</v>
+      </c>
+      <c r="G1066">
+        <v>24822394</v>
+      </c>
+      <c r="H1066">
+        <v>24822394</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1067" s="1">
+        <v>45478</v>
+      </c>
+      <c r="B1067">
+        <v>2871.64599609375</v>
+      </c>
+      <c r="C1067">
+        <v>2880.2900390625</v>
+      </c>
+      <c r="D1067">
+        <v>2832.2529296875</v>
+      </c>
+      <c r="E1067">
+        <v>2871.156982421875</v>
+      </c>
+      <c r="F1067">
+        <f t="shared" si="9"/>
+        <v>2.871156982421875</v>
+      </c>
+      <c r="G1067">
+        <v>27321028</v>
+      </c>
+      <c r="H1067">
+        <v>27321028</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1068" s="1">
+        <v>45481</v>
+      </c>
+      <c r="B1068">
+        <v>2863.947021484375</v>
+      </c>
+      <c r="C1068">
+        <v>2868.049072265625</v>
+      </c>
+      <c r="D1068">
+        <v>2832.672119140625</v>
+      </c>
+      <c r="E1068">
+        <v>2839.866943359375</v>
+      </c>
+      <c r="F1068">
+        <f t="shared" si="9"/>
+        <v>2.8398669433593748</v>
+      </c>
+      <c r="G1068">
+        <v>27772240</v>
+      </c>
+      <c r="H1068">
+        <v>27772240</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1069" s="1">
+        <v>45482</v>
+      </c>
+      <c r="B1069">
+        <v>2835.056884765625</v>
+      </c>
+      <c r="C1069">
+        <v>2903.197998046875</v>
+      </c>
+      <c r="D1069">
+        <v>2830.73095703125</v>
+      </c>
+      <c r="E1069">
+        <v>2893.847900390625</v>
+      </c>
+      <c r="F1069">
+        <f t="shared" si="9"/>
+        <v>2.8938479003906248</v>
+      </c>
+      <c r="G1069">
+        <v>36250436</v>
+      </c>
+      <c r="H1069">
+        <v>36250436</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1070" s="1">
+        <v>45483</v>
+      </c>
+      <c r="B1070">
+        <v>2887.2041015625</v>
+      </c>
+      <c r="C1070">
+        <v>2916.324951171875</v>
+      </c>
+      <c r="D1070">
+        <v>2885.340087890625</v>
+      </c>
+      <c r="E1070">
+        <v>2895.010986328125</v>
+      </c>
+      <c r="F1070">
+        <f t="shared" si="9"/>
+        <v>2.895010986328125</v>
+      </c>
+      <c r="G1070">
+        <v>31542386</v>
+      </c>
+      <c r="H1070">
+        <v>31542386</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1071" s="1">
+        <v>45484</v>
+      </c>
+      <c r="B1071">
+        <v>2927.294921875</v>
+      </c>
+      <c r="C1071">
+        <v>2955.9580078125</v>
+      </c>
+      <c r="D1071">
+        <v>2908.662109375</v>
+      </c>
+      <c r="E1071">
+        <v>2944.01708984375</v>
+      </c>
+      <c r="F1071">
+        <f t="shared" si="9"/>
+        <v>2.9440170898437499</v>
+      </c>
+      <c r="G1071">
+        <v>44576456</v>
+      </c>
+      <c r="H1071">
+        <v>44576456</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1072" s="1">
+        <v>45485</v>
+      </c>
+      <c r="B1072">
+        <v>2930.81494140625</v>
+      </c>
+      <c r="C1072">
+        <v>2961.447998046875</v>
+      </c>
+      <c r="D1072">
+        <v>2921.6630859375</v>
+      </c>
+      <c r="E1072">
+        <v>2949.657958984375</v>
+      </c>
+      <c r="F1072">
+        <f t="shared" si="9"/>
+        <v>2.9496579589843752</v>
+      </c>
+      <c r="G1072">
+        <v>31870230</v>
+      </c>
+      <c r="H1072">
+        <v>31870230</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1073" s="1">
+        <v>45488</v>
+      </c>
+      <c r="B1073">
+        <v>2939.2080078125</v>
+      </c>
+      <c r="C1073">
+        <v>2943.74609375</v>
+      </c>
+      <c r="D1073">
+        <v>2922.346923828125</v>
+      </c>
+      <c r="E1073">
+        <v>2929.291015625</v>
+      </c>
+      <c r="F1073">
+        <f t="shared" si="9"/>
+        <v>2.929291015625</v>
+      </c>
+      <c r="G1073">
+        <v>34460448</v>
+      </c>
+      <c r="H1073">
+        <v>34460448</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1074" s="1">
+        <v>45489</v>
+      </c>
+      <c r="B1074">
+        <v>2924.041015625</v>
+      </c>
+      <c r="C1074">
+        <v>2969.137939453125</v>
+      </c>
+      <c r="D1074">
+        <v>2921.93603515625</v>
+      </c>
+      <c r="E1074">
+        <v>2967.697998046875</v>
+      </c>
+      <c r="F1074">
+        <f t="shared" si="9"/>
+        <v>2.9676979980468752</v>
+      </c>
+      <c r="G1074">
+        <v>39397980</v>
+      </c>
+      <c r="H1074">
+        <v>39397980</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1075" s="1">
+        <v>45490</v>
+      </c>
+      <c r="B1075">
+        <v>2960.7890625</v>
+      </c>
+      <c r="C1075">
+        <v>2972.111083984375</v>
+      </c>
+      <c r="D1075">
+        <v>2941.509033203125</v>
+      </c>
+      <c r="E1075">
+        <v>2955.529052734375</v>
+      </c>
+      <c r="F1075">
+        <f t="shared" si="9"/>
+        <v>2.9555290527343749</v>
+      </c>
+      <c r="G1075">
+        <v>35382996</v>
+      </c>
+      <c r="H1075">
+        <v>35382996</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1076" s="1">
+        <v>45491</v>
+      </c>
+      <c r="B1076">
+        <v>2926.531982421875</v>
+      </c>
+      <c r="C1076">
+        <v>2979.866943359375</v>
+      </c>
+      <c r="D1076">
+        <v>2924.6689453125</v>
+      </c>
+      <c r="E1076">
+        <v>2978.8291015625</v>
+      </c>
+      <c r="F1076">
+        <f t="shared" si="9"/>
+        <v>2.9788291015624999</v>
+      </c>
+      <c r="G1076">
+        <v>34028436</v>
+      </c>
+      <c r="H1076">
+        <v>34028436</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1077" s="1">
+        <v>45492</v>
+      </c>
+      <c r="B1077">
+        <v>2960.64599609375</v>
+      </c>
+      <c r="C1077">
+        <v>3000.529052734375</v>
+      </c>
+      <c r="D1077">
+        <v>2959.422119140625</v>
+      </c>
+      <c r="E1077">
+        <v>2988.573974609375</v>
+      </c>
+      <c r="F1077">
+        <f t="shared" si="9"/>
+        <v>2.9885739746093751</v>
+      </c>
+      <c r="G1077">
+        <v>31850890</v>
+      </c>
+      <c r="H1077">
+        <v>31850890</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1078" s="1">
+        <v>45495</v>
+      </c>
+      <c r="B1078">
+        <v>2990.76708984375</v>
+      </c>
+      <c r="C1078">
+        <v>3000.65087890625</v>
+      </c>
+      <c r="D1078">
+        <v>2967.1708984375</v>
+      </c>
+      <c r="E1078">
+        <v>2982.412109375</v>
+      </c>
+      <c r="F1078">
+        <f t="shared" si="9"/>
+        <v>2.9824121093749998</v>
+      </c>
+      <c r="G1078">
+        <v>30184390</v>
+      </c>
+      <c r="H1078">
+        <v>30184390</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1079" s="1">
+        <v>45496</v>
+      </c>
+      <c r="B1079">
+        <v>2979.830078125</v>
+      </c>
+      <c r="C1079">
+        <v>2979.830078125</v>
+      </c>
+      <c r="D1079">
+        <v>2893.528076171875</v>
+      </c>
+      <c r="E1079">
+        <v>2893.528076171875</v>
+      </c>
+      <c r="F1079">
+        <f t="shared" si="9"/>
+        <v>2.8935280761718749</v>
+      </c>
+      <c r="G1079">
+        <v>29702040</v>
+      </c>
+      <c r="H1079">
+        <v>29702040</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1080" s="1">
+        <v>45497</v>
+      </c>
+      <c r="B1080">
+        <v>2885.43603515625</v>
+      </c>
+      <c r="C1080">
+        <v>2905.611083984375</v>
+      </c>
+      <c r="D1080">
+        <v>2841.180908203125</v>
+      </c>
+      <c r="E1080">
+        <v>2851.114013671875</v>
+      </c>
+      <c r="F1080">
+        <f t="shared" si="9"/>
+        <v>2.8511140136718751</v>
+      </c>
+      <c r="G1080">
+        <v>29830030</v>
+      </c>
+      <c r="H1080">
+        <v>29830030</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1081" s="1">
+        <v>45498</v>
+      </c>
+      <c r="B1081">
+        <v>2834.637939453125</v>
+      </c>
+      <c r="C1081">
+        <v>2859.011962890625</v>
+      </c>
+      <c r="D1081">
+        <v>2827.14794921875</v>
+      </c>
+      <c r="E1081">
+        <v>2844.363037109375</v>
+      </c>
+      <c r="F1081">
+        <f t="shared" si="9"/>
+        <v>2.8443630371093751</v>
+      </c>
+      <c r="G1081">
+        <v>27909604</v>
+      </c>
+      <c r="H1081">
+        <v>27909604</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1082" s="1">
+        <v>45499</v>
+      </c>
+      <c r="B1082">
+        <v>2867.221923828125</v>
+      </c>
+      <c r="C1082">
+        <v>2899.656982421875</v>
+      </c>
+      <c r="D1082">
+        <v>2863.861083984375</v>
+      </c>
+      <c r="E1082">
+        <v>2895.166015625</v>
+      </c>
+      <c r="F1082">
+        <f t="shared" si="9"/>
+        <v>2.8951660156250001</v>
+      </c>
+      <c r="G1082">
+        <v>29842848</v>
+      </c>
+      <c r="H1082">
+        <v>29842848</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1083" s="1">
+        <v>45502</v>
+      </c>
+      <c r="B1083">
+        <v>2889.095947265625</v>
+      </c>
+      <c r="C1083">
+        <v>2889.095947265625</v>
+      </c>
+      <c r="D1083">
+        <v>2858.155029296875</v>
+      </c>
+      <c r="E1083">
+        <v>2860.531005859375</v>
+      </c>
+      <c r="F1083">
+        <f t="shared" si="9"/>
+        <v>2.8605310058593751</v>
+      </c>
+      <c r="G1083">
+        <v>25077404</v>
+      </c>
+      <c r="H1083">
+        <v>25077404</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1084" s="1">
+        <v>45503</v>
+      </c>
+      <c r="B1084">
+        <v>2848.550048828125</v>
+      </c>
+      <c r="C1084">
+        <v>2850.657958984375</v>
+      </c>
+      <c r="D1084">
+        <v>2818.60693359375</v>
+      </c>
+      <c r="E1084">
+        <v>2833.31494140625</v>
+      </c>
+      <c r="F1084">
+        <f t="shared" si="9"/>
+        <v>2.83331494140625</v>
+      </c>
+      <c r="G1084">
+        <v>23172628</v>
+      </c>
+      <c r="H1084">
+        <v>23172628</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1085" s="1">
+        <v>45504</v>
+      </c>
+      <c r="B1085">
+        <v>2821.012939453125</v>
+      </c>
+      <c r="C1085">
+        <v>2917.166015625</v>
+      </c>
+      <c r="D1085">
+        <v>2821.012939453125</v>
+      </c>
+      <c r="E1085">
+        <v>2916.238037109375</v>
+      </c>
+      <c r="F1085">
+        <f t="shared" si="9"/>
+        <v>2.916238037109375</v>
+      </c>
+      <c r="G1085">
+        <v>36856056</v>
+      </c>
+      <c r="H1085">
+        <v>36856056</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index.xlsx
+++ b/lai/valuationquan/szseinnovation100index.xlsx
@@ -400,10 +400,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H1085"/>
+  <dimension ref="A1:H1107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1064" workbookViewId="0">
-      <selection activeCell="A1086" sqref="A1086"/>
+    <sheetView tabSelected="1" topLeftCell="A1087" workbookViewId="0">
+      <selection activeCell="A1108" sqref="A1108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -26241,7 +26241,7 @@
         <v>2821.385009765625</v>
       </c>
       <c r="F958">
-        <f t="shared" ref="F958:F1085" si="9">E958/1000</f>
+        <f t="shared" ref="F958:F1107" si="9">E958/1000</f>
         <v>2.821385009765625</v>
       </c>
       <c r="G958">
@@ -29678,6 +29678,600 @@
       </c>
       <c r="H1085">
         <v>36856056</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1086" s="1">
+        <v>45505</v>
+      </c>
+      <c r="B1086">
+        <v>2920.60107421875</v>
+      </c>
+      <c r="C1086">
+        <v>2925.60302734375</v>
+      </c>
+      <c r="D1086">
+        <v>2881.404052734375</v>
+      </c>
+      <c r="E1086">
+        <v>2885.322998046875</v>
+      </c>
+      <c r="F1086">
+        <f t="shared" si="9"/>
+        <v>2.8853229980468749</v>
+      </c>
+      <c r="G1086">
+        <v>27438168</v>
+      </c>
+      <c r="H1086">
+        <v>27438168</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1087" s="1">
+        <v>45506</v>
+      </c>
+      <c r="B1087">
+        <v>2858.3330078125</v>
+      </c>
+      <c r="C1087">
+        <v>2889.94091796875</v>
+      </c>
+      <c r="D1087">
+        <v>2836.751953125</v>
+      </c>
+      <c r="E1087">
+        <v>2840.096923828125</v>
+      </c>
+      <c r="F1087">
+        <f t="shared" si="9"/>
+        <v>2.8400969238281251</v>
+      </c>
+      <c r="G1087">
+        <v>25428670</v>
+      </c>
+      <c r="H1087">
+        <v>25428670</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1088" s="1">
+        <v>45509</v>
+      </c>
+      <c r="B1088">
+        <v>2806.3779296875</v>
+      </c>
+      <c r="C1088">
+        <v>2863.573974609375</v>
+      </c>
+      <c r="D1088">
+        <v>2780.44189453125</v>
+      </c>
+      <c r="E1088">
+        <v>2780.44189453125</v>
+      </c>
+      <c r="F1088">
+        <f t="shared" si="9"/>
+        <v>2.7804418945312501</v>
+      </c>
+      <c r="G1088">
+        <v>33306554</v>
+      </c>
+      <c r="H1088">
+        <v>33306554</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1089" s="1">
+        <v>45510</v>
+      </c>
+      <c r="B1089">
+        <v>2809.888916015625</v>
+      </c>
+      <c r="C1089">
+        <v>2822.7041015625</v>
+      </c>
+      <c r="D1089">
+        <v>2770.85400390625</v>
+      </c>
+      <c r="E1089">
+        <v>2793.99609375</v>
+      </c>
+      <c r="F1089">
+        <f t="shared" si="9"/>
+        <v>2.7939960937500001</v>
+      </c>
+      <c r="G1089">
+        <v>26097222</v>
+      </c>
+      <c r="H1089">
+        <v>26097222</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1090" s="1">
+        <v>45511</v>
+      </c>
+      <c r="B1090">
+        <v>2789.427001953125</v>
+      </c>
+      <c r="C1090">
+        <v>2808.6298828125</v>
+      </c>
+      <c r="D1090">
+        <v>2777.47509765625</v>
+      </c>
+      <c r="E1090">
+        <v>2788.714111328125</v>
+      </c>
+      <c r="F1090">
+        <f t="shared" si="9"/>
+        <v>2.7887141113281251</v>
+      </c>
+      <c r="G1090">
+        <v>20495914</v>
+      </c>
+      <c r="H1090">
+        <v>20495914</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1091" s="1">
+        <v>45512</v>
+      </c>
+      <c r="B1091">
+        <v>2775.678955078125</v>
+      </c>
+      <c r="C1091">
+        <v>2804.77197265625</v>
+      </c>
+      <c r="D1091">
+        <v>2756.705078125</v>
+      </c>
+      <c r="E1091">
+        <v>2782.985107421875</v>
+      </c>
+      <c r="F1091">
+        <f t="shared" si="9"/>
+        <v>2.782985107421875</v>
+      </c>
+      <c r="G1091">
+        <v>23447264</v>
+      </c>
+      <c r="H1091">
+        <v>23447264</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1092" s="1">
+        <v>45513</v>
+      </c>
+      <c r="B1092">
+        <v>2796.48193359375</v>
+      </c>
+      <c r="C1092">
+        <v>2813.612060546875</v>
+      </c>
+      <c r="D1092">
+        <v>2767.5</v>
+      </c>
+      <c r="E1092">
+        <v>2767.5</v>
+      </c>
+      <c r="F1092">
+        <f t="shared" si="9"/>
+        <v>2.7675000000000001</v>
+      </c>
+      <c r="G1092">
+        <v>20546210</v>
+      </c>
+      <c r="H1092">
+        <v>20546210</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1093" s="1">
+        <v>45516</v>
+      </c>
+      <c r="B1093">
+        <v>2766.75390625</v>
+      </c>
+      <c r="C1093">
+        <v>2779.156982421875</v>
+      </c>
+      <c r="D1093">
+        <v>2757.343994140625</v>
+      </c>
+      <c r="E1093">
+        <v>2762.824951171875</v>
+      </c>
+      <c r="F1093">
+        <f t="shared" si="9"/>
+        <v>2.7628249511718752</v>
+      </c>
+      <c r="G1093">
+        <v>18501064</v>
+      </c>
+      <c r="H1093">
+        <v>18501064</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1094" s="1">
+        <v>45517</v>
+      </c>
+      <c r="B1094">
+        <v>2761.5048828125</v>
+      </c>
+      <c r="C1094">
+        <v>2777.152099609375</v>
+      </c>
+      <c r="D1094">
+        <v>2748.782958984375</v>
+      </c>
+      <c r="E1094">
+        <v>2776.81298828125</v>
+      </c>
+      <c r="F1094">
+        <f t="shared" si="9"/>
+        <v>2.7768129882812498</v>
+      </c>
+      <c r="G1094">
+        <v>19929372</v>
+      </c>
+      <c r="H1094">
+        <v>19929372</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1095" s="1">
+        <v>45518</v>
+      </c>
+      <c r="B1095">
+        <v>2774.986083984375</v>
+      </c>
+      <c r="C1095">
+        <v>2775.013916015625</v>
+      </c>
+      <c r="D1095">
+        <v>2744.904052734375</v>
+      </c>
+      <c r="E1095">
+        <v>2744.904052734375</v>
+      </c>
+      <c r="F1095">
+        <f t="shared" si="9"/>
+        <v>2.7449040527343751</v>
+      </c>
+      <c r="G1095">
+        <v>16907054</v>
+      </c>
+      <c r="H1095">
+        <v>16907054</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1096" s="1">
+        <v>45519</v>
+      </c>
+      <c r="B1096">
+        <v>2738.8359375</v>
+      </c>
+      <c r="C1096">
+        <v>2781.907958984375</v>
+      </c>
+      <c r="D1096">
+        <v>2736.988037109375</v>
+      </c>
+      <c r="E1096">
+        <v>2761.446044921875</v>
+      </c>
+      <c r="F1096">
+        <f t="shared" si="9"/>
+        <v>2.761446044921875</v>
+      </c>
+      <c r="G1096">
+        <v>22865414</v>
+      </c>
+      <c r="H1096">
+        <v>22865414</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1097" s="1">
+        <v>45520</v>
+      </c>
+      <c r="B1097">
+        <v>2764.2880859375</v>
+      </c>
+      <c r="C1097">
+        <v>2781.7529296875</v>
+      </c>
+      <c r="D1097">
+        <v>2757.801025390625</v>
+      </c>
+      <c r="E1097">
+        <v>2766.10302734375</v>
+      </c>
+      <c r="F1097">
+        <f t="shared" si="9"/>
+        <v>2.7661030273437501</v>
+      </c>
+      <c r="G1097">
+        <v>20712402</v>
+      </c>
+      <c r="H1097">
+        <v>20712402</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1098" s="1">
+        <v>45523</v>
+      </c>
+      <c r="B1098">
+        <v>2764.60693359375</v>
+      </c>
+      <c r="C1098">
+        <v>2797.076904296875</v>
+      </c>
+      <c r="D1098">
+        <v>2763.52587890625</v>
+      </c>
+      <c r="E1098">
+        <v>2765.287109375</v>
+      </c>
+      <c r="F1098">
+        <f t="shared" si="9"/>
+        <v>2.765287109375</v>
+      </c>
+      <c r="G1098">
+        <v>21488106</v>
+      </c>
+      <c r="H1098">
+        <v>21488106</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1099" s="1">
+        <v>45524</v>
+      </c>
+      <c r="B1099">
+        <v>2770.198974609375</v>
+      </c>
+      <c r="C1099">
+        <v>2771.176025390625</v>
+      </c>
+      <c r="D1099">
+        <v>2734.720947265625</v>
+      </c>
+      <c r="E1099">
+        <v>2741.841064453125</v>
+      </c>
+      <c r="F1099">
+        <f t="shared" si="9"/>
+        <v>2.741841064453125</v>
+      </c>
+      <c r="G1099">
+        <v>22784982</v>
+      </c>
+      <c r="H1099">
+        <v>22784982</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1100" s="1">
+        <v>45525</v>
+      </c>
+      <c r="B1100">
+        <v>2729.340087890625</v>
+      </c>
+      <c r="C1100">
+        <v>2767.06591796875</v>
+      </c>
+      <c r="D1100">
+        <v>2726.926025390625</v>
+      </c>
+      <c r="E1100">
+        <v>2742.387939453125</v>
+      </c>
+      <c r="F1100">
+        <f t="shared" si="9"/>
+        <v>2.742387939453125</v>
+      </c>
+      <c r="G1100">
+        <v>23516546</v>
+      </c>
+      <c r="H1100">
+        <v>23516546</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1101" s="1">
+        <v>45526</v>
+      </c>
+      <c r="B1101">
+        <v>2744.89990234375</v>
+      </c>
+      <c r="C1101">
+        <v>2749.52294921875</v>
+      </c>
+      <c r="D1101">
+        <v>2722.799072265625</v>
+      </c>
+      <c r="E1101">
+        <v>2730.277099609375</v>
+      </c>
+      <c r="F1101">
+        <f t="shared" si="9"/>
+        <v>2.730277099609375</v>
+      </c>
+      <c r="G1101">
+        <v>24434810</v>
+      </c>
+      <c r="H1101">
+        <v>24434810</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1102" s="1">
+        <v>45527</v>
+      </c>
+      <c r="B1102">
+        <v>2721.14111328125</v>
+      </c>
+      <c r="C1102">
+        <v>2752.7041015625</v>
+      </c>
+      <c r="D1102">
+        <v>2720.37109375</v>
+      </c>
+      <c r="E1102">
+        <v>2744.9970703125</v>
+      </c>
+      <c r="F1102">
+        <f t="shared" si="9"/>
+        <v>2.7449970703125</v>
+      </c>
+      <c r="G1102">
+        <v>21181934</v>
+      </c>
+      <c r="H1102">
+        <v>21181934</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1103" s="1">
+        <v>45530</v>
+      </c>
+      <c r="B1103">
+        <v>2753.85791015625</v>
+      </c>
+      <c r="C1103">
+        <v>2763.549072265625</v>
+      </c>
+      <c r="D1103">
+        <v>2740.719970703125</v>
+      </c>
+      <c r="E1103">
+        <v>2750.193115234375</v>
+      </c>
+      <c r="F1103">
+        <f t="shared" si="9"/>
+        <v>2.7501931152343748</v>
+      </c>
+      <c r="G1103">
+        <v>13097986</v>
+      </c>
+      <c r="H1103">
+        <v>13097986</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1104" s="1">
+        <v>45531</v>
+      </c>
+      <c r="B1104">
+        <v>2734.64990234375</v>
+      </c>
+      <c r="C1104">
+        <v>2740.221923828125</v>
+      </c>
+      <c r="D1104">
+        <v>2718.27197265625</v>
+      </c>
+      <c r="E1104">
+        <v>2724.10888671875</v>
+      </c>
+      <c r="F1104">
+        <f t="shared" si="9"/>
+        <v>2.7241088867187502</v>
+      </c>
+      <c r="G1104">
+        <v>12066132</v>
+      </c>
+      <c r="H1104">
+        <v>12066132</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1105" s="1">
+        <v>45532</v>
+      </c>
+      <c r="B1105">
+        <v>2718.905029296875</v>
+      </c>
+      <c r="C1105">
+        <v>2731.173095703125</v>
+      </c>
+      <c r="D1105">
+        <v>2701.193115234375</v>
+      </c>
+      <c r="E1105">
+        <v>2716.98388671875</v>
+      </c>
+      <c r="F1105">
+        <f t="shared" si="9"/>
+        <v>2.7169838867187499</v>
+      </c>
+      <c r="G1105">
+        <v>10528485</v>
+      </c>
+      <c r="H1105">
+        <v>10528485</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1106" s="1">
+        <v>45533</v>
+      </c>
+      <c r="B1106">
+        <v>2687.672119140625</v>
+      </c>
+      <c r="C1106">
+        <v>2744.69189453125</v>
+      </c>
+      <c r="D1106">
+        <v>2687.672119140625</v>
+      </c>
+      <c r="E1106">
+        <v>2726.77587890625</v>
+      </c>
+      <c r="F1106">
+        <f t="shared" si="9"/>
+        <v>2.72677587890625</v>
+      </c>
+      <c r="G1106">
+        <v>15323824</v>
+      </c>
+      <c r="H1106">
+        <v>15323824</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1107" s="1">
+        <v>45534</v>
+      </c>
+      <c r="B1107">
+        <v>2732.493896484375</v>
+      </c>
+      <c r="C1107">
+        <v>2837.412109375</v>
+      </c>
+      <c r="D1107">
+        <v>2732.493896484375</v>
+      </c>
+      <c r="E1107">
+        <v>2803.162109375</v>
+      </c>
+      <c r="F1107">
+        <f t="shared" si="9"/>
+        <v>2.8031621093750001</v>
+      </c>
+      <c r="G1107">
+        <v>22599918</v>
+      </c>
+      <c r="H1107">
+        <v>22599918</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index.xlsx
+++ b/lai/valuationquan/szseinnovation100index.xlsx
@@ -400,10 +400,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H1107"/>
+  <dimension ref="A1:H1126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1087" workbookViewId="0">
-      <selection activeCell="A1108" sqref="A1108"/>
+    <sheetView tabSelected="1" topLeftCell="A1109" workbookViewId="0">
+      <selection activeCell="A1127" sqref="A1127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -26241,7 +26241,7 @@
         <v>2821.385009765625</v>
       </c>
       <c r="F958">
-        <f t="shared" ref="F958:F1107" si="9">E958/1000</f>
+        <f t="shared" ref="F958:F1126" si="9">E958/1000</f>
         <v>2.821385009765625</v>
       </c>
       <c r="G958">
@@ -30272,6 +30272,519 @@
       </c>
       <c r="H1107">
         <v>22599918</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1108" s="1">
+        <v>45537</v>
+      </c>
+      <c r="B1108">
+        <v>2797.7958984375</v>
+      </c>
+      <c r="C1108">
+        <v>2806.98095703125</v>
+      </c>
+      <c r="D1108">
+        <v>2742.239990234375</v>
+      </c>
+      <c r="E1108">
+        <v>2743.0869140625</v>
+      </c>
+      <c r="F1108">
+        <f t="shared" si="9"/>
+        <v>2.7430869140624998</v>
+      </c>
+      <c r="G1108">
+        <v>16083620</v>
+      </c>
+      <c r="H1108">
+        <v>16083620</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1109" s="1">
+        <v>45538</v>
+      </c>
+      <c r="B1109">
+        <v>2736.6669921875</v>
+      </c>
+      <c r="C1109">
+        <v>2789.407958984375</v>
+      </c>
+      <c r="D1109">
+        <v>2736.6669921875</v>
+      </c>
+      <c r="E1109">
+        <v>2783.85693359375</v>
+      </c>
+      <c r="F1109">
+        <f t="shared" si="9"/>
+        <v>2.78385693359375</v>
+      </c>
+      <c r="G1109">
+        <v>13167116</v>
+      </c>
+      <c r="H1109">
+        <v>13167116</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1110" s="1">
+        <v>45539</v>
+      </c>
+      <c r="B1110">
+        <v>2762.89111328125</v>
+      </c>
+      <c r="C1110">
+        <v>2807.2490234375</v>
+      </c>
+      <c r="D1110">
+        <v>2755.43701171875</v>
+      </c>
+      <c r="E1110">
+        <v>2781.134033203125</v>
+      </c>
+      <c r="F1110">
+        <f t="shared" si="9"/>
+        <v>2.7811340332031249</v>
+      </c>
+      <c r="G1110">
+        <v>12866653</v>
+      </c>
+      <c r="H1110">
+        <v>12866653</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1111" s="1">
+        <v>45540</v>
+      </c>
+      <c r="B1111">
+        <v>2778.7119140625</v>
+      </c>
+      <c r="C1111">
+        <v>2802.906982421875</v>
+      </c>
+      <c r="D1111">
+        <v>2778.06298828125</v>
+      </c>
+      <c r="E1111">
+        <v>2784.19091796875</v>
+      </c>
+      <c r="F1111">
+        <f t="shared" si="9"/>
+        <v>2.7841909179687501</v>
+      </c>
+      <c r="G1111">
+        <v>11878757</v>
+      </c>
+      <c r="H1111">
+        <v>11878757</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1112" s="1">
+        <v>45541</v>
+      </c>
+      <c r="B1112">
+        <v>2781.553955078125</v>
+      </c>
+      <c r="C1112">
+        <v>2790.595947265625</v>
+      </c>
+      <c r="D1112">
+        <v>2743.093017578125</v>
+      </c>
+      <c r="E1112">
+        <v>2743.971923828125</v>
+      </c>
+      <c r="F1112">
+        <f t="shared" si="9"/>
+        <v>2.7439719238281248</v>
+      </c>
+      <c r="G1112">
+        <v>11602772</v>
+      </c>
+      <c r="H1112">
+        <v>11602772</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1113" s="1">
+        <v>45544</v>
+      </c>
+      <c r="B1113">
+        <v>2720.388916015625</v>
+      </c>
+      <c r="C1113">
+        <v>2753.1240234375</v>
+      </c>
+      <c r="D1113">
+        <v>2706.2509765625</v>
+      </c>
+      <c r="E1113">
+        <v>2722.160888671875</v>
+      </c>
+      <c r="F1113">
+        <f t="shared" si="9"/>
+        <v>2.7221608886718749</v>
+      </c>
+      <c r="G1113">
+        <v>11385850</v>
+      </c>
+      <c r="H1113">
+        <v>11385850</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1114" s="1">
+        <v>45545</v>
+      </c>
+      <c r="B1114">
+        <v>2723.12109375</v>
+      </c>
+      <c r="C1114">
+        <v>2748.325927734375</v>
+      </c>
+      <c r="D1114">
+        <v>2707.428955078125</v>
+      </c>
+      <c r="E1114">
+        <v>2732.180908203125</v>
+      </c>
+      <c r="F1114">
+        <f t="shared" si="9"/>
+        <v>2.7321809082031252</v>
+      </c>
+      <c r="G1114">
+        <v>14602122</v>
+      </c>
+      <c r="H1114">
+        <v>14602122</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1115" s="1">
+        <v>45546</v>
+      </c>
+      <c r="B1115">
+        <v>2731.0029296875</v>
+      </c>
+      <c r="C1115">
+        <v>2773.006103515625</v>
+      </c>
+      <c r="D1115">
+        <v>2720.423095703125</v>
+      </c>
+      <c r="E1115">
+        <v>2762.73388671875</v>
+      </c>
+      <c r="F1115">
+        <f t="shared" si="9"/>
+        <v>2.7627338867187499</v>
+      </c>
+      <c r="G1115">
+        <v>12976310</v>
+      </c>
+      <c r="H1115">
+        <v>12976310</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1116" s="1">
+        <v>45547</v>
+      </c>
+      <c r="B1116">
+        <v>2775.547119140625</v>
+      </c>
+      <c r="C1116">
+        <v>2790.570068359375</v>
+      </c>
+      <c r="D1116">
+        <v>2751.341064453125</v>
+      </c>
+      <c r="E1116">
+        <v>2751.992919921875</v>
+      </c>
+      <c r="F1116">
+        <f t="shared" si="9"/>
+        <v>2.7519929199218751</v>
+      </c>
+      <c r="G1116">
+        <v>13223760</v>
+      </c>
+      <c r="H1116">
+        <v>13223760</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1117" s="1">
+        <v>45548</v>
+      </c>
+      <c r="B1117">
+        <v>2750.132080078125</v>
+      </c>
+      <c r="C1117">
+        <v>2764.319091796875</v>
+      </c>
+      <c r="D1117">
+        <v>2730.653076171875</v>
+      </c>
+      <c r="E1117">
+        <v>2730.653076171875</v>
+      </c>
+      <c r="F1117">
+        <f t="shared" si="9"/>
+        <v>2.7306530761718748</v>
+      </c>
+      <c r="G1117">
+        <v>12125841</v>
+      </c>
+      <c r="H1117">
+        <v>12125841</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1118" s="1">
+        <v>45553</v>
+      </c>
+      <c r="B1118">
+        <v>2730.29296875</v>
+      </c>
+      <c r="C1118">
+        <v>2759.8291015625</v>
+      </c>
+      <c r="D1118">
+        <v>2724.537109375</v>
+      </c>
+      <c r="E1118">
+        <v>2748.9140625</v>
+      </c>
+      <c r="F1118">
+        <f t="shared" si="9"/>
+        <v>2.7489140624999999</v>
+      </c>
+      <c r="G1118">
+        <v>11337745</v>
+      </c>
+      <c r="H1118">
+        <v>11337745</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1119" s="1">
+        <v>45554</v>
+      </c>
+      <c r="B1119">
+        <v>2747.26708984375</v>
+      </c>
+      <c r="C1119">
+        <v>2781.590087890625</v>
+      </c>
+      <c r="D1119">
+        <v>2723.4169921875</v>
+      </c>
+      <c r="E1119">
+        <v>2758.3740234375</v>
+      </c>
+      <c r="F1119">
+        <f t="shared" si="9"/>
+        <v>2.7583740234374998</v>
+      </c>
+      <c r="G1119">
+        <v>15634817</v>
+      </c>
+      <c r="H1119">
+        <v>15634817</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1120" s="1">
+        <v>45555</v>
+      </c>
+      <c r="B1120">
+        <v>2759.221923828125</v>
+      </c>
+      <c r="C1120">
+        <v>2766.8359375</v>
+      </c>
+      <c r="D1120">
+        <v>2735.199951171875</v>
+      </c>
+      <c r="E1120">
+        <v>2756.928955078125</v>
+      </c>
+      <c r="F1120">
+        <f t="shared" si="9"/>
+        <v>2.7569289550781249</v>
+      </c>
+      <c r="G1120">
+        <v>13874627</v>
+      </c>
+      <c r="H1120">
+        <v>13874627</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1121" s="1">
+        <v>45558</v>
+      </c>
+      <c r="B1121">
+        <v>2760.385986328125</v>
+      </c>
+      <c r="C1121">
+        <v>2786.89599609375</v>
+      </c>
+      <c r="D1121">
+        <v>2751.25390625</v>
+      </c>
+      <c r="E1121">
+        <v>2757.943115234375</v>
+      </c>
+      <c r="F1121">
+        <f t="shared" si="9"/>
+        <v>2.757943115234375</v>
+      </c>
+      <c r="G1121">
+        <v>13509459</v>
+      </c>
+      <c r="H1121">
+        <v>13509459</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1122" s="1">
+        <v>45559</v>
+      </c>
+      <c r="B1122">
+        <v>2779.85595703125</v>
+      </c>
+      <c r="C1122">
+        <v>2857.696044921875</v>
+      </c>
+      <c r="D1122">
+        <v>2746.22607421875</v>
+      </c>
+      <c r="E1122">
+        <v>2856.64306640625</v>
+      </c>
+      <c r="F1122">
+        <f t="shared" si="9"/>
+        <v>2.8566430664062499</v>
+      </c>
+      <c r="G1122">
+        <v>22884000</v>
+      </c>
+      <c r="H1122">
+        <v>22884000</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1123" s="1">
+        <v>45560</v>
+      </c>
+      <c r="B1123">
+        <v>2908.736083984375</v>
+      </c>
+      <c r="C1123">
+        <v>2968.89306640625</v>
+      </c>
+      <c r="D1123">
+        <v>2905.0830078125</v>
+      </c>
+      <c r="E1123">
+        <v>2906.970947265625</v>
+      </c>
+      <c r="F1123">
+        <f t="shared" si="9"/>
+        <v>2.9069709472656249</v>
+      </c>
+      <c r="G1123">
+        <v>29237544</v>
+      </c>
+      <c r="H1123">
+        <v>29237544</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1124" s="1">
+        <v>45561</v>
+      </c>
+      <c r="B1124">
+        <v>2906.35400390625</v>
+      </c>
+      <c r="C1124">
+        <v>3004.419921875</v>
+      </c>
+      <c r="D1124">
+        <v>2887.10498046875</v>
+      </c>
+      <c r="E1124">
+        <v>3001.659912109375</v>
+      </c>
+      <c r="F1124">
+        <f t="shared" si="9"/>
+        <v>3.0016599121093752</v>
+      </c>
+      <c r="G1124">
+        <v>28247426</v>
+      </c>
+      <c r="H1124">
+        <v>28247426</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1125" s="1">
+        <v>45562</v>
+      </c>
+      <c r="B1125">
+        <v>3056.492919921875</v>
+      </c>
+      <c r="C1125">
+        <v>3259.169921875</v>
+      </c>
+      <c r="D1125">
+        <v>3056.492919921875</v>
+      </c>
+      <c r="E1125">
+        <v>3204.8359375</v>
+      </c>
+      <c r="F1125">
+        <f t="shared" si="9"/>
+        <v>3.2048359375</v>
+      </c>
+      <c r="G1125">
+        <v>44243456</v>
+      </c>
+      <c r="H1125">
+        <v>44243456</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1126" s="1">
+        <v>45565</v>
+      </c>
+      <c r="B1126">
+        <v>3322.64990234375</v>
+      </c>
+      <c r="C1126">
+        <v>3566.9951171875</v>
+      </c>
+      <c r="D1126">
+        <v>3285.43896484375</v>
+      </c>
+      <c r="E1126">
+        <v>3553.306884765625</v>
+      </c>
+      <c r="F1126">
+        <f t="shared" si="9"/>
+        <v>3.5533068847656248</v>
+      </c>
+      <c r="G1126">
+        <v>59341192</v>
+      </c>
+      <c r="H1126">
+        <v>59341192</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index.xlsx
+++ b/lai/valuationquan/szseinnovation100index.xlsx
@@ -400,10 +400,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H1126"/>
+  <dimension ref="A1:H1144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1109" workbookViewId="0">
-      <selection activeCell="A1127" sqref="A1127"/>
+    <sheetView tabSelected="1" topLeftCell="A1128" workbookViewId="0">
+      <selection activeCell="A1145" sqref="A1145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -26241,7 +26241,7 @@
         <v>2821.385009765625</v>
       </c>
       <c r="F958">
-        <f t="shared" ref="F958:F1126" si="9">E958/1000</f>
+        <f t="shared" ref="F958:F1144" si="9">E958/1000</f>
         <v>2.821385009765625</v>
       </c>
       <c r="G958">
@@ -30785,6 +30785,492 @@
       </c>
       <c r="H1126">
         <v>59341192</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1127" s="1">
+        <v>45573</v>
+      </c>
+      <c r="B1127">
+        <v>4059.888916015625</v>
+      </c>
+      <c r="C1127">
+        <v>4059.888916015625</v>
+      </c>
+      <c r="D1127">
+        <v>3720.23388671875</v>
+      </c>
+      <c r="E1127">
+        <v>3991.41796875</v>
+      </c>
+      <c r="F1127">
+        <f t="shared" si="9"/>
+        <v>3.99141796875</v>
+      </c>
+      <c r="G1127">
+        <v>72961272</v>
+      </c>
+      <c r="H1127">
+        <v>72961272</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1128" s="1">
+        <v>45574</v>
+      </c>
+      <c r="B1128">
+        <v>3855.410888671875</v>
+      </c>
+      <c r="C1128">
+        <v>3903.0439453125</v>
+      </c>
+      <c r="D1128">
+        <v>3612.471923828125</v>
+      </c>
+      <c r="E1128">
+        <v>3636.134033203125</v>
+      </c>
+      <c r="F1128">
+        <f t="shared" si="9"/>
+        <v>3.6361340332031249</v>
+      </c>
+      <c r="G1128">
+        <v>66501336</v>
+      </c>
+      <c r="H1128">
+        <v>66501336</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1129" s="1">
+        <v>45575</v>
+      </c>
+      <c r="B1129">
+        <v>3663.95703125</v>
+      </c>
+      <c r="C1129">
+        <v>3738.9560546875</v>
+      </c>
+      <c r="D1129">
+        <v>3563.97900390625</v>
+      </c>
+      <c r="E1129">
+        <v>3627.821044921875</v>
+      </c>
+      <c r="F1129">
+        <f t="shared" si="9"/>
+        <v>3.6278210449218751</v>
+      </c>
+      <c r="G1129">
+        <v>47475812</v>
+      </c>
+      <c r="H1129">
+        <v>47475812</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1130" s="1">
+        <v>45576</v>
+      </c>
+      <c r="B1130">
+        <v>3592.758056640625</v>
+      </c>
+      <c r="C1130">
+        <v>3593.77587890625</v>
+      </c>
+      <c r="D1130">
+        <v>3406.987060546875</v>
+      </c>
+      <c r="E1130">
+        <v>3451.85205078125</v>
+      </c>
+      <c r="F1130">
+        <f t="shared" si="9"/>
+        <v>3.45185205078125</v>
+      </c>
+      <c r="G1130">
+        <v>37427060</v>
+      </c>
+      <c r="H1130">
+        <v>37427060</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1131" s="1">
+        <v>45579</v>
+      </c>
+      <c r="B1131">
+        <v>3478.7041015625</v>
+      </c>
+      <c r="C1131">
+        <v>3550.931884765625</v>
+      </c>
+      <c r="D1131">
+        <v>3429.55810546875</v>
+      </c>
+      <c r="E1131">
+        <v>3539.8330078125</v>
+      </c>
+      <c r="F1131">
+        <f t="shared" si="9"/>
+        <v>3.5398330078125002</v>
+      </c>
+      <c r="G1131">
+        <v>39424508</v>
+      </c>
+      <c r="H1131">
+        <v>39424508</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1132" s="1">
+        <v>45580</v>
+      </c>
+      <c r="B1132">
+        <v>3535.862060546875</v>
+      </c>
+      <c r="C1132">
+        <v>3575.62890625</v>
+      </c>
+      <c r="D1132">
+        <v>3449.25</v>
+      </c>
+      <c r="E1132">
+        <v>3449.25</v>
+      </c>
+      <c r="F1132">
+        <f t="shared" si="9"/>
+        <v>3.4492500000000001</v>
+      </c>
+      <c r="G1132">
+        <v>37899524</v>
+      </c>
+      <c r="H1132">
+        <v>37899524</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1133" s="1">
+        <v>45581</v>
+      </c>
+      <c r="B1133">
+        <v>3383.7490234375</v>
+      </c>
+      <c r="C1133">
+        <v>3422.6630859375</v>
+      </c>
+      <c r="D1133">
+        <v>3349.10400390625</v>
+      </c>
+      <c r="E1133">
+        <v>3372.31689453125</v>
+      </c>
+      <c r="F1133">
+        <f t="shared" si="9"/>
+        <v>3.3723168945312501</v>
+      </c>
+      <c r="G1133">
+        <v>30919570</v>
+      </c>
+      <c r="H1133">
+        <v>30919570</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1134" s="1">
+        <v>45582</v>
+      </c>
+      <c r="B1134">
+        <v>3395.988037109375</v>
+      </c>
+      <c r="C1134">
+        <v>3434.3310546875</v>
+      </c>
+      <c r="D1134">
+        <v>3358.762939453125</v>
+      </c>
+      <c r="E1134">
+        <v>3361.135009765625</v>
+      </c>
+      <c r="F1134">
+        <f t="shared" si="9"/>
+        <v>3.3611350097656252</v>
+      </c>
+      <c r="G1134">
+        <v>34261288</v>
+      </c>
+      <c r="H1134">
+        <v>34261288</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1135" s="1">
+        <v>45583</v>
+      </c>
+      <c r="B1135">
+        <v>3357.652099609375</v>
+      </c>
+      <c r="C1135">
+        <v>3650.297119140625</v>
+      </c>
+      <c r="D1135">
+        <v>3357.181884765625</v>
+      </c>
+      <c r="E1135">
+        <v>3558.81396484375</v>
+      </c>
+      <c r="F1135">
+        <f t="shared" si="9"/>
+        <v>3.55881396484375</v>
+      </c>
+      <c r="G1135">
+        <v>53098496</v>
+      </c>
+      <c r="H1135">
+        <v>53098496</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1136" s="1">
+        <v>45586</v>
+      </c>
+      <c r="B1136">
+        <v>3622.6669921875</v>
+      </c>
+      <c r="C1136">
+        <v>3684.324951171875</v>
+      </c>
+      <c r="D1136">
+        <v>3573.97900390625</v>
+      </c>
+      <c r="E1136">
+        <v>3610.39599609375</v>
+      </c>
+      <c r="F1136">
+        <f t="shared" si="9"/>
+        <v>3.6103959960937502</v>
+      </c>
+      <c r="G1136">
+        <v>53670024</v>
+      </c>
+      <c r="H1136">
+        <v>53670024</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1137" s="1">
+        <v>45587</v>
+      </c>
+      <c r="B1137">
+        <v>3604.071044921875</v>
+      </c>
+      <c r="C1137">
+        <v>3632.56201171875</v>
+      </c>
+      <c r="D1137">
+        <v>3569.25390625</v>
+      </c>
+      <c r="E1137">
+        <v>3613.6630859375</v>
+      </c>
+      <c r="F1137">
+        <f t="shared" si="9"/>
+        <v>3.6136630859375001</v>
+      </c>
+      <c r="G1137">
+        <v>42614576</v>
+      </c>
+      <c r="H1137">
+        <v>42614576</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1138" s="1">
+        <v>45588</v>
+      </c>
+      <c r="B1138">
+        <v>3593.73291015625</v>
+      </c>
+      <c r="C1138">
+        <v>3666.722900390625</v>
+      </c>
+      <c r="D1138">
+        <v>3579.74609375</v>
+      </c>
+      <c r="E1138">
+        <v>3613.864990234375</v>
+      </c>
+      <c r="F1138">
+        <f t="shared" si="9"/>
+        <v>3.6138649902343749</v>
+      </c>
+      <c r="G1138">
+        <v>38647652</v>
+      </c>
+      <c r="H1138">
+        <v>38647652</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1139" s="1">
+        <v>45589</v>
+      </c>
+      <c r="B1139">
+        <v>3603.083984375</v>
+      </c>
+      <c r="C1139">
+        <v>3612.257080078125</v>
+      </c>
+      <c r="D1139">
+        <v>3558.7880859375</v>
+      </c>
+      <c r="E1139">
+        <v>3568.739990234375</v>
+      </c>
+      <c r="F1139">
+        <f t="shared" si="9"/>
+        <v>3.5687399902343748</v>
+      </c>
+      <c r="G1139">
+        <v>36754492</v>
+      </c>
+      <c r="H1139">
+        <v>36754492</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1140" s="1">
+        <v>45590</v>
+      </c>
+      <c r="B1140">
+        <v>3594.0869140625</v>
+      </c>
+      <c r="C1140">
+        <v>3683.802001953125</v>
+      </c>
+      <c r="D1140">
+        <v>3572.2109375</v>
+      </c>
+      <c r="E1140">
+        <v>3636.6220703125</v>
+      </c>
+      <c r="F1140">
+        <f t="shared" si="9"/>
+        <v>3.6366220703124998</v>
+      </c>
+      <c r="G1140">
+        <v>37506096</v>
+      </c>
+      <c r="H1140">
+        <v>37506096</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1141" s="1">
+        <v>45593</v>
+      </c>
+      <c r="B1141">
+        <v>3629.0791015625</v>
+      </c>
+      <c r="C1141">
+        <v>3629.0791015625</v>
+      </c>
+      <c r="D1141">
+        <v>3576.760009765625</v>
+      </c>
+      <c r="E1141">
+        <v>3628.493896484375</v>
+      </c>
+      <c r="F1141">
+        <f t="shared" si="9"/>
+        <v>3.6284938964843749</v>
+      </c>
+      <c r="G1141">
+        <v>37134360</v>
+      </c>
+      <c r="H1141">
+        <v>37134360</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1142" s="1">
+        <v>45594</v>
+      </c>
+      <c r="B1142">
+        <v>3633.33203125</v>
+      </c>
+      <c r="C1142">
+        <v>3649.406982421875</v>
+      </c>
+      <c r="D1142">
+        <v>3582.97509765625</v>
+      </c>
+      <c r="E1142">
+        <v>3585.262939453125</v>
+      </c>
+      <c r="F1142">
+        <f t="shared" si="9"/>
+        <v>3.5852629394531248</v>
+      </c>
+      <c r="G1142">
+        <v>44581544</v>
+      </c>
+      <c r="H1142">
+        <v>44581544</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1143" s="1">
+        <v>45595</v>
+      </c>
+      <c r="B1143">
+        <v>3556.594970703125</v>
+      </c>
+      <c r="C1143">
+        <v>3596.278076171875</v>
+      </c>
+      <c r="D1143">
+        <v>3526.843994140625</v>
+      </c>
+      <c r="E1143">
+        <v>3563.194091796875</v>
+      </c>
+      <c r="F1143">
+        <f t="shared" si="9"/>
+        <v>3.5631940917968752</v>
+      </c>
+      <c r="G1143">
+        <v>38413200</v>
+      </c>
+      <c r="H1143">
+        <v>38413200</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1144" s="1">
+        <v>45596</v>
+      </c>
+      <c r="B1144">
+        <v>3564.282958984375</v>
+      </c>
+      <c r="C1144">
+        <v>3591.116943359375</v>
+      </c>
+      <c r="D1144">
+        <v>3524.9150390625</v>
+      </c>
+      <c r="E1144">
+        <v>3556.840087890625</v>
+      </c>
+      <c r="F1144">
+        <f t="shared" si="9"/>
+        <v>3.5568400878906248</v>
+      </c>
+      <c r="G1144">
+        <v>45741932</v>
+      </c>
+      <c r="H1144">
+        <v>45741932</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index.xlsx
+++ b/lai/valuationquan/szseinnovation100index.xlsx
@@ -400,10 +400,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H1144"/>
+  <dimension ref="A1:H1165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1128" workbookViewId="0">
-      <selection activeCell="A1145" sqref="A1145"/>
+    <sheetView tabSelected="1" topLeftCell="A1146" workbookViewId="0">
+      <selection activeCell="A1166" sqref="A1166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -26241,7 +26241,7 @@
         <v>2821.385009765625</v>
       </c>
       <c r="F958">
-        <f t="shared" ref="F958:F1144" si="9">E958/1000</f>
+        <f t="shared" ref="F958:F1165" si="9">E958/1000</f>
         <v>2.821385009765625</v>
       </c>
       <c r="G958">
@@ -31271,6 +31271,573 @@
       </c>
       <c r="H1144">
         <v>45741932</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1145" s="1">
+        <v>45597</v>
+      </c>
+      <c r="B1145">
+        <v>3550.31689453125</v>
+      </c>
+      <c r="C1145">
+        <v>3561.85009765625</v>
+      </c>
+      <c r="D1145">
+        <v>3495.881103515625</v>
+      </c>
+      <c r="E1145">
+        <v>3503.22705078125</v>
+      </c>
+      <c r="F1145">
+        <f t="shared" si="9"/>
+        <v>3.5032270507812502</v>
+      </c>
+      <c r="G1145">
+        <v>51999440</v>
+      </c>
+      <c r="H1145">
+        <v>51999440</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1146" s="1">
+        <v>45600</v>
+      </c>
+      <c r="B1146">
+        <v>3503.1669921875</v>
+      </c>
+      <c r="C1146">
+        <v>3585.6650390625</v>
+      </c>
+      <c r="D1146">
+        <v>3503.1669921875</v>
+      </c>
+      <c r="E1146">
+        <v>3585.47412109375</v>
+      </c>
+      <c r="F1146">
+        <f t="shared" si="9"/>
+        <v>3.5854741210937502</v>
+      </c>
+      <c r="G1146">
+        <v>44944928</v>
+      </c>
+      <c r="H1146">
+        <v>44944928</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1147" s="1">
+        <v>45601</v>
+      </c>
+      <c r="B1147">
+        <v>3580.243896484375</v>
+      </c>
+      <c r="C1147">
+        <v>3706.033935546875</v>
+      </c>
+      <c r="D1147">
+        <v>3566.012939453125</v>
+      </c>
+      <c r="E1147">
+        <v>3697.77197265625</v>
+      </c>
+      <c r="F1147">
+        <f t="shared" si="9"/>
+        <v>3.6977719726562501</v>
+      </c>
+      <c r="G1147">
+        <v>60123304</v>
+      </c>
+      <c r="H1147">
+        <v>60123304</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1148" s="1">
+        <v>45602</v>
+      </c>
+      <c r="B1148">
+        <v>3700.597900390625</v>
+      </c>
+      <c r="C1148">
+        <v>3758.5009765625</v>
+      </c>
+      <c r="D1148">
+        <v>3651.095947265625</v>
+      </c>
+      <c r="E1148">
+        <v>3678.462890625</v>
+      </c>
+      <c r="F1148">
+        <f t="shared" si="9"/>
+        <v>3.6784628906250001</v>
+      </c>
+      <c r="G1148">
+        <v>68131376</v>
+      </c>
+      <c r="H1148">
+        <v>68131376</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1149" s="1">
+        <v>45603</v>
+      </c>
+      <c r="B1149">
+        <v>3647.47998046875</v>
+      </c>
+      <c r="C1149">
+        <v>3731.5048828125</v>
+      </c>
+      <c r="D1149">
+        <v>3633.08203125</v>
+      </c>
+      <c r="E1149">
+        <v>3731.010009765625</v>
+      </c>
+      <c r="F1149">
+        <f t="shared" si="9"/>
+        <v>3.7310100097656251</v>
+      </c>
+      <c r="G1149">
+        <v>58125548</v>
+      </c>
+      <c r="H1149">
+        <v>58125548</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1150" s="1">
+        <v>45604</v>
+      </c>
+      <c r="B1150">
+        <v>3782.9990234375</v>
+      </c>
+      <c r="C1150">
+        <v>3805.740966796875</v>
+      </c>
+      <c r="D1150">
+        <v>3728.362060546875</v>
+      </c>
+      <c r="E1150">
+        <v>3737.217041015625</v>
+      </c>
+      <c r="F1150">
+        <f t="shared" si="9"/>
+        <v>3.7372170410156249</v>
+      </c>
+      <c r="G1150">
+        <v>60464296</v>
+      </c>
+      <c r="H1150">
+        <v>60464296</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1151" s="1">
+        <v>45607</v>
+      </c>
+      <c r="B1151">
+        <v>3717.968994140625</v>
+      </c>
+      <c r="C1151">
+        <v>3865.491943359375</v>
+      </c>
+      <c r="D1151">
+        <v>3707.553955078125</v>
+      </c>
+      <c r="E1151">
+        <v>3863.041015625</v>
+      </c>
+      <c r="F1151">
+        <f t="shared" si="9"/>
+        <v>3.8630410156249999</v>
+      </c>
+      <c r="G1151">
+        <v>65940104</v>
+      </c>
+      <c r="H1151">
+        <v>65940104</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1152" s="1">
+        <v>45608</v>
+      </c>
+      <c r="B1152">
+        <v>3893.302978515625</v>
+      </c>
+      <c r="C1152">
+        <v>3942.117919921875</v>
+      </c>
+      <c r="D1152">
+        <v>3812.05908203125</v>
+      </c>
+      <c r="E1152">
+        <v>3847.10107421875</v>
+      </c>
+      <c r="F1152">
+        <f t="shared" si="9"/>
+        <v>3.8471010742187501</v>
+      </c>
+      <c r="G1152">
+        <v>66708784</v>
+      </c>
+      <c r="H1152">
+        <v>66708784</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1153" s="1">
+        <v>45609</v>
+      </c>
+      <c r="B1153">
+        <v>3813.798095703125</v>
+      </c>
+      <c r="C1153">
+        <v>3899.85107421875</v>
+      </c>
+      <c r="D1153">
+        <v>3795.678955078125</v>
+      </c>
+      <c r="E1153">
+        <v>3888.669921875</v>
+      </c>
+      <c r="F1153">
+        <f t="shared" si="9"/>
+        <v>3.888669921875</v>
+      </c>
+      <c r="G1153">
+        <v>51202480</v>
+      </c>
+      <c r="H1153">
+        <v>51202480</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1154" s="1">
+        <v>45610</v>
+      </c>
+      <c r="B1154">
+        <v>3883.427978515625</v>
+      </c>
+      <c r="C1154">
+        <v>3883.551025390625</v>
+      </c>
+      <c r="D1154">
+        <v>3769.553955078125</v>
+      </c>
+      <c r="E1154">
+        <v>3776.405029296875</v>
+      </c>
+      <c r="F1154">
+        <f t="shared" si="9"/>
+        <v>3.7764050292968752</v>
+      </c>
+      <c r="G1154">
+        <v>47178172</v>
+      </c>
+      <c r="H1154">
+        <v>47178172</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1155" s="1">
+        <v>45611</v>
+      </c>
+      <c r="B1155">
+        <v>3748.080078125</v>
+      </c>
+      <c r="C1155">
+        <v>3776.467041015625</v>
+      </c>
+      <c r="D1155">
+        <v>3668.2958984375</v>
+      </c>
+      <c r="E1155">
+        <v>3668.2958984375</v>
+      </c>
+      <c r="F1155">
+        <f t="shared" si="9"/>
+        <v>3.6682958984375</v>
+      </c>
+      <c r="G1155">
+        <v>49416332</v>
+      </c>
+      <c r="H1155">
+        <v>49416332</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1156" s="1">
+        <v>45614</v>
+      </c>
+      <c r="B1156">
+        <v>3668.715087890625</v>
+      </c>
+      <c r="C1156">
+        <v>3678.10693359375</v>
+      </c>
+      <c r="D1156">
+        <v>3552.652099609375</v>
+      </c>
+      <c r="E1156">
+        <v>3576.787109375</v>
+      </c>
+      <c r="F1156">
+        <f t="shared" si="9"/>
+        <v>3.5767871093750001</v>
+      </c>
+      <c r="G1156">
+        <v>42561308</v>
+      </c>
+      <c r="H1156">
+        <v>42561308</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1157" s="1">
+        <v>45615</v>
+      </c>
+      <c r="B1157">
+        <v>3580.97509765625</v>
+      </c>
+      <c r="C1157">
+        <v>3660.383056640625</v>
+      </c>
+      <c r="D1157">
+        <v>3543.72900390625</v>
+      </c>
+      <c r="E1157">
+        <v>3654.51611328125</v>
+      </c>
+      <c r="F1157">
+        <f t="shared" si="9"/>
+        <v>3.6545161132812498</v>
+      </c>
+      <c r="G1157">
+        <v>41945228</v>
+      </c>
+      <c r="H1157">
+        <v>41945228</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1158" s="1">
+        <v>45616</v>
+      </c>
+      <c r="B1158">
+        <v>3644.827880859375</v>
+      </c>
+      <c r="C1158">
+        <v>3697.092041015625</v>
+      </c>
+      <c r="D1158">
+        <v>3638.93408203125</v>
+      </c>
+      <c r="E1158">
+        <v>3682.0859375</v>
+      </c>
+      <c r="F1158">
+        <f t="shared" si="9"/>
+        <v>3.6820859375000001</v>
+      </c>
+      <c r="G1158">
+        <v>44020372</v>
+      </c>
+      <c r="H1158">
+        <v>44020372</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1159" s="1">
+        <v>45617</v>
+      </c>
+      <c r="B1159">
+        <v>3669.535888671875</v>
+      </c>
+      <c r="C1159">
+        <v>3694.470947265625</v>
+      </c>
+      <c r="D1159">
+        <v>3643.4560546875</v>
+      </c>
+      <c r="E1159">
+        <v>3667.54296875</v>
+      </c>
+      <c r="F1159">
+        <f t="shared" si="9"/>
+        <v>3.6675429687499999</v>
+      </c>
+      <c r="G1159">
+        <v>39379620</v>
+      </c>
+      <c r="H1159">
+        <v>39379620</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1160" s="1">
+        <v>45618</v>
+      </c>
+      <c r="B1160">
+        <v>3658.556884765625</v>
+      </c>
+      <c r="C1160">
+        <v>3687.885986328125</v>
+      </c>
+      <c r="D1160">
+        <v>3549.98291015625</v>
+      </c>
+      <c r="E1160">
+        <v>3551.125</v>
+      </c>
+      <c r="F1160">
+        <f t="shared" si="9"/>
+        <v>3.5511249999999999</v>
+      </c>
+      <c r="G1160">
+        <v>41484084</v>
+      </c>
+      <c r="H1160">
+        <v>41484084</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1161" s="1">
+        <v>45621</v>
+      </c>
+      <c r="B1161">
+        <v>3566.531005859375</v>
+      </c>
+      <c r="C1161">
+        <v>3583.346923828125</v>
+      </c>
+      <c r="D1161">
+        <v>3496.113037109375</v>
+      </c>
+      <c r="E1161">
+        <v>3542.298095703125</v>
+      </c>
+      <c r="F1161">
+        <f t="shared" si="9"/>
+        <v>3.5422980957031251</v>
+      </c>
+      <c r="G1161">
+        <v>35388640</v>
+      </c>
+      <c r="H1161">
+        <v>35388640</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1162" s="1">
+        <v>45622</v>
+      </c>
+      <c r="B1162">
+        <v>3523.3349609375</v>
+      </c>
+      <c r="C1162">
+        <v>3549.97412109375</v>
+      </c>
+      <c r="D1162">
+        <v>3493.01708984375</v>
+      </c>
+      <c r="E1162">
+        <v>3495.4951171875</v>
+      </c>
+      <c r="F1162">
+        <f t="shared" si="9"/>
+        <v>3.4954951171875002</v>
+      </c>
+      <c r="G1162">
+        <v>26474894</v>
+      </c>
+      <c r="H1162">
+        <v>26474894</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1163" s="1">
+        <v>45623</v>
+      </c>
+      <c r="B1163">
+        <v>3474.52490234375</v>
+      </c>
+      <c r="C1163">
+        <v>3561.839111328125</v>
+      </c>
+      <c r="D1163">
+        <v>3444.5390625</v>
+      </c>
+      <c r="E1163">
+        <v>3561.839111328125</v>
+      </c>
+      <c r="F1163">
+        <f t="shared" si="9"/>
+        <v>3.5618391113281249</v>
+      </c>
+      <c r="G1163">
+        <v>30208858</v>
+      </c>
+      <c r="H1163">
+        <v>30208858</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1164" s="1">
+        <v>45624</v>
+      </c>
+      <c r="B1164">
+        <v>3561.52392578125</v>
+      </c>
+      <c r="C1164">
+        <v>3561.52392578125</v>
+      </c>
+      <c r="D1164">
+        <v>3502.697998046875</v>
+      </c>
+      <c r="E1164">
+        <v>3510.43408203125</v>
+      </c>
+      <c r="F1164">
+        <f t="shared" si="9"/>
+        <v>3.5104340820312498</v>
+      </c>
+      <c r="G1164">
+        <v>28604794</v>
+      </c>
+      <c r="H1164">
+        <v>28604794</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1165" s="1">
+        <v>45625</v>
+      </c>
+      <c r="B1165">
+        <v>3492.992919921875</v>
+      </c>
+      <c r="C1165">
+        <v>3606.385986328125</v>
+      </c>
+      <c r="D1165">
+        <v>3492.992919921875</v>
+      </c>
+      <c r="E1165">
+        <v>3569.5390625</v>
+      </c>
+      <c r="F1165">
+        <f t="shared" si="9"/>
+        <v>3.5695390625000001</v>
+      </c>
+      <c r="G1165">
+        <v>35054512</v>
+      </c>
+      <c r="H1165">
+        <v>35054512</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index.xlsx
+++ b/lai/valuationquan/szseinnovation100index.xlsx
@@ -400,10 +400,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H1165"/>
+  <dimension ref="A1:H1187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1146" workbookViewId="0">
-      <selection activeCell="A1166" sqref="A1166"/>
+    <sheetView tabSelected="1" topLeftCell="A1167" workbookViewId="0">
+      <selection activeCell="A1188" sqref="A1188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -26241,7 +26241,7 @@
         <v>2821.385009765625</v>
       </c>
       <c r="F958">
-        <f t="shared" ref="F958:F1165" si="9">E958/1000</f>
+        <f t="shared" ref="F958:F1187" si="9">E958/1000</f>
         <v>2.821385009765625</v>
       </c>
       <c r="G958">
@@ -31838,6 +31838,600 @@
       </c>
       <c r="H1165">
         <v>35054512</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1166" s="1">
+        <v>45628</v>
+      </c>
+      <c r="B1166">
+        <v>3565.10205078125</v>
+      </c>
+      <c r="C1166">
+        <v>3629.222900390625</v>
+      </c>
+      <c r="D1166">
+        <v>3556.635009765625</v>
+      </c>
+      <c r="E1166">
+        <v>3619.322021484375</v>
+      </c>
+      <c r="F1166">
+        <f t="shared" si="9"/>
+        <v>3.6193220214843751</v>
+      </c>
+      <c r="G1166">
+        <v>36223220</v>
+      </c>
+      <c r="H1166">
+        <v>36223220</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1167" s="1">
+        <v>45629</v>
+      </c>
+      <c r="B1167">
+        <v>3617.6640625</v>
+      </c>
+      <c r="C1167">
+        <v>3618.4599609375</v>
+      </c>
+      <c r="D1167">
+        <v>3563.868896484375</v>
+      </c>
+      <c r="E1167">
+        <v>3592.68798828125</v>
+      </c>
+      <c r="F1167">
+        <f t="shared" si="9"/>
+        <v>3.5926879882812499</v>
+      </c>
+      <c r="G1167">
+        <v>33191556</v>
+      </c>
+      <c r="H1167">
+        <v>33191556</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1168" s="1">
+        <v>45630</v>
+      </c>
+      <c r="B1168">
+        <v>3589.919921875</v>
+      </c>
+      <c r="C1168">
+        <v>3607.925048828125</v>
+      </c>
+      <c r="D1168">
+        <v>3559.280029296875</v>
+      </c>
+      <c r="E1168">
+        <v>3573.073974609375</v>
+      </c>
+      <c r="F1168">
+        <f t="shared" si="9"/>
+        <v>3.5730739746093749</v>
+      </c>
+      <c r="G1168">
+        <v>35700272</v>
+      </c>
+      <c r="H1168">
+        <v>35700272</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1169" s="1">
+        <v>45631</v>
+      </c>
+      <c r="B1169">
+        <v>3559.862060546875</v>
+      </c>
+      <c r="C1169">
+        <v>3592.797119140625</v>
+      </c>
+      <c r="D1169">
+        <v>3556.514892578125</v>
+      </c>
+      <c r="E1169">
+        <v>3570.251953125</v>
+      </c>
+      <c r="F1169">
+        <f t="shared" si="9"/>
+        <v>3.5702519531250001</v>
+      </c>
+      <c r="G1169">
+        <v>30343116</v>
+      </c>
+      <c r="H1169">
+        <v>30343116</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1170" s="1">
+        <v>45632</v>
+      </c>
+      <c r="B1170">
+        <v>3577.610107421875</v>
+      </c>
+      <c r="C1170">
+        <v>3665.466064453125</v>
+      </c>
+      <c r="D1170">
+        <v>3577.610107421875</v>
+      </c>
+      <c r="E1170">
+        <v>3643.049072265625</v>
+      </c>
+      <c r="F1170">
+        <f t="shared" si="9"/>
+        <v>3.643049072265625</v>
+      </c>
+      <c r="G1170">
+        <v>36395524</v>
+      </c>
+      <c r="H1170">
+        <v>36395524</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1171" s="1">
+        <v>45635</v>
+      </c>
+      <c r="B1171">
+        <v>3635.174072265625</v>
+      </c>
+      <c r="C1171">
+        <v>3658.866943359375</v>
+      </c>
+      <c r="D1171">
+        <v>3611.431884765625</v>
+      </c>
+      <c r="E1171">
+        <v>3634.50390625</v>
+      </c>
+      <c r="F1171">
+        <f t="shared" si="9"/>
+        <v>3.63450390625</v>
+      </c>
+      <c r="G1171">
+        <v>31789804</v>
+      </c>
+      <c r="H1171">
+        <v>31789804</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1172" s="1">
+        <v>45636</v>
+      </c>
+      <c r="B1172">
+        <v>3778.694091796875</v>
+      </c>
+      <c r="C1172">
+        <v>3778.694091796875</v>
+      </c>
+      <c r="D1172">
+        <v>3647.469970703125</v>
+      </c>
+      <c r="E1172">
+        <v>3655.958984375</v>
+      </c>
+      <c r="F1172">
+        <f t="shared" si="9"/>
+        <v>3.6559589843750002</v>
+      </c>
+      <c r="G1172">
+        <v>41262432</v>
+      </c>
+      <c r="H1172">
+        <v>41262432</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1173" s="1">
+        <v>45637</v>
+      </c>
+      <c r="B1173">
+        <v>3652.1650390625</v>
+      </c>
+      <c r="C1173">
+        <v>3675.008056640625</v>
+      </c>
+      <c r="D1173">
+        <v>3639.011962890625</v>
+      </c>
+      <c r="E1173">
+        <v>3653.35498046875</v>
+      </c>
+      <c r="F1173">
+        <f t="shared" si="9"/>
+        <v>3.65335498046875</v>
+      </c>
+      <c r="G1173">
+        <v>30944818</v>
+      </c>
+      <c r="H1173">
+        <v>30944818</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1174" s="1">
+        <v>45638</v>
+      </c>
+      <c r="B1174">
+        <v>3648.450927734375</v>
+      </c>
+      <c r="C1174">
+        <v>3695.29296875</v>
+      </c>
+      <c r="D1174">
+        <v>3640.916015625</v>
+      </c>
+      <c r="E1174">
+        <v>3688.998046875</v>
+      </c>
+      <c r="F1174">
+        <f t="shared" si="9"/>
+        <v>3.6889980468750001</v>
+      </c>
+      <c r="G1174">
+        <v>28696242</v>
+      </c>
+      <c r="H1174">
+        <v>28696242</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1175" s="1">
+        <v>45639</v>
+      </c>
+      <c r="B1175">
+        <v>3660.14990234375</v>
+      </c>
+      <c r="C1175">
+        <v>3663.93505859375</v>
+      </c>
+      <c r="D1175">
+        <v>3599.195068359375</v>
+      </c>
+      <c r="E1175">
+        <v>3601.510986328125</v>
+      </c>
+      <c r="F1175">
+        <f t="shared" si="9"/>
+        <v>3.6015109863281252</v>
+      </c>
+      <c r="G1175">
+        <v>31181860</v>
+      </c>
+      <c r="H1175">
+        <v>31181860</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1176" s="1">
+        <v>45642</v>
+      </c>
+      <c r="B1176">
+        <v>3600.2958984375</v>
+      </c>
+      <c r="C1176">
+        <v>3606.85205078125</v>
+      </c>
+      <c r="D1176">
+        <v>3556.0791015625</v>
+      </c>
+      <c r="E1176">
+        <v>3567.886962890625</v>
+      </c>
+      <c r="F1176">
+        <f t="shared" si="9"/>
+        <v>3.5678869628906251</v>
+      </c>
+      <c r="G1176">
+        <v>30931350</v>
+      </c>
+      <c r="H1176">
+        <v>30931350</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1177" s="1">
+        <v>45643</v>
+      </c>
+      <c r="B1177">
+        <v>3568.8701171875</v>
+      </c>
+      <c r="C1177">
+        <v>3636.306884765625</v>
+      </c>
+      <c r="D1177">
+        <v>3568.8701171875</v>
+      </c>
+      <c r="E1177">
+        <v>3582.576904296875</v>
+      </c>
+      <c r="F1177">
+        <f t="shared" si="9"/>
+        <v>3.5825769042968751</v>
+      </c>
+      <c r="G1177">
+        <v>32580948</v>
+      </c>
+      <c r="H1177">
+        <v>32580948</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1178" s="1">
+        <v>45644</v>
+      </c>
+      <c r="B1178">
+        <v>3590.93603515625</v>
+      </c>
+      <c r="C1178">
+        <v>3624.090087890625</v>
+      </c>
+      <c r="D1178">
+        <v>3582.200927734375</v>
+      </c>
+      <c r="E1178">
+        <v>3605.801025390625</v>
+      </c>
+      <c r="F1178">
+        <f t="shared" si="9"/>
+        <v>3.6058010253906252</v>
+      </c>
+      <c r="G1178">
+        <v>28702706</v>
+      </c>
+      <c r="H1178">
+        <v>28702706</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1179" s="1">
+        <v>45645</v>
+      </c>
+      <c r="B1179">
+        <v>3577.27392578125</v>
+      </c>
+      <c r="C1179">
+        <v>3661.659912109375</v>
+      </c>
+      <c r="D1179">
+        <v>3574.033935546875</v>
+      </c>
+      <c r="E1179">
+        <v>3650.486083984375</v>
+      </c>
+      <c r="F1179">
+        <f t="shared" si="9"/>
+        <v>3.6504860839843749</v>
+      </c>
+      <c r="G1179">
+        <v>38115232</v>
+      </c>
+      <c r="H1179">
+        <v>38115232</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1180" s="1">
+        <v>45646</v>
+      </c>
+      <c r="B1180">
+        <v>3645.18408203125</v>
+      </c>
+      <c r="C1180">
+        <v>3676.472900390625</v>
+      </c>
+      <c r="D1180">
+        <v>3634.991943359375</v>
+      </c>
+      <c r="E1180">
+        <v>3645.097900390625</v>
+      </c>
+      <c r="F1180">
+        <f t="shared" si="9"/>
+        <v>3.645097900390625</v>
+      </c>
+      <c r="G1180">
+        <v>36768056</v>
+      </c>
+      <c r="H1180">
+        <v>36768056</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1181" s="1">
+        <v>45649</v>
+      </c>
+      <c r="B1181">
+        <v>3652.595947265625</v>
+      </c>
+      <c r="C1181">
+        <v>3672.156982421875</v>
+      </c>
+      <c r="D1181">
+        <v>3615.9970703125</v>
+      </c>
+      <c r="E1181">
+        <v>3619.43505859375</v>
+      </c>
+      <c r="F1181">
+        <f t="shared" si="9"/>
+        <v>3.61943505859375</v>
+      </c>
+      <c r="G1181">
+        <v>35980176</v>
+      </c>
+      <c r="H1181">
+        <v>35980176</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1182" s="1">
+        <v>45650</v>
+      </c>
+      <c r="B1182">
+        <v>3621.7490234375</v>
+      </c>
+      <c r="C1182">
+        <v>3675.116943359375</v>
+      </c>
+      <c r="D1182">
+        <v>3621.7490234375</v>
+      </c>
+      <c r="E1182">
+        <v>3674.864990234375</v>
+      </c>
+      <c r="F1182">
+        <f t="shared" si="9"/>
+        <v>3.6748649902343749</v>
+      </c>
+      <c r="G1182">
+        <v>30229310</v>
+      </c>
+      <c r="H1182">
+        <v>30229310</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1183" s="1">
+        <v>45651</v>
+      </c>
+      <c r="B1183">
+        <v>3677.623046875</v>
+      </c>
+      <c r="C1183">
+        <v>3689.43408203125</v>
+      </c>
+      <c r="D1183">
+        <v>3645.77392578125</v>
+      </c>
+      <c r="E1183">
+        <v>3662.034912109375</v>
+      </c>
+      <c r="F1183">
+        <f t="shared" si="9"/>
+        <v>3.6620349121093749</v>
+      </c>
+      <c r="G1183">
+        <v>27971144</v>
+      </c>
+      <c r="H1183">
+        <v>27971144</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1184" s="1">
+        <v>45652</v>
+      </c>
+      <c r="B1184">
+        <v>3656.868896484375</v>
+      </c>
+      <c r="C1184">
+        <v>3709.01611328125</v>
+      </c>
+      <c r="D1184">
+        <v>3642.967041015625</v>
+      </c>
+      <c r="E1184">
+        <v>3704.12890625</v>
+      </c>
+      <c r="F1184">
+        <f t="shared" si="9"/>
+        <v>3.7041289062499998</v>
+      </c>
+      <c r="G1184">
+        <v>32974174</v>
+      </c>
+      <c r="H1184">
+        <v>32974174</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1185" s="1">
+        <v>45653</v>
+      </c>
+      <c r="B1185">
+        <v>3707.79296875</v>
+      </c>
+      <c r="C1185">
+        <v>3723.4560546875</v>
+      </c>
+      <c r="D1185">
+        <v>3673.139892578125</v>
+      </c>
+      <c r="E1185">
+        <v>3682.1240234375</v>
+      </c>
+      <c r="F1185">
+        <f t="shared" si="9"/>
+        <v>3.6821240234374999</v>
+      </c>
+      <c r="G1185">
+        <v>32874270</v>
+      </c>
+      <c r="H1185">
+        <v>32874270</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1186" s="1">
+        <v>45656</v>
+      </c>
+      <c r="B1186">
+        <v>3678.739990234375</v>
+      </c>
+      <c r="C1186">
+        <v>3714.94189453125</v>
+      </c>
+      <c r="D1186">
+        <v>3676.77490234375</v>
+      </c>
+      <c r="E1186">
+        <v>3686.52197265625</v>
+      </c>
+      <c r="F1186">
+        <f t="shared" si="9"/>
+        <v>3.6865219726562501</v>
+      </c>
+      <c r="G1186">
+        <v>28056466</v>
+      </c>
+      <c r="H1186">
+        <v>28056466</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1187" s="1">
+        <v>45657</v>
+      </c>
+      <c r="B1187">
+        <v>3682.446044921875</v>
+      </c>
+      <c r="C1187">
+        <v>3689.281005859375</v>
+      </c>
+      <c r="D1187">
+        <v>3609.4609375</v>
+      </c>
+      <c r="E1187">
+        <v>3609.464111328125</v>
+      </c>
+      <c r="F1187">
+        <f t="shared" si="9"/>
+        <v>3.6094641113281249</v>
+      </c>
+      <c r="G1187">
+        <v>31216110</v>
+      </c>
+      <c r="H1187">
+        <v>31216110</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index.xlsx
+++ b/lai/valuationquan/szseinnovation100index.xlsx
@@ -400,10 +400,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H1187"/>
+  <dimension ref="A1:H1205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1167" workbookViewId="0">
-      <selection activeCell="A1188" sqref="A1188"/>
+    <sheetView tabSelected="1" topLeftCell="A1197" workbookViewId="0">
+      <selection activeCell="A1206" sqref="A1206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -26241,7 +26241,7 @@
         <v>2821.385009765625</v>
       </c>
       <c r="F958">
-        <f t="shared" ref="F958:F1187" si="9">E958/1000</f>
+        <f t="shared" ref="F958:F1205" si="9">E958/1000</f>
         <v>2.821385009765625</v>
       </c>
       <c r="G958">
@@ -32432,6 +32432,492 @@
       </c>
       <c r="H1187">
         <v>31216110</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1188" s="1">
+        <v>45659</v>
+      </c>
+      <c r="B1188">
+        <v>3605.31005859375</v>
+      </c>
+      <c r="C1188">
+        <v>3607.199951171875</v>
+      </c>
+      <c r="D1188">
+        <v>3465.698974609375</v>
+      </c>
+      <c r="E1188">
+        <v>3491.6259765625</v>
+      </c>
+      <c r="F1188">
+        <f t="shared" si="9"/>
+        <v>3.4916259765625002</v>
+      </c>
+      <c r="G1188">
+        <v>31713366</v>
+      </c>
+      <c r="H1188">
+        <v>31713366</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1189" s="1">
+        <v>45660</v>
+      </c>
+      <c r="B1189">
+        <v>3492.9541015625</v>
+      </c>
+      <c r="C1189">
+        <v>3499.655029296875</v>
+      </c>
+      <c r="D1189">
+        <v>3422.152099609375</v>
+      </c>
+      <c r="E1189">
+        <v>3423.20703125</v>
+      </c>
+      <c r="F1189">
+        <f t="shared" si="9"/>
+        <v>3.42320703125</v>
+      </c>
+      <c r="G1189">
+        <v>28696226</v>
+      </c>
+      <c r="H1189">
+        <v>28696226</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1190" s="1">
+        <v>45663</v>
+      </c>
+      <c r="B1190">
+        <v>3429.6708984375</v>
+      </c>
+      <c r="C1190">
+        <v>3451.7470703125</v>
+      </c>
+      <c r="D1190">
+        <v>3398.22705078125</v>
+      </c>
+      <c r="E1190">
+        <v>3420.861083984375</v>
+      </c>
+      <c r="F1190">
+        <f t="shared" si="9"/>
+        <v>3.4208610839843749</v>
+      </c>
+      <c r="G1190">
+        <v>22491406</v>
+      </c>
+      <c r="H1190">
+        <v>22491406</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1191" s="1">
+        <v>45664</v>
+      </c>
+      <c r="B1191">
+        <v>3396.485107421875</v>
+      </c>
+      <c r="C1191">
+        <v>3457.259033203125</v>
+      </c>
+      <c r="D1191">
+        <v>3380.114013671875</v>
+      </c>
+      <c r="E1191">
+        <v>3456.64599609375</v>
+      </c>
+      <c r="F1191">
+        <f t="shared" si="9"/>
+        <v>3.4566459960937501</v>
+      </c>
+      <c r="G1191">
+        <v>25015820</v>
+      </c>
+      <c r="H1191">
+        <v>25015820</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1192" s="1">
+        <v>45665</v>
+      </c>
+      <c r="B1192">
+        <v>3431.593017578125</v>
+      </c>
+      <c r="C1192">
+        <v>3470.718017578125</v>
+      </c>
+      <c r="D1192">
+        <v>3369.74609375</v>
+      </c>
+      <c r="E1192">
+        <v>3445.47509765625</v>
+      </c>
+      <c r="F1192">
+        <f t="shared" si="9"/>
+        <v>3.4454750976562498</v>
+      </c>
+      <c r="G1192">
+        <v>30327088</v>
+      </c>
+      <c r="H1192">
+        <v>30327088</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1193" s="1">
+        <v>45666</v>
+      </c>
+      <c r="B1193">
+        <v>3428.177978515625</v>
+      </c>
+      <c r="C1193">
+        <v>3494.044921875</v>
+      </c>
+      <c r="D1193">
+        <v>3427.02392578125</v>
+      </c>
+      <c r="E1193">
+        <v>3476.98095703125</v>
+      </c>
+      <c r="F1193">
+        <f t="shared" si="9"/>
+        <v>3.47698095703125</v>
+      </c>
+      <c r="G1193">
+        <v>28330434</v>
+      </c>
+      <c r="H1193">
+        <v>28330434</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1194" s="1">
+        <v>45667</v>
+      </c>
+      <c r="B1194">
+        <v>3472.096923828125</v>
+      </c>
+      <c r="C1194">
+        <v>3490.972900390625</v>
+      </c>
+      <c r="D1194">
+        <v>3426.22705078125</v>
+      </c>
+      <c r="E1194">
+        <v>3426.22705078125</v>
+      </c>
+      <c r="F1194">
+        <f t="shared" si="9"/>
+        <v>3.4262270507812498</v>
+      </c>
+      <c r="G1194">
+        <v>29926050</v>
+      </c>
+      <c r="H1194">
+        <v>29926050</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1195" s="1">
+        <v>45670</v>
+      </c>
+      <c r="B1195">
+        <v>3390.389892578125</v>
+      </c>
+      <c r="C1195">
+        <v>3446.06396484375</v>
+      </c>
+      <c r="D1195">
+        <v>3388.013916015625</v>
+      </c>
+      <c r="E1195">
+        <v>3408.56103515625</v>
+      </c>
+      <c r="F1195">
+        <f t="shared" si="9"/>
+        <v>3.4085610351562501</v>
+      </c>
+      <c r="G1195">
+        <v>23935616</v>
+      </c>
+      <c r="H1195">
+        <v>23935616</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1196" s="1">
+        <v>45671</v>
+      </c>
+      <c r="B1196">
+        <v>3418.159912109375</v>
+      </c>
+      <c r="C1196">
+        <v>3550.989990234375</v>
+      </c>
+      <c r="D1196">
+        <v>3395.52490234375</v>
+      </c>
+      <c r="E1196">
+        <v>3542.425048828125</v>
+      </c>
+      <c r="F1196">
+        <f t="shared" si="9"/>
+        <v>3.5424250488281248</v>
+      </c>
+      <c r="G1196">
+        <v>35939836</v>
+      </c>
+      <c r="H1196">
+        <v>35939836</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1197" s="1">
+        <v>45672</v>
+      </c>
+      <c r="B1197">
+        <v>3532.910888671875</v>
+      </c>
+      <c r="C1197">
+        <v>3533.3720703125</v>
+      </c>
+      <c r="D1197">
+        <v>3481.093017578125</v>
+      </c>
+      <c r="E1197">
+        <v>3489.87109375</v>
+      </c>
+      <c r="F1197">
+        <f t="shared" si="9"/>
+        <v>3.4898710937500002</v>
+      </c>
+      <c r="G1197">
+        <v>29355638</v>
+      </c>
+      <c r="H1197">
+        <v>29355638</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1198" s="1">
+        <v>45673</v>
+      </c>
+      <c r="B1198">
+        <v>3506.256103515625</v>
+      </c>
+      <c r="C1198">
+        <v>3561.10009765625</v>
+      </c>
+      <c r="D1198">
+        <v>3468.487060546875</v>
+      </c>
+      <c r="E1198">
+        <v>3501.39892578125</v>
+      </c>
+      <c r="F1198">
+        <f t="shared" si="9"/>
+        <v>3.5013989257812499</v>
+      </c>
+      <c r="G1198">
+        <v>30191814</v>
+      </c>
+      <c r="H1198">
+        <v>30191814</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1199" s="1">
+        <v>45674</v>
+      </c>
+      <c r="B1199">
+        <v>3487.126953125</v>
+      </c>
+      <c r="C1199">
+        <v>3559.1279296875</v>
+      </c>
+      <c r="D1199">
+        <v>3480.3310546875</v>
+      </c>
+      <c r="E1199">
+        <v>3530.049072265625</v>
+      </c>
+      <c r="F1199">
+        <f t="shared" si="9"/>
+        <v>3.530049072265625</v>
+      </c>
+      <c r="G1199">
+        <v>26671818</v>
+      </c>
+      <c r="H1199">
+        <v>26671818</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1200" s="1">
+        <v>45677</v>
+      </c>
+      <c r="B1200">
+        <v>3568.218994140625</v>
+      </c>
+      <c r="C1200">
+        <v>3618.48291015625</v>
+      </c>
+      <c r="D1200">
+        <v>3568.218994140625</v>
+      </c>
+      <c r="E1200">
+        <v>3592.905029296875</v>
+      </c>
+      <c r="F1200">
+        <f t="shared" si="9"/>
+        <v>3.5929050292968752</v>
+      </c>
+      <c r="G1200">
+        <v>28655130</v>
+      </c>
+      <c r="H1200">
+        <v>28655130</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1201" s="1">
+        <v>45678</v>
+      </c>
+      <c r="B1201">
+        <v>3618.1240234375</v>
+      </c>
+      <c r="C1201">
+        <v>3632.343994140625</v>
+      </c>
+      <c r="D1201">
+        <v>3584.3779296875</v>
+      </c>
+      <c r="E1201">
+        <v>3624.221923828125</v>
+      </c>
+      <c r="F1201">
+        <f t="shared" si="9"/>
+        <v>3.624221923828125</v>
+      </c>
+      <c r="G1201">
+        <v>30664398</v>
+      </c>
+      <c r="H1201">
+        <v>30664398</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1202" s="1">
+        <v>45679</v>
+      </c>
+      <c r="B1202">
+        <v>3613.7041015625</v>
+      </c>
+      <c r="C1202">
+        <v>3618.3701171875</v>
+      </c>
+      <c r="D1202">
+        <v>3568.95703125</v>
+      </c>
+      <c r="E1202">
+        <v>3596.930908203125</v>
+      </c>
+      <c r="F1202">
+        <f t="shared" si="9"/>
+        <v>3.5969309082031251</v>
+      </c>
+      <c r="G1202">
+        <v>27970156</v>
+      </c>
+      <c r="H1202">
+        <v>27970156</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1203" s="1">
+        <v>45680</v>
+      </c>
+      <c r="B1203">
+        <v>3630.7880859375</v>
+      </c>
+      <c r="C1203">
+        <v>3651.427978515625</v>
+      </c>
+      <c r="D1203">
+        <v>3566.864013671875</v>
+      </c>
+      <c r="E1203">
+        <v>3568.39794921875</v>
+      </c>
+      <c r="F1203">
+        <f t="shared" si="9"/>
+        <v>3.5683979492187499</v>
+      </c>
+      <c r="G1203">
+        <v>34671468</v>
+      </c>
+      <c r="H1203">
+        <v>34671468</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1204" s="1">
+        <v>45681</v>
+      </c>
+      <c r="B1204">
+        <v>3555.7958984375</v>
+      </c>
+      <c r="C1204">
+        <v>3636.842041015625</v>
+      </c>
+      <c r="D1204">
+        <v>3555.7958984375</v>
+      </c>
+      <c r="E1204">
+        <v>3625.001953125</v>
+      </c>
+      <c r="F1204">
+        <f t="shared" si="9"/>
+        <v>3.625001953125</v>
+      </c>
+      <c r="G1204">
+        <v>34075376</v>
+      </c>
+      <c r="H1204">
+        <v>34075376</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1205" s="1">
+        <v>45684</v>
+      </c>
+      <c r="B1205">
+        <v>3625.426025390625</v>
+      </c>
+      <c r="C1205">
+        <v>3626.722900390625</v>
+      </c>
+      <c r="D1205">
+        <v>3556.052978515625</v>
+      </c>
+      <c r="E1205">
+        <v>3556.052978515625</v>
+      </c>
+      <c r="F1205">
+        <f t="shared" si="9"/>
+        <v>3.5560529785156252</v>
+      </c>
+      <c r="G1205">
+        <v>29472574</v>
+      </c>
+      <c r="H1205">
+        <v>29472574</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index.xlsx
+++ b/lai/valuationquan/szseinnovation100index.xlsx
@@ -400,10 +400,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H1205"/>
+  <dimension ref="A1:H1223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1197" workbookViewId="0">
-      <selection activeCell="A1206" sqref="A1206"/>
+    <sheetView tabSelected="1" topLeftCell="A1206" workbookViewId="0">
+      <selection activeCell="A1224" sqref="A1224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -26241,7 +26241,7 @@
         <v>2821.385009765625</v>
       </c>
       <c r="F958">
-        <f t="shared" ref="F958:F1205" si="9">E958/1000</f>
+        <f t="shared" ref="F958:F1212" si="9">E958/1000</f>
         <v>2.821385009765625</v>
       </c>
       <c r="G958">
@@ -32918,6 +32918,492 @@
       </c>
       <c r="H1205">
         <v>29472574</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1206" s="1">
+        <v>45693</v>
+      </c>
+      <c r="B1206">
+        <v>3593.4189453125</v>
+      </c>
+      <c r="C1206">
+        <v>3593.968994140625</v>
+      </c>
+      <c r="D1206">
+        <v>3552.5439453125</v>
+      </c>
+      <c r="E1206">
+        <v>3566.55908203125</v>
+      </c>
+      <c r="F1206">
+        <f t="shared" si="9"/>
+        <v>3.56655908203125</v>
+      </c>
+      <c r="G1206">
+        <v>34321636</v>
+      </c>
+      <c r="H1206">
+        <v>34321636</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1207" s="1">
+        <v>45694</v>
+      </c>
+      <c r="B1207">
+        <v>3559.68408203125</v>
+      </c>
+      <c r="C1207">
+        <v>3683.844970703125</v>
+      </c>
+      <c r="D1207">
+        <v>3555.77392578125</v>
+      </c>
+      <c r="E1207">
+        <v>3683.844970703125</v>
+      </c>
+      <c r="F1207">
+        <f t="shared" si="9"/>
+        <v>3.6838449707031251</v>
+      </c>
+      <c r="G1207">
+        <v>41381596</v>
+      </c>
+      <c r="H1207">
+        <v>41381596</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1208" s="1">
+        <v>45695</v>
+      </c>
+      <c r="B1208">
+        <v>3702.47998046875</v>
+      </c>
+      <c r="C1208">
+        <v>3790.31689453125</v>
+      </c>
+      <c r="D1208">
+        <v>3681.277099609375</v>
+      </c>
+      <c r="E1208">
+        <v>3758.135986328125</v>
+      </c>
+      <c r="F1208">
+        <f t="shared" si="9"/>
+        <v>3.7581359863281252</v>
+      </c>
+      <c r="G1208">
+        <v>51731540</v>
+      </c>
+      <c r="H1208">
+        <v>51731540</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1209" s="1">
+        <v>45698</v>
+      </c>
+      <c r="B1209">
+        <v>3763.65087890625</v>
+      </c>
+      <c r="C1209">
+        <v>3775.06591796875</v>
+      </c>
+      <c r="D1209">
+        <v>3722.304931640625</v>
+      </c>
+      <c r="E1209">
+        <v>3767.757080078125</v>
+      </c>
+      <c r="F1209">
+        <f t="shared" si="9"/>
+        <v>3.767757080078125</v>
+      </c>
+      <c r="G1209">
+        <v>49168176</v>
+      </c>
+      <c r="H1209">
+        <v>49168176</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1210" s="1">
+        <v>45699</v>
+      </c>
+      <c r="B1210">
+        <v>3779.04296875</v>
+      </c>
+      <c r="C1210">
+        <v>3779.04296875</v>
+      </c>
+      <c r="D1210">
+        <v>3736.843994140625</v>
+      </c>
+      <c r="E1210">
+        <v>3747.76904296875</v>
+      </c>
+      <c r="F1210">
+        <f t="shared" si="9"/>
+        <v>3.7477690429687498</v>
+      </c>
+      <c r="G1210">
+        <v>44748432</v>
+      </c>
+      <c r="H1210">
+        <v>44748432</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1211" s="1">
+        <v>45700</v>
+      </c>
+      <c r="B1211">
+        <v>3731.382080078125</v>
+      </c>
+      <c r="C1211">
+        <v>3803.85400390625</v>
+      </c>
+      <c r="D1211">
+        <v>3714.470947265625</v>
+      </c>
+      <c r="E1211">
+        <v>3800.652099609375</v>
+      </c>
+      <c r="F1211">
+        <f t="shared" si="9"/>
+        <v>3.8006520996093749</v>
+      </c>
+      <c r="G1211">
+        <v>45461288</v>
+      </c>
+      <c r="H1211">
+        <v>45461288</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1212" s="1">
+        <v>45701</v>
+      </c>
+      <c r="B1212">
+        <v>3787.597900390625</v>
+      </c>
+      <c r="C1212">
+        <v>3794.678955078125</v>
+      </c>
+      <c r="D1212">
+        <v>3740.089111328125</v>
+      </c>
+      <c r="E1212">
+        <v>3742.10205078125</v>
+      </c>
+      <c r="F1212">
+        <f t="shared" si="9"/>
+        <v>3.7421020507812499</v>
+      </c>
+      <c r="G1212">
+        <v>44446848</v>
+      </c>
+      <c r="H1212">
+        <v>44446848</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1213" s="1">
+        <v>45702</v>
+      </c>
+      <c r="B1213">
+        <v>3736.18994140625</v>
+      </c>
+      <c r="C1213">
+        <v>3816.153076171875</v>
+      </c>
+      <c r="D1213">
+        <v>3736.18994140625</v>
+      </c>
+      <c r="E1213">
+        <v>3806.216064453125</v>
+      </c>
+      <c r="F1213">
+        <f t="shared" ref="F1213:F1223" si="10">E1213/1000</f>
+        <v>3.8062160644531251</v>
+      </c>
+      <c r="G1213">
+        <v>41966500</v>
+      </c>
+      <c r="H1213">
+        <v>41966500</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1214" s="1">
+        <v>45705</v>
+      </c>
+      <c r="B1214">
+        <v>3834.0791015625</v>
+      </c>
+      <c r="C1214">
+        <v>3842.572021484375</v>
+      </c>
+      <c r="D1214">
+        <v>3799.916015625</v>
+      </c>
+      <c r="E1214">
+        <v>3830.537109375</v>
+      </c>
+      <c r="F1214">
+        <f t="shared" si="10"/>
+        <v>3.8305371093749998</v>
+      </c>
+      <c r="G1214">
+        <v>46047012</v>
+      </c>
+      <c r="H1214">
+        <v>46047012</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1215" s="1">
+        <v>45706</v>
+      </c>
+      <c r="B1215">
+        <v>3832.430908203125</v>
+      </c>
+      <c r="C1215">
+        <v>3861.677001953125</v>
+      </c>
+      <c r="D1215">
+        <v>3776.64892578125</v>
+      </c>
+      <c r="E1215">
+        <v>3791.48291015625</v>
+      </c>
+      <c r="F1215">
+        <f t="shared" si="10"/>
+        <v>3.7914829101562502</v>
+      </c>
+      <c r="G1215">
+        <v>43330564</v>
+      </c>
+      <c r="H1215">
+        <v>43330564</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1216" s="1">
+        <v>45707</v>
+      </c>
+      <c r="B1216">
+        <v>3775.797119140625</v>
+      </c>
+      <c r="C1216">
+        <v>3861.888916015625</v>
+      </c>
+      <c r="D1216">
+        <v>3775.797119140625</v>
+      </c>
+      <c r="E1216">
+        <v>3860.76806640625</v>
+      </c>
+      <c r="F1216">
+        <f t="shared" si="10"/>
+        <v>3.86076806640625</v>
+      </c>
+      <c r="G1216">
+        <v>40271340</v>
+      </c>
+      <c r="H1216">
+        <v>40271340</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1217" s="1">
+        <v>45708</v>
+      </c>
+      <c r="B1217">
+        <v>3862.533935546875</v>
+      </c>
+      <c r="C1217">
+        <v>3875.14697265625</v>
+      </c>
+      <c r="D1217">
+        <v>3831.672119140625</v>
+      </c>
+      <c r="E1217">
+        <v>3863.39892578125</v>
+      </c>
+      <c r="F1217">
+        <f t="shared" si="10"/>
+        <v>3.86339892578125</v>
+      </c>
+      <c r="G1217">
+        <v>41099368</v>
+      </c>
+      <c r="H1217">
+        <v>41099368</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1218" s="1">
+        <v>45709</v>
+      </c>
+      <c r="B1218">
+        <v>3874.5400390625</v>
+      </c>
+      <c r="C1218">
+        <v>3970.947021484375</v>
+      </c>
+      <c r="D1218">
+        <v>3874.5400390625</v>
+      </c>
+      <c r="E1218">
+        <v>3963.327880859375</v>
+      </c>
+      <c r="F1218">
+        <f t="shared" si="10"/>
+        <v>3.9633278808593748</v>
+      </c>
+      <c r="G1218">
+        <v>54009664</v>
+      </c>
+      <c r="H1218">
+        <v>54009664</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1219" s="1">
+        <v>45712</v>
+      </c>
+      <c r="B1219">
+        <v>3963.367919921875</v>
+      </c>
+      <c r="C1219">
+        <v>3983.490966796875</v>
+      </c>
+      <c r="D1219">
+        <v>3913.299072265625</v>
+      </c>
+      <c r="E1219">
+        <v>3947.2880859375</v>
+      </c>
+      <c r="F1219">
+        <f t="shared" si="10"/>
+        <v>3.9472880859375001</v>
+      </c>
+      <c r="G1219">
+        <v>51297724</v>
+      </c>
+      <c r="H1219">
+        <v>51297724</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1220" s="1">
+        <v>45713</v>
+      </c>
+      <c r="B1220">
+        <v>3883.14501953125</v>
+      </c>
+      <c r="C1220">
+        <v>3950.62109375</v>
+      </c>
+      <c r="D1220">
+        <v>3876.779052734375</v>
+      </c>
+      <c r="E1220">
+        <v>3902.5380859375</v>
+      </c>
+      <c r="F1220">
+        <f t="shared" si="10"/>
+        <v>3.9025380859375001</v>
+      </c>
+      <c r="G1220">
+        <v>48793728</v>
+      </c>
+      <c r="H1220">
+        <v>48793728</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1221" s="1">
+        <v>45714</v>
+      </c>
+      <c r="B1221">
+        <v>3905.742919921875</v>
+      </c>
+      <c r="C1221">
+        <v>3945.743896484375</v>
+      </c>
+      <c r="D1221">
+        <v>3882.2490234375</v>
+      </c>
+      <c r="E1221">
+        <v>3936.76904296875</v>
+      </c>
+      <c r="F1221">
+        <f t="shared" si="10"/>
+        <v>3.9367690429687499</v>
+      </c>
+      <c r="G1221">
+        <v>45208192</v>
+      </c>
+      <c r="H1221">
+        <v>45208192</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1222" s="1">
+        <v>45715</v>
+      </c>
+      <c r="B1222">
+        <v>3956.7900390625</v>
+      </c>
+      <c r="C1222">
+        <v>3965.930908203125</v>
+      </c>
+      <c r="D1222">
+        <v>3869.37109375</v>
+      </c>
+      <c r="E1222">
+        <v>3919.9619140625</v>
+      </c>
+      <c r="F1222">
+        <f t="shared" si="10"/>
+        <v>3.9199619140625002</v>
+      </c>
+      <c r="G1222">
+        <v>45891468</v>
+      </c>
+      <c r="H1222">
+        <v>45891468</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1223" s="1">
+        <v>45716</v>
+      </c>
+      <c r="B1223">
+        <v>3892.3798828125</v>
+      </c>
+      <c r="C1223">
+        <v>3897.7939453125</v>
+      </c>
+      <c r="D1223">
+        <v>3776.013916015625</v>
+      </c>
+      <c r="E1223">
+        <v>3787.157958984375</v>
+      </c>
+      <c r="F1223">
+        <f t="shared" si="10"/>
+        <v>3.7871579589843751</v>
+      </c>
+      <c r="G1223">
+        <v>39688228</v>
+      </c>
+      <c r="H1223">
+        <v>39688228</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index.xlsx
+++ b/lai/valuationquan/szseinnovation100index.xlsx
@@ -400,10 +400,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H1223"/>
+  <dimension ref="A1:H1244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1206" workbookViewId="0">
-      <selection activeCell="A1224" sqref="A1224"/>
+    <sheetView tabSelected="1" topLeftCell="A1224" workbookViewId="0">
+      <selection activeCell="A1245" sqref="A1245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -33126,7 +33126,7 @@
         <v>3806.216064453125</v>
       </c>
       <c r="F1213">
-        <f t="shared" ref="F1213:F1223" si="10">E1213/1000</f>
+        <f t="shared" ref="F1213:F1244" si="10">E1213/1000</f>
         <v>3.8062160644531251</v>
       </c>
       <c r="G1213">
@@ -33404,6 +33404,573 @@
       </c>
       <c r="H1223">
         <v>39688228</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1224" s="1">
+        <v>45719</v>
+      </c>
+      <c r="B1224">
+        <v>3796.345947265625</v>
+      </c>
+      <c r="C1224">
+        <v>3851.35595703125</v>
+      </c>
+      <c r="D1224">
+        <v>3757.0400390625</v>
+      </c>
+      <c r="E1224">
+        <v>3788.794921875</v>
+      </c>
+      <c r="F1224">
+        <f t="shared" si="10"/>
+        <v>3.7887949218750001</v>
+      </c>
+      <c r="G1224">
+        <v>34902060</v>
+      </c>
+      <c r="H1224">
+        <v>34902060</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1225" s="1">
+        <v>45720</v>
+      </c>
+      <c r="B1225">
+        <v>3740.133056640625</v>
+      </c>
+      <c r="C1225">
+        <v>3788.14306640625</v>
+      </c>
+      <c r="D1225">
+        <v>3731.68310546875</v>
+      </c>
+      <c r="E1225">
+        <v>3781.178955078125</v>
+      </c>
+      <c r="F1225">
+        <f t="shared" si="10"/>
+        <v>3.7811789550781252</v>
+      </c>
+      <c r="G1225">
+        <v>29158278</v>
+      </c>
+      <c r="H1225">
+        <v>29158278</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1226" s="1">
+        <v>45721</v>
+      </c>
+      <c r="B1226">
+        <v>3785.080078125</v>
+      </c>
+      <c r="C1226">
+        <v>3806.52392578125</v>
+      </c>
+      <c r="D1226">
+        <v>3765.947021484375</v>
+      </c>
+      <c r="E1226">
+        <v>3794.410888671875</v>
+      </c>
+      <c r="F1226">
+        <f t="shared" si="10"/>
+        <v>3.7944108886718748</v>
+      </c>
+      <c r="G1226">
+        <v>27064492</v>
+      </c>
+      <c r="H1226">
+        <v>27064492</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1227" s="1">
+        <v>45722</v>
+      </c>
+      <c r="B1227">
+        <v>3824.889892578125</v>
+      </c>
+      <c r="C1227">
+        <v>3882.9150390625</v>
+      </c>
+      <c r="D1227">
+        <v>3824.889892578125</v>
+      </c>
+      <c r="E1227">
+        <v>3871.343994140625</v>
+      </c>
+      <c r="F1227">
+        <f t="shared" si="10"/>
+        <v>3.8713439941406249</v>
+      </c>
+      <c r="G1227">
+        <v>39595840</v>
+      </c>
+      <c r="H1227">
+        <v>39595840</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1228" s="1">
+        <v>45723</v>
+      </c>
+      <c r="B1228">
+        <v>3857.3330078125</v>
+      </c>
+      <c r="C1228">
+        <v>3880.39794921875</v>
+      </c>
+      <c r="D1228">
+        <v>3830.924072265625</v>
+      </c>
+      <c r="E1228">
+        <v>3847.4140625</v>
+      </c>
+      <c r="F1228">
+        <f t="shared" si="10"/>
+        <v>3.8474140625</v>
+      </c>
+      <c r="G1228">
+        <v>39906124</v>
+      </c>
+      <c r="H1228">
+        <v>39906124</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1229" s="1">
+        <v>45726</v>
+      </c>
+      <c r="B1229">
+        <v>3852.464111328125</v>
+      </c>
+      <c r="C1229">
+        <v>3867.81103515625</v>
+      </c>
+      <c r="D1229">
+        <v>3801.0390625</v>
+      </c>
+      <c r="E1229">
+        <v>3830.77294921875</v>
+      </c>
+      <c r="F1229">
+        <f t="shared" si="10"/>
+        <v>3.8307729492187499</v>
+      </c>
+      <c r="G1229">
+        <v>31350268</v>
+      </c>
+      <c r="H1229">
+        <v>31350268</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1230" s="1">
+        <v>45727</v>
+      </c>
+      <c r="B1230">
+        <v>3777.737060546875</v>
+      </c>
+      <c r="C1230">
+        <v>3823.054931640625</v>
+      </c>
+      <c r="D1230">
+        <v>3776.06298828125</v>
+      </c>
+      <c r="E1230">
+        <v>3817.6640625</v>
+      </c>
+      <c r="F1230">
+        <f t="shared" si="10"/>
+        <v>3.8176640625</v>
+      </c>
+      <c r="G1230">
+        <v>28653192</v>
+      </c>
+      <c r="H1230">
+        <v>28653192</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1231" s="1">
+        <v>45728</v>
+      </c>
+      <c r="B1231">
+        <v>3836.1640625</v>
+      </c>
+      <c r="C1231">
+        <v>3847.469970703125</v>
+      </c>
+      <c r="D1231">
+        <v>3804.406982421875</v>
+      </c>
+      <c r="E1231">
+        <v>3815.073974609375</v>
+      </c>
+      <c r="F1231">
+        <f t="shared" si="10"/>
+        <v>3.8150739746093749</v>
+      </c>
+      <c r="G1231">
+        <v>34801532</v>
+      </c>
+      <c r="H1231">
+        <v>34801532</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1232" s="1">
+        <v>45729</v>
+      </c>
+      <c r="B1232">
+        <v>3810.7890625</v>
+      </c>
+      <c r="C1232">
+        <v>3827.64990234375</v>
+      </c>
+      <c r="D1232">
+        <v>3750.39501953125</v>
+      </c>
+      <c r="E1232">
+        <v>3768.135986328125</v>
+      </c>
+      <c r="F1232">
+        <f t="shared" si="10"/>
+        <v>3.768135986328125</v>
+      </c>
+      <c r="G1232">
+        <v>34582512</v>
+      </c>
+      <c r="H1232">
+        <v>34582512</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1233" s="1">
+        <v>45730</v>
+      </c>
+      <c r="B1233">
+        <v>3765.881103515625</v>
+      </c>
+      <c r="C1233">
+        <v>3859.965087890625</v>
+      </c>
+      <c r="D1233">
+        <v>3761.241943359375</v>
+      </c>
+      <c r="E1233">
+        <v>3857.299072265625</v>
+      </c>
+      <c r="F1233">
+        <f t="shared" si="10"/>
+        <v>3.8572990722656249</v>
+      </c>
+      <c r="G1233">
+        <v>32584700</v>
+      </c>
+      <c r="H1233">
+        <v>32584700</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1234" s="1">
+        <v>45733</v>
+      </c>
+      <c r="B1234">
+        <v>3872.735107421875</v>
+      </c>
+      <c r="C1234">
+        <v>3875.5849609375</v>
+      </c>
+      <c r="D1234">
+        <v>3835.138916015625</v>
+      </c>
+      <c r="E1234">
+        <v>3840.6640625</v>
+      </c>
+      <c r="F1234">
+        <f t="shared" si="10"/>
+        <v>3.8406640625000001</v>
+      </c>
+      <c r="G1234">
+        <v>27857178</v>
+      </c>
+      <c r="H1234">
+        <v>27857178</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1235" s="1">
+        <v>45734</v>
+      </c>
+      <c r="B1235">
+        <v>3861.68994140625</v>
+      </c>
+      <c r="C1235">
+        <v>3888.7080078125</v>
+      </c>
+      <c r="D1235">
+        <v>3843.678955078125</v>
+      </c>
+      <c r="E1235">
+        <v>3878.326904296875</v>
+      </c>
+      <c r="F1235">
+        <f t="shared" si="10"/>
+        <v>3.8783269042968751</v>
+      </c>
+      <c r="G1235">
+        <v>30187046</v>
+      </c>
+      <c r="H1235">
+        <v>30187046</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1236" s="1">
+        <v>45735</v>
+      </c>
+      <c r="B1236">
+        <v>3884.97998046875</v>
+      </c>
+      <c r="C1236">
+        <v>3905.64697265625</v>
+      </c>
+      <c r="D1236">
+        <v>3844.72412109375</v>
+      </c>
+      <c r="E1236">
+        <v>3887.382080078125</v>
+      </c>
+      <c r="F1236">
+        <f t="shared" si="10"/>
+        <v>3.8873820800781251</v>
+      </c>
+      <c r="G1236">
+        <v>29330202</v>
+      </c>
+      <c r="H1236">
+        <v>29330202</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1237" s="1">
+        <v>45736</v>
+      </c>
+      <c r="B1237">
+        <v>3886.743896484375</v>
+      </c>
+      <c r="C1237">
+        <v>3888.376953125</v>
+      </c>
+      <c r="D1237">
+        <v>3848.10400390625</v>
+      </c>
+      <c r="E1237">
+        <v>3853.375</v>
+      </c>
+      <c r="F1237">
+        <f t="shared" si="10"/>
+        <v>3.8533750000000002</v>
+      </c>
+      <c r="G1237">
+        <v>25423394</v>
+      </c>
+      <c r="H1237">
+        <v>25423394</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1238" s="1">
+        <v>45737</v>
+      </c>
+      <c r="B1238">
+        <v>3835.362060546875</v>
+      </c>
+      <c r="C1238">
+        <v>3850.321044921875</v>
+      </c>
+      <c r="D1238">
+        <v>3745.927001953125</v>
+      </c>
+      <c r="E1238">
+        <v>3755.89697265625</v>
+      </c>
+      <c r="F1238">
+        <f t="shared" si="10"/>
+        <v>3.7558969726562501</v>
+      </c>
+      <c r="G1238">
+        <v>29316580</v>
+      </c>
+      <c r="H1238">
+        <v>29316580</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1239" s="1">
+        <v>45740</v>
+      </c>
+      <c r="B1239">
+        <v>3760.2529296875</v>
+      </c>
+      <c r="C1239">
+        <v>3774.35009765625</v>
+      </c>
+      <c r="D1239">
+        <v>3716.800048828125</v>
+      </c>
+      <c r="E1239">
+        <v>3764.173095703125</v>
+      </c>
+      <c r="F1239">
+        <f t="shared" si="10"/>
+        <v>3.764173095703125</v>
+      </c>
+      <c r="G1239">
+        <v>25510250</v>
+      </c>
+      <c r="H1239">
+        <v>25510250</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1240" s="1">
+        <v>45741</v>
+      </c>
+      <c r="B1240">
+        <v>3770.802001953125</v>
+      </c>
+      <c r="C1240">
+        <v>3792.51611328125</v>
+      </c>
+      <c r="D1240">
+        <v>3743.001953125</v>
+      </c>
+      <c r="E1240">
+        <v>3751.52099609375</v>
+      </c>
+      <c r="F1240">
+        <f t="shared" si="10"/>
+        <v>3.7515209960937499</v>
+      </c>
+      <c r="G1240">
+        <v>22601976</v>
+      </c>
+      <c r="H1240">
+        <v>22601976</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1241" s="1">
+        <v>45742</v>
+      </c>
+      <c r="B1241">
+        <v>3743.23193359375</v>
+      </c>
+      <c r="C1241">
+        <v>3774.283935546875</v>
+      </c>
+      <c r="D1241">
+        <v>3743.23193359375</v>
+      </c>
+      <c r="E1241">
+        <v>3749.924072265625</v>
+      </c>
+      <c r="F1241">
+        <f t="shared" si="10"/>
+        <v>3.7499240722656251</v>
+      </c>
+      <c r="G1241">
+        <v>18155498</v>
+      </c>
+      <c r="H1241">
+        <v>18155498</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1242" s="1">
+        <v>45743</v>
+      </c>
+      <c r="B1242">
+        <v>3740.3701171875</v>
+      </c>
+      <c r="C1242">
+        <v>3802.931884765625</v>
+      </c>
+      <c r="D1242">
+        <v>3725.2900390625</v>
+      </c>
+      <c r="E1242">
+        <v>3766.0869140625</v>
+      </c>
+      <c r="F1242">
+        <f t="shared" si="10"/>
+        <v>3.7660869140625</v>
+      </c>
+      <c r="G1242">
+        <v>19832664</v>
+      </c>
+      <c r="H1242">
+        <v>19832664</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1243" s="1">
+        <v>45744</v>
+      </c>
+      <c r="B1243">
+        <v>3758.40087890625</v>
+      </c>
+      <c r="C1243">
+        <v>3773.970947265625</v>
+      </c>
+      <c r="D1243">
+        <v>3737.364990234375</v>
+      </c>
+      <c r="E1243">
+        <v>3740.998046875</v>
+      </c>
+      <c r="F1243">
+        <f t="shared" si="10"/>
+        <v>3.7409980468750001</v>
+      </c>
+      <c r="G1243">
+        <v>16881432</v>
+      </c>
+      <c r="H1243">
+        <v>16881432</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1244" s="1">
+        <v>45747</v>
+      </c>
+      <c r="B1244">
+        <v>3723.837890625</v>
+      </c>
+      <c r="C1244">
+        <v>3751.923095703125</v>
+      </c>
+      <c r="D1244">
+        <v>3686.18505859375</v>
+      </c>
+      <c r="E1244">
+        <v>3714.2958984375</v>
+      </c>
+      <c r="F1244">
+        <f t="shared" si="10"/>
+        <v>3.7142958984374999</v>
+      </c>
+      <c r="G1244">
+        <v>21023496</v>
+      </c>
+      <c r="H1244">
+        <v>21023496</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index.xlsx
+++ b/lai/valuationquan/szseinnovation100index.xlsx
@@ -400,10 +400,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H1244"/>
+  <dimension ref="A1:H1265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1224" workbookViewId="0">
-      <selection activeCell="A1245" sqref="A1245"/>
+    <sheetView tabSelected="1" topLeftCell="A1245" workbookViewId="0">
+      <selection activeCell="A1266" sqref="A1266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -33126,7 +33126,7 @@
         <v>3806.216064453125</v>
       </c>
       <c r="F1213">
-        <f t="shared" ref="F1213:F1244" si="10">E1213/1000</f>
+        <f t="shared" ref="F1213:F1265" si="10">E1213/1000</f>
         <v>3.8062160644531251</v>
       </c>
       <c r="G1213">
@@ -33971,6 +33971,573 @@
       </c>
       <c r="H1244">
         <v>21023496</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1245" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B1245">
+        <v>3721.18798828125</v>
+      </c>
+      <c r="C1245">
+        <v>3728.971923828125</v>
+      </c>
+      <c r="D1245">
+        <v>3686.169921875</v>
+      </c>
+      <c r="E1245">
+        <v>3688.493896484375</v>
+      </c>
+      <c r="F1245">
+        <f t="shared" si="10"/>
+        <v>3.688493896484375</v>
+      </c>
+      <c r="G1245">
+        <v>18001980</v>
+      </c>
+      <c r="H1245">
+        <v>18001980</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1246" s="1">
+        <v>45749</v>
+      </c>
+      <c r="B1246">
+        <v>3690.778076171875</v>
+      </c>
+      <c r="C1246">
+        <v>3715.344970703125</v>
+      </c>
+      <c r="D1246">
+        <v>3679.2080078125</v>
+      </c>
+      <c r="E1246">
+        <v>3693.195068359375</v>
+      </c>
+      <c r="F1246">
+        <f t="shared" si="10"/>
+        <v>3.6931950683593748</v>
+      </c>
+      <c r="G1246">
+        <v>15074874</v>
+      </c>
+      <c r="H1246">
+        <v>15074874</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1247" s="1">
+        <v>45750</v>
+      </c>
+      <c r="B1247">
+        <v>3642.985107421875</v>
+      </c>
+      <c r="C1247">
+        <v>3674.3369140625</v>
+      </c>
+      <c r="D1247">
+        <v>3612.343994140625</v>
+      </c>
+      <c r="E1247">
+        <v>3618.14794921875</v>
+      </c>
+      <c r="F1247">
+        <f t="shared" si="10"/>
+        <v>3.6181479492187498</v>
+      </c>
+      <c r="G1247">
+        <v>21510446</v>
+      </c>
+      <c r="H1247">
+        <v>21510446</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1248" s="1">
+        <v>45754</v>
+      </c>
+      <c r="B1248">
+        <v>3376.702880859375</v>
+      </c>
+      <c r="C1248">
+        <v>3403.31591796875</v>
+      </c>
+      <c r="D1248">
+        <v>3204.194091796875</v>
+      </c>
+      <c r="E1248">
+        <v>3257.554931640625</v>
+      </c>
+      <c r="F1248">
+        <f t="shared" si="10"/>
+        <v>3.2575549316406249</v>
+      </c>
+      <c r="G1248">
+        <v>32021334</v>
+      </c>
+      <c r="H1248">
+        <v>32021334</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1249" s="1">
+        <v>45755</v>
+      </c>
+      <c r="B1249">
+        <v>3266.47900390625</v>
+      </c>
+      <c r="C1249">
+        <v>3316.162109375</v>
+      </c>
+      <c r="D1249">
+        <v>3215.14990234375</v>
+      </c>
+      <c r="E1249">
+        <v>3261.875</v>
+      </c>
+      <c r="F1249">
+        <f t="shared" si="10"/>
+        <v>3.2618749999999999</v>
+      </c>
+      <c r="G1249">
+        <v>35749656</v>
+      </c>
+      <c r="H1249">
+        <v>35749656</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1250" s="1">
+        <v>45756</v>
+      </c>
+      <c r="B1250">
+        <v>3196.909912109375</v>
+      </c>
+      <c r="C1250">
+        <v>3313.194091796875</v>
+      </c>
+      <c r="D1250">
+        <v>3156.64794921875</v>
+      </c>
+      <c r="E1250">
+        <v>3286.0009765625</v>
+      </c>
+      <c r="F1250">
+        <f t="shared" si="10"/>
+        <v>3.2860009765624998</v>
+      </c>
+      <c r="G1250">
+        <v>38107508</v>
+      </c>
+      <c r="H1250">
+        <v>38107508</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1251" s="1">
+        <v>45757</v>
+      </c>
+      <c r="B1251">
+        <v>3384.72998046875</v>
+      </c>
+      <c r="C1251">
+        <v>3433.885009765625</v>
+      </c>
+      <c r="D1251">
+        <v>3363.3740234375</v>
+      </c>
+      <c r="E1251">
+        <v>3375.034912109375</v>
+      </c>
+      <c r="F1251">
+        <f t="shared" si="10"/>
+        <v>3.375034912109375</v>
+      </c>
+      <c r="G1251">
+        <v>36653912</v>
+      </c>
+      <c r="H1251">
+        <v>36653912</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1252" s="1">
+        <v>45758</v>
+      </c>
+      <c r="B1252">
+        <v>3350.48291015625</v>
+      </c>
+      <c r="C1252">
+        <v>3462.60888671875</v>
+      </c>
+      <c r="D1252">
+        <v>3349.389892578125</v>
+      </c>
+      <c r="E1252">
+        <v>3437.47412109375</v>
+      </c>
+      <c r="F1252">
+        <f t="shared" si="10"/>
+        <v>3.4374741210937501</v>
+      </c>
+      <c r="G1252">
+        <v>29134506</v>
+      </c>
+      <c r="H1252">
+        <v>29134506</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1253" s="1">
+        <v>45761</v>
+      </c>
+      <c r="B1253">
+        <v>3489.071044921875</v>
+      </c>
+      <c r="C1253">
+        <v>3491.62109375</v>
+      </c>
+      <c r="D1253">
+        <v>3440.34912109375</v>
+      </c>
+      <c r="E1253">
+        <v>3447.697021484375</v>
+      </c>
+      <c r="F1253">
+        <f t="shared" si="10"/>
+        <v>3.447697021484375</v>
+      </c>
+      <c r="G1253">
+        <v>27067470</v>
+      </c>
+      <c r="H1253">
+        <v>27067470</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1254" s="1">
+        <v>45762</v>
+      </c>
+      <c r="B1254">
+        <v>3453.673095703125</v>
+      </c>
+      <c r="C1254">
+        <v>3462.180908203125</v>
+      </c>
+      <c r="D1254">
+        <v>3423.72802734375</v>
+      </c>
+      <c r="E1254">
+        <v>3443.35791015625</v>
+      </c>
+      <c r="F1254">
+        <f t="shared" si="10"/>
+        <v>3.4433579101562501</v>
+      </c>
+      <c r="G1254">
+        <v>19290972</v>
+      </c>
+      <c r="H1254">
+        <v>19290972</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1255" s="1">
+        <v>45763</v>
+      </c>
+      <c r="B1255">
+        <v>3424.781005859375</v>
+      </c>
+      <c r="C1255">
+        <v>3424.781005859375</v>
+      </c>
+      <c r="D1255">
+        <v>3363.5830078125</v>
+      </c>
+      <c r="E1255">
+        <v>3407.1259765625</v>
+      </c>
+      <c r="F1255">
+        <f t="shared" si="10"/>
+        <v>3.4071259765624999</v>
+      </c>
+      <c r="G1255">
+        <v>22882080</v>
+      </c>
+      <c r="H1255">
+        <v>22882080</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1256" s="1">
+        <v>45764</v>
+      </c>
+      <c r="B1256">
+        <v>3384.27490234375</v>
+      </c>
+      <c r="C1256">
+        <v>3426.118896484375</v>
+      </c>
+      <c r="D1256">
+        <v>3383.458984375</v>
+      </c>
+      <c r="E1256">
+        <v>3401.16796875</v>
+      </c>
+      <c r="F1256">
+        <f t="shared" si="10"/>
+        <v>3.4011679687499998</v>
+      </c>
+      <c r="G1256">
+        <v>17513480</v>
+      </c>
+      <c r="H1256">
+        <v>17513480</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1257" s="1">
+        <v>45765</v>
+      </c>
+      <c r="B1257">
+        <v>3393.281005859375</v>
+      </c>
+      <c r="C1257">
+        <v>3410.05810546875</v>
+      </c>
+      <c r="D1257">
+        <v>3378.384033203125</v>
+      </c>
+      <c r="E1257">
+        <v>3403.23095703125</v>
+      </c>
+      <c r="F1257">
+        <f t="shared" si="10"/>
+        <v>3.40323095703125</v>
+      </c>
+      <c r="G1257">
+        <v>17253322</v>
+      </c>
+      <c r="H1257">
+        <v>17253322</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1258" s="1">
+        <v>45768</v>
+      </c>
+      <c r="B1258">
+        <v>3400.426025390625</v>
+      </c>
+      <c r="C1258">
+        <v>3460.697998046875</v>
+      </c>
+      <c r="D1258">
+        <v>3389.2099609375</v>
+      </c>
+      <c r="E1258">
+        <v>3456.81005859375</v>
+      </c>
+      <c r="F1258">
+        <f t="shared" si="10"/>
+        <v>3.4568100585937498</v>
+      </c>
+      <c r="G1258">
+        <v>20893466</v>
+      </c>
+      <c r="H1258">
+        <v>20893466</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1259" s="1">
+        <v>45769</v>
+      </c>
+      <c r="B1259">
+        <v>3447.02001953125</v>
+      </c>
+      <c r="C1259">
+        <v>3460.760009765625</v>
+      </c>
+      <c r="D1259">
+        <v>3435.1669921875</v>
+      </c>
+      <c r="E1259">
+        <v>3444.156982421875</v>
+      </c>
+      <c r="F1259">
+        <f t="shared" si="10"/>
+        <v>3.444156982421875</v>
+      </c>
+      <c r="G1259">
+        <v>21188220</v>
+      </c>
+      <c r="H1259">
+        <v>21188220</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1260" s="1">
+        <v>45770</v>
+      </c>
+      <c r="B1260">
+        <v>3493.739013671875</v>
+      </c>
+      <c r="C1260">
+        <v>3507.571044921875</v>
+      </c>
+      <c r="D1260">
+        <v>3467.697021484375</v>
+      </c>
+      <c r="E1260">
+        <v>3484.008056640625</v>
+      </c>
+      <c r="F1260">
+        <f t="shared" si="10"/>
+        <v>3.4840080566406249</v>
+      </c>
+      <c r="G1260">
+        <v>24724974</v>
+      </c>
+      <c r="H1260">
+        <v>24724974</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1261" s="1">
+        <v>45771</v>
+      </c>
+      <c r="B1261">
+        <v>3487.85400390625</v>
+      </c>
+      <c r="C1261">
+        <v>3501.488037109375</v>
+      </c>
+      <c r="D1261">
+        <v>3452.97705078125</v>
+      </c>
+      <c r="E1261">
+        <v>3467.926025390625</v>
+      </c>
+      <c r="F1261">
+        <f t="shared" si="10"/>
+        <v>3.467926025390625</v>
+      </c>
+      <c r="G1261">
+        <v>20228896</v>
+      </c>
+      <c r="H1261">
+        <v>20228896</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1262" s="1">
+        <v>45772</v>
+      </c>
+      <c r="B1262">
+        <v>3473.85205078125</v>
+      </c>
+      <c r="C1262">
+        <v>3501.541015625</v>
+      </c>
+      <c r="D1262">
+        <v>3460.2119140625</v>
+      </c>
+      <c r="E1262">
+        <v>3483.047119140625</v>
+      </c>
+      <c r="F1262">
+        <f t="shared" si="10"/>
+        <v>3.4830471191406249</v>
+      </c>
+      <c r="G1262">
+        <v>19709306</v>
+      </c>
+      <c r="H1262">
+        <v>19709306</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1263" s="1">
+        <v>45775</v>
+      </c>
+      <c r="B1263">
+        <v>3492.243896484375</v>
+      </c>
+      <c r="C1263">
+        <v>3493.18603515625</v>
+      </c>
+      <c r="D1263">
+        <v>3459.037109375</v>
+      </c>
+      <c r="E1263">
+        <v>3464.410888671875</v>
+      </c>
+      <c r="F1263">
+        <f t="shared" si="10"/>
+        <v>3.4644108886718752</v>
+      </c>
+      <c r="G1263">
+        <v>18084692</v>
+      </c>
+      <c r="H1263">
+        <v>18084692</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1264" s="1">
+        <v>45776</v>
+      </c>
+      <c r="B1264">
+        <v>3456.860107421875</v>
+      </c>
+      <c r="C1264">
+        <v>3477.823974609375</v>
+      </c>
+      <c r="D1264">
+        <v>3447.597900390625</v>
+      </c>
+      <c r="E1264">
+        <v>3465.864990234375</v>
+      </c>
+      <c r="F1264">
+        <f t="shared" si="10"/>
+        <v>3.4658649902343752</v>
+      </c>
+      <c r="G1264">
+        <v>18123742</v>
+      </c>
+      <c r="H1264">
+        <v>18123742</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1265" s="1">
+        <v>45777</v>
+      </c>
+      <c r="B1265">
+        <v>3475.26708984375</v>
+      </c>
+      <c r="C1265">
+        <v>3495.93603515625</v>
+      </c>
+      <c r="D1265">
+        <v>3462.75</v>
+      </c>
+      <c r="E1265">
+        <v>3486.3349609375</v>
+      </c>
+      <c r="F1265">
+        <f t="shared" si="10"/>
+        <v>3.4863349609375001</v>
+      </c>
+      <c r="G1265">
+        <v>20076814</v>
+      </c>
+      <c r="H1265">
+        <v>20076814</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index.xlsx
+++ b/lai/valuationquan/szseinnovation100index.xlsx
@@ -400,10 +400,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H1265"/>
+  <dimension ref="A1:H1284"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1245" workbookViewId="0">
-      <selection activeCell="A1266" sqref="A1266"/>
+    <sheetView tabSelected="1" topLeftCell="A1266" workbookViewId="0">
+      <selection activeCell="A1285" sqref="A1285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -33126,7 +33126,7 @@
         <v>3806.216064453125</v>
       </c>
       <c r="F1213">
-        <f t="shared" ref="F1213:F1265" si="10">E1213/1000</f>
+        <f t="shared" ref="F1213:F1284" si="10">E1213/1000</f>
         <v>3.8062160644531251</v>
       </c>
       <c r="G1213">
@@ -34538,6 +34538,519 @@
       </c>
       <c r="H1265">
         <v>20076814</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1266" s="1">
+        <v>45783</v>
+      </c>
+      <c r="B1266">
+        <v>3522.712890625</v>
+      </c>
+      <c r="C1266">
+        <v>3549.27490234375</v>
+      </c>
+      <c r="D1266">
+        <v>3512.93798828125</v>
+      </c>
+      <c r="E1266">
+        <v>3546.846923828125</v>
+      </c>
+      <c r="F1266">
+        <f t="shared" si="10"/>
+        <v>3.5468469238281251</v>
+      </c>
+      <c r="G1266">
+        <v>25074404</v>
+      </c>
+      <c r="H1266">
+        <v>25074404</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1267" s="1">
+        <v>45784</v>
+      </c>
+      <c r="B1267">
+        <v>3596.3359375</v>
+      </c>
+      <c r="C1267">
+        <v>3604.6240234375</v>
+      </c>
+      <c r="D1267">
+        <v>3532.5029296875</v>
+      </c>
+      <c r="E1267">
+        <v>3552.675048828125</v>
+      </c>
+      <c r="F1267">
+        <f t="shared" si="10"/>
+        <v>3.5526750488281249</v>
+      </c>
+      <c r="G1267">
+        <v>26197900</v>
+      </c>
+      <c r="H1267">
+        <v>26197900</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1268" s="1">
+        <v>45785</v>
+      </c>
+      <c r="B1268">
+        <v>3547.4169921875</v>
+      </c>
+      <c r="C1268">
+        <v>3611.488037109375</v>
+      </c>
+      <c r="D1268">
+        <v>3540.64697265625</v>
+      </c>
+      <c r="E1268">
+        <v>3601.881103515625</v>
+      </c>
+      <c r="F1268">
+        <f t="shared" si="10"/>
+        <v>3.6018811035156251</v>
+      </c>
+      <c r="G1268">
+        <v>24567248</v>
+      </c>
+      <c r="H1268">
+        <v>24567248</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1269" s="1">
+        <v>45786</v>
+      </c>
+      <c r="B1269">
+        <v>3599.925048828125</v>
+      </c>
+      <c r="C1269">
+        <v>3599.925048828125</v>
+      </c>
+      <c r="D1269">
+        <v>3561.863037109375</v>
+      </c>
+      <c r="E1269">
+        <v>3581.23388671875</v>
+      </c>
+      <c r="F1269">
+        <f t="shared" si="10"/>
+        <v>3.5812338867187501</v>
+      </c>
+      <c r="G1269">
+        <v>23337822</v>
+      </c>
+      <c r="H1269">
+        <v>23337822</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1270" s="1">
+        <v>45789</v>
+      </c>
+      <c r="B1270">
+        <v>3625.930908203125</v>
+      </c>
+      <c r="C1270">
+        <v>3659.407958984375</v>
+      </c>
+      <c r="D1270">
+        <v>3621.3330078125</v>
+      </c>
+      <c r="E1270">
+        <v>3658.125</v>
+      </c>
+      <c r="F1270">
+        <f t="shared" si="10"/>
+        <v>3.6581250000000001</v>
+      </c>
+      <c r="G1270">
+        <v>28527826</v>
+      </c>
+      <c r="H1270">
+        <v>28527826</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1271" s="1">
+        <v>45790</v>
+      </c>
+      <c r="B1271">
+        <v>3702.826904296875</v>
+      </c>
+      <c r="C1271">
+        <v>3702.826904296875</v>
+      </c>
+      <c r="D1271">
+        <v>3644.10693359375</v>
+      </c>
+      <c r="E1271">
+        <v>3648.554931640625</v>
+      </c>
+      <c r="F1271">
+        <f t="shared" si="10"/>
+        <v>3.6485549316406249</v>
+      </c>
+      <c r="G1271">
+        <v>24961766</v>
+      </c>
+      <c r="H1271">
+        <v>24961766</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1272" s="1">
+        <v>45791</v>
+      </c>
+      <c r="B1272">
+        <v>3645.56201171875</v>
+      </c>
+      <c r="C1272">
+        <v>3679.27392578125</v>
+      </c>
+      <c r="D1272">
+        <v>3628.714111328125</v>
+      </c>
+      <c r="E1272">
+        <v>3658.8720703125</v>
+      </c>
+      <c r="F1272">
+        <f t="shared" si="10"/>
+        <v>3.6588720703124999</v>
+      </c>
+      <c r="G1272">
+        <v>20902560</v>
+      </c>
+      <c r="H1272">
+        <v>20902560</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1273" s="1">
+        <v>45792</v>
+      </c>
+      <c r="B1273">
+        <v>3651.904052734375</v>
+      </c>
+      <c r="C1273">
+        <v>3651.904052734375</v>
+      </c>
+      <c r="D1273">
+        <v>3603.81103515625</v>
+      </c>
+      <c r="E1273">
+        <v>3603.93603515625</v>
+      </c>
+      <c r="F1273">
+        <f t="shared" si="10"/>
+        <v>3.6039360351562499</v>
+      </c>
+      <c r="G1273">
+        <v>17909540</v>
+      </c>
+      <c r="H1273">
+        <v>17909540</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1274" s="1">
+        <v>45793</v>
+      </c>
+      <c r="B1274">
+        <v>3590.2119140625</v>
+      </c>
+      <c r="C1274">
+        <v>3640.48388671875</v>
+      </c>
+      <c r="D1274">
+        <v>3590.2119140625</v>
+      </c>
+      <c r="E1274">
+        <v>3620.427978515625</v>
+      </c>
+      <c r="F1274">
+        <f t="shared" si="10"/>
+        <v>3.6204279785156248</v>
+      </c>
+      <c r="G1274">
+        <v>17100322</v>
+      </c>
+      <c r="H1274">
+        <v>17100322</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1275" s="1">
+        <v>45796</v>
+      </c>
+      <c r="B1275">
+        <v>3618.555908203125</v>
+      </c>
+      <c r="C1275">
+        <v>3622.160888671875</v>
+      </c>
+      <c r="D1275">
+        <v>3584.532958984375</v>
+      </c>
+      <c r="E1275">
+        <v>3618.33203125</v>
+      </c>
+      <c r="F1275">
+        <f t="shared" si="10"/>
+        <v>3.61833203125</v>
+      </c>
+      <c r="G1275">
+        <v>16656980</v>
+      </c>
+      <c r="H1275">
+        <v>16656980</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1276" s="1">
+        <v>45797</v>
+      </c>
+      <c r="B1276">
+        <v>3625.97412109375</v>
+      </c>
+      <c r="C1276">
+        <v>3658.18310546875</v>
+      </c>
+      <c r="D1276">
+        <v>3600.27587890625</v>
+      </c>
+      <c r="E1276">
+        <v>3647.781005859375</v>
+      </c>
+      <c r="F1276">
+        <f t="shared" si="10"/>
+        <v>3.6477810058593749</v>
+      </c>
+      <c r="G1276">
+        <v>19956670</v>
+      </c>
+      <c r="H1276">
+        <v>19956670</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1277" s="1">
+        <v>45798</v>
+      </c>
+      <c r="B1277">
+        <v>3651.10693359375</v>
+      </c>
+      <c r="C1277">
+        <v>3694.739990234375</v>
+      </c>
+      <c r="D1277">
+        <v>3644.760009765625</v>
+      </c>
+      <c r="E1277">
+        <v>3677.22705078125</v>
+      </c>
+      <c r="F1277">
+        <f t="shared" si="10"/>
+        <v>3.6772270507812501</v>
+      </c>
+      <c r="G1277">
+        <v>21223452</v>
+      </c>
+      <c r="H1277">
+        <v>21223452</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1278" s="1">
+        <v>45799</v>
+      </c>
+      <c r="B1278">
+        <v>3675.77490234375</v>
+      </c>
+      <c r="C1278">
+        <v>3675.77490234375</v>
+      </c>
+      <c r="D1278">
+        <v>3649.76611328125</v>
+      </c>
+      <c r="E1278">
+        <v>3652.205078125</v>
+      </c>
+      <c r="F1278">
+        <f t="shared" si="10"/>
+        <v>3.6522050781250002</v>
+      </c>
+      <c r="G1278">
+        <v>19364752</v>
+      </c>
+      <c r="H1278">
+        <v>19364752</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1279" s="1">
+        <v>45800</v>
+      </c>
+      <c r="B1279">
+        <v>3649.10595703125</v>
+      </c>
+      <c r="C1279">
+        <v>3690.39892578125</v>
+      </c>
+      <c r="D1279">
+        <v>3628.491943359375</v>
+      </c>
+      <c r="E1279">
+        <v>3628.491943359375</v>
+      </c>
+      <c r="F1279">
+        <f t="shared" si="10"/>
+        <v>3.628491943359375</v>
+      </c>
+      <c r="G1279">
+        <v>20629230</v>
+      </c>
+      <c r="H1279">
+        <v>20629230</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1280" s="1">
+        <v>45803</v>
+      </c>
+      <c r="B1280">
+        <v>3617.81103515625</v>
+      </c>
+      <c r="C1280">
+        <v>3627.303955078125</v>
+      </c>
+      <c r="D1280">
+        <v>3567.876953125</v>
+      </c>
+      <c r="E1280">
+        <v>3586.455078125</v>
+      </c>
+      <c r="F1280">
+        <f t="shared" si="10"/>
+        <v>3.5864550781250002</v>
+      </c>
+      <c r="G1280">
+        <v>17956716</v>
+      </c>
+      <c r="H1280">
+        <v>17956716</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1281" s="1">
+        <v>45804</v>
+      </c>
+      <c r="B1281">
+        <v>3576.658935546875</v>
+      </c>
+      <c r="C1281">
+        <v>3579.73095703125</v>
+      </c>
+      <c r="D1281">
+        <v>3542.262939453125</v>
+      </c>
+      <c r="E1281">
+        <v>3554.06005859375</v>
+      </c>
+      <c r="F1281">
+        <f t="shared" si="10"/>
+        <v>3.5540600585937501</v>
+      </c>
+      <c r="G1281">
+        <v>19205908</v>
+      </c>
+      <c r="H1281">
+        <v>19205908</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1282" s="1">
+        <v>45805</v>
+      </c>
+      <c r="B1282">
+        <v>3559.51708984375</v>
+      </c>
+      <c r="C1282">
+        <v>3573.971923828125</v>
+      </c>
+      <c r="D1282">
+        <v>3535.23388671875</v>
+      </c>
+      <c r="E1282">
+        <v>3539.053955078125</v>
+      </c>
+      <c r="F1282">
+        <f t="shared" si="10"/>
+        <v>3.539053955078125</v>
+      </c>
+      <c r="G1282">
+        <v>16126298</v>
+      </c>
+      <c r="H1282">
+        <v>16126298</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1283" s="1">
+        <v>45806</v>
+      </c>
+      <c r="B1283">
+        <v>3537.702880859375</v>
+      </c>
+      <c r="C1283">
+        <v>3591.825927734375</v>
+      </c>
+      <c r="D1283">
+        <v>3532.110107421875</v>
+      </c>
+      <c r="E1283">
+        <v>3579.14697265625</v>
+      </c>
+      <c r="F1283">
+        <f t="shared" si="10"/>
+        <v>3.5791469726562499</v>
+      </c>
+      <c r="G1283">
+        <v>21328412</v>
+      </c>
+      <c r="H1283">
+        <v>21328412</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1284" s="1">
+        <v>45807</v>
+      </c>
+      <c r="B1284">
+        <v>3560.510986328125</v>
+      </c>
+      <c r="C1284">
+        <v>3560.510986328125</v>
+      </c>
+      <c r="D1284">
+        <v>3523.68310546875</v>
+      </c>
+      <c r="E1284">
+        <v>3533.09912109375</v>
+      </c>
+      <c r="F1284">
+        <f t="shared" si="10"/>
+        <v>3.5330991210937501</v>
+      </c>
+      <c r="G1284">
+        <v>17500740</v>
+      </c>
+      <c r="H1284">
+        <v>17500740</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index.xlsx
+++ b/lai/valuationquan/szseinnovation100index.xlsx
@@ -400,10 +400,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H1284"/>
+  <dimension ref="A1:H1304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1266" workbookViewId="0">
-      <selection activeCell="A1285" sqref="A1285"/>
+    <sheetView tabSelected="1" topLeftCell="A1285" workbookViewId="0">
+      <selection activeCell="A1305" sqref="A1305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -33126,7 +33126,7 @@
         <v>3806.216064453125</v>
       </c>
       <c r="F1213">
-        <f t="shared" ref="F1213:F1284" si="10">E1213/1000</f>
+        <f t="shared" ref="F1213:F1304" si="10">E1213/1000</f>
         <v>3.8062160644531251</v>
       </c>
       <c r="G1213">
@@ -35051,6 +35051,546 @@
       </c>
       <c r="H1284">
         <v>17500740</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1285" s="1">
+        <v>45811</v>
+      </c>
+      <c r="B1285">
+        <v>3522.02392578125</v>
+      </c>
+      <c r="C1285">
+        <v>3543.568115234375</v>
+      </c>
+      <c r="D1285">
+        <v>3520.111083984375</v>
+      </c>
+      <c r="E1285">
+        <v>3526.166015625</v>
+      </c>
+      <c r="F1285">
+        <f t="shared" si="10"/>
+        <v>3.5261660156249999</v>
+      </c>
+      <c r="G1285">
+        <v>16795446</v>
+      </c>
+      <c r="H1285">
+        <v>16795446</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1286" s="1">
+        <v>45812</v>
+      </c>
+      <c r="B1286">
+        <v>3534.23388671875</v>
+      </c>
+      <c r="C1286">
+        <v>3560.743896484375</v>
+      </c>
+      <c r="D1286">
+        <v>3534.23388671875</v>
+      </c>
+      <c r="E1286">
+        <v>3551.43408203125</v>
+      </c>
+      <c r="F1286">
+        <f t="shared" si="10"/>
+        <v>3.5514340820312502</v>
+      </c>
+      <c r="G1286">
+        <v>17270108</v>
+      </c>
+      <c r="H1286">
+        <v>17270108</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1287" s="1">
+        <v>45813</v>
+      </c>
+      <c r="B1287">
+        <v>3556.635009765625</v>
+      </c>
+      <c r="C1287">
+        <v>3588.701904296875</v>
+      </c>
+      <c r="D1287">
+        <v>3534.425048828125</v>
+      </c>
+      <c r="E1287">
+        <v>3583.260009765625</v>
+      </c>
+      <c r="F1287">
+        <f t="shared" si="10"/>
+        <v>3.5832600097656249</v>
+      </c>
+      <c r="G1287">
+        <v>21969082</v>
+      </c>
+      <c r="H1287">
+        <v>21969082</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1288" s="1">
+        <v>45814</v>
+      </c>
+      <c r="B1288">
+        <v>3581.89697265625</v>
+      </c>
+      <c r="C1288">
+        <v>3588.65087890625</v>
+      </c>
+      <c r="D1288">
+        <v>3565.5029296875</v>
+      </c>
+      <c r="E1288">
+        <v>3572.240966796875</v>
+      </c>
+      <c r="F1288">
+        <f t="shared" si="10"/>
+        <v>3.5722409667968749</v>
+      </c>
+      <c r="G1288">
+        <v>17411722</v>
+      </c>
+      <c r="H1288">
+        <v>17411722</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1289" s="1">
+        <v>45817</v>
+      </c>
+      <c r="B1289">
+        <v>3570.634033203125</v>
+      </c>
+      <c r="C1289">
+        <v>3596.679931640625</v>
+      </c>
+      <c r="D1289">
+        <v>3563.22509765625</v>
+      </c>
+      <c r="E1289">
+        <v>3576.15087890625</v>
+      </c>
+      <c r="F1289">
+        <f t="shared" si="10"/>
+        <v>3.5761508789062502</v>
+      </c>
+      <c r="G1289">
+        <v>20862830</v>
+      </c>
+      <c r="H1289">
+        <v>20862830</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1290" s="1">
+        <v>45818</v>
+      </c>
+      <c r="B1290">
+        <v>3576.5458984375</v>
+      </c>
+      <c r="C1290">
+        <v>3582.909912109375</v>
+      </c>
+      <c r="D1290">
+        <v>3523.256103515625</v>
+      </c>
+      <c r="E1290">
+        <v>3543.902099609375</v>
+      </c>
+      <c r="F1290">
+        <f t="shared" si="10"/>
+        <v>3.5439020996093751</v>
+      </c>
+      <c r="G1290">
+        <v>21523018</v>
+      </c>
+      <c r="H1290">
+        <v>21523018</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1291" s="1">
+        <v>45819</v>
+      </c>
+      <c r="B1291">
+        <v>3555.39990234375</v>
+      </c>
+      <c r="C1291">
+        <v>3602.31201171875</v>
+      </c>
+      <c r="D1291">
+        <v>3555.39990234375</v>
+      </c>
+      <c r="E1291">
+        <v>3576.66796875</v>
+      </c>
+      <c r="F1291">
+        <f t="shared" si="10"/>
+        <v>3.5766679687499998</v>
+      </c>
+      <c r="G1291">
+        <v>17697642</v>
+      </c>
+      <c r="H1291">
+        <v>17697642</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1292" s="1">
+        <v>45820</v>
+      </c>
+      <c r="B1292">
+        <v>3555.950927734375</v>
+      </c>
+      <c r="C1292">
+        <v>3568.77099609375</v>
+      </c>
+      <c r="D1292">
+        <v>3540.7958984375</v>
+      </c>
+      <c r="E1292">
+        <v>3552.903076171875</v>
+      </c>
+      <c r="F1292">
+        <f t="shared" si="10"/>
+        <v>3.5529030761718752</v>
+      </c>
+      <c r="G1292">
+        <v>18751614</v>
+      </c>
+      <c r="H1292">
+        <v>18751614</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1293" s="1">
+        <v>45821</v>
+      </c>
+      <c r="B1293">
+        <v>3532.48193359375</v>
+      </c>
+      <c r="C1293">
+        <v>3550.0419921875</v>
+      </c>
+      <c r="D1293">
+        <v>3505.325927734375</v>
+      </c>
+      <c r="E1293">
+        <v>3521.006103515625</v>
+      </c>
+      <c r="F1293">
+        <f t="shared" si="10"/>
+        <v>3.5210061035156248</v>
+      </c>
+      <c r="G1293">
+        <v>23692948</v>
+      </c>
+      <c r="H1293">
+        <v>23692948</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1294" s="1">
+        <v>45824</v>
+      </c>
+      <c r="B1294">
+        <v>3514.916015625</v>
+      </c>
+      <c r="C1294">
+        <v>3534.716064453125</v>
+      </c>
+      <c r="D1294">
+        <v>3514.18701171875</v>
+      </c>
+      <c r="E1294">
+        <v>3528.339111328125</v>
+      </c>
+      <c r="F1294">
+        <f t="shared" si="10"/>
+        <v>3.5283391113281248</v>
+      </c>
+      <c r="G1294">
+        <v>21326674</v>
+      </c>
+      <c r="H1294">
+        <v>21326674</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1295" s="1">
+        <v>45825</v>
+      </c>
+      <c r="B1295">
+        <v>3531.656982421875</v>
+      </c>
+      <c r="C1295">
+        <v>3540.694091796875</v>
+      </c>
+      <c r="D1295">
+        <v>3513.487060546875</v>
+      </c>
+      <c r="E1295">
+        <v>3519.639892578125</v>
+      </c>
+      <c r="F1295">
+        <f t="shared" si="10"/>
+        <v>3.5196398925781249</v>
+      </c>
+      <c r="G1295">
+        <v>20721564</v>
+      </c>
+      <c r="H1295">
+        <v>20721564</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1296" s="1">
+        <v>45826</v>
+      </c>
+      <c r="B1296">
+        <v>3518.9130859375</v>
+      </c>
+      <c r="C1296">
+        <v>3542.677001953125</v>
+      </c>
+      <c r="D1296">
+        <v>3513.85107421875</v>
+      </c>
+      <c r="E1296">
+        <v>3536.780029296875</v>
+      </c>
+      <c r="F1296">
+        <f t="shared" si="10"/>
+        <v>3.536780029296875</v>
+      </c>
+      <c r="G1296">
+        <v>21609416</v>
+      </c>
+      <c r="H1296">
+        <v>21609416</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1297" s="1">
+        <v>45827</v>
+      </c>
+      <c r="B1297">
+        <v>3529.30908203125</v>
+      </c>
+      <c r="C1297">
+        <v>3544.361083984375</v>
+      </c>
+      <c r="D1297">
+        <v>3487.969970703125</v>
+      </c>
+      <c r="E1297">
+        <v>3495.7529296875</v>
+      </c>
+      <c r="F1297">
+        <f t="shared" si="10"/>
+        <v>3.4957529296874998</v>
+      </c>
+      <c r="G1297">
+        <v>23688816</v>
+      </c>
+      <c r="H1297">
+        <v>23688816</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1298" s="1">
+        <v>45828</v>
+      </c>
+      <c r="B1298">
+        <v>3490.376953125</v>
+      </c>
+      <c r="C1298">
+        <v>3507.2880859375</v>
+      </c>
+      <c r="D1298">
+        <v>3474.570068359375</v>
+      </c>
+      <c r="E1298">
+        <v>3478.81494140625</v>
+      </c>
+      <c r="F1298">
+        <f t="shared" si="10"/>
+        <v>3.4788149414062501</v>
+      </c>
+      <c r="G1298">
+        <v>18957114</v>
+      </c>
+      <c r="H1298">
+        <v>18957114</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1299" s="1">
+        <v>45831</v>
+      </c>
+      <c r="B1299">
+        <v>3457.52490234375</v>
+      </c>
+      <c r="C1299">
+        <v>3498.7509765625</v>
+      </c>
+      <c r="D1299">
+        <v>3456.31005859375</v>
+      </c>
+      <c r="E1299">
+        <v>3491.48291015625</v>
+      </c>
+      <c r="F1299">
+        <f t="shared" si="10"/>
+        <v>3.4914829101562499</v>
+      </c>
+      <c r="G1299">
+        <v>21260146</v>
+      </c>
+      <c r="H1299">
+        <v>21260146</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1300" s="1">
+        <v>45832</v>
+      </c>
+      <c r="B1300">
+        <v>3505.760009765625</v>
+      </c>
+      <c r="C1300">
+        <v>3568.568115234375</v>
+      </c>
+      <c r="D1300">
+        <v>3505.760009765625</v>
+      </c>
+      <c r="E1300">
+        <v>3562.825927734375</v>
+      </c>
+      <c r="F1300">
+        <f t="shared" si="10"/>
+        <v>3.5628259277343748</v>
+      </c>
+      <c r="G1300">
+        <v>31599486</v>
+      </c>
+      <c r="H1300">
+        <v>31599486</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1301" s="1">
+        <v>45833</v>
+      </c>
+      <c r="B1301">
+        <v>3573.4970703125</v>
+      </c>
+      <c r="C1301">
+        <v>3654.133056640625</v>
+      </c>
+      <c r="D1301">
+        <v>3573.4970703125</v>
+      </c>
+      <c r="E1301">
+        <v>3648.114990234375</v>
+      </c>
+      <c r="F1301">
+        <f t="shared" si="10"/>
+        <v>3.648114990234375</v>
+      </c>
+      <c r="G1301">
+        <v>43154272</v>
+      </c>
+      <c r="H1301">
+        <v>43154272</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1302" s="1">
+        <v>45834</v>
+      </c>
+      <c r="B1302">
+        <v>3643.1630859375</v>
+      </c>
+      <c r="C1302">
+        <v>3659.532958984375</v>
+      </c>
+      <c r="D1302">
+        <v>3609.261962890625</v>
+      </c>
+      <c r="E1302">
+        <v>3610.52197265625</v>
+      </c>
+      <c r="F1302">
+        <f t="shared" si="10"/>
+        <v>3.6105219726562501</v>
+      </c>
+      <c r="G1302">
+        <v>38040576</v>
+      </c>
+      <c r="H1302">
+        <v>38040576</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1303" s="1">
+        <v>45835</v>
+      </c>
+      <c r="B1303">
+        <v>3625.077880859375</v>
+      </c>
+      <c r="C1303">
+        <v>3648.985107421875</v>
+      </c>
+      <c r="D1303">
+        <v>3608.135986328125</v>
+      </c>
+      <c r="E1303">
+        <v>3614.89599609375</v>
+      </c>
+      <c r="F1303">
+        <f t="shared" si="10"/>
+        <v>3.6148959960937499</v>
+      </c>
+      <c r="G1303">
+        <v>36031140</v>
+      </c>
+      <c r="H1303">
+        <v>36031140</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1304" s="1">
+        <v>45838</v>
+      </c>
+      <c r="B1304">
+        <v>3620.114990234375</v>
+      </c>
+      <c r="C1304">
+        <v>3651.708984375</v>
+      </c>
+      <c r="D1304">
+        <v>3619.94091796875</v>
+      </c>
+      <c r="E1304">
+        <v>3649.43701171875</v>
+      </c>
+      <c r="F1304">
+        <f t="shared" si="10"/>
+        <v>3.6494370117187498</v>
+      </c>
+      <c r="G1304">
+        <v>31557378</v>
+      </c>
+      <c r="H1304">
+        <v>31557378</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index.xlsx
+++ b/lai/valuationquan/szseinnovation100index.xlsx
@@ -400,10 +400,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H1304"/>
+  <dimension ref="A1:H1327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1285" workbookViewId="0">
-      <selection activeCell="A1305" sqref="A1305"/>
+    <sheetView tabSelected="1" topLeftCell="A1315" workbookViewId="0">
+      <selection activeCell="A1328" sqref="A1328"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -33126,7 +33126,7 @@
         <v>3806.216064453125</v>
       </c>
       <c r="F1213">
-        <f t="shared" ref="F1213:F1304" si="10">E1213/1000</f>
+        <f t="shared" ref="F1213:F1327" si="10">E1213/1000</f>
         <v>3.8062160644531251</v>
       </c>
       <c r="G1213">
@@ -35591,6 +35591,627 @@
       </c>
       <c r="H1304">
         <v>31557378</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1305" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B1305">
+        <v>3645.27587890625</v>
+      </c>
+      <c r="C1305">
+        <v>3649.60400390625</v>
+      </c>
+      <c r="D1305">
+        <v>3622.637939453125</v>
+      </c>
+      <c r="E1305">
+        <v>3643.972900390625</v>
+      </c>
+      <c r="F1305">
+        <f t="shared" si="10"/>
+        <v>3.6439729003906249</v>
+      </c>
+      <c r="G1305">
+        <v>27419634</v>
+      </c>
+      <c r="H1305">
+        <v>27419634</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1306" s="1">
+        <v>45840</v>
+      </c>
+      <c r="B1306">
+        <v>3638.675048828125</v>
+      </c>
+      <c r="C1306">
+        <v>3638.675048828125</v>
+      </c>
+      <c r="D1306">
+        <v>3600.699951171875</v>
+      </c>
+      <c r="E1306">
+        <v>3607.09912109375</v>
+      </c>
+      <c r="F1306">
+        <f t="shared" si="10"/>
+        <v>3.60709912109375</v>
+      </c>
+      <c r="G1306">
+        <v>22960216</v>
+      </c>
+      <c r="H1306">
+        <v>22960216</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1307" s="1">
+        <v>45841</v>
+      </c>
+      <c r="B1307">
+        <v>3614.35107421875</v>
+      </c>
+      <c r="C1307">
+        <v>3667.044921875</v>
+      </c>
+      <c r="D1307">
+        <v>3613.653076171875</v>
+      </c>
+      <c r="E1307">
+        <v>3663.990966796875</v>
+      </c>
+      <c r="F1307">
+        <f t="shared" si="10"/>
+        <v>3.6639909667968751</v>
+      </c>
+      <c r="G1307">
+        <v>24167470</v>
+      </c>
+      <c r="H1307">
+        <v>24167470</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1308" s="1">
+        <v>45842</v>
+      </c>
+      <c r="B1308">
+        <v>3665.33203125</v>
+      </c>
+      <c r="C1308">
+        <v>3698.782958984375</v>
+      </c>
+      <c r="D1308">
+        <v>3640.530029296875</v>
+      </c>
+      <c r="E1308">
+        <v>3655.169921875</v>
+      </c>
+      <c r="F1308">
+        <f t="shared" si="10"/>
+        <v>3.6551699218749998</v>
+      </c>
+      <c r="G1308">
+        <v>25973794</v>
+      </c>
+      <c r="H1308">
+        <v>25973794</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1309" s="1">
+        <v>45845</v>
+      </c>
+      <c r="B1309">
+        <v>3645.708984375</v>
+      </c>
+      <c r="C1309">
+        <v>3653.280029296875</v>
+      </c>
+      <c r="D1309">
+        <v>3606.8291015625</v>
+      </c>
+      <c r="E1309">
+        <v>3611.051025390625</v>
+      </c>
+      <c r="F1309">
+        <f t="shared" si="10"/>
+        <v>3.6110510253906249</v>
+      </c>
+      <c r="G1309">
+        <v>19212424</v>
+      </c>
+      <c r="H1309">
+        <v>19212424</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1310" s="1">
+        <v>45846</v>
+      </c>
+      <c r="B1310">
+        <v>3609.215087890625</v>
+      </c>
+      <c r="C1310">
+        <v>3671.116943359375</v>
+      </c>
+      <c r="D1310">
+        <v>3608.430908203125</v>
+      </c>
+      <c r="E1310">
+        <v>3664.83203125</v>
+      </c>
+      <c r="F1310">
+        <f t="shared" si="10"/>
+        <v>3.66483203125</v>
+      </c>
+      <c r="G1310">
+        <v>28626818</v>
+      </c>
+      <c r="H1310">
+        <v>28626818</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1311" s="1">
+        <v>45847</v>
+      </c>
+      <c r="B1311">
+        <v>3661.971923828125</v>
+      </c>
+      <c r="C1311">
+        <v>3690.4208984375</v>
+      </c>
+      <c r="D1311">
+        <v>3656.06591796875</v>
+      </c>
+      <c r="E1311">
+        <v>3663.4609375</v>
+      </c>
+      <c r="F1311">
+        <f t="shared" si="10"/>
+        <v>3.6634609375</v>
+      </c>
+      <c r="G1311">
+        <v>25528150</v>
+      </c>
+      <c r="H1311">
+        <v>25528150</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1312" s="1">
+        <v>45848</v>
+      </c>
+      <c r="B1312">
+        <v>3671.943115234375</v>
+      </c>
+      <c r="C1312">
+        <v>3686.9970703125</v>
+      </c>
+      <c r="D1312">
+        <v>3650.48193359375</v>
+      </c>
+      <c r="E1312">
+        <v>3673.443115234375</v>
+      </c>
+      <c r="F1312">
+        <f t="shared" si="10"/>
+        <v>3.6734431152343752</v>
+      </c>
+      <c r="G1312">
+        <v>25406328</v>
+      </c>
+      <c r="H1312">
+        <v>25406328</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1313" s="1">
+        <v>45849</v>
+      </c>
+      <c r="B1313">
+        <v>3672.27294921875</v>
+      </c>
+      <c r="C1313">
+        <v>3723.6689453125</v>
+      </c>
+      <c r="D1313">
+        <v>3665.9609375</v>
+      </c>
+      <c r="E1313">
+        <v>3700.347900390625</v>
+      </c>
+      <c r="F1313">
+        <f t="shared" si="10"/>
+        <v>3.700347900390625</v>
+      </c>
+      <c r="G1313">
+        <v>35978612</v>
+      </c>
+      <c r="H1313">
+        <v>35978612</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1314" s="1">
+        <v>45852</v>
+      </c>
+      <c r="B1314">
+        <v>3704.18505859375</v>
+      </c>
+      <c r="C1314">
+        <v>3704.18505859375</v>
+      </c>
+      <c r="D1314">
+        <v>3682.444091796875</v>
+      </c>
+      <c r="E1314">
+        <v>3694.748046875</v>
+      </c>
+      <c r="F1314">
+        <f t="shared" si="10"/>
+        <v>3.694748046875</v>
+      </c>
+      <c r="G1314">
+        <v>24822708</v>
+      </c>
+      <c r="H1314">
+        <v>24822708</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1315" s="1">
+        <v>45853</v>
+      </c>
+      <c r="B1315">
+        <v>3697.404052734375</v>
+      </c>
+      <c r="C1315">
+        <v>3745.27294921875</v>
+      </c>
+      <c r="D1315">
+        <v>3693.737060546875</v>
+      </c>
+      <c r="E1315">
+        <v>3731.594970703125</v>
+      </c>
+      <c r="F1315">
+        <f t="shared" si="10"/>
+        <v>3.7315949707031248</v>
+      </c>
+      <c r="G1315">
+        <v>32604462</v>
+      </c>
+      <c r="H1315">
+        <v>32604462</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1316" s="1">
+        <v>45854</v>
+      </c>
+      <c r="B1316">
+        <v>3737.81689453125</v>
+      </c>
+      <c r="C1316">
+        <v>3750.341064453125</v>
+      </c>
+      <c r="D1316">
+        <v>3711.885009765625</v>
+      </c>
+      <c r="E1316">
+        <v>3718.080078125</v>
+      </c>
+      <c r="F1316">
+        <f t="shared" si="10"/>
+        <v>3.7180800781249999</v>
+      </c>
+      <c r="G1316">
+        <v>27626038</v>
+      </c>
+      <c r="H1316">
+        <v>27626038</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1317" s="1">
+        <v>45855</v>
+      </c>
+      <c r="B1317">
+        <v>3718.51904296875</v>
+      </c>
+      <c r="C1317">
+        <v>3759.678955078125</v>
+      </c>
+      <c r="D1317">
+        <v>3716.5419921875</v>
+      </c>
+      <c r="E1317">
+        <v>3759.678955078125</v>
+      </c>
+      <c r="F1317">
+        <f t="shared" si="10"/>
+        <v>3.7596789550781251</v>
+      </c>
+      <c r="G1317">
+        <v>29558332</v>
+      </c>
+      <c r="H1317">
+        <v>29558332</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1318" s="1">
+        <v>45856</v>
+      </c>
+      <c r="B1318">
+        <v>3779.02392578125</v>
+      </c>
+      <c r="C1318">
+        <v>3796.51904296875</v>
+      </c>
+      <c r="D1318">
+        <v>3756.533935546875</v>
+      </c>
+      <c r="E1318">
+        <v>3783.2509765625</v>
+      </c>
+      <c r="F1318">
+        <f t="shared" si="10"/>
+        <v>3.7832509765625</v>
+      </c>
+      <c r="G1318">
+        <v>28163846</v>
+      </c>
+      <c r="H1318">
+        <v>28163846</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1319" s="1">
+        <v>45859</v>
+      </c>
+      <c r="B1319">
+        <v>3793.256103515625</v>
+      </c>
+      <c r="C1319">
+        <v>3817.676025390625</v>
+      </c>
+      <c r="D1319">
+        <v>3782.514892578125</v>
+      </c>
+      <c r="E1319">
+        <v>3817.66796875</v>
+      </c>
+      <c r="F1319">
+        <f t="shared" si="10"/>
+        <v>3.8176679687499999</v>
+      </c>
+      <c r="G1319">
+        <v>29571848</v>
+      </c>
+      <c r="H1319">
+        <v>29571848</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1320" s="1">
+        <v>45860</v>
+      </c>
+      <c r="B1320">
+        <v>3816.37890625</v>
+      </c>
+      <c r="C1320">
+        <v>3842.864990234375</v>
+      </c>
+      <c r="D1320">
+        <v>3803.9189453125</v>
+      </c>
+      <c r="E1320">
+        <v>3842.864990234375</v>
+      </c>
+      <c r="F1320">
+        <f t="shared" si="10"/>
+        <v>3.842864990234375</v>
+      </c>
+      <c r="G1320">
+        <v>32372726</v>
+      </c>
+      <c r="H1320">
+        <v>32372726</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1321" s="1">
+        <v>45861</v>
+      </c>
+      <c r="B1321">
+        <v>3840.5400390625</v>
+      </c>
+      <c r="C1321">
+        <v>3872.64404296875</v>
+      </c>
+      <c r="D1321">
+        <v>3832.31298828125</v>
+      </c>
+      <c r="E1321">
+        <v>3840.35595703125</v>
+      </c>
+      <c r="F1321">
+        <f t="shared" si="10"/>
+        <v>3.84035595703125</v>
+      </c>
+      <c r="G1321">
+        <v>33239036</v>
+      </c>
+      <c r="H1321">
+        <v>33239036</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1322" s="1">
+        <v>45862</v>
+      </c>
+      <c r="B1322">
+        <v>3849.027099609375</v>
+      </c>
+      <c r="C1322">
+        <v>3880.822021484375</v>
+      </c>
+      <c r="D1322">
+        <v>3848.051025390625</v>
+      </c>
+      <c r="E1322">
+        <v>3880.822021484375</v>
+      </c>
+      <c r="F1322">
+        <f t="shared" si="10"/>
+        <v>3.8808220214843749</v>
+      </c>
+      <c r="G1322">
+        <v>32218558</v>
+      </c>
+      <c r="H1322">
+        <v>32218558</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1323" s="1">
+        <v>45863</v>
+      </c>
+      <c r="B1323">
+        <v>3880.93408203125</v>
+      </c>
+      <c r="C1323">
+        <v>3880.93408203125</v>
+      </c>
+      <c r="D1323">
+        <v>3850.283935546875</v>
+      </c>
+      <c r="E1323">
+        <v>3863.4951171875</v>
+      </c>
+      <c r="F1323">
+        <f t="shared" si="10"/>
+        <v>3.8634951171875</v>
+      </c>
+      <c r="G1323">
+        <v>26418556</v>
+      </c>
+      <c r="H1323">
+        <v>26418556</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1324" s="1">
+        <v>45866</v>
+      </c>
+      <c r="B1324">
+        <v>3872.217041015625</v>
+      </c>
+      <c r="C1324">
+        <v>3897.986083984375</v>
+      </c>
+      <c r="D1324">
+        <v>3855.345947265625</v>
+      </c>
+      <c r="E1324">
+        <v>3892.238037109375</v>
+      </c>
+      <c r="F1324">
+        <f t="shared" si="10"/>
+        <v>3.892238037109375</v>
+      </c>
+      <c r="G1324">
+        <v>31294488</v>
+      </c>
+      <c r="H1324">
+        <v>31294488</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1325" s="1">
+        <v>45867</v>
+      </c>
+      <c r="B1325">
+        <v>3887.384033203125</v>
+      </c>
+      <c r="C1325">
+        <v>3926.489013671875</v>
+      </c>
+      <c r="D1325">
+        <v>3873.347900390625</v>
+      </c>
+      <c r="E1325">
+        <v>3926.071044921875</v>
+      </c>
+      <c r="F1325">
+        <f t="shared" si="10"/>
+        <v>3.926071044921875</v>
+      </c>
+      <c r="G1325">
+        <v>31065710</v>
+      </c>
+      <c r="H1325">
+        <v>31065710</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1326" s="1">
+        <v>45868</v>
+      </c>
+      <c r="B1326">
+        <v>3914.1630859375</v>
+      </c>
+      <c r="C1326">
+        <v>3918.85498046875</v>
+      </c>
+      <c r="D1326">
+        <v>3845.071044921875</v>
+      </c>
+      <c r="E1326">
+        <v>3869.27197265625</v>
+      </c>
+      <c r="F1326">
+        <f t="shared" si="10"/>
+        <v>3.8692719726562501</v>
+      </c>
+      <c r="G1326">
+        <v>30442094</v>
+      </c>
+      <c r="H1326">
+        <v>30442094</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1327" s="1">
+        <v>45869</v>
+      </c>
+      <c r="B1327">
+        <v>3881.3759765625</v>
+      </c>
+      <c r="C1327">
+        <v>3890.73193359375</v>
+      </c>
+      <c r="D1327">
+        <v>3787.43505859375</v>
+      </c>
+      <c r="E1327">
+        <v>3798.739990234375</v>
+      </c>
+      <c r="F1327">
+        <f t="shared" si="10"/>
+        <v>3.7987399902343748</v>
+      </c>
+      <c r="G1327">
+        <v>33416868</v>
+      </c>
+      <c r="H1327">
+        <v>33416868</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index.xlsx
+++ b/lai/valuationquan/szseinnovation100index.xlsx
@@ -400,10 +400,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H1327"/>
+  <dimension ref="A1:H1348"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1315" workbookViewId="0">
-      <selection activeCell="A1328" sqref="A1328"/>
+    <sheetView tabSelected="1" topLeftCell="A1328" workbookViewId="0">
+      <selection activeCell="A1349" sqref="A1349"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -33126,7 +33126,7 @@
         <v>3806.216064453125</v>
       </c>
       <c r="F1213">
-        <f t="shared" ref="F1213:F1327" si="10">E1213/1000</f>
+        <f t="shared" ref="F1213:F1348" si="10">E1213/1000</f>
         <v>3.8062160644531251</v>
       </c>
       <c r="G1213">
@@ -36212,6 +36212,573 @@
       </c>
       <c r="H1327">
         <v>33416868</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1328" s="1">
+        <v>45870</v>
+      </c>
+      <c r="B1328">
+        <v>3794.2900390625</v>
+      </c>
+      <c r="C1328">
+        <v>3823.7900390625</v>
+      </c>
+      <c r="D1328">
+        <v>3768.384033203125</v>
+      </c>
+      <c r="E1328">
+        <v>3795.343994140625</v>
+      </c>
+      <c r="F1328">
+        <f t="shared" si="10"/>
+        <v>3.7953439941406248</v>
+      </c>
+      <c r="G1328">
+        <v>28986102</v>
+      </c>
+      <c r="H1328">
+        <v>28986102</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1329" s="1">
+        <v>45873</v>
+      </c>
+      <c r="B1329">
+        <v>3770.27001953125</v>
+      </c>
+      <c r="C1329">
+        <v>3816.139892578125</v>
+      </c>
+      <c r="D1329">
+        <v>3769.81591796875</v>
+      </c>
+      <c r="E1329">
+        <v>3816.139892578125</v>
+      </c>
+      <c r="F1329">
+        <f t="shared" si="10"/>
+        <v>3.8161398925781249</v>
+      </c>
+      <c r="G1329">
+        <v>24627174</v>
+      </c>
+      <c r="H1329">
+        <v>24627174</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1330" s="1">
+        <v>45874</v>
+      </c>
+      <c r="B1330">
+        <v>3831.327880859375</v>
+      </c>
+      <c r="C1330">
+        <v>3841.6298828125</v>
+      </c>
+      <c r="D1330">
+        <v>3808.291015625</v>
+      </c>
+      <c r="E1330">
+        <v>3837.50390625</v>
+      </c>
+      <c r="F1330">
+        <f t="shared" si="10"/>
+        <v>3.8375039062499998</v>
+      </c>
+      <c r="G1330">
+        <v>27165982</v>
+      </c>
+      <c r="H1330">
+        <v>27165982</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1331" s="1">
+        <v>45875</v>
+      </c>
+      <c r="B1331">
+        <v>3831.52099609375</v>
+      </c>
+      <c r="C1331">
+        <v>3861.763916015625</v>
+      </c>
+      <c r="D1331">
+        <v>3830.35595703125</v>
+      </c>
+      <c r="E1331">
+        <v>3859.820068359375</v>
+      </c>
+      <c r="F1331">
+        <f t="shared" si="10"/>
+        <v>3.8598200683593751</v>
+      </c>
+      <c r="G1331">
+        <v>29780324</v>
+      </c>
+      <c r="H1331">
+        <v>29780324</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1332" s="1">
+        <v>45876</v>
+      </c>
+      <c r="B1332">
+        <v>3864.219970703125</v>
+      </c>
+      <c r="C1332">
+        <v>3879.908935546875</v>
+      </c>
+      <c r="D1332">
+        <v>3826.2080078125</v>
+      </c>
+      <c r="E1332">
+        <v>3844.7919921875</v>
+      </c>
+      <c r="F1332">
+        <f t="shared" si="10"/>
+        <v>3.8447919921875</v>
+      </c>
+      <c r="G1332">
+        <v>30169244</v>
+      </c>
+      <c r="H1332">
+        <v>30169244</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1333" s="1">
+        <v>45877</v>
+      </c>
+      <c r="B1333">
+        <v>3838.69091796875</v>
+      </c>
+      <c r="C1333">
+        <v>3860.382080078125</v>
+      </c>
+      <c r="D1333">
+        <v>3831.19189453125</v>
+      </c>
+      <c r="E1333">
+        <v>3834.821044921875</v>
+      </c>
+      <c r="F1333">
+        <f t="shared" si="10"/>
+        <v>3.8348210449218749</v>
+      </c>
+      <c r="G1333">
+        <v>27727586</v>
+      </c>
+      <c r="H1333">
+        <v>27727586</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1334" s="1">
+        <v>45880</v>
+      </c>
+      <c r="B1334">
+        <v>3839.047119140625</v>
+      </c>
+      <c r="C1334">
+        <v>3896.0830078125</v>
+      </c>
+      <c r="D1334">
+        <v>3839.047119140625</v>
+      </c>
+      <c r="E1334">
+        <v>3888.264892578125</v>
+      </c>
+      <c r="F1334">
+        <f t="shared" si="10"/>
+        <v>3.8882648925781251</v>
+      </c>
+      <c r="G1334">
+        <v>31650022</v>
+      </c>
+      <c r="H1334">
+        <v>31650022</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1335" s="1">
+        <v>45881</v>
+      </c>
+      <c r="B1335">
+        <v>3890.333984375</v>
+      </c>
+      <c r="C1335">
+        <v>3922.625</v>
+      </c>
+      <c r="D1335">
+        <v>3867.699951171875</v>
+      </c>
+      <c r="E1335">
+        <v>3922.625</v>
+      </c>
+      <c r="F1335">
+        <f t="shared" si="10"/>
+        <v>3.922625</v>
+      </c>
+      <c r="G1335">
+        <v>32897950</v>
+      </c>
+      <c r="H1335">
+        <v>32897950</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1336" s="1">
+        <v>45882</v>
+      </c>
+      <c r="B1336">
+        <v>3933.299072265625</v>
+      </c>
+      <c r="C1336">
+        <v>4017.971923828125</v>
+      </c>
+      <c r="D1336">
+        <v>3931.489990234375</v>
+      </c>
+      <c r="E1336">
+        <v>4014.443115234375</v>
+      </c>
+      <c r="F1336">
+        <f t="shared" si="10"/>
+        <v>4.0144431152343749</v>
+      </c>
+      <c r="G1336">
+        <v>44976332</v>
+      </c>
+      <c r="H1336">
+        <v>44976332</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1337" s="1">
+        <v>45883</v>
+      </c>
+      <c r="B1337">
+        <v>4025.239013671875</v>
+      </c>
+      <c r="C1337">
+        <v>4055.324951171875</v>
+      </c>
+      <c r="D1337">
+        <v>3988.3720703125</v>
+      </c>
+      <c r="E1337">
+        <v>4003.837890625</v>
+      </c>
+      <c r="F1337">
+        <f t="shared" si="10"/>
+        <v>4.0038378906250003</v>
+      </c>
+      <c r="G1337">
+        <v>46518080</v>
+      </c>
+      <c r="H1337">
+        <v>46518080</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1338" s="1">
+        <v>45884</v>
+      </c>
+      <c r="B1338">
+        <v>3994.889892578125</v>
+      </c>
+      <c r="C1338">
+        <v>4087.48291015625</v>
+      </c>
+      <c r="D1338">
+        <v>3994.889892578125</v>
+      </c>
+      <c r="E1338">
+        <v>4076.593994140625</v>
+      </c>
+      <c r="F1338">
+        <f t="shared" si="10"/>
+        <v>4.0765939941406248</v>
+      </c>
+      <c r="G1338">
+        <v>51556516</v>
+      </c>
+      <c r="H1338">
+        <v>51556516</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1339" s="1">
+        <v>45887</v>
+      </c>
+      <c r="B1339">
+        <v>4098.05322265625</v>
+      </c>
+      <c r="C1339">
+        <v>4211.26318359375</v>
+      </c>
+      <c r="D1339">
+        <v>4082.158935546875</v>
+      </c>
+      <c r="E1339">
+        <v>4174.7529296875</v>
+      </c>
+      <c r="F1339">
+        <f t="shared" si="10"/>
+        <v>4.1747529296875001</v>
+      </c>
+      <c r="G1339">
+        <v>64723732</v>
+      </c>
+      <c r="H1339">
+        <v>64723732</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1340" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B1340">
+        <v>4173.455078125</v>
+      </c>
+      <c r="C1340">
+        <v>4197.68115234375</v>
+      </c>
+      <c r="D1340">
+        <v>4139.19921875</v>
+      </c>
+      <c r="E1340">
+        <v>4157.1162109375</v>
+      </c>
+      <c r="F1340">
+        <f t="shared" si="10"/>
+        <v>4.1571162109374997</v>
+      </c>
+      <c r="G1340">
+        <v>53752104</v>
+      </c>
+      <c r="H1340">
+        <v>53752104</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1341" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B1341">
+        <v>4126.7568359375</v>
+      </c>
+      <c r="C1341">
+        <v>4197.14306640625</v>
+      </c>
+      <c r="D1341">
+        <v>4094.60009765625</v>
+      </c>
+      <c r="E1341">
+        <v>4197.14306640625</v>
+      </c>
+      <c r="F1341">
+        <f t="shared" si="10"/>
+        <v>4.1971430664062499</v>
+      </c>
+      <c r="G1341">
+        <v>50394372</v>
+      </c>
+      <c r="H1341">
+        <v>50394372</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1342" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B1342">
+        <v>4220.5048828125</v>
+      </c>
+      <c r="C1342">
+        <v>4238.68994140625</v>
+      </c>
+      <c r="D1342">
+        <v>4168.8310546875</v>
+      </c>
+      <c r="E1342">
+        <v>4187.89892578125</v>
+      </c>
+      <c r="F1342">
+        <f t="shared" si="10"/>
+        <v>4.1878989257812496</v>
+      </c>
+      <c r="G1342">
+        <v>51274760</v>
+      </c>
+      <c r="H1342">
+        <v>51274760</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1343" s="1">
+        <v>45891</v>
+      </c>
+      <c r="B1343">
+        <v>4181.55810546875</v>
+      </c>
+      <c r="C1343">
+        <v>4313.9541015625</v>
+      </c>
+      <c r="D1343">
+        <v>4181.55810546875</v>
+      </c>
+      <c r="E1343">
+        <v>4313.9541015625</v>
+      </c>
+      <c r="F1343">
+        <f t="shared" si="10"/>
+        <v>4.3139541015624996</v>
+      </c>
+      <c r="G1343">
+        <v>58000956</v>
+      </c>
+      <c r="H1343">
+        <v>58000956</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1344" s="1">
+        <v>45894</v>
+      </c>
+      <c r="B1344">
+        <v>4366.55419921875</v>
+      </c>
+      <c r="C1344">
+        <v>4427.412109375</v>
+      </c>
+      <c r="D1344">
+        <v>4335.02490234375</v>
+      </c>
+      <c r="E1344">
+        <v>4405.60986328125</v>
+      </c>
+      <c r="F1344">
+        <f t="shared" si="10"/>
+        <v>4.4056098632812501</v>
+      </c>
+      <c r="G1344">
+        <v>66401060</v>
+      </c>
+      <c r="H1344">
+        <v>66401060</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1345" s="1">
+        <v>45895</v>
+      </c>
+      <c r="B1345">
+        <v>4377.86279296875</v>
+      </c>
+      <c r="C1345">
+        <v>4427.1328125</v>
+      </c>
+      <c r="D1345">
+        <v>4356.14892578125</v>
+      </c>
+      <c r="E1345">
+        <v>4394.5322265625</v>
+      </c>
+      <c r="F1345">
+        <f t="shared" si="10"/>
+        <v>4.3945322265625002</v>
+      </c>
+      <c r="G1345">
+        <v>51927440</v>
+      </c>
+      <c r="H1345">
+        <v>51927440</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1346" s="1">
+        <v>45896</v>
+      </c>
+      <c r="B1346">
+        <v>4407.9609375</v>
+      </c>
+      <c r="C1346">
+        <v>4492.48779296875</v>
+      </c>
+      <c r="D1346">
+        <v>4350.4267578125</v>
+      </c>
+      <c r="E1346">
+        <v>4350.4609375</v>
+      </c>
+      <c r="F1346">
+        <f t="shared" si="10"/>
+        <v>4.3504609375000003</v>
+      </c>
+      <c r="G1346">
+        <v>65850528</v>
+      </c>
+      <c r="H1346">
+        <v>65850528</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1347" s="1">
+        <v>45897</v>
+      </c>
+      <c r="B1347">
+        <v>4332.1279296875</v>
+      </c>
+      <c r="C1347">
+        <v>4455.5419921875</v>
+      </c>
+      <c r="D1347">
+        <v>4327.8681640625</v>
+      </c>
+      <c r="E1347">
+        <v>4455.5419921875</v>
+      </c>
+      <c r="F1347">
+        <f t="shared" si="10"/>
+        <v>4.4555419921875004</v>
+      </c>
+      <c r="G1347">
+        <v>61079040</v>
+      </c>
+      <c r="H1347">
+        <v>61079040</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1348" s="1">
+        <v>45898</v>
+      </c>
+      <c r="B1348">
+        <v>4450.80078125</v>
+      </c>
+      <c r="C1348">
+        <v>4593.9140625</v>
+      </c>
+      <c r="D1348">
+        <v>4422.94921875</v>
+      </c>
+      <c r="E1348">
+        <v>4537.94482421875</v>
+      </c>
+      <c r="F1348">
+        <f t="shared" si="10"/>
+        <v>4.5379448242187497</v>
+      </c>
+      <c r="G1348">
+        <v>60467408</v>
+      </c>
+      <c r="H1348">
+        <v>60467408</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index.xlsx
+++ b/lai/valuationquan/szseinnovation100index.xlsx
@@ -400,10 +400,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H1348"/>
+  <dimension ref="A1:H1370"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1328" workbookViewId="0">
-      <selection activeCell="A1349" sqref="A1349"/>
+    <sheetView tabSelected="1" topLeftCell="A1349" workbookViewId="0">
+      <selection activeCell="A1371" sqref="A1371"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -33126,7 +33126,7 @@
         <v>3806.216064453125</v>
       </c>
       <c r="F1213">
-        <f t="shared" ref="F1213:F1348" si="10">E1213/1000</f>
+        <f t="shared" ref="F1213:F1370" si="10">E1213/1000</f>
         <v>3.8062160644531251</v>
       </c>
       <c r="G1213">
@@ -36779,6 +36779,600 @@
       </c>
       <c r="H1348">
         <v>60467408</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1349" s="1">
+        <v>45901</v>
+      </c>
+      <c r="B1349">
+        <v>4568.5341796875</v>
+      </c>
+      <c r="C1349">
+        <v>4604.673828125</v>
+      </c>
+      <c r="D1349">
+        <v>4533.5517578125</v>
+      </c>
+      <c r="E1349">
+        <v>4603.94287109375</v>
+      </c>
+      <c r="F1349">
+        <f t="shared" si="10"/>
+        <v>4.60394287109375</v>
+      </c>
+      <c r="G1349">
+        <v>58651324</v>
+      </c>
+      <c r="H1349">
+        <v>58651324</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1350" s="1">
+        <v>45902</v>
+      </c>
+      <c r="B1350">
+        <v>4594.89306640625</v>
+      </c>
+      <c r="C1350">
+        <v>4622.037109375</v>
+      </c>
+      <c r="D1350">
+        <v>4464.365234375</v>
+      </c>
+      <c r="E1350">
+        <v>4505.26513671875</v>
+      </c>
+      <c r="F1350">
+        <f t="shared" si="10"/>
+        <v>4.5052651367187497</v>
+      </c>
+      <c r="G1350">
+        <v>61308764</v>
+      </c>
+      <c r="H1350">
+        <v>61308764</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1351" s="1">
+        <v>45903</v>
+      </c>
+      <c r="B1351">
+        <v>4524.47021484375</v>
+      </c>
+      <c r="C1351">
+        <v>4561.39306640625</v>
+      </c>
+      <c r="D1351">
+        <v>4467.47412109375</v>
+      </c>
+      <c r="E1351">
+        <v>4515.4091796875</v>
+      </c>
+      <c r="F1351">
+        <f t="shared" si="10"/>
+        <v>4.5154091796875004</v>
+      </c>
+      <c r="G1351">
+        <v>50863828</v>
+      </c>
+      <c r="H1351">
+        <v>50863828</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1352" s="1">
+        <v>45904</v>
+      </c>
+      <c r="B1352">
+        <v>4543.083984375</v>
+      </c>
+      <c r="C1352">
+        <v>4574.67919921875</v>
+      </c>
+      <c r="D1352">
+        <v>4299.494140625</v>
+      </c>
+      <c r="E1352">
+        <v>4355.9638671875</v>
+      </c>
+      <c r="F1352">
+        <f t="shared" si="10"/>
+        <v>4.3559638671874996</v>
+      </c>
+      <c r="G1352">
+        <v>55264000</v>
+      </c>
+      <c r="H1352">
+        <v>55264000</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1353" s="1">
+        <v>45905</v>
+      </c>
+      <c r="B1353">
+        <v>4363.6630859375</v>
+      </c>
+      <c r="C1353">
+        <v>4562.26318359375</v>
+      </c>
+      <c r="D1353">
+        <v>4349.93212890625</v>
+      </c>
+      <c r="E1353">
+        <v>4556.74609375</v>
+      </c>
+      <c r="F1353">
+        <f t="shared" si="10"/>
+        <v>4.5567460937500002</v>
+      </c>
+      <c r="G1353">
+        <v>49084180</v>
+      </c>
+      <c r="H1353">
+        <v>49084180</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1354" s="1">
+        <v>45908</v>
+      </c>
+      <c r="B1354">
+        <v>4576.3798828125</v>
+      </c>
+      <c r="C1354">
+        <v>4606.60498046875</v>
+      </c>
+      <c r="D1354">
+        <v>4521.751953125</v>
+      </c>
+      <c r="E1354">
+        <v>4585.6767578125</v>
+      </c>
+      <c r="F1354">
+        <f t="shared" si="10"/>
+        <v>4.5856767578125002</v>
+      </c>
+      <c r="G1354">
+        <v>50966412</v>
+      </c>
+      <c r="H1354">
+        <v>50966412</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1355" s="1">
+        <v>45909</v>
+      </c>
+      <c r="B1355">
+        <v>4550.2529296875</v>
+      </c>
+      <c r="C1355">
+        <v>4570.39501953125</v>
+      </c>
+      <c r="D1355">
+        <v>4470.61083984375</v>
+      </c>
+      <c r="E1355">
+        <v>4494.52587890625</v>
+      </c>
+      <c r="F1355">
+        <f t="shared" si="10"/>
+        <v>4.4945258789062503</v>
+      </c>
+      <c r="G1355">
+        <v>41471416</v>
+      </c>
+      <c r="H1355">
+        <v>41471416</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1356" s="1">
+        <v>45910</v>
+      </c>
+      <c r="B1356">
+        <v>4502.4111328125</v>
+      </c>
+      <c r="C1356">
+        <v>4549.59521484375</v>
+      </c>
+      <c r="D1356">
+        <v>4474.02490234375</v>
+      </c>
+      <c r="E1356">
+        <v>4521.88818359375</v>
+      </c>
+      <c r="F1356">
+        <f t="shared" si="10"/>
+        <v>4.5218881835937497</v>
+      </c>
+      <c r="G1356">
+        <v>39504980</v>
+      </c>
+      <c r="H1356">
+        <v>39504980</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1357" s="1">
+        <v>45911</v>
+      </c>
+      <c r="B1357">
+        <v>4527.298828125</v>
+      </c>
+      <c r="C1357">
+        <v>4685.68310546875</v>
+      </c>
+      <c r="D1357">
+        <v>4495.130859375</v>
+      </c>
+      <c r="E1357">
+        <v>4685.68310546875</v>
+      </c>
+      <c r="F1357">
+        <f t="shared" si="10"/>
+        <v>4.6856831054687502</v>
+      </c>
+      <c r="G1357">
+        <v>50482748</v>
+      </c>
+      <c r="H1357">
+        <v>50482748</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1358" s="1">
+        <v>45912</v>
+      </c>
+      <c r="B1358">
+        <v>4669.537109375</v>
+      </c>
+      <c r="C1358">
+        <v>4713.10888671875</v>
+      </c>
+      <c r="D1358">
+        <v>4646.84716796875</v>
+      </c>
+      <c r="E1358">
+        <v>4647.26806640625</v>
+      </c>
+      <c r="F1358">
+        <f t="shared" si="10"/>
+        <v>4.6472680664062498</v>
+      </c>
+      <c r="G1358">
+        <v>49040820</v>
+      </c>
+      <c r="H1358">
+        <v>49040820</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1359" s="1">
+        <v>45915</v>
+      </c>
+      <c r="B1359">
+        <v>4702.67919921875</v>
+      </c>
+      <c r="C1359">
+        <v>4784.35498046875</v>
+      </c>
+      <c r="D1359">
+        <v>4693.48388671875</v>
+      </c>
+      <c r="E1359">
+        <v>4720.708984375</v>
+      </c>
+      <c r="F1359">
+        <f t="shared" si="10"/>
+        <v>4.7207089843750003</v>
+      </c>
+      <c r="G1359">
+        <v>45102512</v>
+      </c>
+      <c r="H1359">
+        <v>45102512</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1360" s="1">
+        <v>45916</v>
+      </c>
+      <c r="B1360">
+        <v>4722.7548828125</v>
+      </c>
+      <c r="C1360">
+        <v>4762.72900390625</v>
+      </c>
+      <c r="D1360">
+        <v>4675.52783203125</v>
+      </c>
+      <c r="E1360">
+        <v>4756.94921875</v>
+      </c>
+      <c r="F1360">
+        <f t="shared" si="10"/>
+        <v>4.75694921875</v>
+      </c>
+      <c r="G1360">
+        <v>45348600</v>
+      </c>
+      <c r="H1360">
+        <v>45348600</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1361" s="1">
+        <v>45917</v>
+      </c>
+      <c r="B1361">
+        <v>4761.9638671875</v>
+      </c>
+      <c r="C1361">
+        <v>4862.23486328125</v>
+      </c>
+      <c r="D1361">
+        <v>4745.76708984375</v>
+      </c>
+      <c r="E1361">
+        <v>4853.43310546875</v>
+      </c>
+      <c r="F1361">
+        <f t="shared" si="10"/>
+        <v>4.8534331054687501</v>
+      </c>
+      <c r="G1361">
+        <v>48392916</v>
+      </c>
+      <c r="H1361">
+        <v>48392916</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1362" s="1">
+        <v>45918</v>
+      </c>
+      <c r="B1362">
+        <v>4839.5517578125</v>
+      </c>
+      <c r="C1362">
+        <v>4927.35205078125</v>
+      </c>
+      <c r="D1362">
+        <v>4761.69091796875</v>
+      </c>
+      <c r="E1362">
+        <v>4831.673828125</v>
+      </c>
+      <c r="F1362">
+        <f t="shared" si="10"/>
+        <v>4.831673828125</v>
+      </c>
+      <c r="G1362">
+        <v>67320032</v>
+      </c>
+      <c r="H1362">
+        <v>67320032</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1363" s="1">
+        <v>45919</v>
+      </c>
+      <c r="B1363">
+        <v>4826.06298828125</v>
+      </c>
+      <c r="C1363">
+        <v>4867.9658203125</v>
+      </c>
+      <c r="D1363">
+        <v>4787.8779296875</v>
+      </c>
+      <c r="E1363">
+        <v>4810.31396484375</v>
+      </c>
+      <c r="F1363">
+        <f t="shared" si="10"/>
+        <v>4.8103139648437496</v>
+      </c>
+      <c r="G1363">
+        <v>44922664</v>
+      </c>
+      <c r="H1363">
+        <v>44922664</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1364" s="1">
+        <v>45922</v>
+      </c>
+      <c r="B1364">
+        <v>4823.7568359375</v>
+      </c>
+      <c r="C1364">
+        <v>4859.26318359375</v>
+      </c>
+      <c r="D1364">
+        <v>4785.330078125</v>
+      </c>
+      <c r="E1364">
+        <v>4859.26318359375</v>
+      </c>
+      <c r="F1364">
+        <f t="shared" si="10"/>
+        <v>4.8592631835937503</v>
+      </c>
+      <c r="G1364">
+        <v>39246152</v>
+      </c>
+      <c r="H1364">
+        <v>39246152</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1365" s="1">
+        <v>45923</v>
+      </c>
+      <c r="B1365">
+        <v>4896.8681640625</v>
+      </c>
+      <c r="C1365">
+        <v>4931.203125</v>
+      </c>
+      <c r="D1365">
+        <v>4769.18115234375</v>
+      </c>
+      <c r="E1365">
+        <v>4867.81103515625</v>
+      </c>
+      <c r="F1365">
+        <f t="shared" si="10"/>
+        <v>4.86781103515625</v>
+      </c>
+      <c r="G1365">
+        <v>47641908</v>
+      </c>
+      <c r="H1365">
+        <v>47641908</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1366" s="1">
+        <v>45924</v>
+      </c>
+      <c r="B1366">
+        <v>4842.8271484375</v>
+      </c>
+      <c r="C1366">
+        <v>4979.001953125</v>
+      </c>
+      <c r="D1366">
+        <v>4830.4072265625</v>
+      </c>
+      <c r="E1366">
+        <v>4979.001953125</v>
+      </c>
+      <c r="F1366">
+        <f t="shared" si="10"/>
+        <v>4.9790019531249996</v>
+      </c>
+      <c r="G1366">
+        <v>47361232</v>
+      </c>
+      <c r="H1366">
+        <v>47361232</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1367" s="1">
+        <v>45925</v>
+      </c>
+      <c r="B1367">
+        <v>4966.55908203125</v>
+      </c>
+      <c r="C1367">
+        <v>5086.27783203125</v>
+      </c>
+      <c r="D1367">
+        <v>4953.06298828125</v>
+      </c>
+      <c r="E1367">
+        <v>5047.5322265625</v>
+      </c>
+      <c r="F1367">
+        <f t="shared" si="10"/>
+        <v>5.0475322265624998</v>
+      </c>
+      <c r="G1367">
+        <v>48754896</v>
+      </c>
+      <c r="H1367">
+        <v>48754896</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1368" s="1">
+        <v>45926</v>
+      </c>
+      <c r="B1368">
+        <v>5026.1640625</v>
+      </c>
+      <c r="C1368">
+        <v>5060.22607421875</v>
+      </c>
+      <c r="D1368">
+        <v>4935.95703125</v>
+      </c>
+      <c r="E1368">
+        <v>4937.31201171875</v>
+      </c>
+      <c r="F1368">
+        <f t="shared" si="10"/>
+        <v>4.9373120117187499</v>
+      </c>
+      <c r="G1368">
+        <v>43246920</v>
+      </c>
+      <c r="H1368">
+        <v>43246920</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1369" s="1">
+        <v>45929</v>
+      </c>
+      <c r="B1369">
+        <v>4961.94091796875</v>
+      </c>
+      <c r="C1369">
+        <v>5072.408203125</v>
+      </c>
+      <c r="D1369">
+        <v>4959.8330078125</v>
+      </c>
+      <c r="E1369">
+        <v>5048.05517578125</v>
+      </c>
+      <c r="F1369">
+        <f t="shared" si="10"/>
+        <v>5.0480551757812497</v>
+      </c>
+      <c r="G1369">
+        <v>49019380</v>
+      </c>
+      <c r="H1369">
+        <v>49019380</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1370" s="1">
+        <v>45930</v>
+      </c>
+      <c r="B1370">
+        <v>5048.3330078125</v>
+      </c>
+      <c r="C1370">
+        <v>5108.31201171875</v>
+      </c>
+      <c r="D1370">
+        <v>5034.41015625</v>
+      </c>
+      <c r="E1370">
+        <v>5058.10009765625</v>
+      </c>
+      <c r="F1370">
+        <f t="shared" si="10"/>
+        <v>5.0581000976562498</v>
+      </c>
+      <c r="G1370">
+        <v>42040372</v>
+      </c>
+      <c r="H1370">
+        <v>42040372</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index.xlsx
+++ b/lai/valuationquan/szseinnovation100index.xlsx
@@ -400,10 +400,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H1370"/>
+  <dimension ref="A1:H1387"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1349" workbookViewId="0">
-      <selection activeCell="A1371" sqref="A1371"/>
+    <sheetView tabSelected="1" topLeftCell="A1371" workbookViewId="0">
+      <selection activeCell="A1388" sqref="A1388"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -33126,7 +33126,7 @@
         <v>3806.216064453125</v>
       </c>
       <c r="F1213">
-        <f t="shared" ref="F1213:F1370" si="10">E1213/1000</f>
+        <f t="shared" ref="F1213:F1387" si="10">E1213/1000</f>
         <v>3.8062160644531251</v>
       </c>
       <c r="G1213">
@@ -37373,6 +37373,465 @@
       </c>
       <c r="H1370">
         <v>42040372</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1371" s="1">
+        <v>45939</v>
+      </c>
+      <c r="B1371">
+        <v>5077.8388671875</v>
+      </c>
+      <c r="C1371">
+        <v>5217.97705078125</v>
+      </c>
+      <c r="D1371">
+        <v>5077.73681640625</v>
+      </c>
+      <c r="E1371">
+        <v>5142.3310546875</v>
+      </c>
+      <c r="F1371">
+        <f t="shared" si="10"/>
+        <v>5.1423310546875003</v>
+      </c>
+      <c r="G1371">
+        <v>54962036</v>
+      </c>
+      <c r="H1371">
+        <v>54962036</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1372" s="1">
+        <v>45940</v>
+      </c>
+      <c r="B1372">
+        <v>5097.2998046875</v>
+      </c>
+      <c r="C1372">
+        <v>5099.47705078125</v>
+      </c>
+      <c r="D1372">
+        <v>4917.76904296875</v>
+      </c>
+      <c r="E1372">
+        <v>4943.130859375</v>
+      </c>
+      <c r="F1372">
+        <f t="shared" si="10"/>
+        <v>4.9431308593749996</v>
+      </c>
+      <c r="G1372">
+        <v>53324288</v>
+      </c>
+      <c r="H1372">
+        <v>53324288</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1373" s="1">
+        <v>45943</v>
+      </c>
+      <c r="B1373">
+        <v>4737.23193359375</v>
+      </c>
+      <c r="C1373">
+        <v>4897.7890625</v>
+      </c>
+      <c r="D1373">
+        <v>4737.23193359375</v>
+      </c>
+      <c r="E1373">
+        <v>4874.0888671875</v>
+      </c>
+      <c r="F1373">
+        <f t="shared" si="10"/>
+        <v>4.8740888671875</v>
+      </c>
+      <c r="G1373">
+        <v>44674616</v>
+      </c>
+      <c r="H1373">
+        <v>44674616</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1374" s="1">
+        <v>45944</v>
+      </c>
+      <c r="B1374">
+        <v>4940.884765625</v>
+      </c>
+      <c r="C1374">
+        <v>4957.87890625</v>
+      </c>
+      <c r="D1374">
+        <v>4690.7109375</v>
+      </c>
+      <c r="E1374">
+        <v>4709.037109375</v>
+      </c>
+      <c r="F1374">
+        <f t="shared" si="10"/>
+        <v>4.7090371093750001</v>
+      </c>
+      <c r="G1374">
+        <v>48256984</v>
+      </c>
+      <c r="H1374">
+        <v>48256984</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1375" s="1">
+        <v>45945</v>
+      </c>
+      <c r="B1375">
+        <v>4717.7158203125</v>
+      </c>
+      <c r="C1375">
+        <v>4819.8427734375</v>
+      </c>
+      <c r="D1375">
+        <v>4665.4619140625</v>
+      </c>
+      <c r="E1375">
+        <v>4813.82177734375</v>
+      </c>
+      <c r="F1375">
+        <f t="shared" si="10"/>
+        <v>4.8138217773437502</v>
+      </c>
+      <c r="G1375">
+        <v>40501048</v>
+      </c>
+      <c r="H1375">
+        <v>40501048</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1376" s="1">
+        <v>45946</v>
+      </c>
+      <c r="B1376">
+        <v>4794.72119140625</v>
+      </c>
+      <c r="C1376">
+        <v>4890.39306640625</v>
+      </c>
+      <c r="D1376">
+        <v>4790</v>
+      </c>
+      <c r="E1376">
+        <v>4836.2998046875</v>
+      </c>
+      <c r="F1376">
+        <f t="shared" si="10"/>
+        <v>4.8362998046875001</v>
+      </c>
+      <c r="G1376">
+        <v>38361548</v>
+      </c>
+      <c r="H1376">
+        <v>38361548</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1377" s="1">
+        <v>45947</v>
+      </c>
+      <c r="B1377">
+        <v>4819.81982421875</v>
+      </c>
+      <c r="C1377">
+        <v>4829.83203125</v>
+      </c>
+      <c r="D1377">
+        <v>4667.11279296875</v>
+      </c>
+      <c r="E1377">
+        <v>4671.2998046875</v>
+      </c>
+      <c r="F1377">
+        <f t="shared" si="10"/>
+        <v>4.6712998046875001</v>
+      </c>
+      <c r="G1377">
+        <v>39866372</v>
+      </c>
+      <c r="H1377">
+        <v>39866372</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1378" s="1">
+        <v>45950</v>
+      </c>
+      <c r="B1378">
+        <v>4767.04296875</v>
+      </c>
+      <c r="C1378">
+        <v>4805.7109375</v>
+      </c>
+      <c r="D1378">
+        <v>4712.298828125</v>
+      </c>
+      <c r="E1378">
+        <v>4746.1669921875</v>
+      </c>
+      <c r="F1378">
+        <f t="shared" si="10"/>
+        <v>4.7461669921874998</v>
+      </c>
+      <c r="G1378">
+        <v>32841400</v>
+      </c>
+      <c r="H1378">
+        <v>32841400</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1379" s="1">
+        <v>45951</v>
+      </c>
+      <c r="B1379">
+        <v>4782.375</v>
+      </c>
+      <c r="C1379">
+        <v>4881.35595703125</v>
+      </c>
+      <c r="D1379">
+        <v>4757.7861328125</v>
+      </c>
+      <c r="E1379">
+        <v>4864.19189453125</v>
+      </c>
+      <c r="F1379">
+        <f t="shared" si="10"/>
+        <v>4.8641918945312499</v>
+      </c>
+      <c r="G1379">
+        <v>35758268</v>
+      </c>
+      <c r="H1379">
+        <v>35758268</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1380" s="1">
+        <v>45952</v>
+      </c>
+      <c r="B1380">
+        <v>4835.3388671875</v>
+      </c>
+      <c r="C1380">
+        <v>4863.18505859375</v>
+      </c>
+      <c r="D1380">
+        <v>4797.32421875</v>
+      </c>
+      <c r="E1380">
+        <v>4833.7939453125</v>
+      </c>
+      <c r="F1380">
+        <f t="shared" si="10"/>
+        <v>4.8337939453125003</v>
+      </c>
+      <c r="G1380">
+        <v>30429480</v>
+      </c>
+      <c r="H1380">
+        <v>30429480</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1381" s="1">
+        <v>45953</v>
+      </c>
+      <c r="B1381">
+        <v>4816.64501953125</v>
+      </c>
+      <c r="C1381">
+        <v>4844.0322265625</v>
+      </c>
+      <c r="D1381">
+        <v>4751.384765625</v>
+      </c>
+      <c r="E1381">
+        <v>4837.796875</v>
+      </c>
+      <c r="F1381">
+        <f t="shared" si="10"/>
+        <v>4.8377968750000004</v>
+      </c>
+      <c r="G1381">
+        <v>29397362</v>
+      </c>
+      <c r="H1381">
+        <v>29397362</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1382" s="1">
+        <v>45954</v>
+      </c>
+      <c r="B1382">
+        <v>4868.6279296875</v>
+      </c>
+      <c r="C1382">
+        <v>4977.2099609375</v>
+      </c>
+      <c r="D1382">
+        <v>4866.52197265625</v>
+      </c>
+      <c r="E1382">
+        <v>4977.2099609375</v>
+      </c>
+      <c r="F1382">
+        <f t="shared" si="10"/>
+        <v>4.9772099609374996</v>
+      </c>
+      <c r="G1382">
+        <v>37064152</v>
+      </c>
+      <c r="H1382">
+        <v>37064152</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1383" s="1">
+        <v>45957</v>
+      </c>
+      <c r="B1383">
+        <v>5048.97900390625</v>
+      </c>
+      <c r="C1383">
+        <v>5064.11279296875</v>
+      </c>
+      <c r="D1383">
+        <v>4975.7470703125</v>
+      </c>
+      <c r="E1383">
+        <v>5041.06494140625</v>
+      </c>
+      <c r="F1383">
+        <f t="shared" si="10"/>
+        <v>5.0410649414062503</v>
+      </c>
+      <c r="G1383">
+        <v>45646372</v>
+      </c>
+      <c r="H1383">
+        <v>45646372</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1384" s="1">
+        <v>45958</v>
+      </c>
+      <c r="B1384">
+        <v>5017.798828125</v>
+      </c>
+      <c r="C1384">
+        <v>5094.6220703125</v>
+      </c>
+      <c r="D1384">
+        <v>5012.76806640625</v>
+      </c>
+      <c r="E1384">
+        <v>5033.1318359375</v>
+      </c>
+      <c r="F1384">
+        <f t="shared" si="10"/>
+        <v>5.0331318359374997</v>
+      </c>
+      <c r="G1384">
+        <v>41444044</v>
+      </c>
+      <c r="H1384">
+        <v>41444044</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1385" s="1">
+        <v>45959</v>
+      </c>
+      <c r="B1385">
+        <v>5048.7001953125</v>
+      </c>
+      <c r="C1385">
+        <v>5152.705078125</v>
+      </c>
+      <c r="D1385">
+        <v>5046.51416015625</v>
+      </c>
+      <c r="E1385">
+        <v>5152.705078125</v>
+      </c>
+      <c r="F1385">
+        <f t="shared" si="10"/>
+        <v>5.1527050781249999</v>
+      </c>
+      <c r="G1385">
+        <v>49051392</v>
+      </c>
+      <c r="H1385">
+        <v>49051392</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1386" s="1">
+        <v>45960</v>
+      </c>
+      <c r="B1386">
+        <v>5152.55419921875</v>
+      </c>
+      <c r="C1386">
+        <v>5180.2998046875</v>
+      </c>
+      <c r="D1386">
+        <v>5086.8427734375</v>
+      </c>
+      <c r="E1386">
+        <v>5092.06689453125</v>
+      </c>
+      <c r="F1386">
+        <f t="shared" si="10"/>
+        <v>5.0920668945312499</v>
+      </c>
+      <c r="G1386">
+        <v>48992188</v>
+      </c>
+      <c r="H1386">
+        <v>48992188</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1387" s="1">
+        <v>45961</v>
+      </c>
+      <c r="B1387">
+        <v>5077.53515625</v>
+      </c>
+      <c r="C1387">
+        <v>5124.31298828125</v>
+      </c>
+      <c r="D1387">
+        <v>4991.87890625</v>
+      </c>
+      <c r="E1387">
+        <v>4993.341796875</v>
+      </c>
+      <c r="F1387">
+        <f t="shared" si="10"/>
+        <v>4.9933417968749998</v>
+      </c>
+      <c r="G1387">
+        <v>43544312</v>
+      </c>
+      <c r="H1387">
+        <v>43544312</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index.xlsx
+++ b/lai/valuationquan/szseinnovation100index.xlsx
@@ -400,10 +400,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H1387"/>
+  <dimension ref="A1:H1407"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1371" workbookViewId="0">
-      <selection activeCell="A1388" sqref="A1388"/>
+    <sheetView tabSelected="1" topLeftCell="A1388" workbookViewId="0">
+      <selection activeCell="A1408" sqref="A1408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -33126,7 +33126,7 @@
         <v>3806.216064453125</v>
       </c>
       <c r="F1213">
-        <f t="shared" ref="F1213:F1387" si="10">E1213/1000</f>
+        <f t="shared" ref="F1213:F1407" si="10">E1213/1000</f>
         <v>3.8062160644531251</v>
       </c>
       <c r="G1213">
@@ -37832,6 +37832,546 @@
       </c>
       <c r="H1387">
         <v>43544312</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1388" s="1">
+        <v>45964</v>
+      </c>
+      <c r="B1388">
+        <v>4987.55419921875</v>
+      </c>
+      <c r="C1388">
+        <v>5010.82080078125</v>
+      </c>
+      <c r="D1388">
+        <v>4884.3349609375</v>
+      </c>
+      <c r="E1388">
+        <v>4992.02099609375</v>
+      </c>
+      <c r="F1388">
+        <f t="shared" si="10"/>
+        <v>4.9920209960937498</v>
+      </c>
+      <c r="G1388">
+        <v>39378740</v>
+      </c>
+      <c r="H1388">
+        <v>39378740</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1389" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B1389">
+        <v>4984.81787109375</v>
+      </c>
+      <c r="C1389">
+        <v>5001.2548828125</v>
+      </c>
+      <c r="D1389">
+        <v>4868.26904296875</v>
+      </c>
+      <c r="E1389">
+        <v>4901.68701171875</v>
+      </c>
+      <c r="F1389">
+        <f t="shared" si="10"/>
+        <v>4.9016870117187503</v>
+      </c>
+      <c r="G1389">
+        <v>33417518</v>
+      </c>
+      <c r="H1389">
+        <v>33417518</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1390" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B1390">
+        <v>4811.81103515625</v>
+      </c>
+      <c r="C1390">
+        <v>4950.365234375</v>
+      </c>
+      <c r="D1390">
+        <v>4808.740234375</v>
+      </c>
+      <c r="E1390">
+        <v>4931.037109375</v>
+      </c>
+      <c r="F1390">
+        <f t="shared" si="10"/>
+        <v>4.9310371093749996</v>
+      </c>
+      <c r="G1390">
+        <v>32760990</v>
+      </c>
+      <c r="H1390">
+        <v>32760990</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1391" s="1">
+        <v>45967</v>
+      </c>
+      <c r="B1391">
+        <v>4961.98583984375</v>
+      </c>
+      <c r="C1391">
+        <v>5057.5927734375</v>
+      </c>
+      <c r="D1391">
+        <v>4961.98583984375</v>
+      </c>
+      <c r="E1391">
+        <v>5046.9501953125</v>
+      </c>
+      <c r="F1391">
+        <f t="shared" si="10"/>
+        <v>5.0469501953125002</v>
+      </c>
+      <c r="G1391">
+        <v>34599576</v>
+      </c>
+      <c r="H1391">
+        <v>34599576</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1392" s="1">
+        <v>45968</v>
+      </c>
+      <c r="B1392">
+        <v>5010.71484375</v>
+      </c>
+      <c r="C1392">
+        <v>5039.955078125</v>
+      </c>
+      <c r="D1392">
+        <v>4980.466796875</v>
+      </c>
+      <c r="E1392">
+        <v>5001.6748046875</v>
+      </c>
+      <c r="F1392">
+        <f t="shared" si="10"/>
+        <v>5.0016748046875001</v>
+      </c>
+      <c r="G1392">
+        <v>35919336</v>
+      </c>
+      <c r="H1392">
+        <v>35919336</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1393" s="1">
+        <v>45971</v>
+      </c>
+      <c r="B1393">
+        <v>5014.7451171875</v>
+      </c>
+      <c r="C1393">
+        <v>5040.33984375</v>
+      </c>
+      <c r="D1393">
+        <v>4917.7958984375</v>
+      </c>
+      <c r="E1393">
+        <v>4962.6318359375</v>
+      </c>
+      <c r="F1393">
+        <f t="shared" si="10"/>
+        <v>4.9626318359374997</v>
+      </c>
+      <c r="G1393">
+        <v>34475796</v>
+      </c>
+      <c r="H1393">
+        <v>34475796</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1394" s="1">
+        <v>45972</v>
+      </c>
+      <c r="B1394">
+        <v>4991.10986328125</v>
+      </c>
+      <c r="C1394">
+        <v>5007.39599609375</v>
+      </c>
+      <c r="D1394">
+        <v>4893.1201171875</v>
+      </c>
+      <c r="E1394">
+        <v>4900.1640625</v>
+      </c>
+      <c r="F1394">
+        <f t="shared" si="10"/>
+        <v>4.9001640625</v>
+      </c>
+      <c r="G1394">
+        <v>30814642</v>
+      </c>
+      <c r="H1394">
+        <v>30814642</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1395" s="1">
+        <v>45973</v>
+      </c>
+      <c r="B1395">
+        <v>4886.083984375</v>
+      </c>
+      <c r="C1395">
+        <v>4914.10791015625</v>
+      </c>
+      <c r="D1395">
+        <v>4842.19580078125</v>
+      </c>
+      <c r="E1395">
+        <v>4894.044921875</v>
+      </c>
+      <c r="F1395">
+        <f t="shared" si="10"/>
+        <v>4.8940449218750004</v>
+      </c>
+      <c r="G1395">
+        <v>30597662</v>
+      </c>
+      <c r="H1395">
+        <v>30597662</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1396" s="1">
+        <v>45974</v>
+      </c>
+      <c r="B1396">
+        <v>4884.6689453125</v>
+      </c>
+      <c r="C1396">
+        <v>5017.83984375</v>
+      </c>
+      <c r="D1396">
+        <v>4879.73486328125</v>
+      </c>
+      <c r="E1396">
+        <v>5003.81201171875</v>
+      </c>
+      <c r="F1396">
+        <f t="shared" si="10"/>
+        <v>5.0038120117187503</v>
+      </c>
+      <c r="G1396">
+        <v>33007272</v>
+      </c>
+      <c r="H1396">
+        <v>33007272</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1397" s="1">
+        <v>45975</v>
+      </c>
+      <c r="B1397">
+        <v>4934.5830078125</v>
+      </c>
+      <c r="C1397">
+        <v>4972.5419921875</v>
+      </c>
+      <c r="D1397">
+        <v>4895.12109375</v>
+      </c>
+      <c r="E1397">
+        <v>4895.12109375</v>
+      </c>
+      <c r="F1397">
+        <f t="shared" si="10"/>
+        <v>4.8951210937500003</v>
+      </c>
+      <c r="G1397">
+        <v>30193080</v>
+      </c>
+      <c r="H1397">
+        <v>30193080</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1398" s="1">
+        <v>45978</v>
+      </c>
+      <c r="B1398">
+        <v>4865.82421875</v>
+      </c>
+      <c r="C1398">
+        <v>4893.75</v>
+      </c>
+      <c r="D1398">
+        <v>4837.2109375</v>
+      </c>
+      <c r="E1398">
+        <v>4866.59716796875</v>
+      </c>
+      <c r="F1398">
+        <f t="shared" si="10"/>
+        <v>4.8665971679687496</v>
+      </c>
+      <c r="G1398">
+        <v>28285484</v>
+      </c>
+      <c r="H1398">
+        <v>28285484</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1399" s="1">
+        <v>45979</v>
+      </c>
+      <c r="B1399">
+        <v>4846.97119140625</v>
+      </c>
+      <c r="C1399">
+        <v>4884.06884765625</v>
+      </c>
+      <c r="D1399">
+        <v>4801.77392578125</v>
+      </c>
+      <c r="E1399">
+        <v>4827.10302734375</v>
+      </c>
+      <c r="F1399">
+        <f t="shared" si="10"/>
+        <v>4.8271030273437496</v>
+      </c>
+      <c r="G1399">
+        <v>25912456</v>
+      </c>
+      <c r="H1399">
+        <v>25912456</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1400" s="1">
+        <v>45980</v>
+      </c>
+      <c r="B1400">
+        <v>4821.0400390625</v>
+      </c>
+      <c r="C1400">
+        <v>4876.60009765625</v>
+      </c>
+      <c r="D1400">
+        <v>4806.01904296875</v>
+      </c>
+      <c r="E1400">
+        <v>4826.85107421875</v>
+      </c>
+      <c r="F1400">
+        <f t="shared" si="10"/>
+        <v>4.8268510742187498</v>
+      </c>
+      <c r="G1400">
+        <v>22483230</v>
+      </c>
+      <c r="H1400">
+        <v>22483230</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1401" s="1">
+        <v>45981</v>
+      </c>
+      <c r="B1401">
+        <v>4892.05517578125</v>
+      </c>
+      <c r="C1401">
+        <v>4898.72802734375</v>
+      </c>
+      <c r="D1401">
+        <v>4774.248046875</v>
+      </c>
+      <c r="E1401">
+        <v>4778.375</v>
+      </c>
+      <c r="F1401">
+        <f t="shared" si="10"/>
+        <v>4.7783749999999996</v>
+      </c>
+      <c r="G1401">
+        <v>22943142</v>
+      </c>
+      <c r="H1401">
+        <v>22943142</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1402" s="1">
+        <v>45982</v>
+      </c>
+      <c r="B1402">
+        <v>4696.005859375</v>
+      </c>
+      <c r="C1402">
+        <v>4725.240234375</v>
+      </c>
+      <c r="D1402">
+        <v>4637.837890625</v>
+      </c>
+      <c r="E1402">
+        <v>4638.52099609375</v>
+      </c>
+      <c r="F1402">
+        <f t="shared" si="10"/>
+        <v>4.6385209960937503</v>
+      </c>
+      <c r="G1402">
+        <v>30705084</v>
+      </c>
+      <c r="H1402">
+        <v>30705084</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1403" s="1">
+        <v>45985</v>
+      </c>
+      <c r="B1403">
+        <v>4669.9248046875</v>
+      </c>
+      <c r="C1403">
+        <v>4691.923828125</v>
+      </c>
+      <c r="D1403">
+        <v>4607.587890625</v>
+      </c>
+      <c r="E1403">
+        <v>4665.67822265625</v>
+      </c>
+      <c r="F1403">
+        <f t="shared" si="10"/>
+        <v>4.6656782226562497</v>
+      </c>
+      <c r="G1403">
+        <v>25292538</v>
+      </c>
+      <c r="H1403">
+        <v>25292538</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1404" s="1">
+        <v>45986</v>
+      </c>
+      <c r="B1404">
+        <v>4719.5361328125</v>
+      </c>
+      <c r="C1404">
+        <v>4797.4248046875</v>
+      </c>
+      <c r="D1404">
+        <v>4710.7578125</v>
+      </c>
+      <c r="E1404">
+        <v>4737.72998046875</v>
+      </c>
+      <c r="F1404">
+        <f t="shared" si="10"/>
+        <v>4.7377299804687496</v>
+      </c>
+      <c r="G1404">
+        <v>27790132</v>
+      </c>
+      <c r="H1404">
+        <v>27790132</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1405" s="1">
+        <v>45987</v>
+      </c>
+      <c r="B1405">
+        <v>4735.4970703125</v>
+      </c>
+      <c r="C1405">
+        <v>4856.7470703125</v>
+      </c>
+      <c r="D1405">
+        <v>4717.7939453125</v>
+      </c>
+      <c r="E1405">
+        <v>4819.90380859375</v>
+      </c>
+      <c r="F1405">
+        <f t="shared" si="10"/>
+        <v>4.8199038085937502</v>
+      </c>
+      <c r="G1405">
+        <v>26720808</v>
+      </c>
+      <c r="H1405">
+        <v>26720808</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1406" s="1">
+        <v>45988</v>
+      </c>
+      <c r="B1406">
+        <v>4826.5419921875</v>
+      </c>
+      <c r="C1406">
+        <v>4899.81591796875</v>
+      </c>
+      <c r="D1406">
+        <v>4787.10009765625</v>
+      </c>
+      <c r="E1406">
+        <v>4793.48388671875</v>
+      </c>
+      <c r="F1406">
+        <f t="shared" si="10"/>
+        <v>4.7934838867187501</v>
+      </c>
+      <c r="G1406">
+        <v>25596590</v>
+      </c>
+      <c r="H1406">
+        <v>25596590</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1407" s="1">
+        <v>45989</v>
+      </c>
+      <c r="B1407">
+        <v>4793.6982421875</v>
+      </c>
+      <c r="C1407">
+        <v>4834.63818359375</v>
+      </c>
+      <c r="D1407">
+        <v>4766.591796875</v>
+      </c>
+      <c r="E1407">
+        <v>4824.09521484375</v>
+      </c>
+      <c r="F1407">
+        <f t="shared" si="10"/>
+        <v>4.8240952148437497</v>
+      </c>
+      <c r="G1407">
+        <v>23683542</v>
+      </c>
+      <c r="H1407">
+        <v>23683542</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index.xlsx
+++ b/lai/valuationquan/szseinnovation100index.xlsx
@@ -400,10 +400,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H1407"/>
+  <dimension ref="A1:H1430"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1388" workbookViewId="0">
-      <selection activeCell="A1408" sqref="A1408"/>
+    <sheetView tabSelected="1" topLeftCell="A1408" workbookViewId="0">
+      <selection activeCell="A1431" sqref="A1431"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -33126,7 +33126,7 @@
         <v>3806.216064453125</v>
       </c>
       <c r="F1213">
-        <f t="shared" ref="F1213:F1407" si="10">E1213/1000</f>
+        <f t="shared" ref="F1213:F1430" si="10">E1213/1000</f>
         <v>3.8062160644531251</v>
       </c>
       <c r="G1213">
@@ -38372,6 +38372,627 @@
       </c>
       <c r="H1407">
         <v>23683542</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1408" s="1">
+        <v>45992</v>
+      </c>
+      <c r="B1408">
+        <v>4848.9072265625</v>
+      </c>
+      <c r="C1408">
+        <v>4913.5419921875</v>
+      </c>
+      <c r="D1408">
+        <v>4824.826171875</v>
+      </c>
+      <c r="E1408">
+        <v>4911.10791015625</v>
+      </c>
+      <c r="F1408">
+        <f t="shared" si="10"/>
+        <v>4.9111079101562503</v>
+      </c>
+      <c r="G1408">
+        <v>32946752</v>
+      </c>
+      <c r="H1408">
+        <v>32946752</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1409" s="1">
+        <v>45993</v>
+      </c>
+      <c r="B1409">
+        <v>4915.85595703125</v>
+      </c>
+      <c r="C1409">
+        <v>4921.43408203125</v>
+      </c>
+      <c r="D1409">
+        <v>4856.81494140625</v>
+      </c>
+      <c r="E1409">
+        <v>4880.14599609375</v>
+      </c>
+      <c r="F1409">
+        <f t="shared" si="10"/>
+        <v>4.8801459960937503</v>
+      </c>
+      <c r="G1409">
+        <v>30043870</v>
+      </c>
+      <c r="H1409">
+        <v>30043870</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1410" s="1">
+        <v>45994</v>
+      </c>
+      <c r="B1410">
+        <v>4883.8330078125</v>
+      </c>
+      <c r="C1410">
+        <v>4914.9091796875</v>
+      </c>
+      <c r="D1410">
+        <v>4818.15380859375</v>
+      </c>
+      <c r="E1410">
+        <v>4827.54296875</v>
+      </c>
+      <c r="F1410">
+        <f t="shared" si="10"/>
+        <v>4.8275429687500004</v>
+      </c>
+      <c r="G1410">
+        <v>26065536</v>
+      </c>
+      <c r="H1410">
+        <v>26065536</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1411" s="1">
+        <v>45995</v>
+      </c>
+      <c r="B1411">
+        <v>4831.0439453125</v>
+      </c>
+      <c r="C1411">
+        <v>4887.3818359375</v>
+      </c>
+      <c r="D1411">
+        <v>4805.97998046875</v>
+      </c>
+      <c r="E1411">
+        <v>4882.02783203125</v>
+      </c>
+      <c r="F1411">
+        <f t="shared" si="10"/>
+        <v>4.88202783203125</v>
+      </c>
+      <c r="G1411">
+        <v>25054480</v>
+      </c>
+      <c r="H1411">
+        <v>25054480</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1412" s="1">
+        <v>45996</v>
+      </c>
+      <c r="B1412">
+        <v>4892.87890625</v>
+      </c>
+      <c r="C1412">
+        <v>4943.54296875</v>
+      </c>
+      <c r="D1412">
+        <v>4850.64990234375</v>
+      </c>
+      <c r="E1412">
+        <v>4933.34716796875</v>
+      </c>
+      <c r="F1412">
+        <f t="shared" si="10"/>
+        <v>4.9333471679687504</v>
+      </c>
+      <c r="G1412">
+        <v>30470386</v>
+      </c>
+      <c r="H1412">
+        <v>30470386</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1413" s="1">
+        <v>45999</v>
+      </c>
+      <c r="B1413">
+        <v>4958.3681640625</v>
+      </c>
+      <c r="C1413">
+        <v>5044.166015625</v>
+      </c>
+      <c r="D1413">
+        <v>4942.35888671875</v>
+      </c>
+      <c r="E1413">
+        <v>5012.01806640625</v>
+      </c>
+      <c r="F1413">
+        <f t="shared" si="10"/>
+        <v>5.0120180664062497</v>
+      </c>
+      <c r="G1413">
+        <v>37587272</v>
+      </c>
+      <c r="H1413">
+        <v>37587272</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1414" s="1">
+        <v>46000</v>
+      </c>
+      <c r="B1414">
+        <v>4999.84814453125</v>
+      </c>
+      <c r="C1414">
+        <v>5053.2421875</v>
+      </c>
+      <c r="D1414">
+        <v>4986.9189453125</v>
+      </c>
+      <c r="E1414">
+        <v>5009.22998046875</v>
+      </c>
+      <c r="F1414">
+        <f t="shared" si="10"/>
+        <v>5.0092299804687501</v>
+      </c>
+      <c r="G1414">
+        <v>29069062</v>
+      </c>
+      <c r="H1414">
+        <v>29069062</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1415" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B1415">
+        <v>4997.06298828125</v>
+      </c>
+      <c r="C1415">
+        <v>5018.365234375</v>
+      </c>
+      <c r="D1415">
+        <v>4935.02099609375</v>
+      </c>
+      <c r="E1415">
+        <v>5006.32177734375</v>
+      </c>
+      <c r="F1415">
+        <f t="shared" si="10"/>
+        <v>5.0063217773437501</v>
+      </c>
+      <c r="G1415">
+        <v>25982732</v>
+      </c>
+      <c r="H1415">
+        <v>25982732</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1416" s="1">
+        <v>46002</v>
+      </c>
+      <c r="B1416">
+        <v>5015.77783203125</v>
+      </c>
+      <c r="C1416">
+        <v>5057.8818359375</v>
+      </c>
+      <c r="D1416">
+        <v>4942.89013671875</v>
+      </c>
+      <c r="E1416">
+        <v>4943.26513671875</v>
+      </c>
+      <c r="F1416">
+        <f t="shared" si="10"/>
+        <v>4.9432651367187503</v>
+      </c>
+      <c r="G1416">
+        <v>31394126</v>
+      </c>
+      <c r="H1416">
+        <v>31394126</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1417" s="1">
+        <v>46003</v>
+      </c>
+      <c r="B1417">
+        <v>4950.080078125</v>
+      </c>
+      <c r="C1417">
+        <v>4987.46923828125</v>
+      </c>
+      <c r="D1417">
+        <v>4898.10498046875</v>
+      </c>
+      <c r="E1417">
+        <v>4976.873046875</v>
+      </c>
+      <c r="F1417">
+        <f t="shared" si="10"/>
+        <v>4.9768730468750002</v>
+      </c>
+      <c r="G1417">
+        <v>35926640</v>
+      </c>
+      <c r="H1417">
+        <v>35926640</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1418" s="1">
+        <v>46006</v>
+      </c>
+      <c r="B1418">
+        <v>4943.51416015625</v>
+      </c>
+      <c r="C1418">
+        <v>4981.43505859375</v>
+      </c>
+      <c r="D1418">
+        <v>4921.2919921875</v>
+      </c>
+      <c r="E1418">
+        <v>4921.2919921875</v>
+      </c>
+      <c r="F1418">
+        <f t="shared" si="10"/>
+        <v>4.9212919921875002</v>
+      </c>
+      <c r="G1418">
+        <v>27921310</v>
+      </c>
+      <c r="H1418">
+        <v>27921310</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1419" s="1">
+        <v>46007</v>
+      </c>
+      <c r="B1419">
+        <v>4914.55419921875</v>
+      </c>
+      <c r="C1419">
+        <v>4928.294921875</v>
+      </c>
+      <c r="D1419">
+        <v>4810.919921875</v>
+      </c>
+      <c r="E1419">
+        <v>4833.27685546875</v>
+      </c>
+      <c r="F1419">
+        <f t="shared" si="10"/>
+        <v>4.8332768554687497</v>
+      </c>
+      <c r="G1419">
+        <v>27495238</v>
+      </c>
+      <c r="H1419">
+        <v>27495238</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1420" s="1">
+        <v>46008</v>
+      </c>
+      <c r="B1420">
+        <v>4833.34912109375</v>
+      </c>
+      <c r="C1420">
+        <v>4966.9072265625</v>
+      </c>
+      <c r="D1420">
+        <v>4833.34912109375</v>
+      </c>
+      <c r="E1420">
+        <v>4957.64599609375</v>
+      </c>
+      <c r="F1420">
+        <f t="shared" si="10"/>
+        <v>4.95764599609375</v>
+      </c>
+      <c r="G1420">
+        <v>31061598</v>
+      </c>
+      <c r="H1420">
+        <v>31061598</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1421" s="1">
+        <v>46009</v>
+      </c>
+      <c r="B1421">
+        <v>4911.3818359375</v>
+      </c>
+      <c r="C1421">
+        <v>4936.22021484375</v>
+      </c>
+      <c r="D1421">
+        <v>4877.2001953125</v>
+      </c>
+      <c r="E1421">
+        <v>4877.2001953125</v>
+      </c>
+      <c r="F1421">
+        <f t="shared" si="10"/>
+        <v>4.8772001953124997</v>
+      </c>
+      <c r="G1421">
+        <v>27395978</v>
+      </c>
+      <c r="H1421">
+        <v>27395978</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1422" s="1">
+        <v>46010</v>
+      </c>
+      <c r="B1422">
+        <v>4909.05078125</v>
+      </c>
+      <c r="C1422">
+        <v>4948.7119140625</v>
+      </c>
+      <c r="D1422">
+        <v>4893.51904296875</v>
+      </c>
+      <c r="E1422">
+        <v>4903.76708984375</v>
+      </c>
+      <c r="F1422">
+        <f t="shared" si="10"/>
+        <v>4.9037670898437504</v>
+      </c>
+      <c r="G1422">
+        <v>26667592</v>
+      </c>
+      <c r="H1422">
+        <v>26667592</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1423" s="1">
+        <v>46013</v>
+      </c>
+      <c r="B1423">
+        <v>4944.10009765625</v>
+      </c>
+      <c r="C1423">
+        <v>5000.7861328125</v>
+      </c>
+      <c r="D1423">
+        <v>4944.10009765625</v>
+      </c>
+      <c r="E1423">
+        <v>4993.751953125</v>
+      </c>
+      <c r="F1423">
+        <f t="shared" si="10"/>
+        <v>4.9937519531249999</v>
+      </c>
+      <c r="G1423">
+        <v>32271692</v>
+      </c>
+      <c r="H1423">
+        <v>32271692</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1424" s="1">
+        <v>46014</v>
+      </c>
+      <c r="B1424">
+        <v>5002.48681640625</v>
+      </c>
+      <c r="C1424">
+        <v>5052.02685546875</v>
+      </c>
+      <c r="D1424">
+        <v>4983.01806640625</v>
+      </c>
+      <c r="E1424">
+        <v>5024.48876953125</v>
+      </c>
+      <c r="F1424">
+        <f t="shared" si="10"/>
+        <v>5.0244887695312501</v>
+      </c>
+      <c r="G1424">
+        <v>34626488</v>
+      </c>
+      <c r="H1424">
+        <v>34626488</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1425" s="1">
+        <v>46015</v>
+      </c>
+      <c r="B1425">
+        <v>5024.4482421875</v>
+      </c>
+      <c r="C1425">
+        <v>5064.3828125</v>
+      </c>
+      <c r="D1425">
+        <v>5008.86083984375</v>
+      </c>
+      <c r="E1425">
+        <v>5059.91015625</v>
+      </c>
+      <c r="F1425">
+        <f t="shared" si="10"/>
+        <v>5.05991015625</v>
+      </c>
+      <c r="G1425">
+        <v>34319080</v>
+      </c>
+      <c r="H1425">
+        <v>34319080</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1426" s="1">
+        <v>46016</v>
+      </c>
+      <c r="B1426">
+        <v>5060.90380859375</v>
+      </c>
+      <c r="C1426">
+        <v>5095.60791015625</v>
+      </c>
+      <c r="D1426">
+        <v>5025.05322265625</v>
+      </c>
+      <c r="E1426">
+        <v>5084.43701171875</v>
+      </c>
+      <c r="F1426">
+        <f t="shared" si="10"/>
+        <v>5.0844370117187498</v>
+      </c>
+      <c r="G1426">
+        <v>36143828</v>
+      </c>
+      <c r="H1426">
+        <v>36143828</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1427" s="1">
+        <v>46017</v>
+      </c>
+      <c r="B1427">
+        <v>5075.02880859375</v>
+      </c>
+      <c r="C1427">
+        <v>5139.60400390625</v>
+      </c>
+      <c r="D1427">
+        <v>5064.14697265625</v>
+      </c>
+      <c r="E1427">
+        <v>5106.7490234375</v>
+      </c>
+      <c r="F1427">
+        <f t="shared" si="10"/>
+        <v>5.1067490234374997</v>
+      </c>
+      <c r="G1427">
+        <v>40405440</v>
+      </c>
+      <c r="H1427">
+        <v>40405440</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1428" s="1">
+        <v>46020</v>
+      </c>
+      <c r="B1428">
+        <v>5107.18798828125</v>
+      </c>
+      <c r="C1428">
+        <v>5110.158203125</v>
+      </c>
+      <c r="D1428">
+        <v>5045.1630859375</v>
+      </c>
+      <c r="E1428">
+        <v>5062.916015625</v>
+      </c>
+      <c r="F1428">
+        <f t="shared" si="10"/>
+        <v>5.0629160156250004</v>
+      </c>
+      <c r="G1428">
+        <v>35980468</v>
+      </c>
+      <c r="H1428">
+        <v>35980468</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1429" s="1">
+        <v>46021</v>
+      </c>
+      <c r="B1429">
+        <v>5040.5869140625</v>
+      </c>
+      <c r="C1429">
+        <v>5109.37890625</v>
+      </c>
+      <c r="D1429">
+        <v>5040.52294921875</v>
+      </c>
+      <c r="E1429">
+        <v>5101.658203125</v>
+      </c>
+      <c r="F1429">
+        <f t="shared" si="10"/>
+        <v>5.101658203125</v>
+      </c>
+      <c r="G1429">
+        <v>35402660</v>
+      </c>
+      <c r="H1429">
+        <v>35402660</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1430" s="1">
+        <v>46022</v>
+      </c>
+      <c r="B1430">
+        <v>5112.298828125</v>
+      </c>
+      <c r="C1430">
+        <v>5115.4541015625</v>
+      </c>
+      <c r="D1430">
+        <v>5041.5458984375</v>
+      </c>
+      <c r="E1430">
+        <v>5047.7412109375</v>
+      </c>
+      <c r="F1430">
+        <f t="shared" si="10"/>
+        <v>5.0477412109374997</v>
+      </c>
+      <c r="G1430">
+        <v>34387136</v>
+      </c>
+      <c r="H1430">
+        <v>34387136</v>
       </c>
     </row>
   </sheetData>
